--- a/howell9.xlsx
+++ b/howell9.xlsx
@@ -520,7 +520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Sep 04, 2025.</t>
+          <t>For public domain. No rights reserved. Generated on Sep 10, 2025.</t>
         </is>
       </c>
     </row>
@@ -695,12 +695,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH73</t>
+          <t>PH14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH57</t>
+          <t>PH86</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -714,12 +714,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH55</t>
+          <t>PH76</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH71</t>
+          <t>PH66</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH29</t>
+          <t>PH93</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PH35</t>
+          <t>PH99</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -752,12 +752,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>PH60</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>PH81</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PH44</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -771,12 +771,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PH17</t>
+          <t>PH41</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PH28</t>
+          <t>PH48</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -790,12 +790,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PH54</t>
+          <t>PH31</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PH65</t>
+          <t>PH79</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -809,12 +809,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PH95</t>
+          <t>PH91</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PH97</t>
+          <t>PH21</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -828,12 +828,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PH53</t>
+          <t>PH46</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PH21</t>
+          <t>PH98</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -847,12 +847,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PH45</t>
+          <t>PH95</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PH60</t>
+          <t>PH70</t>
         </is>
       </c>
       <c r="D10" s="4">

--- a/howell9.xlsx
+++ b/howell9.xlsx
@@ -536,7 +536,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Jan 14, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Jan 18, 2026.</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH46</t>
+          <t>PH25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH44</t>
+          <t>PH85</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -730,12 +730,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH51</t>
+          <t>PH72</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH95</t>
+          <t>PH69</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -749,7 +749,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH30</t>
+          <t>PH22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH17</t>
+          <t>PH41</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PH98</t>
+          <t>PH27</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -787,12 +787,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PH61</t>
+          <t>PH97</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PH73</t>
+          <t>PH24</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -806,12 +806,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PH45</t>
+          <t>PH62</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PH56</t>
+          <t>PH80</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -825,12 +825,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PH31</t>
+          <t>PH56</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PH40</t>
+          <t>PH49</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -844,12 +844,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PH43</t>
+          <t>PH27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PH63</t>
+          <t>PH70</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -863,12 +863,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PH93</t>
+          <t>PH46</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PH30</t>
+          <t>PH79</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -1497,23 +1497,23 @@
         </is>
       </c>
       <c r="G8">
-        <f>'By Round'!G3</f>
+        <f>'By Round'!G2</f>
         <v/>
       </c>
       <c r="H8">
-        <f>'By Round'!H3</f>
+        <f>'By Round'!H2</f>
         <v/>
       </c>
       <c r="I8">
-        <f>'By Round'!I3</f>
+        <f>'By Round'!I2</f>
         <v/>
       </c>
       <c r="J8">
-        <f>'By Round'!J3</f>
+        <f>'By Round'!J2</f>
         <v/>
       </c>
       <c r="K8">
-        <f>'By Round'!K3</f>
+        <f>'By Round'!K2</f>
         <v/>
       </c>
       <c r="L8" s="11">
@@ -1588,23 +1588,23 @@
         </is>
       </c>
       <c r="G9">
-        <f>'By Round'!G21</f>
+        <f>'By Round'!G20</f>
         <v/>
       </c>
       <c r="H9">
-        <f>'By Round'!H21</f>
+        <f>'By Round'!H20</f>
         <v/>
       </c>
       <c r="I9">
-        <f>'By Round'!I21</f>
+        <f>'By Round'!I20</f>
         <v/>
       </c>
       <c r="J9">
-        <f>'By Round'!J21</f>
+        <f>'By Round'!J20</f>
         <v/>
       </c>
       <c r="K9">
-        <f>'By Round'!K21</f>
+        <f>'By Round'!K20</f>
         <v/>
       </c>
       <c r="L9" s="11">
@@ -1679,23 +1679,23 @@
         </is>
       </c>
       <c r="G10">
-        <f>'By Round'!G29</f>
+        <f>'By Round'!G28</f>
         <v/>
       </c>
       <c r="H10">
-        <f>'By Round'!H29</f>
+        <f>'By Round'!H28</f>
         <v/>
       </c>
       <c r="I10">
-        <f>'By Round'!I29</f>
+        <f>'By Round'!I28</f>
         <v/>
       </c>
       <c r="J10">
-        <f>'By Round'!J29</f>
+        <f>'By Round'!J28</f>
         <v/>
       </c>
       <c r="K10">
-        <f>'By Round'!K29</f>
+        <f>'By Round'!K28</f>
         <v/>
       </c>
       <c r="L10" s="11">
@@ -1770,23 +1770,23 @@
         </is>
       </c>
       <c r="G11">
-        <f>'By Round'!G77</f>
+        <f>'By Round'!G76</f>
         <v/>
       </c>
       <c r="H11">
-        <f>'By Round'!H77</f>
+        <f>'By Round'!H76</f>
         <v/>
       </c>
       <c r="I11">
-        <f>'By Round'!I77</f>
+        <f>'By Round'!I76</f>
         <v/>
       </c>
       <c r="J11">
-        <f>'By Round'!J77</f>
+        <f>'By Round'!J76</f>
         <v/>
       </c>
       <c r="K11">
-        <f>'By Round'!K77</f>
+        <f>'By Round'!K76</f>
         <v/>
       </c>
       <c r="L11" s="11">
@@ -1861,23 +1861,23 @@
         </is>
       </c>
       <c r="G12">
-        <f>'By Round'!G85</f>
+        <f>'By Round'!G84</f>
         <v/>
       </c>
       <c r="H12">
-        <f>'By Round'!H85</f>
+        <f>'By Round'!H84</f>
         <v/>
       </c>
       <c r="I12">
-        <f>'By Round'!I85</f>
+        <f>'By Round'!I84</f>
         <v/>
       </c>
       <c r="J12">
-        <f>'By Round'!J85</f>
+        <f>'By Round'!J84</f>
         <v/>
       </c>
       <c r="K12">
-        <f>'By Round'!K85</f>
+        <f>'By Round'!K84</f>
         <v/>
       </c>
       <c r="L12" s="11">
@@ -2413,23 +2413,23 @@
         </is>
       </c>
       <c r="G18">
-        <f>'By Round'!G5</f>
+        <f>'By Round'!G4</f>
         <v/>
       </c>
       <c r="H18">
-        <f>'By Round'!H5</f>
+        <f>'By Round'!H4</f>
         <v/>
       </c>
       <c r="I18">
-        <f>'By Round'!I5</f>
+        <f>'By Round'!I4</f>
         <v/>
       </c>
       <c r="J18">
-        <f>'By Round'!J5</f>
+        <f>'By Round'!J4</f>
         <v/>
       </c>
       <c r="K18">
-        <f>'By Round'!K5</f>
+        <f>'By Round'!K4</f>
         <v/>
       </c>
       <c r="L18" s="11">
@@ -2504,23 +2504,23 @@
         </is>
       </c>
       <c r="G19">
-        <f>'By Round'!G13</f>
+        <f>'By Round'!G12</f>
         <v/>
       </c>
       <c r="H19">
-        <f>'By Round'!H13</f>
+        <f>'By Round'!H12</f>
         <v/>
       </c>
       <c r="I19">
-        <f>'By Round'!I13</f>
+        <f>'By Round'!I12</f>
         <v/>
       </c>
       <c r="J19">
-        <f>'By Round'!J13</f>
+        <f>'By Round'!J12</f>
         <v/>
       </c>
       <c r="K19">
-        <f>'By Round'!K13</f>
+        <f>'By Round'!K12</f>
         <v/>
       </c>
       <c r="L19" s="11">
@@ -2595,23 +2595,23 @@
         </is>
       </c>
       <c r="G20">
-        <f>'By Round'!G31</f>
+        <f>'By Round'!G30</f>
         <v/>
       </c>
       <c r="H20">
-        <f>'By Round'!H31</f>
+        <f>'By Round'!H30</f>
         <v/>
       </c>
       <c r="I20">
-        <f>'By Round'!I31</f>
+        <f>'By Round'!I30</f>
         <v/>
       </c>
       <c r="J20">
-        <f>'By Round'!J31</f>
+        <f>'By Round'!J30</f>
         <v/>
       </c>
       <c r="K20">
-        <f>'By Round'!K31</f>
+        <f>'By Round'!K30</f>
         <v/>
       </c>
       <c r="L20" s="11">
@@ -2686,23 +2686,23 @@
         </is>
       </c>
       <c r="G21">
-        <f>'By Round'!G39</f>
+        <f>'By Round'!G38</f>
         <v/>
       </c>
       <c r="H21">
-        <f>'By Round'!H39</f>
+        <f>'By Round'!H38</f>
         <v/>
       </c>
       <c r="I21">
-        <f>'By Round'!I39</f>
+        <f>'By Round'!I38</f>
         <v/>
       </c>
       <c r="J21">
-        <f>'By Round'!J39</f>
+        <f>'By Round'!J38</f>
         <v/>
       </c>
       <c r="K21">
-        <f>'By Round'!K39</f>
+        <f>'By Round'!K38</f>
         <v/>
       </c>
       <c r="L21" s="11">
@@ -2777,23 +2777,23 @@
         </is>
       </c>
       <c r="G22">
-        <f>'By Round'!G87</f>
+        <f>'By Round'!G86</f>
         <v/>
       </c>
       <c r="H22">
-        <f>'By Round'!H87</f>
+        <f>'By Round'!H86</f>
         <v/>
       </c>
       <c r="I22">
-        <f>'By Round'!I87</f>
+        <f>'By Round'!I86</f>
         <v/>
       </c>
       <c r="J22">
-        <f>'By Round'!J87</f>
+        <f>'By Round'!J86</f>
         <v/>
       </c>
       <c r="K22">
-        <f>'By Round'!K87</f>
+        <f>'By Round'!K86</f>
         <v/>
       </c>
       <c r="L22" s="11">
@@ -3329,23 +3329,23 @@
         </is>
       </c>
       <c r="G28">
-        <f>'By Round'!G7</f>
+        <f>'By Round'!G6</f>
         <v/>
       </c>
       <c r="H28">
-        <f>'By Round'!H7</f>
+        <f>'By Round'!H6</f>
         <v/>
       </c>
       <c r="I28">
-        <f>'By Round'!I7</f>
+        <f>'By Round'!I6</f>
         <v/>
       </c>
       <c r="J28">
-        <f>'By Round'!J7</f>
+        <f>'By Round'!J6</f>
         <v/>
       </c>
       <c r="K28">
-        <f>'By Round'!K7</f>
+        <f>'By Round'!K6</f>
         <v/>
       </c>
       <c r="L28" s="11">
@@ -3420,23 +3420,23 @@
         </is>
       </c>
       <c r="G29">
-        <f>'By Round'!G15</f>
+        <f>'By Round'!G14</f>
         <v/>
       </c>
       <c r="H29">
-        <f>'By Round'!H15</f>
+        <f>'By Round'!H14</f>
         <v/>
       </c>
       <c r="I29">
-        <f>'By Round'!I15</f>
+        <f>'By Round'!I14</f>
         <v/>
       </c>
       <c r="J29">
-        <f>'By Round'!J15</f>
+        <f>'By Round'!J14</f>
         <v/>
       </c>
       <c r="K29">
-        <f>'By Round'!K15</f>
+        <f>'By Round'!K14</f>
         <v/>
       </c>
       <c r="L29" s="11">
@@ -3511,23 +3511,23 @@
         </is>
       </c>
       <c r="G30">
-        <f>'By Round'!G23</f>
+        <f>'By Round'!G22</f>
         <v/>
       </c>
       <c r="H30">
-        <f>'By Round'!H23</f>
+        <f>'By Round'!H22</f>
         <v/>
       </c>
       <c r="I30">
-        <f>'By Round'!I23</f>
+        <f>'By Round'!I22</f>
         <v/>
       </c>
       <c r="J30">
-        <f>'By Round'!J23</f>
+        <f>'By Round'!J22</f>
         <v/>
       </c>
       <c r="K30">
-        <f>'By Round'!K23</f>
+        <f>'By Round'!K22</f>
         <v/>
       </c>
       <c r="L30" s="11">
@@ -3602,23 +3602,23 @@
         </is>
       </c>
       <c r="G31">
-        <f>'By Round'!G41</f>
+        <f>'By Round'!G40</f>
         <v/>
       </c>
       <c r="H31">
-        <f>'By Round'!H41</f>
+        <f>'By Round'!H40</f>
         <v/>
       </c>
       <c r="I31">
-        <f>'By Round'!I41</f>
+        <f>'By Round'!I40</f>
         <v/>
       </c>
       <c r="J31">
-        <f>'By Round'!J41</f>
+        <f>'By Round'!J40</f>
         <v/>
       </c>
       <c r="K31">
-        <f>'By Round'!K41</f>
+        <f>'By Round'!K40</f>
         <v/>
       </c>
       <c r="L31" s="11">
@@ -3693,23 +3693,23 @@
         </is>
       </c>
       <c r="G32">
-        <f>'By Round'!G49</f>
+        <f>'By Round'!G48</f>
         <v/>
       </c>
       <c r="H32">
-        <f>'By Round'!H49</f>
+        <f>'By Round'!H48</f>
         <v/>
       </c>
       <c r="I32">
-        <f>'By Round'!I49</f>
+        <f>'By Round'!I48</f>
         <v/>
       </c>
       <c r="J32">
-        <f>'By Round'!J49</f>
+        <f>'By Round'!J48</f>
         <v/>
       </c>
       <c r="K32">
-        <f>'By Round'!K49</f>
+        <f>'By Round'!K48</f>
         <v/>
       </c>
       <c r="L32" s="11">
@@ -4245,23 +4245,23 @@
         </is>
       </c>
       <c r="G38">
-        <f>'By Round'!G17</f>
+        <f>'By Round'!G16</f>
         <v/>
       </c>
       <c r="H38">
-        <f>'By Round'!H17</f>
+        <f>'By Round'!H16</f>
         <v/>
       </c>
       <c r="I38">
-        <f>'By Round'!I17</f>
+        <f>'By Round'!I16</f>
         <v/>
       </c>
       <c r="J38">
-        <f>'By Round'!J17</f>
+        <f>'By Round'!J16</f>
         <v/>
       </c>
       <c r="K38">
-        <f>'By Round'!K17</f>
+        <f>'By Round'!K16</f>
         <v/>
       </c>
       <c r="L38" s="11">
@@ -4336,23 +4336,23 @@
         </is>
       </c>
       <c r="G39">
-        <f>'By Round'!G25</f>
+        <f>'By Round'!G24</f>
         <v/>
       </c>
       <c r="H39">
-        <f>'By Round'!H25</f>
+        <f>'By Round'!H24</f>
         <v/>
       </c>
       <c r="I39">
-        <f>'By Round'!I25</f>
+        <f>'By Round'!I24</f>
         <v/>
       </c>
       <c r="J39">
-        <f>'By Round'!J25</f>
+        <f>'By Round'!J24</f>
         <v/>
       </c>
       <c r="K39">
-        <f>'By Round'!K25</f>
+        <f>'By Round'!K24</f>
         <v/>
       </c>
       <c r="L39" s="11">
@@ -4427,23 +4427,23 @@
         </is>
       </c>
       <c r="G40">
-        <f>'By Round'!G33</f>
+        <f>'By Round'!G32</f>
         <v/>
       </c>
       <c r="H40">
-        <f>'By Round'!H33</f>
+        <f>'By Round'!H32</f>
         <v/>
       </c>
       <c r="I40">
-        <f>'By Round'!I33</f>
+        <f>'By Round'!I32</f>
         <v/>
       </c>
       <c r="J40">
-        <f>'By Round'!J33</f>
+        <f>'By Round'!J32</f>
         <v/>
       </c>
       <c r="K40">
-        <f>'By Round'!K33</f>
+        <f>'By Round'!K32</f>
         <v/>
       </c>
       <c r="L40" s="11">
@@ -4518,23 +4518,23 @@
         </is>
       </c>
       <c r="G41">
-        <f>'By Round'!G51</f>
+        <f>'By Round'!G50</f>
         <v/>
       </c>
       <c r="H41">
-        <f>'By Round'!H51</f>
+        <f>'By Round'!H50</f>
         <v/>
       </c>
       <c r="I41">
-        <f>'By Round'!I51</f>
+        <f>'By Round'!I50</f>
         <v/>
       </c>
       <c r="J41">
-        <f>'By Round'!J51</f>
+        <f>'By Round'!J50</f>
         <v/>
       </c>
       <c r="K41">
-        <f>'By Round'!K51</f>
+        <f>'By Round'!K50</f>
         <v/>
       </c>
       <c r="L41" s="11">
@@ -4609,23 +4609,23 @@
         </is>
       </c>
       <c r="G42">
-        <f>'By Round'!G59</f>
+        <f>'By Round'!G58</f>
         <v/>
       </c>
       <c r="H42">
-        <f>'By Round'!H59</f>
+        <f>'By Round'!H58</f>
         <v/>
       </c>
       <c r="I42">
-        <f>'By Round'!I59</f>
+        <f>'By Round'!I58</f>
         <v/>
       </c>
       <c r="J42">
-        <f>'By Round'!J59</f>
+        <f>'By Round'!J58</f>
         <v/>
       </c>
       <c r="K42">
-        <f>'By Round'!K59</f>
+        <f>'By Round'!K58</f>
         <v/>
       </c>
       <c r="L42" s="11">
@@ -5161,23 +5161,23 @@
         </is>
       </c>
       <c r="G48">
-        <f>'By Round'!G27</f>
+        <f>'By Round'!G26</f>
         <v/>
       </c>
       <c r="H48">
-        <f>'By Round'!H27</f>
+        <f>'By Round'!H26</f>
         <v/>
       </c>
       <c r="I48">
-        <f>'By Round'!I27</f>
+        <f>'By Round'!I26</f>
         <v/>
       </c>
       <c r="J48">
-        <f>'By Round'!J27</f>
+        <f>'By Round'!J26</f>
         <v/>
       </c>
       <c r="K48">
-        <f>'By Round'!K27</f>
+        <f>'By Round'!K26</f>
         <v/>
       </c>
       <c r="L48" s="11">
@@ -5252,23 +5252,23 @@
         </is>
       </c>
       <c r="G49">
-        <f>'By Round'!G35</f>
+        <f>'By Round'!G34</f>
         <v/>
       </c>
       <c r="H49">
-        <f>'By Round'!H35</f>
+        <f>'By Round'!H34</f>
         <v/>
       </c>
       <c r="I49">
-        <f>'By Round'!I35</f>
+        <f>'By Round'!I34</f>
         <v/>
       </c>
       <c r="J49">
-        <f>'By Round'!J35</f>
+        <f>'By Round'!J34</f>
         <v/>
       </c>
       <c r="K49">
-        <f>'By Round'!K35</f>
+        <f>'By Round'!K34</f>
         <v/>
       </c>
       <c r="L49" s="11">
@@ -5343,23 +5343,23 @@
         </is>
       </c>
       <c r="G50">
-        <f>'By Round'!G43</f>
+        <f>'By Round'!G42</f>
         <v/>
       </c>
       <c r="H50">
-        <f>'By Round'!H43</f>
+        <f>'By Round'!H42</f>
         <v/>
       </c>
       <c r="I50">
-        <f>'By Round'!I43</f>
+        <f>'By Round'!I42</f>
         <v/>
       </c>
       <c r="J50">
-        <f>'By Round'!J43</f>
+        <f>'By Round'!J42</f>
         <v/>
       </c>
       <c r="K50">
-        <f>'By Round'!K43</f>
+        <f>'By Round'!K42</f>
         <v/>
       </c>
       <c r="L50" s="11">
@@ -5434,23 +5434,23 @@
         </is>
       </c>
       <c r="G51">
-        <f>'By Round'!G61</f>
+        <f>'By Round'!G60</f>
         <v/>
       </c>
       <c r="H51">
-        <f>'By Round'!H61</f>
+        <f>'By Round'!H60</f>
         <v/>
       </c>
       <c r="I51">
-        <f>'By Round'!I61</f>
+        <f>'By Round'!I60</f>
         <v/>
       </c>
       <c r="J51">
-        <f>'By Round'!J61</f>
+        <f>'By Round'!J60</f>
         <v/>
       </c>
       <c r="K51">
-        <f>'By Round'!K61</f>
+        <f>'By Round'!K60</f>
         <v/>
       </c>
       <c r="L51" s="11">
@@ -5525,23 +5525,23 @@
         </is>
       </c>
       <c r="G52">
-        <f>'By Round'!G69</f>
+        <f>'By Round'!G68</f>
         <v/>
       </c>
       <c r="H52">
-        <f>'By Round'!H69</f>
+        <f>'By Round'!H68</f>
         <v/>
       </c>
       <c r="I52">
-        <f>'By Round'!I69</f>
+        <f>'By Round'!I68</f>
         <v/>
       </c>
       <c r="J52">
-        <f>'By Round'!J69</f>
+        <f>'By Round'!J68</f>
         <v/>
       </c>
       <c r="K52">
-        <f>'By Round'!K69</f>
+        <f>'By Round'!K68</f>
         <v/>
       </c>
       <c r="L52" s="11">
@@ -6077,23 +6077,23 @@
         </is>
       </c>
       <c r="G58">
-        <f>'By Round'!G37</f>
+        <f>'By Round'!G36</f>
         <v/>
       </c>
       <c r="H58">
-        <f>'By Round'!H37</f>
+        <f>'By Round'!H36</f>
         <v/>
       </c>
       <c r="I58">
-        <f>'By Round'!I37</f>
+        <f>'By Round'!I36</f>
         <v/>
       </c>
       <c r="J58">
-        <f>'By Round'!J37</f>
+        <f>'By Round'!J36</f>
         <v/>
       </c>
       <c r="K58">
-        <f>'By Round'!K37</f>
+        <f>'By Round'!K36</f>
         <v/>
       </c>
       <c r="L58" s="11">
@@ -6168,23 +6168,23 @@
         </is>
       </c>
       <c r="G59">
-        <f>'By Round'!G45</f>
+        <f>'By Round'!G44</f>
         <v/>
       </c>
       <c r="H59">
-        <f>'By Round'!H45</f>
+        <f>'By Round'!H44</f>
         <v/>
       </c>
       <c r="I59">
-        <f>'By Round'!I45</f>
+        <f>'By Round'!I44</f>
         <v/>
       </c>
       <c r="J59">
-        <f>'By Round'!J45</f>
+        <f>'By Round'!J44</f>
         <v/>
       </c>
       <c r="K59">
-        <f>'By Round'!K45</f>
+        <f>'By Round'!K44</f>
         <v/>
       </c>
       <c r="L59" s="11">
@@ -6259,23 +6259,23 @@
         </is>
       </c>
       <c r="G60">
-        <f>'By Round'!G53</f>
+        <f>'By Round'!G52</f>
         <v/>
       </c>
       <c r="H60">
-        <f>'By Round'!H53</f>
+        <f>'By Round'!H52</f>
         <v/>
       </c>
       <c r="I60">
-        <f>'By Round'!I53</f>
+        <f>'By Round'!I52</f>
         <v/>
       </c>
       <c r="J60">
-        <f>'By Round'!J53</f>
+        <f>'By Round'!J52</f>
         <v/>
       </c>
       <c r="K60">
-        <f>'By Round'!K53</f>
+        <f>'By Round'!K52</f>
         <v/>
       </c>
       <c r="L60" s="11">
@@ -6350,23 +6350,23 @@
         </is>
       </c>
       <c r="G61">
-        <f>'By Round'!G71</f>
+        <f>'By Round'!G70</f>
         <v/>
       </c>
       <c r="H61">
-        <f>'By Round'!H71</f>
+        <f>'By Round'!H70</f>
         <v/>
       </c>
       <c r="I61">
-        <f>'By Round'!I71</f>
+        <f>'By Round'!I70</f>
         <v/>
       </c>
       <c r="J61">
-        <f>'By Round'!J71</f>
+        <f>'By Round'!J70</f>
         <v/>
       </c>
       <c r="K61">
-        <f>'By Round'!K71</f>
+        <f>'By Round'!K70</f>
         <v/>
       </c>
       <c r="L61" s="11">
@@ -6441,23 +6441,23 @@
         </is>
       </c>
       <c r="G62">
-        <f>'By Round'!G79</f>
+        <f>'By Round'!G78</f>
         <v/>
       </c>
       <c r="H62">
-        <f>'By Round'!H79</f>
+        <f>'By Round'!H78</f>
         <v/>
       </c>
       <c r="I62">
-        <f>'By Round'!I79</f>
+        <f>'By Round'!I78</f>
         <v/>
       </c>
       <c r="J62">
-        <f>'By Round'!J79</f>
+        <f>'By Round'!J78</f>
         <v/>
       </c>
       <c r="K62">
-        <f>'By Round'!K79</f>
+        <f>'By Round'!K78</f>
         <v/>
       </c>
       <c r="L62" s="11">
@@ -6993,23 +6993,23 @@
         </is>
       </c>
       <c r="G68">
-        <f>'By Round'!G47</f>
+        <f>'By Round'!G46</f>
         <v/>
       </c>
       <c r="H68">
-        <f>'By Round'!H47</f>
+        <f>'By Round'!H46</f>
         <v/>
       </c>
       <c r="I68">
-        <f>'By Round'!I47</f>
+        <f>'By Round'!I46</f>
         <v/>
       </c>
       <c r="J68">
-        <f>'By Round'!J47</f>
+        <f>'By Round'!J46</f>
         <v/>
       </c>
       <c r="K68">
-        <f>'By Round'!K47</f>
+        <f>'By Round'!K46</f>
         <v/>
       </c>
       <c r="L68" s="11">
@@ -7084,23 +7084,23 @@
         </is>
       </c>
       <c r="G69">
-        <f>'By Round'!G55</f>
+        <f>'By Round'!G54</f>
         <v/>
       </c>
       <c r="H69">
-        <f>'By Round'!H55</f>
+        <f>'By Round'!H54</f>
         <v/>
       </c>
       <c r="I69">
-        <f>'By Round'!I55</f>
+        <f>'By Round'!I54</f>
         <v/>
       </c>
       <c r="J69">
-        <f>'By Round'!J55</f>
+        <f>'By Round'!J54</f>
         <v/>
       </c>
       <c r="K69">
-        <f>'By Round'!K55</f>
+        <f>'By Round'!K54</f>
         <v/>
       </c>
       <c r="L69" s="11">
@@ -7175,23 +7175,23 @@
         </is>
       </c>
       <c r="G70">
-        <f>'By Round'!G63</f>
+        <f>'By Round'!G62</f>
         <v/>
       </c>
       <c r="H70">
-        <f>'By Round'!H63</f>
+        <f>'By Round'!H62</f>
         <v/>
       </c>
       <c r="I70">
-        <f>'By Round'!I63</f>
+        <f>'By Round'!I62</f>
         <v/>
       </c>
       <c r="J70">
-        <f>'By Round'!J63</f>
+        <f>'By Round'!J62</f>
         <v/>
       </c>
       <c r="K70">
-        <f>'By Round'!K63</f>
+        <f>'By Round'!K62</f>
         <v/>
       </c>
       <c r="L70" s="11">
@@ -7266,23 +7266,23 @@
         </is>
       </c>
       <c r="G71">
-        <f>'By Round'!G81</f>
+        <f>'By Round'!G80</f>
         <v/>
       </c>
       <c r="H71">
-        <f>'By Round'!H81</f>
+        <f>'By Round'!H80</f>
         <v/>
       </c>
       <c r="I71">
-        <f>'By Round'!I81</f>
+        <f>'By Round'!I80</f>
         <v/>
       </c>
       <c r="J71">
-        <f>'By Round'!J81</f>
+        <f>'By Round'!J80</f>
         <v/>
       </c>
       <c r="K71">
-        <f>'By Round'!K81</f>
+        <f>'By Round'!K80</f>
         <v/>
       </c>
       <c r="L71" s="11">
@@ -7357,23 +7357,23 @@
         </is>
       </c>
       <c r="G72">
-        <f>'By Round'!G89</f>
+        <f>'By Round'!G88</f>
         <v/>
       </c>
       <c r="H72">
-        <f>'By Round'!H89</f>
+        <f>'By Round'!H88</f>
         <v/>
       </c>
       <c r="I72">
-        <f>'By Round'!I89</f>
+        <f>'By Round'!I88</f>
         <v/>
       </c>
       <c r="J72">
-        <f>'By Round'!J89</f>
+        <f>'By Round'!J88</f>
         <v/>
       </c>
       <c r="K72">
-        <f>'By Round'!K89</f>
+        <f>'By Round'!K88</f>
         <v/>
       </c>
       <c r="L72" s="11">
@@ -7909,23 +7909,23 @@
         </is>
       </c>
       <c r="G78">
-        <f>'By Round'!G9</f>
+        <f>'By Round'!G8</f>
         <v/>
       </c>
       <c r="H78">
-        <f>'By Round'!H9</f>
+        <f>'By Round'!H8</f>
         <v/>
       </c>
       <c r="I78">
-        <f>'By Round'!I9</f>
+        <f>'By Round'!I8</f>
         <v/>
       </c>
       <c r="J78">
-        <f>'By Round'!J9</f>
+        <f>'By Round'!J8</f>
         <v/>
       </c>
       <c r="K78">
-        <f>'By Round'!K9</f>
+        <f>'By Round'!K8</f>
         <v/>
       </c>
       <c r="L78" s="11">
@@ -8000,23 +8000,23 @@
         </is>
       </c>
       <c r="G79">
-        <f>'By Round'!G57</f>
+        <f>'By Round'!G56</f>
         <v/>
       </c>
       <c r="H79">
-        <f>'By Round'!H57</f>
+        <f>'By Round'!H56</f>
         <v/>
       </c>
       <c r="I79">
-        <f>'By Round'!I57</f>
+        <f>'By Round'!I56</f>
         <v/>
       </c>
       <c r="J79">
-        <f>'By Round'!J57</f>
+        <f>'By Round'!J56</f>
         <v/>
       </c>
       <c r="K79">
-        <f>'By Round'!K57</f>
+        <f>'By Round'!K56</f>
         <v/>
       </c>
       <c r="L79" s="11">
@@ -8091,23 +8091,23 @@
         </is>
       </c>
       <c r="G80">
-        <f>'By Round'!G65</f>
+        <f>'By Round'!G64</f>
         <v/>
       </c>
       <c r="H80">
-        <f>'By Round'!H65</f>
+        <f>'By Round'!H64</f>
         <v/>
       </c>
       <c r="I80">
-        <f>'By Round'!I65</f>
+        <f>'By Round'!I64</f>
         <v/>
       </c>
       <c r="J80">
-        <f>'By Round'!J65</f>
+        <f>'By Round'!J64</f>
         <v/>
       </c>
       <c r="K80">
-        <f>'By Round'!K65</f>
+        <f>'By Round'!K64</f>
         <v/>
       </c>
       <c r="L80" s="11">
@@ -8182,23 +8182,23 @@
         </is>
       </c>
       <c r="G81">
-        <f>'By Round'!G73</f>
+        <f>'By Round'!G72</f>
         <v/>
       </c>
       <c r="H81">
-        <f>'By Round'!H73</f>
+        <f>'By Round'!H72</f>
         <v/>
       </c>
       <c r="I81">
-        <f>'By Round'!I73</f>
+        <f>'By Round'!I72</f>
         <v/>
       </c>
       <c r="J81">
-        <f>'By Round'!J73</f>
+        <f>'By Round'!J72</f>
         <v/>
       </c>
       <c r="K81">
-        <f>'By Round'!K73</f>
+        <f>'By Round'!K72</f>
         <v/>
       </c>
       <c r="L81" s="11">
@@ -8273,23 +8273,23 @@
         </is>
       </c>
       <c r="G82">
-        <f>'By Round'!G91</f>
+        <f>'By Round'!G90</f>
         <v/>
       </c>
       <c r="H82">
-        <f>'By Round'!H91</f>
+        <f>'By Round'!H90</f>
         <v/>
       </c>
       <c r="I82">
-        <f>'By Round'!I91</f>
+        <f>'By Round'!I90</f>
         <v/>
       </c>
       <c r="J82">
-        <f>'By Round'!J91</f>
+        <f>'By Round'!J90</f>
         <v/>
       </c>
       <c r="K82">
-        <f>'By Round'!K91</f>
+        <f>'By Round'!K90</f>
         <v/>
       </c>
       <c r="L82" s="11">
@@ -8825,23 +8825,23 @@
         </is>
       </c>
       <c r="G88">
-        <f>'By Round'!G11</f>
+        <f>'By Round'!G10</f>
         <v/>
       </c>
       <c r="H88">
-        <f>'By Round'!H11</f>
+        <f>'By Round'!H10</f>
         <v/>
       </c>
       <c r="I88">
-        <f>'By Round'!I11</f>
+        <f>'By Round'!I10</f>
         <v/>
       </c>
       <c r="J88">
-        <f>'By Round'!J11</f>
+        <f>'By Round'!J10</f>
         <v/>
       </c>
       <c r="K88">
-        <f>'By Round'!K11</f>
+        <f>'By Round'!K10</f>
         <v/>
       </c>
       <c r="L88" s="11">
@@ -8916,23 +8916,23 @@
         </is>
       </c>
       <c r="G89">
-        <f>'By Round'!G19</f>
+        <f>'By Round'!G18</f>
         <v/>
       </c>
       <c r="H89">
-        <f>'By Round'!H19</f>
+        <f>'By Round'!H18</f>
         <v/>
       </c>
       <c r="I89">
-        <f>'By Round'!I19</f>
+        <f>'By Round'!I18</f>
         <v/>
       </c>
       <c r="J89">
-        <f>'By Round'!J19</f>
+        <f>'By Round'!J18</f>
         <v/>
       </c>
       <c r="K89">
-        <f>'By Round'!K19</f>
+        <f>'By Round'!K18</f>
         <v/>
       </c>
       <c r="L89" s="11">
@@ -9007,23 +9007,23 @@
         </is>
       </c>
       <c r="G90">
-        <f>'By Round'!G67</f>
+        <f>'By Round'!G66</f>
         <v/>
       </c>
       <c r="H90">
-        <f>'By Round'!H67</f>
+        <f>'By Round'!H66</f>
         <v/>
       </c>
       <c r="I90">
-        <f>'By Round'!I67</f>
+        <f>'By Round'!I66</f>
         <v/>
       </c>
       <c r="J90">
-        <f>'By Round'!J67</f>
+        <f>'By Round'!J66</f>
         <v/>
       </c>
       <c r="K90">
-        <f>'By Round'!K67</f>
+        <f>'By Round'!K66</f>
         <v/>
       </c>
       <c r="L90" s="11">
@@ -9098,23 +9098,23 @@
         </is>
       </c>
       <c r="G91">
-        <f>'By Round'!G75</f>
+        <f>'By Round'!G74</f>
         <v/>
       </c>
       <c r="H91">
-        <f>'By Round'!H75</f>
+        <f>'By Round'!H74</f>
         <v/>
       </c>
       <c r="I91">
-        <f>'By Round'!I75</f>
+        <f>'By Round'!I74</f>
         <v/>
       </c>
       <c r="J91">
-        <f>'By Round'!J75</f>
+        <f>'By Round'!J74</f>
         <v/>
       </c>
       <c r="K91">
-        <f>'By Round'!K75</f>
+        <f>'By Round'!K74</f>
         <v/>
       </c>
       <c r="L91" s="11">
@@ -9189,23 +9189,23 @@
         </is>
       </c>
       <c r="G92">
-        <f>'By Round'!G83</f>
+        <f>'By Round'!G82</f>
         <v/>
       </c>
       <c r="H92">
-        <f>'By Round'!H83</f>
+        <f>'By Round'!H82</f>
         <v/>
       </c>
       <c r="I92">
-        <f>'By Round'!I83</f>
+        <f>'By Round'!I82</f>
         <v/>
       </c>
       <c r="J92">
-        <f>'By Round'!J83</f>
+        <f>'By Round'!J82</f>
         <v/>
       </c>
       <c r="K92">
-        <f>'By Round'!K83</f>
+        <f>'By Round'!K82</f>
         <v/>
       </c>
       <c r="L92" s="11">
@@ -11412,6 +11412,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="C1" s="3" t="inlineStr">

--- a/howell9.xlsx
+++ b/howell9.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 01, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 02, 2026.</t>
         </is>
       </c>
     </row>
@@ -652,12 +652,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Name 82</t>
+          <t>Name 63</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -675,12 +675,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Name 83</t>
+          <t>Name 38</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Name 72</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -698,12 +698,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Name 40</t>
+          <t>Name 18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Name 18</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -721,12 +721,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Name 72</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Name 13</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -744,12 +744,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Name 15</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Name 36</t>
+          <t>Name 74</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -767,12 +767,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Name 67</t>
+          <t>Name 78</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Name 20</t>
+          <t>Name 77</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -790,12 +790,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Name 55</t>
+          <t>Name 85</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Name 32</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -813,12 +813,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Name 60</t>
+          <t>Name 54</t>
         </is>
       </c>
       <c r="D9" s="4">
@@ -836,12 +836,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 60</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 90</t>
+          <t>Name 68</t>
         </is>
       </c>
       <c r="D10" s="4">

--- a/howell9.xlsx
+++ b/howell9.xlsx
@@ -7,13 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tournament" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Roster" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="By Board" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="By Round" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Traveler Template" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="IMP Table" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Scoring Table" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Roster" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="By Board" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="By Round" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="IMP Table" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Scoring Table" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23,12 +21,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="#0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#0.00"/>
     <numFmt numFmtId="166" formatCode="#0.0"/>
     <numFmt numFmtId="167" formatCode="#0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,10 +52,6 @@
       <i val="1"/>
       <color rgb="00FF0000"/>
     </font>
-    <font>
-      <b val="1"/>
-      <sz val="22"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -67,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -99,35 +93,21 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -148,13 +128,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -521,93 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>For public domain. No rights reserved. Generated on Feb 02, 2026.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Howell Arrangement (IMP &amp; MP)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Pairs</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Tables</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Rounds</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Boards per round</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Total Boards to play</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,362 +509,423 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Pair #</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Player 1</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Player 2</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>For public domain. No rights reserved. Generated on Feb 04, 2026.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Howell Tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Pairs</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Tables</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Rounds</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Boards per round</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Total Boards to play</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Pairs</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>IMP</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Name 22</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Name 63</t>
-        </is>
-      </c>
-      <c r="D2" s="4">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Name 68</t>
+        </is>
+      </c>
+      <c r="D10" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$82,"=1",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=1",'By Board'!$O$3:$O$82)/16</f>
+        <v/>
+      </c>
+      <c r="E10" s="5">
         <f>SUMIF('By Board'!$D$3:$D$82,"=1",'By Board'!$L$3:$L$82)+SUMIF('By Board'!$E$3:$E$82,"=1",'By Board'!$M$3:$M$82)</f>
         <v/>
       </c>
-      <c r="E2" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$82,"=1",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=1",'By Board'!$O$3:$O$82)/16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Name 38</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Name 88</t>
-        </is>
-      </c>
-      <c r="D3" s="4">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Name 42</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Name 62</t>
+        </is>
+      </c>
+      <c r="D11" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$82,"=2",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=2",'By Board'!$O$3:$O$82)/16</f>
+        <v/>
+      </c>
+      <c r="E11" s="5">
         <f>SUMIF('By Board'!$D$3:$D$82,"=2",'By Board'!$L$3:$L$82)+SUMIF('By Board'!$E$3:$E$82,"=2",'By Board'!$M$3:$M$82)</f>
         <v/>
       </c>
-      <c r="E3" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$82,"=2",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=2",'By Board'!$O$3:$O$82)/16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Name 18</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Name 53</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Name 76</t>
+        </is>
+      </c>
+      <c r="D12" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$82,"=3",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=3",'By Board'!$O$3:$O$82)/16</f>
+        <v/>
+      </c>
+      <c r="E12" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$82,"=3",'By Board'!$L$3:$L$82)+SUMIF('By Board'!$E$3:$E$82,"=3",'By Board'!$M$3:$M$82)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Name 35</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Name 79</t>
+        </is>
+      </c>
+      <c r="D13" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$82,"=4",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=4",'By Board'!$O$3:$O$82)/16</f>
+        <v/>
+      </c>
+      <c r="E13" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$82,"=4",'By Board'!$L$3:$L$82)+SUMIF('By Board'!$E$3:$E$82,"=4",'By Board'!$M$3:$M$82)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Name 35</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Name 85</t>
+        </is>
+      </c>
+      <c r="D14" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$82,"=5",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=5",'By Board'!$O$3:$O$82)/16</f>
+        <v/>
+      </c>
+      <c r="E14" s="5">
+        <f>SUMIF('By Board'!$D$3:$D$82,"=5",'By Board'!$L$3:$L$82)+SUMIF('By Board'!$E$3:$E$82,"=5",'By Board'!$M$3:$M$82)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Name 11</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Name 83</t>
         </is>
       </c>
-      <c r="D4" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$82,"=3",'By Board'!$L$3:$L$82)+SUMIF('By Board'!$E$3:$E$82,"=3",'By Board'!$M$3:$M$82)</f>
-        <v/>
-      </c>
-      <c r="E4" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$82,"=3",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=3",'By Board'!$O$3:$O$82)/16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Name 42</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Name 76</t>
-        </is>
-      </c>
-      <c r="D5" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$82,"=4",'By Board'!$L$3:$L$82)+SUMIF('By Board'!$E$3:$E$82,"=4",'By Board'!$M$3:$M$82)</f>
-        <v/>
-      </c>
-      <c r="E5" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$82,"=4",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=4",'By Board'!$O$3:$O$82)/16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Name 88</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Name 74</t>
-        </is>
-      </c>
-      <c r="D6" s="4">
-        <f>SUMIF('By Board'!$D$3:$D$82,"=5",'By Board'!$L$3:$L$82)+SUMIF('By Board'!$E$3:$E$82,"=5",'By Board'!$M$3:$M$82)</f>
-        <v/>
-      </c>
-      <c r="E6" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$82,"=5",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=5",'By Board'!$O$3:$O$82)/16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Name 78</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Name 77</t>
-        </is>
-      </c>
-      <c r="D7" s="4">
+      <c r="D15" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$82,"=6",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=6",'By Board'!$O$3:$O$82)/16</f>
+        <v/>
+      </c>
+      <c r="E15" s="5">
         <f>SUMIF('By Board'!$D$3:$D$82,"=6",'By Board'!$L$3:$L$82)+SUMIF('By Board'!$E$3:$E$82,"=6",'By Board'!$M$3:$M$82)</f>
         <v/>
       </c>
-      <c r="E7" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$82,"=6",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=6",'By Board'!$O$3:$O$82)/16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Name 85</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Name 81</t>
-        </is>
-      </c>
-      <c r="D8" s="4">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Name 41</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Name 21</t>
+        </is>
+      </c>
+      <c r="D16" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$82,"=7",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=7",'By Board'!$O$3:$O$82)/16</f>
+        <v/>
+      </c>
+      <c r="E16" s="5">
         <f>SUMIF('By Board'!$D$3:$D$82,"=7",'By Board'!$L$3:$L$82)+SUMIF('By Board'!$E$3:$E$82,"=7",'By Board'!$M$3:$M$82)</f>
         <v/>
       </c>
-      <c r="E8" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$82,"=7",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=7",'By Board'!$O$3:$O$82)/16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Name 36</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Name 54</t>
-        </is>
-      </c>
-      <c r="D9" s="4">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Name 84</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Name 52</t>
+        </is>
+      </c>
+      <c r="D17" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$82,"=8",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=8",'By Board'!$O$3:$O$82)/16</f>
+        <v/>
+      </c>
+      <c r="E17" s="5">
         <f>SUMIF('By Board'!$D$3:$D$82,"=8",'By Board'!$L$3:$L$82)+SUMIF('By Board'!$E$3:$E$82,"=8",'By Board'!$M$3:$M$82)</f>
         <v/>
       </c>
-      <c r="E9" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$82,"=8",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=8",'By Board'!$O$3:$O$82)/16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name 60</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Name 68</t>
-        </is>
-      </c>
-      <c r="D10" s="4">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Name 53</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Name 57</t>
+        </is>
+      </c>
+      <c r="D18" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$82,"=9",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=9",'By Board'!$O$3:$O$82)/16</f>
+        <v/>
+      </c>
+      <c r="E18" s="5">
         <f>SUMIF('By Board'!$D$3:$D$82,"=9",'By Board'!$L$3:$L$82)+SUMIF('By Board'!$E$3:$E$82,"=9",'By Board'!$M$3:$M$82)</f>
         <v/>
       </c>
-      <c r="E10" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$82,"=9",'By Board'!$N$3:$N$82)/16+SUMIF('By Board'!$E$3:$E$82,"=9",'By Board'!$O$3:$O$82)/16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" s="6">
-        <f>SUM(D2:D10)</f>
-        <v/>
-      </c>
-      <c r="E11" s="7">
-        <f>AVERAGE(E2:E10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Array Formula below, remove single quote</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="D19" s="6">
+        <f>AVERAGE(D10:D18)</f>
+        <v/>
+      </c>
+      <c r="E19" s="7">
+        <f>SUM(E10:E18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>To sort, remove single quote below</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>IMP Ranking</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>'=SORT(A2:E10,4,-1)</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="n"/>
-      <c r="E15" s="8" t="n"/>
-    </row>
-    <row r="16">
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="8" t="n"/>
-    </row>
-    <row r="17">
-      <c r="D17" s="4" t="n"/>
-      <c r="E17" s="8" t="n"/>
-    </row>
-    <row r="18">
-      <c r="D18" s="4" t="n"/>
-      <c r="E18" s="8" t="n"/>
-    </row>
-    <row r="19">
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="8" t="n"/>
-    </row>
-    <row r="20">
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="8" t="n"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="8" t="n"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="8" t="n"/>
-    </row>
     <row r="23">
-      <c r="D23" s="4" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>'=SORT(A10:E18,4,-1)</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n"/>
       <c r="E23" s="8" t="n"/>
     </row>
+    <row r="24">
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="8" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="8" t="n"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="5" t="n"/>
+      <c r="E26" s="8" t="n"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="5" t="n"/>
+      <c r="E27" s="8" t="n"/>
+    </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="D28" s="5" t="n"/>
+      <c r="E28" s="8" t="n"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="5" t="n"/>
+      <c r="E29" s="8" t="n"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="5" t="n"/>
+      <c r="E30" s="8" t="n"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="5" t="n"/>
+      <c r="E31" s="8" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>MP Ranking</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>'=SORT(A2:E10,5,-1)</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="8" t="n"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="8" t="n"/>
-    </row>
-    <row r="31">
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="8" t="n"/>
-    </row>
-    <row r="32">
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="8" t="n"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="4" t="n"/>
-      <c r="E33" s="8" t="n"/>
-    </row>
-    <row r="34">
-      <c r="D34" s="4" t="n"/>
-      <c r="E34" s="8" t="n"/>
-    </row>
-    <row r="35">
-      <c r="D35" s="4" t="n"/>
-      <c r="E35" s="8" t="n"/>
-    </row>
-    <row r="36">
-      <c r="D36" s="4" t="n"/>
-      <c r="E36" s="8" t="n"/>
-    </row>
     <row r="37">
-      <c r="D37" s="4" t="n"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>'=SORT(A10:E18,5,-1)</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n"/>
       <c r="E37" s="8" t="n"/>
     </row>
+    <row r="38">
+      <c r="D38" s="5" t="n"/>
+      <c r="E38" s="8" t="n"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="5" t="n"/>
+      <c r="E39" s="8" t="n"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="5" t="n"/>
+      <c r="E40" s="8" t="n"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="5" t="n"/>
+      <c r="E41" s="8" t="n"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="5" t="n"/>
+      <c r="E42" s="8" t="n"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="5" t="n"/>
+      <c r="E43" s="8" t="n"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="5" t="n"/>
+      <c r="E44" s="8" t="n"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="5" t="n"/>
+      <c r="E45" s="8" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A14:E14"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1030,57 +980,57 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -1090,27 +1040,27 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -1120,7 +1070,7 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -1130,7 +1080,7 @@
           <t>NS MP Scores</t>
         </is>
       </c>
-      <c r="X2" s="3" t="inlineStr">
+      <c r="X2" s="2" t="inlineStr">
         <is>
           <t>EW MP Scores</t>
         </is>
@@ -1140,7 +1090,7 @@
           <t>NS IMP Pair-wise</t>
         </is>
       </c>
-      <c r="AF2" s="3" t="inlineStr">
+      <c r="AF2" s="2" t="inlineStr">
         <is>
           <t>EW IMP Pair-wise</t>
         </is>
@@ -1207,11 +1157,11 @@
         <f>IF(COUNT(X3:AA3)&gt;0,Q3/COUNT(X3:AA3),0.5)</f>
         <v/>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="5">
         <f>SUM(T3:W3)</f>
         <v/>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="5">
         <f>SUM(X3:AA3)</f>
         <v/>
       </c>
@@ -1346,11 +1296,11 @@
         <f>IF(COUNT(X4:AA4)&gt;0,Q4/COUNT(X4:AA4),0.5)</f>
         <v/>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="5">
         <f>SUM(T4:W4)</f>
         <v/>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="5">
         <f>SUM(X4:AA4)</f>
         <v/>
       </c>
@@ -1485,11 +1435,11 @@
         <f>IF(COUNT(X5:AA5)&gt;0,Q5/COUNT(X5:AA5),0.5)</f>
         <v/>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="5">
         <f>SUM(T5:W5)</f>
         <v/>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="5">
         <f>SUM(X5:AA5)</f>
         <v/>
       </c>
@@ -1624,11 +1574,11 @@
         <f>IF(COUNT(X6:AA6)&gt;0,Q6/COUNT(X6:AA6),0.5)</f>
         <v/>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="5">
         <f>SUM(T6:W6)</f>
         <v/>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="5">
         <f>SUM(X6:AA6)</f>
         <v/>
       </c>
@@ -1906,11 +1856,11 @@
         <f>IF(COUNT(X8:AA8)&gt;0,Q8/COUNT(X8:AA8),0.5)</f>
         <v/>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="5">
         <f>SUM(T8:W8)</f>
         <v/>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="5">
         <f>SUM(X8:AA8)</f>
         <v/>
       </c>
@@ -2045,11 +1995,11 @@
         <f>IF(COUNT(X9:AA9)&gt;0,Q9/COUNT(X9:AA9),0.5)</f>
         <v/>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="5">
         <f>SUM(T9:W9)</f>
         <v/>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="5">
         <f>SUM(X9:AA9)</f>
         <v/>
       </c>
@@ -2184,11 +2134,11 @@
         <f>IF(COUNT(X10:AA10)&gt;0,Q10/COUNT(X10:AA10),0.5)</f>
         <v/>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="5">
         <f>SUM(T10:W10)</f>
         <v/>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="5">
         <f>SUM(X10:AA10)</f>
         <v/>
       </c>
@@ -2323,11 +2273,11 @@
         <f>IF(COUNT(X11:AA11)&gt;0,Q11/COUNT(X11:AA11),0.5)</f>
         <v/>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="5">
         <f>SUM(T11:W11)</f>
         <v/>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="5">
         <f>SUM(X11:AA11)</f>
         <v/>
       </c>
@@ -2605,11 +2555,11 @@
         <f>IF(COUNT(X13:AA13)&gt;0,Q13/COUNT(X13:AA13),0.5)</f>
         <v/>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="5">
         <f>SUM(T13:W13)</f>
         <v/>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="5">
         <f>SUM(X13:AA13)</f>
         <v/>
       </c>
@@ -2744,11 +2694,11 @@
         <f>IF(COUNT(X14:AA14)&gt;0,Q14/COUNT(X14:AA14),0.5)</f>
         <v/>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="5">
         <f>SUM(T14:W14)</f>
         <v/>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="5">
         <f>SUM(X14:AA14)</f>
         <v/>
       </c>
@@ -2883,11 +2833,11 @@
         <f>IF(COUNT(X15:AA15)&gt;0,Q15/COUNT(X15:AA15),0.5)</f>
         <v/>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="5">
         <f>SUM(T15:W15)</f>
         <v/>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="5">
         <f>SUM(X15:AA15)</f>
         <v/>
       </c>
@@ -3022,11 +2972,11 @@
         <f>IF(COUNT(X16:AA16)&gt;0,Q16/COUNT(X16:AA16),0.5)</f>
         <v/>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="5">
         <f>SUM(T16:W16)</f>
         <v/>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="5">
         <f>SUM(X16:AA16)</f>
         <v/>
       </c>
@@ -3304,11 +3254,11 @@
         <f>IF(COUNT(X18:AA18)&gt;0,Q18/COUNT(X18:AA18),0.5)</f>
         <v/>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="5">
         <f>SUM(T18:W18)</f>
         <v/>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="5">
         <f>SUM(X18:AA18)</f>
         <v/>
       </c>
@@ -3443,11 +3393,11 @@
         <f>IF(COUNT(X19:AA19)&gt;0,Q19/COUNT(X19:AA19),0.5)</f>
         <v/>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="5">
         <f>SUM(T19:W19)</f>
         <v/>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="5">
         <f>SUM(X19:AA19)</f>
         <v/>
       </c>
@@ -3582,11 +3532,11 @@
         <f>IF(COUNT(X20:AA20)&gt;0,Q20/COUNT(X20:AA20),0.5)</f>
         <v/>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="5">
         <f>SUM(T20:W20)</f>
         <v/>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="5">
         <f>SUM(X20:AA20)</f>
         <v/>
       </c>
@@ -3721,11 +3671,11 @@
         <f>IF(COUNT(X21:AA21)&gt;0,Q21/COUNT(X21:AA21),0.5)</f>
         <v/>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="5">
         <f>SUM(T21:W21)</f>
         <v/>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="5">
         <f>SUM(X21:AA21)</f>
         <v/>
       </c>
@@ -4003,11 +3953,11 @@
         <f>IF(COUNT(X23:AA23)&gt;0,Q23/COUNT(X23:AA23),0.5)</f>
         <v/>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="5">
         <f>SUM(T23:W23)</f>
         <v/>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="5">
         <f>SUM(X23:AA23)</f>
         <v/>
       </c>
@@ -4142,11 +4092,11 @@
         <f>IF(COUNT(X24:AA24)&gt;0,Q24/COUNT(X24:AA24),0.5)</f>
         <v/>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="5">
         <f>SUM(T24:W24)</f>
         <v/>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="5">
         <f>SUM(X24:AA24)</f>
         <v/>
       </c>
@@ -4281,11 +4231,11 @@
         <f>IF(COUNT(X25:AA25)&gt;0,Q25/COUNT(X25:AA25),0.5)</f>
         <v/>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="5">
         <f>SUM(T25:W25)</f>
         <v/>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="5">
         <f>SUM(X25:AA25)</f>
         <v/>
       </c>
@@ -4420,11 +4370,11 @@
         <f>IF(COUNT(X26:AA26)&gt;0,Q26/COUNT(X26:AA26),0.5)</f>
         <v/>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="5">
         <f>SUM(T26:W26)</f>
         <v/>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="5">
         <f>SUM(X26:AA26)</f>
         <v/>
       </c>
@@ -4702,11 +4652,11 @@
         <f>IF(COUNT(X28:AA28)&gt;0,Q28/COUNT(X28:AA28),0.5)</f>
         <v/>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="5">
         <f>SUM(T28:W28)</f>
         <v/>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="5">
         <f>SUM(X28:AA28)</f>
         <v/>
       </c>
@@ -4841,11 +4791,11 @@
         <f>IF(COUNT(X29:AA29)&gt;0,Q29/COUNT(X29:AA29),0.5)</f>
         <v/>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="5">
         <f>SUM(T29:W29)</f>
         <v/>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="5">
         <f>SUM(X29:AA29)</f>
         <v/>
       </c>
@@ -4980,11 +4930,11 @@
         <f>IF(COUNT(X30:AA30)&gt;0,Q30/COUNT(X30:AA30),0.5)</f>
         <v/>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="5">
         <f>SUM(T30:W30)</f>
         <v/>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="5">
         <f>SUM(X30:AA30)</f>
         <v/>
       </c>
@@ -5119,11 +5069,11 @@
         <f>IF(COUNT(X31:AA31)&gt;0,Q31/COUNT(X31:AA31),0.5)</f>
         <v/>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="5">
         <f>SUM(T31:W31)</f>
         <v/>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="5">
         <f>SUM(X31:AA31)</f>
         <v/>
       </c>
@@ -5401,11 +5351,11 @@
         <f>IF(COUNT(X33:AA33)&gt;0,Q33/COUNT(X33:AA33),0.5)</f>
         <v/>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="5">
         <f>SUM(T33:W33)</f>
         <v/>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33" s="5">
         <f>SUM(X33:AA33)</f>
         <v/>
       </c>
@@ -5540,11 +5490,11 @@
         <f>IF(COUNT(X34:AA34)&gt;0,Q34/COUNT(X34:AA34),0.5)</f>
         <v/>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="5">
         <f>SUM(T34:W34)</f>
         <v/>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="5">
         <f>SUM(X34:AA34)</f>
         <v/>
       </c>
@@ -5679,11 +5629,11 @@
         <f>IF(COUNT(X35:AA35)&gt;0,Q35/COUNT(X35:AA35),0.5)</f>
         <v/>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="5">
         <f>SUM(T35:W35)</f>
         <v/>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="5">
         <f>SUM(X35:AA35)</f>
         <v/>
       </c>
@@ -5818,11 +5768,11 @@
         <f>IF(COUNT(X36:AA36)&gt;0,Q36/COUNT(X36:AA36),0.5)</f>
         <v/>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="5">
         <f>SUM(T36:W36)</f>
         <v/>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36" s="5">
         <f>SUM(X36:AA36)</f>
         <v/>
       </c>
@@ -6100,11 +6050,11 @@
         <f>IF(COUNT(X38:AA38)&gt;0,Q38/COUNT(X38:AA38),0.5)</f>
         <v/>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="5">
         <f>SUM(T38:W38)</f>
         <v/>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q38" s="5">
         <f>SUM(X38:AA38)</f>
         <v/>
       </c>
@@ -6239,11 +6189,11 @@
         <f>IF(COUNT(X39:AA39)&gt;0,Q39/COUNT(X39:AA39),0.5)</f>
         <v/>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="5">
         <f>SUM(T39:W39)</f>
         <v/>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39" s="5">
         <f>SUM(X39:AA39)</f>
         <v/>
       </c>
@@ -6378,11 +6328,11 @@
         <f>IF(COUNT(X40:AA40)&gt;0,Q40/COUNT(X40:AA40),0.5)</f>
         <v/>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="5">
         <f>SUM(T40:W40)</f>
         <v/>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q40" s="5">
         <f>SUM(X40:AA40)</f>
         <v/>
       </c>
@@ -6517,11 +6467,11 @@
         <f>IF(COUNT(X41:AA41)&gt;0,Q41/COUNT(X41:AA41),0.5)</f>
         <v/>
       </c>
-      <c r="P41" s="4">
+      <c r="P41" s="5">
         <f>SUM(T41:W41)</f>
         <v/>
       </c>
-      <c r="Q41" s="4">
+      <c r="Q41" s="5">
         <f>SUM(X41:AA41)</f>
         <v/>
       </c>
@@ -6799,11 +6749,11 @@
         <f>IF(COUNT(X43:AA43)&gt;0,Q43/COUNT(X43:AA43),0.5)</f>
         <v/>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="5">
         <f>SUM(T43:W43)</f>
         <v/>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q43" s="5">
         <f>SUM(X43:AA43)</f>
         <v/>
       </c>
@@ -6938,11 +6888,11 @@
         <f>IF(COUNT(X44:AA44)&gt;0,Q44/COUNT(X44:AA44),0.5)</f>
         <v/>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="5">
         <f>SUM(T44:W44)</f>
         <v/>
       </c>
-      <c r="Q44" s="4">
+      <c r="Q44" s="5">
         <f>SUM(X44:AA44)</f>
         <v/>
       </c>
@@ -7077,11 +7027,11 @@
         <f>IF(COUNT(X45:AA45)&gt;0,Q45/COUNT(X45:AA45),0.5)</f>
         <v/>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="5">
         <f>SUM(T45:W45)</f>
         <v/>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q45" s="5">
         <f>SUM(X45:AA45)</f>
         <v/>
       </c>
@@ -7216,11 +7166,11 @@
         <f>IF(COUNT(X46:AA46)&gt;0,Q46/COUNT(X46:AA46),0.5)</f>
         <v/>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="5">
         <f>SUM(T46:W46)</f>
         <v/>
       </c>
-      <c r="Q46" s="4">
+      <c r="Q46" s="5">
         <f>SUM(X46:AA46)</f>
         <v/>
       </c>
@@ -7498,11 +7448,11 @@
         <f>IF(COUNT(X48:AA48)&gt;0,Q48/COUNT(X48:AA48),0.5)</f>
         <v/>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="5">
         <f>SUM(T48:W48)</f>
         <v/>
       </c>
-      <c r="Q48" s="4">
+      <c r="Q48" s="5">
         <f>SUM(X48:AA48)</f>
         <v/>
       </c>
@@ -7637,11 +7587,11 @@
         <f>IF(COUNT(X49:AA49)&gt;0,Q49/COUNT(X49:AA49),0.5)</f>
         <v/>
       </c>
-      <c r="P49" s="4">
+      <c r="P49" s="5">
         <f>SUM(T49:W49)</f>
         <v/>
       </c>
-      <c r="Q49" s="4">
+      <c r="Q49" s="5">
         <f>SUM(X49:AA49)</f>
         <v/>
       </c>
@@ -7776,11 +7726,11 @@
         <f>IF(COUNT(X50:AA50)&gt;0,Q50/COUNT(X50:AA50),0.5)</f>
         <v/>
       </c>
-      <c r="P50" s="4">
+      <c r="P50" s="5">
         <f>SUM(T50:W50)</f>
         <v/>
       </c>
-      <c r="Q50" s="4">
+      <c r="Q50" s="5">
         <f>SUM(X50:AA50)</f>
         <v/>
       </c>
@@ -7915,11 +7865,11 @@
         <f>IF(COUNT(X51:AA51)&gt;0,Q51/COUNT(X51:AA51),0.5)</f>
         <v/>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="5">
         <f>SUM(T51:W51)</f>
         <v/>
       </c>
-      <c r="Q51" s="4">
+      <c r="Q51" s="5">
         <f>SUM(X51:AA51)</f>
         <v/>
       </c>
@@ -8197,11 +8147,11 @@
         <f>IF(COUNT(X53:AA53)&gt;0,Q53/COUNT(X53:AA53),0.5)</f>
         <v/>
       </c>
-      <c r="P53" s="4">
+      <c r="P53" s="5">
         <f>SUM(T53:W53)</f>
         <v/>
       </c>
-      <c r="Q53" s="4">
+      <c r="Q53" s="5">
         <f>SUM(X53:AA53)</f>
         <v/>
       </c>
@@ -8336,11 +8286,11 @@
         <f>IF(COUNT(X54:AA54)&gt;0,Q54/COUNT(X54:AA54),0.5)</f>
         <v/>
       </c>
-      <c r="P54" s="4">
+      <c r="P54" s="5">
         <f>SUM(T54:W54)</f>
         <v/>
       </c>
-      <c r="Q54" s="4">
+      <c r="Q54" s="5">
         <f>SUM(X54:AA54)</f>
         <v/>
       </c>
@@ -8475,11 +8425,11 @@
         <f>IF(COUNT(X55:AA55)&gt;0,Q55/COUNT(X55:AA55),0.5)</f>
         <v/>
       </c>
-      <c r="P55" s="4">
+      <c r="P55" s="5">
         <f>SUM(T55:W55)</f>
         <v/>
       </c>
-      <c r="Q55" s="4">
+      <c r="Q55" s="5">
         <f>SUM(X55:AA55)</f>
         <v/>
       </c>
@@ -8614,11 +8564,11 @@
         <f>IF(COUNT(X56:AA56)&gt;0,Q56/COUNT(X56:AA56),0.5)</f>
         <v/>
       </c>
-      <c r="P56" s="4">
+      <c r="P56" s="5">
         <f>SUM(T56:W56)</f>
         <v/>
       </c>
-      <c r="Q56" s="4">
+      <c r="Q56" s="5">
         <f>SUM(X56:AA56)</f>
         <v/>
       </c>
@@ -8896,11 +8846,11 @@
         <f>IF(COUNT(X58:AA58)&gt;0,Q58/COUNT(X58:AA58),0.5)</f>
         <v/>
       </c>
-      <c r="P58" s="4">
+      <c r="P58" s="5">
         <f>SUM(T58:W58)</f>
         <v/>
       </c>
-      <c r="Q58" s="4">
+      <c r="Q58" s="5">
         <f>SUM(X58:AA58)</f>
         <v/>
       </c>
@@ -9035,11 +8985,11 @@
         <f>IF(COUNT(X59:AA59)&gt;0,Q59/COUNT(X59:AA59),0.5)</f>
         <v/>
       </c>
-      <c r="P59" s="4">
+      <c r="P59" s="5">
         <f>SUM(T59:W59)</f>
         <v/>
       </c>
-      <c r="Q59" s="4">
+      <c r="Q59" s="5">
         <f>SUM(X59:AA59)</f>
         <v/>
       </c>
@@ -9174,11 +9124,11 @@
         <f>IF(COUNT(X60:AA60)&gt;0,Q60/COUNT(X60:AA60),0.5)</f>
         <v/>
       </c>
-      <c r="P60" s="4">
+      <c r="P60" s="5">
         <f>SUM(T60:W60)</f>
         <v/>
       </c>
-      <c r="Q60" s="4">
+      <c r="Q60" s="5">
         <f>SUM(X60:AA60)</f>
         <v/>
       </c>
@@ -9313,11 +9263,11 @@
         <f>IF(COUNT(X61:AA61)&gt;0,Q61/COUNT(X61:AA61),0.5)</f>
         <v/>
       </c>
-      <c r="P61" s="4">
+      <c r="P61" s="5">
         <f>SUM(T61:W61)</f>
         <v/>
       </c>
-      <c r="Q61" s="4">
+      <c r="Q61" s="5">
         <f>SUM(X61:AA61)</f>
         <v/>
       </c>
@@ -9595,11 +9545,11 @@
         <f>IF(COUNT(X63:AA63)&gt;0,Q63/COUNT(X63:AA63),0.5)</f>
         <v/>
       </c>
-      <c r="P63" s="4">
+      <c r="P63" s="5">
         <f>SUM(T63:W63)</f>
         <v/>
       </c>
-      <c r="Q63" s="4">
+      <c r="Q63" s="5">
         <f>SUM(X63:AA63)</f>
         <v/>
       </c>
@@ -9734,11 +9684,11 @@
         <f>IF(COUNT(X64:AA64)&gt;0,Q64/COUNT(X64:AA64),0.5)</f>
         <v/>
       </c>
-      <c r="P64" s="4">
+      <c r="P64" s="5">
         <f>SUM(T64:W64)</f>
         <v/>
       </c>
-      <c r="Q64" s="4">
+      <c r="Q64" s="5">
         <f>SUM(X64:AA64)</f>
         <v/>
       </c>
@@ -9873,11 +9823,11 @@
         <f>IF(COUNT(X65:AA65)&gt;0,Q65/COUNT(X65:AA65),0.5)</f>
         <v/>
       </c>
-      <c r="P65" s="4">
+      <c r="P65" s="5">
         <f>SUM(T65:W65)</f>
         <v/>
       </c>
-      <c r="Q65" s="4">
+      <c r="Q65" s="5">
         <f>SUM(X65:AA65)</f>
         <v/>
       </c>
@@ -10012,11 +9962,11 @@
         <f>IF(COUNT(X66:AA66)&gt;0,Q66/COUNT(X66:AA66),0.5)</f>
         <v/>
       </c>
-      <c r="P66" s="4">
+      <c r="P66" s="5">
         <f>SUM(T66:W66)</f>
         <v/>
       </c>
-      <c r="Q66" s="4">
+      <c r="Q66" s="5">
         <f>SUM(X66:AA66)</f>
         <v/>
       </c>
@@ -10294,11 +10244,11 @@
         <f>IF(COUNT(X68:AA68)&gt;0,Q68/COUNT(X68:AA68),0.5)</f>
         <v/>
       </c>
-      <c r="P68" s="4">
+      <c r="P68" s="5">
         <f>SUM(T68:W68)</f>
         <v/>
       </c>
-      <c r="Q68" s="4">
+      <c r="Q68" s="5">
         <f>SUM(X68:AA68)</f>
         <v/>
       </c>
@@ -10433,11 +10383,11 @@
         <f>IF(COUNT(X69:AA69)&gt;0,Q69/COUNT(X69:AA69),0.5)</f>
         <v/>
       </c>
-      <c r="P69" s="4">
+      <c r="P69" s="5">
         <f>SUM(T69:W69)</f>
         <v/>
       </c>
-      <c r="Q69" s="4">
+      <c r="Q69" s="5">
         <f>SUM(X69:AA69)</f>
         <v/>
       </c>
@@ -10572,11 +10522,11 @@
         <f>IF(COUNT(X70:AA70)&gt;0,Q70/COUNT(X70:AA70),0.5)</f>
         <v/>
       </c>
-      <c r="P70" s="4">
+      <c r="P70" s="5">
         <f>SUM(T70:W70)</f>
         <v/>
       </c>
-      <c r="Q70" s="4">
+      <c r="Q70" s="5">
         <f>SUM(X70:AA70)</f>
         <v/>
       </c>
@@ -10711,11 +10661,11 @@
         <f>IF(COUNT(X71:AA71)&gt;0,Q71/COUNT(X71:AA71),0.5)</f>
         <v/>
       </c>
-      <c r="P71" s="4">
+      <c r="P71" s="5">
         <f>SUM(T71:W71)</f>
         <v/>
       </c>
-      <c r="Q71" s="4">
+      <c r="Q71" s="5">
         <f>SUM(X71:AA71)</f>
         <v/>
       </c>
@@ -10993,11 +10943,11 @@
         <f>IF(COUNT(X73:AA73)&gt;0,Q73/COUNT(X73:AA73),0.5)</f>
         <v/>
       </c>
-      <c r="P73" s="4">
+      <c r="P73" s="5">
         <f>SUM(T73:W73)</f>
         <v/>
       </c>
-      <c r="Q73" s="4">
+      <c r="Q73" s="5">
         <f>SUM(X73:AA73)</f>
         <v/>
       </c>
@@ -11132,11 +11082,11 @@
         <f>IF(COUNT(X74:AA74)&gt;0,Q74/COUNT(X74:AA74),0.5)</f>
         <v/>
       </c>
-      <c r="P74" s="4">
+      <c r="P74" s="5">
         <f>SUM(T74:W74)</f>
         <v/>
       </c>
-      <c r="Q74" s="4">
+      <c r="Q74" s="5">
         <f>SUM(X74:AA74)</f>
         <v/>
       </c>
@@ -11271,11 +11221,11 @@
         <f>IF(COUNT(X75:AA75)&gt;0,Q75/COUNT(X75:AA75),0.5)</f>
         <v/>
       </c>
-      <c r="P75" s="4">
+      <c r="P75" s="5">
         <f>SUM(T75:W75)</f>
         <v/>
       </c>
-      <c r="Q75" s="4">
+      <c r="Q75" s="5">
         <f>SUM(X75:AA75)</f>
         <v/>
       </c>
@@ -11410,11 +11360,11 @@
         <f>IF(COUNT(X76:AA76)&gt;0,Q76/COUNT(X76:AA76),0.5)</f>
         <v/>
       </c>
-      <c r="P76" s="4">
+      <c r="P76" s="5">
         <f>SUM(T76:W76)</f>
         <v/>
       </c>
-      <c r="Q76" s="4">
+      <c r="Q76" s="5">
         <f>SUM(X76:AA76)</f>
         <v/>
       </c>
@@ -11692,11 +11642,11 @@
         <f>IF(COUNT(X78:AA78)&gt;0,Q78/COUNT(X78:AA78),0.5)</f>
         <v/>
       </c>
-      <c r="P78" s="4">
+      <c r="P78" s="5">
         <f>SUM(T78:W78)</f>
         <v/>
       </c>
-      <c r="Q78" s="4">
+      <c r="Q78" s="5">
         <f>SUM(X78:AA78)</f>
         <v/>
       </c>
@@ -11831,11 +11781,11 @@
         <f>IF(COUNT(X79:AA79)&gt;0,Q79/COUNT(X79:AA79),0.5)</f>
         <v/>
       </c>
-      <c r="P79" s="4">
+      <c r="P79" s="5">
         <f>SUM(T79:W79)</f>
         <v/>
       </c>
-      <c r="Q79" s="4">
+      <c r="Q79" s="5">
         <f>SUM(X79:AA79)</f>
         <v/>
       </c>
@@ -11970,11 +11920,11 @@
         <f>IF(COUNT(X80:AA80)&gt;0,Q80/COUNT(X80:AA80),0.5)</f>
         <v/>
       </c>
-      <c r="P80" s="4">
+      <c r="P80" s="5">
         <f>SUM(T80:W80)</f>
         <v/>
       </c>
-      <c r="Q80" s="4">
+      <c r="Q80" s="5">
         <f>SUM(X80:AA80)</f>
         <v/>
       </c>
@@ -12109,11 +12059,11 @@
         <f>IF(COUNT(X81:AA81)&gt;0,Q81/COUNT(X81:AA81),0.5)</f>
         <v/>
       </c>
-      <c r="P81" s="4">
+      <c r="P81" s="5">
         <f>SUM(T81:W81)</f>
         <v/>
       </c>
-      <c r="Q81" s="4">
+      <c r="Q81" s="5">
         <f>SUM(X81:AA81)</f>
         <v/>
       </c>
@@ -12391,11 +12341,11 @@
         <f>IF(COUNT(X83:AA83)&gt;0,Q83/COUNT(X83:AA83),0.5)</f>
         <v/>
       </c>
-      <c r="P83" s="4">
+      <c r="P83" s="5">
         <f>SUM(T83:W83)</f>
         <v/>
       </c>
-      <c r="Q83" s="4">
+      <c r="Q83" s="5">
         <f>SUM(X83:AA83)</f>
         <v/>
       </c>
@@ -12530,11 +12480,11 @@
         <f>IF(COUNT(X84:AA84)&gt;0,Q84/COUNT(X84:AA84),0.5)</f>
         <v/>
       </c>
-      <c r="P84" s="4">
+      <c r="P84" s="5">
         <f>SUM(T84:W84)</f>
         <v/>
       </c>
-      <c r="Q84" s="4">
+      <c r="Q84" s="5">
         <f>SUM(X84:AA84)</f>
         <v/>
       </c>
@@ -12669,11 +12619,11 @@
         <f>IF(COUNT(X85:AA85)&gt;0,Q85/COUNT(X85:AA85),0.5)</f>
         <v/>
       </c>
-      <c r="P85" s="4">
+      <c r="P85" s="5">
         <f>SUM(T85:W85)</f>
         <v/>
       </c>
-      <c r="Q85" s="4">
+      <c r="Q85" s="5">
         <f>SUM(X85:AA85)</f>
         <v/>
       </c>
@@ -12808,11 +12758,11 @@
         <f>IF(COUNT(X86:AA86)&gt;0,Q86/COUNT(X86:AA86),0.5)</f>
         <v/>
       </c>
-      <c r="P86" s="4">
+      <c r="P86" s="5">
         <f>SUM(T86:W86)</f>
         <v/>
       </c>
-      <c r="Q86" s="4">
+      <c r="Q86" s="5">
         <f>SUM(X86:AA86)</f>
         <v/>
       </c>
@@ -13090,11 +13040,11 @@
         <f>IF(COUNT(X88:AA88)&gt;0,Q88/COUNT(X88:AA88),0.5)</f>
         <v/>
       </c>
-      <c r="P88" s="4">
+      <c r="P88" s="5">
         <f>SUM(T88:W88)</f>
         <v/>
       </c>
-      <c r="Q88" s="4">
+      <c r="Q88" s="5">
         <f>SUM(X88:AA88)</f>
         <v/>
       </c>
@@ -13229,11 +13179,11 @@
         <f>IF(COUNT(X89:AA89)&gt;0,Q89/COUNT(X89:AA89),0.5)</f>
         <v/>
       </c>
-      <c r="P89" s="4">
+      <c r="P89" s="5">
         <f>SUM(T89:W89)</f>
         <v/>
       </c>
-      <c r="Q89" s="4">
+      <c r="Q89" s="5">
         <f>SUM(X89:AA89)</f>
         <v/>
       </c>
@@ -13368,11 +13318,11 @@
         <f>IF(COUNT(X90:AA90)&gt;0,Q90/COUNT(X90:AA90),0.5)</f>
         <v/>
       </c>
-      <c r="P90" s="4">
+      <c r="P90" s="5">
         <f>SUM(T90:W90)</f>
         <v/>
       </c>
-      <c r="Q90" s="4">
+      <c r="Q90" s="5">
         <f>SUM(X90:AA90)</f>
         <v/>
       </c>
@@ -13507,11 +13457,11 @@
         <f>IF(COUNT(X91:AA91)&gt;0,Q91/COUNT(X91:AA91),0.5)</f>
         <v/>
       </c>
-      <c r="P91" s="4">
+      <c r="P91" s="5">
         <f>SUM(T91:W91)</f>
         <v/>
       </c>
-      <c r="Q91" s="4">
+      <c r="Q91" s="5">
         <f>SUM(X91:AA91)</f>
         <v/>
       </c>
@@ -13746,7 +13696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13764,64 +13714,64 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Scores</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -15536,184 +15486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="22" t="inlineStr">
-        <is>
-          <t>Board #</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>By</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="24" t="n"/>
-      <c r="D4" s="24" t="n"/>
-      <c r="E4" s="24" t="n"/>
-      <c r="F4" s="24" t="n"/>
-      <c r="G4" s="24" t="n"/>
-      <c r="H4" s="24" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="24" t="n"/>
-      <c r="C5" s="24" t="n"/>
-      <c r="D5" s="24" t="n"/>
-      <c r="E5" s="24" t="n"/>
-      <c r="F5" s="24" t="n"/>
-      <c r="G5" s="24" t="n"/>
-      <c r="H5" s="24" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="24" t="n"/>
-      <c r="C6" s="24" t="n"/>
-      <c r="D6" s="24" t="n"/>
-      <c r="E6" s="24" t="n"/>
-      <c r="F6" s="24" t="n"/>
-      <c r="G6" s="24" t="n"/>
-      <c r="H6" s="24" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="24" t="n"/>
-      <c r="C7" s="24" t="n"/>
-      <c r="D7" s="24" t="n"/>
-      <c r="E7" s="24" t="n"/>
-      <c r="F7" s="24" t="n"/>
-      <c r="G7" s="24" t="n"/>
-      <c r="H7" s="24" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="24" t="n"/>
-      <c r="C8" s="24" t="n"/>
-      <c r="D8" s="24" t="n"/>
-      <c r="E8" s="24" t="n"/>
-      <c r="F8" s="24" t="n"/>
-      <c r="G8" s="24" t="n"/>
-      <c r="H8" s="24" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="24" t="n"/>
-      <c r="C9" s="24" t="n"/>
-      <c r="D9" s="24" t="n"/>
-      <c r="E9" s="24" t="n"/>
-      <c r="F9" s="24" t="n"/>
-      <c r="G9" s="24" t="n"/>
-      <c r="H9" s="24" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="23" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" s="24" t="n"/>
-      <c r="C10" s="24" t="n"/>
-      <c r="D10" s="24" t="n"/>
-      <c r="E10" s="24" t="n"/>
-      <c r="F10" s="24" t="n"/>
-      <c r="G10" s="24" t="n"/>
-      <c r="H10" s="24" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="24" t="n"/>
-      <c r="C11" s="24" t="n"/>
-      <c r="D11" s="24" t="n"/>
-      <c r="E11" s="24" t="n"/>
-      <c r="F11" s="24" t="n"/>
-      <c r="G11" s="24" t="n"/>
-      <c r="H11" s="24" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15728,17 +15501,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>From</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>To</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>IMP</t>
         </is>
@@ -16024,7 +15797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16042,90 +15815,90 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Not Vulnerable</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Vulnerable</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Not Vulnerable</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Vulnerable</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Made</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr"/>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>Down by</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr"/>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr"/>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>1 D/C</t>
         </is>
@@ -16133,22 +15906,22 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="n">
+      <c r="C3" s="22" t="n">
         <v>70</v>
       </c>
-      <c r="D3" s="25" t="n">
+      <c r="D3" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="E3" s="25" t="n">
+      <c r="E3" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="F3" s="25" t="n">
+      <c r="F3" s="22" t="n">
         <v>70</v>
       </c>
-      <c r="G3" s="25" t="n">
+      <c r="G3" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="H3" s="25" t="n">
+      <c r="H3" s="22" t="n">
         <v>230</v>
       </c>
       <c r="J3" t="n">
@@ -16179,22 +15952,22 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="E4" s="25" t="n">
+      <c r="E4" s="22" t="n">
         <v>430</v>
       </c>
-      <c r="F4" s="25" t="n">
+      <c r="F4" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="G4" s="25" t="n">
+      <c r="G4" s="22" t="n">
         <v>340</v>
       </c>
-      <c r="H4" s="25" t="n">
+      <c r="H4" s="22" t="n">
         <v>630</v>
       </c>
       <c r="J4" t="n">
@@ -16229,22 +16002,22 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="n">
+      <c r="C5" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D5" s="25" t="n">
+      <c r="D5" s="22" t="n">
         <v>340</v>
       </c>
-      <c r="E5" s="25" t="n">
+      <c r="E5" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="F5" s="25" t="n">
+      <c r="F5" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G5" s="25" t="n">
+      <c r="G5" s="22" t="n">
         <v>540</v>
       </c>
-      <c r="H5" s="25" t="n">
+      <c r="H5" s="22" t="n">
         <v>1030</v>
       </c>
       <c r="J5" t="n">
@@ -16279,22 +16052,22 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="22" t="n">
         <v>440</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="E6" s="22" t="n">
         <v>830</v>
       </c>
-      <c r="F6" s="25" t="n">
+      <c r="F6" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G6" s="25" t="n">
+      <c r="G6" s="22" t="n">
         <v>740</v>
       </c>
-      <c r="H6" s="25" t="n">
+      <c r="H6" s="22" t="n">
         <v>1430</v>
       </c>
       <c r="J6" t="n">
@@ -16329,22 +16102,22 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="25" t="n">
+      <c r="C7" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D7" s="25" t="n">
+      <c r="D7" s="22" t="n">
         <v>540</v>
       </c>
-      <c r="E7" s="25" t="n">
+      <c r="E7" s="22" t="n">
         <v>1030</v>
       </c>
-      <c r="F7" s="25" t="n">
+      <c r="F7" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G7" s="25" t="n">
+      <c r="G7" s="22" t="n">
         <v>940</v>
       </c>
-      <c r="H7" s="25" t="n">
+      <c r="H7" s="22" t="n">
         <v>1830</v>
       </c>
       <c r="J7" t="n">
@@ -16379,22 +16152,22 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="E8" s="22" t="n">
         <v>1230</v>
       </c>
-      <c r="F8" s="25" t="n">
+      <c r="F8" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G8" s="25" t="n">
+      <c r="G8" s="22" t="n">
         <v>1140</v>
       </c>
-      <c r="H8" s="25" t="n">
+      <c r="H8" s="22" t="n">
         <v>2230</v>
       </c>
       <c r="J8" t="n">
@@ -16429,22 +16202,22 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="25" t="n">
+      <c r="C9" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D9" s="25" t="n">
+      <c r="D9" s="22" t="n">
         <v>740</v>
       </c>
-      <c r="E9" s="25" t="n">
+      <c r="E9" s="22" t="n">
         <v>1430</v>
       </c>
-      <c r="F9" s="25" t="n">
+      <c r="F9" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G9" s="25" t="n">
+      <c r="G9" s="22" t="n">
         <v>1340</v>
       </c>
-      <c r="H9" s="25" t="n">
+      <c r="H9" s="22" t="n">
         <v>2630</v>
       </c>
       <c r="J9" t="n">
@@ -16476,7 +16249,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>1 H/S</t>
         </is>
@@ -16484,22 +16257,22 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="25" t="n">
+      <c r="C10" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="D10" s="25" t="n">
+      <c r="D10" s="22" t="n">
         <v>160</v>
       </c>
-      <c r="E10" s="25" t="n">
+      <c r="E10" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="F10" s="25" t="n">
+      <c r="F10" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="G10" s="25" t="n">
+      <c r="G10" s="22" t="n">
         <v>160</v>
       </c>
-      <c r="H10" s="25" t="n">
+      <c r="H10" s="22" t="n">
         <v>720</v>
       </c>
       <c r="J10" t="n">
@@ -16534,22 +16307,22 @@
       <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="25" t="n">
+      <c r="C11" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D11" s="25" t="n">
+      <c r="D11" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="E11" s="25" t="n">
+      <c r="E11" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="F11" s="25" t="n">
+      <c r="F11" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G11" s="25" t="n">
+      <c r="G11" s="22" t="n">
         <v>360</v>
       </c>
-      <c r="H11" s="25" t="n">
+      <c r="H11" s="22" t="n">
         <v>1120</v>
       </c>
       <c r="J11" t="n">
@@ -16584,22 +16357,22 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="25" t="n">
+      <c r="C12" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="D12" s="25" t="n">
+      <c r="D12" s="22" t="n">
         <v>360</v>
       </c>
-      <c r="E12" s="25" t="n">
+      <c r="E12" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="F12" s="25" t="n">
+      <c r="F12" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="G12" s="25" t="n">
+      <c r="G12" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="H12" s="25" t="n">
+      <c r="H12" s="22" t="n">
         <v>1520</v>
       </c>
       <c r="J12" t="n">
@@ -16634,22 +16407,22 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="25" t="n">
+      <c r="C13" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D13" s="25" t="n">
+      <c r="D13" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="E13" s="25" t="n">
+      <c r="E13" s="22" t="n">
         <v>1120</v>
       </c>
-      <c r="F13" s="25" t="n">
+      <c r="F13" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G13" s="25" t="n">
+      <c r="G13" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="H13" s="25" t="n">
+      <c r="H13" s="22" t="n">
         <v>1920</v>
       </c>
       <c r="J13" t="n">
@@ -16684,22 +16457,22 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="25" t="n">
+      <c r="C14" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="D14" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="E14" s="25" t="n">
+      <c r="E14" s="22" t="n">
         <v>1320</v>
       </c>
-      <c r="F14" s="25" t="n">
+      <c r="F14" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="25" t="n">
+      <c r="G14" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="H14" s="25" t="n">
+      <c r="H14" s="22" t="n">
         <v>2320</v>
       </c>
       <c r="J14" t="n">
@@ -16734,22 +16507,22 @@
       <c r="B15" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="25" t="n">
+      <c r="C15" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="D15" s="25" t="n">
+      <c r="D15" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="E15" s="25" t="n">
+      <c r="E15" s="22" t="n">
         <v>1520</v>
       </c>
-      <c r="F15" s="25" t="n">
+      <c r="F15" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="G15" s="25" t="n">
+      <c r="G15" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="H15" s="25" t="n">
+      <c r="H15" s="22" t="n">
         <v>2720</v>
       </c>
       <c r="J15" t="n">
@@ -16784,27 +16557,27 @@
       <c r="B16" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="25" t="n">
+      <c r="C16" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="D16" s="25" t="n">
+      <c r="D16" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="E16" s="25" t="n">
+      <c r="E16" s="22" t="n">
         <v>1720</v>
       </c>
-      <c r="F16" s="25" t="n">
+      <c r="F16" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="G16" s="25" t="n">
+      <c r="G16" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="H16" s="25" t="n">
+      <c r="H16" s="22" t="n">
         <v>3120</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>1 NT</t>
         </is>
@@ -16812,22 +16585,22 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="25" t="n">
+      <c r="C17" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="D17" s="25" t="n">
+      <c r="D17" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="E17" s="25" t="n">
+      <c r="E17" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="F17" s="25" t="n">
+      <c r="F17" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="G17" s="25" t="n">
+      <c r="G17" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="H17" s="25" t="n">
+      <c r="H17" s="22" t="n">
         <v>760</v>
       </c>
     </row>
@@ -16835,22 +16608,22 @@
       <c r="B18" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="25" t="n">
+      <c r="C18" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="D18" s="25" t="n">
+      <c r="D18" s="22" t="n">
         <v>280</v>
       </c>
-      <c r="E18" s="25" t="n">
+      <c r="E18" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="F18" s="25" t="n">
+      <c r="F18" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="G18" s="25" t="n">
+      <c r="G18" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="H18" s="25" t="n">
+      <c r="H18" s="22" t="n">
         <v>1160</v>
       </c>
     </row>
@@ -16858,22 +16631,22 @@
       <c r="B19" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="25" t="n">
+      <c r="C19" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D19" s="25" t="n">
+      <c r="D19" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="E19" s="25" t="n">
+      <c r="E19" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="F19" s="25" t="n">
+      <c r="F19" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G19" s="25" t="n">
+      <c r="G19" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="H19" s="25" t="n">
+      <c r="H19" s="22" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -16881,22 +16654,22 @@
       <c r="B20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" s="25" t="n">
+      <c r="C20" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="D20" s="25" t="n">
+      <c r="D20" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="E20" s="25" t="n">
+      <c r="E20" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="F20" s="25" t="n">
+      <c r="F20" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="G20" s="25" t="n">
+      <c r="G20" s="22" t="n">
         <v>780</v>
       </c>
-      <c r="H20" s="25" t="n">
+      <c r="H20" s="22" t="n">
         <v>1960</v>
       </c>
     </row>
@@ -16904,22 +16677,22 @@
       <c r="B21" t="n">
         <v>5</v>
       </c>
-      <c r="C21" s="25" t="n">
+      <c r="C21" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="D21" s="25" t="n">
+      <c r="D21" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="E21" s="25" t="n">
+      <c r="E21" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="F21" s="25" t="n">
+      <c r="F21" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="G21" s="25" t="n">
+      <c r="G21" s="22" t="n">
         <v>980</v>
       </c>
-      <c r="H21" s="25" t="n">
+      <c r="H21" s="22" t="n">
         <v>2360</v>
       </c>
     </row>
@@ -16927,22 +16700,22 @@
       <c r="B22" t="n">
         <v>6</v>
       </c>
-      <c r="C22" s="25" t="n">
+      <c r="C22" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="D22" s="25" t="n">
+      <c r="D22" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="E22" s="25" t="n">
+      <c r="E22" s="22" t="n">
         <v>1560</v>
       </c>
-      <c r="F22" s="25" t="n">
+      <c r="F22" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="G22" s="25" t="n">
+      <c r="G22" s="22" t="n">
         <v>1180</v>
       </c>
-      <c r="H22" s="25" t="n">
+      <c r="H22" s="22" t="n">
         <v>2760</v>
       </c>
     </row>
@@ -16950,27 +16723,27 @@
       <c r="B23" t="n">
         <v>7</v>
       </c>
-      <c r="C23" s="25" t="n">
+      <c r="C23" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="D23" s="25" t="n">
+      <c r="D23" s="22" t="n">
         <v>780</v>
       </c>
-      <c r="E23" s="25" t="n">
+      <c r="E23" s="22" t="n">
         <v>1760</v>
       </c>
-      <c r="F23" s="25" t="n">
+      <c r="F23" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="G23" s="25" t="n">
+      <c r="G23" s="22" t="n">
         <v>1380</v>
       </c>
-      <c r="H23" s="25" t="n">
+      <c r="H23" s="22" t="n">
         <v>3160</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>2 D/C</t>
         </is>
@@ -16978,22 +16751,22 @@
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="25" t="n">
+      <c r="C24" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="D24" s="25" t="n">
+      <c r="D24" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="E24" s="25" t="n">
+      <c r="E24" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="F24" s="25" t="n">
+      <c r="F24" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="G24" s="25" t="n">
+      <c r="G24" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="H24" s="25" t="n">
+      <c r="H24" s="22" t="n">
         <v>760</v>
       </c>
     </row>
@@ -17001,22 +16774,22 @@
       <c r="B25" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="25" t="n">
+      <c r="C25" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D25" s="25" t="n">
+      <c r="D25" s="22" t="n">
         <v>280</v>
       </c>
-      <c r="E25" s="25" t="n">
+      <c r="E25" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="F25" s="25" t="n">
+      <c r="F25" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G25" s="25" t="n">
+      <c r="G25" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="H25" s="25" t="n">
+      <c r="H25" s="22" t="n">
         <v>1160</v>
       </c>
     </row>
@@ -17024,22 +16797,22 @@
       <c r="B26" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="25" t="n">
+      <c r="C26" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D26" s="25" t="n">
+      <c r="D26" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="E26" s="25" t="n">
+      <c r="E26" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="F26" s="25" t="n">
+      <c r="F26" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G26" s="25" t="n">
+      <c r="G26" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="H26" s="25" t="n">
+      <c r="H26" s="22" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -17047,22 +16820,22 @@
       <c r="B27" t="n">
         <v>4</v>
       </c>
-      <c r="C27" s="25" t="n">
+      <c r="C27" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D27" s="25" t="n">
+      <c r="D27" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="E27" s="25" t="n">
+      <c r="E27" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="F27" s="25" t="n">
+      <c r="F27" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G27" s="25" t="n">
+      <c r="G27" s="22" t="n">
         <v>780</v>
       </c>
-      <c r="H27" s="25" t="n">
+      <c r="H27" s="22" t="n">
         <v>1960</v>
       </c>
     </row>
@@ -17070,22 +16843,22 @@
       <c r="B28" t="n">
         <v>5</v>
       </c>
-      <c r="C28" s="25" t="n">
+      <c r="C28" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D28" s="25" t="n">
+      <c r="D28" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="E28" s="25" t="n">
+      <c r="E28" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="F28" s="25" t="n">
+      <c r="F28" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G28" s="25" t="n">
+      <c r="G28" s="22" t="n">
         <v>980</v>
       </c>
-      <c r="H28" s="25" t="n">
+      <c r="H28" s="22" t="n">
         <v>2360</v>
       </c>
     </row>
@@ -17093,27 +16866,27 @@
       <c r="B29" t="n">
         <v>6</v>
       </c>
-      <c r="C29" s="25" t="n">
+      <c r="C29" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D29" s="25" t="n">
+      <c r="D29" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="E29" s="25" t="n">
+      <c r="E29" s="22" t="n">
         <v>1560</v>
       </c>
-      <c r="F29" s="25" t="n">
+      <c r="F29" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G29" s="25" t="n">
+      <c r="G29" s="22" t="n">
         <v>1180</v>
       </c>
-      <c r="H29" s="25" t="n">
+      <c r="H29" s="22" t="n">
         <v>2760</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>2 H/S</t>
         </is>
@@ -17121,22 +16894,22 @@
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="25" t="n">
+      <c r="C30" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D30" s="25" t="n">
+      <c r="D30" s="22" t="n">
         <v>470</v>
       </c>
-      <c r="E30" s="25" t="n">
+      <c r="E30" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="F30" s="25" t="n">
+      <c r="F30" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G30" s="25" t="n">
+      <c r="G30" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="H30" s="25" t="n">
+      <c r="H30" s="22" t="n">
         <v>840</v>
       </c>
     </row>
@@ -17144,22 +16917,22 @@
       <c r="B31" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="25" t="n">
+      <c r="C31" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="D31" s="25" t="n">
+      <c r="D31" s="22" t="n">
         <v>570</v>
       </c>
-      <c r="E31" s="25" t="n">
+      <c r="E31" s="22" t="n">
         <v>840</v>
       </c>
-      <c r="F31" s="25" t="n">
+      <c r="F31" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="G31" s="25" t="n">
+      <c r="G31" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="H31" s="25" t="n">
+      <c r="H31" s="22" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -17167,22 +16940,22 @@
       <c r="B32" t="n">
         <v>3</v>
       </c>
-      <c r="C32" s="25" t="n">
+      <c r="C32" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D32" s="25" t="n">
+      <c r="D32" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="E32" s="25" t="n">
+      <c r="E32" s="22" t="n">
         <v>1040</v>
       </c>
-      <c r="F32" s="25" t="n">
+      <c r="F32" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G32" s="25" t="n">
+      <c r="G32" s="22" t="n">
         <v>1070</v>
       </c>
-      <c r="H32" s="25" t="n">
+      <c r="H32" s="22" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -17190,22 +16963,22 @@
       <c r="B33" t="n">
         <v>4</v>
       </c>
-      <c r="C33" s="25" t="n">
+      <c r="C33" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="D33" s="25" t="n">
+      <c r="D33" s="22" t="n">
         <v>770</v>
       </c>
-      <c r="E33" s="25" t="n">
+      <c r="E33" s="22" t="n">
         <v>1240</v>
       </c>
-      <c r="F33" s="25" t="n">
+      <c r="F33" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="G33" s="25" t="n">
+      <c r="G33" s="22" t="n">
         <v>1270</v>
       </c>
-      <c r="H33" s="25" t="n">
+      <c r="H33" s="22" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -17213,22 +16986,22 @@
       <c r="B34" t="n">
         <v>5</v>
       </c>
-      <c r="C34" s="25" t="n">
+      <c r="C34" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="D34" s="25" t="n">
+      <c r="D34" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="E34" s="25" t="n">
+      <c r="E34" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="F34" s="25" t="n">
+      <c r="F34" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="G34" s="25" t="n">
+      <c r="G34" s="22" t="n">
         <v>1470</v>
       </c>
-      <c r="H34" s="25" t="n">
+      <c r="H34" s="22" t="n">
         <v>2440</v>
       </c>
     </row>
@@ -17236,27 +17009,27 @@
       <c r="B35" t="n">
         <v>6</v>
       </c>
-      <c r="C35" s="25" t="n">
+      <c r="C35" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="D35" s="25" t="n">
+      <c r="D35" s="22" t="n">
         <v>970</v>
       </c>
-      <c r="E35" s="25" t="n">
+      <c r="E35" s="22" t="n">
         <v>1640</v>
       </c>
-      <c r="F35" s="25" t="n">
+      <c r="F35" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="G35" s="25" t="n">
+      <c r="G35" s="22" t="n">
         <v>1670</v>
       </c>
-      <c r="H35" s="25" t="n">
+      <c r="H35" s="22" t="n">
         <v>2840</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>2 NT</t>
         </is>
@@ -17264,22 +17037,22 @@
       <c r="B36" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="25" t="n">
+      <c r="C36" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="D36" s="25" t="n">
+      <c r="D36" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="E36" s="25" t="n">
+      <c r="E36" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="F36" s="25" t="n">
+      <c r="F36" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="G36" s="25" t="n">
+      <c r="G36" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="H36" s="25" t="n">
+      <c r="H36" s="22" t="n">
         <v>880</v>
       </c>
     </row>
@@ -17287,22 +17060,22 @@
       <c r="B37" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="25" t="n">
+      <c r="C37" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D37" s="25" t="n">
+      <c r="D37" s="22" t="n">
         <v>590</v>
       </c>
-      <c r="E37" s="25" t="n">
+      <c r="E37" s="22" t="n">
         <v>880</v>
       </c>
-      <c r="F37" s="25" t="n">
+      <c r="F37" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G37" s="25" t="n">
+      <c r="G37" s="22" t="n">
         <v>890</v>
       </c>
-      <c r="H37" s="25" t="n">
+      <c r="H37" s="22" t="n">
         <v>1280</v>
       </c>
     </row>
@@ -17310,22 +17083,22 @@
       <c r="B38" t="n">
         <v>3</v>
       </c>
-      <c r="C38" s="25" t="n">
+      <c r="C38" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="D38" s="25" t="n">
+      <c r="D38" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="E38" s="25" t="n">
+      <c r="E38" s="22" t="n">
         <v>1080</v>
       </c>
-      <c r="F38" s="25" t="n">
+      <c r="F38" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="G38" s="25" t="n">
+      <c r="G38" s="22" t="n">
         <v>1090</v>
       </c>
-      <c r="H38" s="25" t="n">
+      <c r="H38" s="22" t="n">
         <v>1680</v>
       </c>
     </row>
@@ -17333,22 +17106,22 @@
       <c r="B39" t="n">
         <v>4</v>
       </c>
-      <c r="C39" s="25" t="n">
+      <c r="C39" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="D39" s="25" t="n">
+      <c r="D39" s="22" t="n">
         <v>790</v>
       </c>
-      <c r="E39" s="25" t="n">
+      <c r="E39" s="22" t="n">
         <v>1280</v>
       </c>
-      <c r="F39" s="25" t="n">
+      <c r="F39" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="G39" s="25" t="n">
+      <c r="G39" s="22" t="n">
         <v>1290</v>
       </c>
-      <c r="H39" s="25" t="n">
+      <c r="H39" s="22" t="n">
         <v>2080</v>
       </c>
     </row>
@@ -17356,22 +17129,22 @@
       <c r="B40" t="n">
         <v>5</v>
       </c>
-      <c r="C40" s="25" t="n">
+      <c r="C40" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="D40" s="25" t="n">
+      <c r="D40" s="22" t="n">
         <v>890</v>
       </c>
-      <c r="E40" s="25" t="n">
+      <c r="E40" s="22" t="n">
         <v>1480</v>
       </c>
-      <c r="F40" s="25" t="n">
+      <c r="F40" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="G40" s="25" t="n">
+      <c r="G40" s="22" t="n">
         <v>1490</v>
       </c>
-      <c r="H40" s="25" t="n">
+      <c r="H40" s="22" t="n">
         <v>2480</v>
       </c>
     </row>
@@ -17379,27 +17152,27 @@
       <c r="B41" t="n">
         <v>6</v>
       </c>
-      <c r="C41" s="25" t="n">
+      <c r="C41" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="D41" s="25" t="n">
+      <c r="D41" s="22" t="n">
         <v>990</v>
       </c>
-      <c r="E41" s="25" t="n">
+      <c r="E41" s="22" t="n">
         <v>1680</v>
       </c>
-      <c r="F41" s="25" t="n">
+      <c r="F41" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="G41" s="25" t="n">
+      <c r="G41" s="22" t="n">
         <v>1690</v>
       </c>
-      <c r="H41" s="25" t="n">
+      <c r="H41" s="22" t="n">
         <v>2880</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>3 D/C</t>
         </is>
@@ -17407,22 +17180,22 @@
       <c r="B42" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="25" t="n">
+      <c r="C42" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D42" s="25" t="n">
+      <c r="D42" s="22" t="n">
         <v>470</v>
       </c>
-      <c r="E42" s="25" t="n">
+      <c r="E42" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="F42" s="25" t="n">
+      <c r="F42" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G42" s="25" t="n">
+      <c r="G42" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="H42" s="25" t="n">
+      <c r="H42" s="22" t="n">
         <v>840</v>
       </c>
     </row>
@@ -17430,22 +17203,22 @@
       <c r="B43" t="n">
         <v>2</v>
       </c>
-      <c r="C43" s="25" t="n">
+      <c r="C43" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D43" s="25" t="n">
+      <c r="D43" s="22" t="n">
         <v>570</v>
       </c>
-      <c r="E43" s="25" t="n">
+      <c r="E43" s="22" t="n">
         <v>840</v>
       </c>
-      <c r="F43" s="25" t="n">
+      <c r="F43" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G43" s="25" t="n">
+      <c r="G43" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="H43" s="25" t="n">
+      <c r="H43" s="22" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -17453,22 +17226,22 @@
       <c r="B44" t="n">
         <v>3</v>
       </c>
-      <c r="C44" s="25" t="n">
+      <c r="C44" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D44" s="25" t="n">
+      <c r="D44" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="E44" s="25" t="n">
+      <c r="E44" s="22" t="n">
         <v>1040</v>
       </c>
-      <c r="F44" s="25" t="n">
+      <c r="F44" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G44" s="25" t="n">
+      <c r="G44" s="22" t="n">
         <v>1070</v>
       </c>
-      <c r="H44" s="25" t="n">
+      <c r="H44" s="22" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -17476,22 +17249,22 @@
       <c r="B45" t="n">
         <v>4</v>
       </c>
-      <c r="C45" s="25" t="n">
+      <c r="C45" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D45" s="25" t="n">
+      <c r="D45" s="22" t="n">
         <v>770</v>
       </c>
-      <c r="E45" s="25" t="n">
+      <c r="E45" s="22" t="n">
         <v>1240</v>
       </c>
-      <c r="F45" s="25" t="n">
+      <c r="F45" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G45" s="25" t="n">
+      <c r="G45" s="22" t="n">
         <v>1270</v>
       </c>
-      <c r="H45" s="25" t="n">
+      <c r="H45" s="22" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -17499,27 +17272,27 @@
       <c r="B46" t="n">
         <v>5</v>
       </c>
-      <c r="C46" s="25" t="n">
+      <c r="C46" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D46" s="25" t="n">
+      <c r="D46" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="E46" s="25" t="n">
+      <c r="E46" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="F46" s="25" t="n">
+      <c r="F46" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G46" s="25" t="n">
+      <c r="G46" s="22" t="n">
         <v>1470</v>
       </c>
-      <c r="H46" s="25" t="n">
+      <c r="H46" s="22" t="n">
         <v>2440</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>3 H/S</t>
         </is>
@@ -17527,22 +17300,22 @@
       <c r="B47" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="25" t="n">
+      <c r="C47" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="D47" s="25" t="n">
+      <c r="D47" s="22" t="n">
         <v>530</v>
       </c>
-      <c r="E47" s="25" t="n">
+      <c r="E47" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="F47" s="25" t="n">
+      <c r="F47" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="G47" s="25" t="n">
+      <c r="G47" s="22" t="n">
         <v>730</v>
       </c>
-      <c r="H47" s="25" t="n">
+      <c r="H47" s="22" t="n">
         <v>960</v>
       </c>
     </row>
@@ -17550,22 +17323,22 @@
       <c r="B48" t="n">
         <v>2</v>
       </c>
-      <c r="C48" s="25" t="n">
+      <c r="C48" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D48" s="25" t="n">
+      <c r="D48" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="E48" s="25" t="n">
+      <c r="E48" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="F48" s="25" t="n">
+      <c r="F48" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G48" s="25" t="n">
+      <c r="G48" s="22" t="n">
         <v>930</v>
       </c>
-      <c r="H48" s="25" t="n">
+      <c r="H48" s="22" t="n">
         <v>1360</v>
       </c>
     </row>
@@ -17573,22 +17346,22 @@
       <c r="B49" t="n">
         <v>3</v>
       </c>
-      <c r="C49" s="25" t="n">
+      <c r="C49" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="D49" s="25" t="n">
+      <c r="D49" s="22" t="n">
         <v>730</v>
       </c>
-      <c r="E49" s="25" t="n">
+      <c r="E49" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="F49" s="25" t="n">
+      <c r="F49" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="G49" s="25" t="n">
+      <c r="G49" s="22" t="n">
         <v>1130</v>
       </c>
-      <c r="H49" s="25" t="n">
+      <c r="H49" s="22" t="n">
         <v>1760</v>
       </c>
     </row>
@@ -17596,22 +17369,22 @@
       <c r="B50" t="n">
         <v>4</v>
       </c>
-      <c r="C50" s="25" t="n">
+      <c r="C50" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="D50" s="25" t="n">
+      <c r="D50" s="22" t="n">
         <v>830</v>
       </c>
-      <c r="E50" s="25" t="n">
+      <c r="E50" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="F50" s="25" t="n">
+      <c r="F50" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="G50" s="25" t="n">
+      <c r="G50" s="22" t="n">
         <v>1330</v>
       </c>
-      <c r="H50" s="25" t="n">
+      <c r="H50" s="22" t="n">
         <v>2160</v>
       </c>
     </row>
@@ -17619,27 +17392,27 @@
       <c r="B51" t="n">
         <v>5</v>
       </c>
-      <c r="C51" s="25" t="n">
+      <c r="C51" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="D51" s="25" t="n">
+      <c r="D51" s="22" t="n">
         <v>930</v>
       </c>
-      <c r="E51" s="25" t="n">
+      <c r="E51" s="22" t="n">
         <v>1560</v>
       </c>
-      <c r="F51" s="25" t="n">
+      <c r="F51" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="G51" s="25" t="n">
+      <c r="G51" s="22" t="n">
         <v>1530</v>
       </c>
-      <c r="H51" s="25" t="n">
+      <c r="H51" s="22" t="n">
         <v>2560</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>3 NT</t>
         </is>
@@ -17647,22 +17420,22 @@
       <c r="B52" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="25" t="n">
+      <c r="C52" s="22" t="n">
         <v>400</v>
       </c>
-      <c r="D52" s="25" t="n">
+      <c r="D52" s="22" t="n">
         <v>550</v>
       </c>
-      <c r="E52" s="25" t="n">
+      <c r="E52" s="22" t="n">
         <v>800</v>
       </c>
-      <c r="F52" s="25" t="n">
+      <c r="F52" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="G52" s="25" t="n">
+      <c r="G52" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="H52" s="25" t="n">
+      <c r="H52" s="22" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -17670,22 +17443,22 @@
       <c r="B53" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="25" t="n">
+      <c r="C53" s="22" t="n">
         <v>430</v>
       </c>
-      <c r="D53" s="25" t="n">
+      <c r="D53" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="E53" s="25" t="n">
+      <c r="E53" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="F53" s="25" t="n">
+      <c r="F53" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="G53" s="25" t="n">
+      <c r="G53" s="22" t="n">
         <v>950</v>
       </c>
-      <c r="H53" s="25" t="n">
+      <c r="H53" s="22" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -17693,22 +17466,22 @@
       <c r="B54" t="n">
         <v>3</v>
       </c>
-      <c r="C54" s="25" t="n">
+      <c r="C54" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="D54" s="25" t="n">
+      <c r="D54" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="E54" s="25" t="n">
+      <c r="E54" s="22" t="n">
         <v>1200</v>
       </c>
-      <c r="F54" s="25" t="n">
+      <c r="F54" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="G54" s="25" t="n">
+      <c r="G54" s="22" t="n">
         <v>1150</v>
       </c>
-      <c r="H54" s="25" t="n">
+      <c r="H54" s="22" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -17716,22 +17489,22 @@
       <c r="B55" t="n">
         <v>4</v>
       </c>
-      <c r="C55" s="25" t="n">
+      <c r="C55" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="D55" s="25" t="n">
+      <c r="D55" s="22" t="n">
         <v>850</v>
       </c>
-      <c r="E55" s="25" t="n">
+      <c r="E55" s="22" t="n">
         <v>1400</v>
       </c>
-      <c r="F55" s="25" t="n">
+      <c r="F55" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="G55" s="25" t="n">
+      <c r="G55" s="22" t="n">
         <v>1350</v>
       </c>
-      <c r="H55" s="25" t="n">
+      <c r="H55" s="22" t="n">
         <v>2200</v>
       </c>
     </row>
@@ -17739,27 +17512,27 @@
       <c r="B56" t="n">
         <v>5</v>
       </c>
-      <c r="C56" s="25" t="n">
+      <c r="C56" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="D56" s="25" t="n">
+      <c r="D56" s="22" t="n">
         <v>950</v>
       </c>
-      <c r="E56" s="25" t="n">
+      <c r="E56" s="22" t="n">
         <v>1600</v>
       </c>
-      <c r="F56" s="25" t="n">
+      <c r="F56" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="G56" s="25" t="n">
+      <c r="G56" s="22" t="n">
         <v>1550</v>
       </c>
-      <c r="H56" s="25" t="n">
+      <c r="H56" s="22" t="n">
         <v>2600</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>4 D/C</t>
         </is>
@@ -17767,22 +17540,22 @@
       <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="C57" s="25" t="n">
+      <c r="C57" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D57" s="25" t="n">
+      <c r="D57" s="22" t="n">
         <v>510</v>
       </c>
-      <c r="E57" s="25" t="n">
+      <c r="E57" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="F57" s="25" t="n">
+      <c r="F57" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G57" s="25" t="n">
+      <c r="G57" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="H57" s="25" t="n">
+      <c r="H57" s="22" t="n">
         <v>920</v>
       </c>
     </row>
@@ -17790,22 +17563,22 @@
       <c r="B58" t="n">
         <v>2</v>
       </c>
-      <c r="C58" s="25" t="n">
+      <c r="C58" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D58" s="25" t="n">
+      <c r="D58" s="22" t="n">
         <v>610</v>
       </c>
-      <c r="E58" s="25" t="n">
+      <c r="E58" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="F58" s="25" t="n">
+      <c r="F58" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G58" s="25" t="n">
+      <c r="G58" s="22" t="n">
         <v>910</v>
       </c>
-      <c r="H58" s="25" t="n">
+      <c r="H58" s="22" t="n">
         <v>1320</v>
       </c>
     </row>
@@ -17813,22 +17586,22 @@
       <c r="B59" t="n">
         <v>3</v>
       </c>
-      <c r="C59" s="25" t="n">
+      <c r="C59" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D59" s="25" t="n">
+      <c r="D59" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="E59" s="25" t="n">
+      <c r="E59" s="22" t="n">
         <v>1120</v>
       </c>
-      <c r="F59" s="25" t="n">
+      <c r="F59" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G59" s="25" t="n">
+      <c r="G59" s="22" t="n">
         <v>1110</v>
       </c>
-      <c r="H59" s="25" t="n">
+      <c r="H59" s="22" t="n">
         <v>1720</v>
       </c>
     </row>
@@ -17836,27 +17609,27 @@
       <c r="B60" t="n">
         <v>4</v>
       </c>
-      <c r="C60" s="25" t="n">
+      <c r="C60" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D60" s="25" t="n">
+      <c r="D60" s="22" t="n">
         <v>810</v>
       </c>
-      <c r="E60" s="25" t="n">
+      <c r="E60" s="22" t="n">
         <v>1320</v>
       </c>
-      <c r="F60" s="25" t="n">
+      <c r="F60" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G60" s="25" t="n">
+      <c r="G60" s="22" t="n">
         <v>1310</v>
       </c>
-      <c r="H60" s="25" t="n">
+      <c r="H60" s="22" t="n">
         <v>2120</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>4 H/S</t>
         </is>
@@ -17864,22 +17637,22 @@
       <c r="B61" t="n">
         <v>1</v>
       </c>
-      <c r="C61" s="25" t="n">
+      <c r="C61" s="22" t="n">
         <v>420</v>
       </c>
-      <c r="D61" s="25" t="n">
+      <c r="D61" s="22" t="n">
         <v>590</v>
       </c>
-      <c r="E61" s="25" t="n">
+      <c r="E61" s="22" t="n">
         <v>880</v>
       </c>
-      <c r="F61" s="25" t="n">
+      <c r="F61" s="22" t="n">
         <v>620</v>
       </c>
-      <c r="G61" s="25" t="n">
+      <c r="G61" s="22" t="n">
         <v>790</v>
       </c>
-      <c r="H61" s="25" t="n">
+      <c r="H61" s="22" t="n">
         <v>1080</v>
       </c>
     </row>
@@ -17887,22 +17660,22 @@
       <c r="B62" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="25" t="n">
+      <c r="C62" s="22" t="n">
         <v>450</v>
       </c>
-      <c r="D62" s="25" t="n">
+      <c r="D62" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="E62" s="25" t="n">
+      <c r="E62" s="22" t="n">
         <v>1080</v>
       </c>
-      <c r="F62" s="25" t="n">
+      <c r="F62" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="G62" s="25" t="n">
+      <c r="G62" s="22" t="n">
         <v>990</v>
       </c>
-      <c r="H62" s="25" t="n">
+      <c r="H62" s="22" t="n">
         <v>1480</v>
       </c>
     </row>
@@ -17910,22 +17683,22 @@
       <c r="B63" t="n">
         <v>3</v>
       </c>
-      <c r="C63" s="25" t="n">
+      <c r="C63" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="D63" s="25" t="n">
+      <c r="D63" s="22" t="n">
         <v>790</v>
       </c>
-      <c r="E63" s="25" t="n">
+      <c r="E63" s="22" t="n">
         <v>1280</v>
       </c>
-      <c r="F63" s="25" t="n">
+      <c r="F63" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="G63" s="25" t="n">
+      <c r="G63" s="22" t="n">
         <v>1190</v>
       </c>
-      <c r="H63" s="25" t="n">
+      <c r="H63" s="22" t="n">
         <v>1880</v>
       </c>
     </row>
@@ -17933,27 +17706,27 @@
       <c r="B64" t="n">
         <v>4</v>
       </c>
-      <c r="C64" s="25" t="n">
+      <c r="C64" s="22" t="n">
         <v>510</v>
       </c>
-      <c r="D64" s="25" t="n">
+      <c r="D64" s="22" t="n">
         <v>890</v>
       </c>
-      <c r="E64" s="25" t="n">
+      <c r="E64" s="22" t="n">
         <v>1480</v>
       </c>
-      <c r="F64" s="25" t="n">
+      <c r="F64" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="G64" s="25" t="n">
+      <c r="G64" s="22" t="n">
         <v>1390</v>
       </c>
-      <c r="H64" s="25" t="n">
+      <c r="H64" s="22" t="n">
         <v>2280</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>4 NT</t>
         </is>
@@ -17961,22 +17734,22 @@
       <c r="B65" t="n">
         <v>1</v>
       </c>
-      <c r="C65" s="25" t="n">
+      <c r="C65" s="22" t="n">
         <v>430</v>
       </c>
-      <c r="D65" s="25" t="n">
+      <c r="D65" s="22" t="n">
         <v>610</v>
       </c>
-      <c r="E65" s="25" t="n">
+      <c r="E65" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="F65" s="25" t="n">
+      <c r="F65" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="G65" s="25" t="n">
+      <c r="G65" s="22" t="n">
         <v>810</v>
       </c>
-      <c r="H65" s="25" t="n">
+      <c r="H65" s="22" t="n">
         <v>1120</v>
       </c>
     </row>
@@ -17984,22 +17757,22 @@
       <c r="B66" t="n">
         <v>2</v>
       </c>
-      <c r="C66" s="25" t="n">
+      <c r="C66" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="D66" s="25" t="n">
+      <c r="D66" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="E66" s="25" t="n">
+      <c r="E66" s="22" t="n">
         <v>1120</v>
       </c>
-      <c r="F66" s="25" t="n">
+      <c r="F66" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="G66" s="25" t="n">
+      <c r="G66" s="22" t="n">
         <v>1010</v>
       </c>
-      <c r="H66" s="25" t="n">
+      <c r="H66" s="22" t="n">
         <v>1520</v>
       </c>
     </row>
@@ -18007,22 +17780,22 @@
       <c r="B67" t="n">
         <v>3</v>
       </c>
-      <c r="C67" s="25" t="n">
+      <c r="C67" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="D67" s="25" t="n">
+      <c r="D67" s="22" t="n">
         <v>810</v>
       </c>
-      <c r="E67" s="25" t="n">
+      <c r="E67" s="22" t="n">
         <v>1320</v>
       </c>
-      <c r="F67" s="25" t="n">
+      <c r="F67" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="G67" s="25" t="n">
+      <c r="G67" s="22" t="n">
         <v>1210</v>
       </c>
-      <c r="H67" s="25" t="n">
+      <c r="H67" s="22" t="n">
         <v>1920</v>
       </c>
     </row>
@@ -18030,27 +17803,27 @@
       <c r="B68" t="n">
         <v>4</v>
       </c>
-      <c r="C68" s="25" t="n">
+      <c r="C68" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="D68" s="25" t="n">
+      <c r="D68" s="22" t="n">
         <v>910</v>
       </c>
-      <c r="E68" s="25" t="n">
+      <c r="E68" s="22" t="n">
         <v>1520</v>
       </c>
-      <c r="F68" s="25" t="n">
+      <c r="F68" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="G68" s="25" t="n">
+      <c r="G68" s="22" t="n">
         <v>1410</v>
       </c>
-      <c r="H68" s="25" t="n">
+      <c r="H68" s="22" t="n">
         <v>2320</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>5 D/C</t>
         </is>
@@ -18058,22 +17831,22 @@
       <c r="B69" t="n">
         <v>1</v>
       </c>
-      <c r="C69" s="25" t="n">
+      <c r="C69" s="22" t="n">
         <v>400</v>
       </c>
-      <c r="D69" s="25" t="n">
+      <c r="D69" s="22" t="n">
         <v>550</v>
       </c>
-      <c r="E69" s="25" t="n">
+      <c r="E69" s="22" t="n">
         <v>800</v>
       </c>
-      <c r="F69" s="25" t="n">
+      <c r="F69" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="G69" s="25" t="n">
+      <c r="G69" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="H69" s="25" t="n">
+      <c r="H69" s="22" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -18081,22 +17854,22 @@
       <c r="B70" t="n">
         <v>2</v>
       </c>
-      <c r="C70" s="25" t="n">
+      <c r="C70" s="22" t="n">
         <v>420</v>
       </c>
-      <c r="D70" s="25" t="n">
+      <c r="D70" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="E70" s="25" t="n">
+      <c r="E70" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="F70" s="25" t="n">
+      <c r="F70" s="22" t="n">
         <v>620</v>
       </c>
-      <c r="G70" s="25" t="n">
+      <c r="G70" s="22" t="n">
         <v>950</v>
       </c>
-      <c r="H70" s="25" t="n">
+      <c r="H70" s="22" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -18104,27 +17877,27 @@
       <c r="B71" t="n">
         <v>3</v>
       </c>
-      <c r="C71" s="25" t="n">
+      <c r="C71" s="22" t="n">
         <v>440</v>
       </c>
-      <c r="D71" s="25" t="n">
+      <c r="D71" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="E71" s="25" t="n">
+      <c r="E71" s="22" t="n">
         <v>1200</v>
       </c>
-      <c r="F71" s="25" t="n">
+      <c r="F71" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="G71" s="25" t="n">
+      <c r="G71" s="22" t="n">
         <v>1150</v>
       </c>
-      <c r="H71" s="25" t="n">
+      <c r="H71" s="22" t="n">
         <v>1800</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>5 H/S</t>
         </is>
@@ -18132,22 +17905,22 @@
       <c r="B72" t="n">
         <v>1</v>
       </c>
-      <c r="C72" s="25" t="n">
+      <c r="C72" s="22" t="n">
         <v>450</v>
       </c>
-      <c r="D72" s="25" t="n">
+      <c r="D72" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="E72" s="25" t="n">
+      <c r="E72" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="F72" s="25" t="n">
+      <c r="F72" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="G72" s="25" t="n">
+      <c r="G72" s="22" t="n">
         <v>850</v>
       </c>
-      <c r="H72" s="25" t="n">
+      <c r="H72" s="22" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -18155,22 +17928,22 @@
       <c r="B73" t="n">
         <v>2</v>
       </c>
-      <c r="C73" s="25" t="n">
+      <c r="C73" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="D73" s="25" t="n">
+      <c r="D73" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="E73" s="25" t="n">
+      <c r="E73" s="22" t="n">
         <v>1200</v>
       </c>
-      <c r="F73" s="25" t="n">
+      <c r="F73" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="G73" s="25" t="n">
+      <c r="G73" s="22" t="n">
         <v>1050</v>
       </c>
-      <c r="H73" s="25" t="n">
+      <c r="H73" s="22" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -18178,27 +17951,27 @@
       <c r="B74" t="n">
         <v>3</v>
       </c>
-      <c r="C74" s="25" t="n">
+      <c r="C74" s="22" t="n">
         <v>510</v>
       </c>
-      <c r="D74" s="25" t="n">
+      <c r="D74" s="22" t="n">
         <v>850</v>
       </c>
-      <c r="E74" s="25" t="n">
+      <c r="E74" s="22" t="n">
         <v>1400</v>
       </c>
-      <c r="F74" s="25" t="n">
+      <c r="F74" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="G74" s="25" t="n">
+      <c r="G74" s="22" t="n">
         <v>1250</v>
       </c>
-      <c r="H74" s="25" t="n">
+      <c r="H74" s="22" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>5 NT</t>
         </is>
@@ -18206,22 +17979,22 @@
       <c r="B75" t="n">
         <v>1</v>
       </c>
-      <c r="C75" s="25" t="n">
+      <c r="C75" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="D75" s="25" t="n">
+      <c r="D75" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="E75" s="25" t="n">
+      <c r="E75" s="22" t="n">
         <v>1040</v>
       </c>
-      <c r="F75" s="25" t="n">
+      <c r="F75" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="G75" s="25" t="n">
+      <c r="G75" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="H75" s="25" t="n">
+      <c r="H75" s="22" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -18229,22 +18002,22 @@
       <c r="B76" t="n">
         <v>2</v>
       </c>
-      <c r="C76" s="25" t="n">
+      <c r="C76" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="D76" s="25" t="n">
+      <c r="D76" s="22" t="n">
         <v>770</v>
       </c>
-      <c r="E76" s="25" t="n">
+      <c r="E76" s="22" t="n">
         <v>1240</v>
       </c>
-      <c r="F76" s="25" t="n">
+      <c r="F76" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="G76" s="25" t="n">
+      <c r="G76" s="22" t="n">
         <v>1070</v>
       </c>
-      <c r="H76" s="25" t="n">
+      <c r="H76" s="22" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -18252,27 +18025,27 @@
       <c r="B77" t="n">
         <v>3</v>
       </c>
-      <c r="C77" s="25" t="n">
+      <c r="C77" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="D77" s="25" t="n">
+      <c r="D77" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="E77" s="25" t="n">
+      <c r="E77" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="F77" s="25" t="n">
+      <c r="F77" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="G77" s="25" t="n">
+      <c r="G77" s="22" t="n">
         <v>1270</v>
       </c>
-      <c r="H77" s="25" t="n">
+      <c r="H77" s="22" t="n">
         <v>2040</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>6 D/C</t>
         </is>
@@ -18280,22 +18053,22 @@
       <c r="B78" t="n">
         <v>1</v>
       </c>
-      <c r="C78" s="25" t="n">
+      <c r="C78" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="D78" s="25" t="n">
+      <c r="D78" s="22" t="n">
         <v>1090</v>
       </c>
-      <c r="E78" s="25" t="n">
+      <c r="E78" s="22" t="n">
         <v>1380</v>
       </c>
-      <c r="F78" s="25" t="n">
+      <c r="F78" s="22" t="n">
         <v>1370</v>
       </c>
-      <c r="G78" s="25" t="n">
+      <c r="G78" s="22" t="n">
         <v>1540</v>
       </c>
-      <c r="H78" s="25" t="n">
+      <c r="H78" s="22" t="n">
         <v>1830</v>
       </c>
     </row>
@@ -18303,27 +18076,27 @@
       <c r="B79" t="n">
         <v>2</v>
       </c>
-      <c r="C79" s="25" t="n">
+      <c r="C79" s="22" t="n">
         <v>940</v>
       </c>
-      <c r="D79" s="25" t="n">
+      <c r="D79" s="22" t="n">
         <v>1190</v>
       </c>
-      <c r="E79" s="25" t="n">
+      <c r="E79" s="22" t="n">
         <v>1580</v>
       </c>
-      <c r="F79" s="25" t="n">
+      <c r="F79" s="22" t="n">
         <v>1390</v>
       </c>
-      <c r="G79" s="25" t="n">
+      <c r="G79" s="22" t="n">
         <v>1740</v>
       </c>
-      <c r="H79" s="25" t="n">
+      <c r="H79" s="22" t="n">
         <v>2230</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="inlineStr">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>6 H/S</t>
         </is>
@@ -18331,22 +18104,22 @@
       <c r="B80" t="n">
         <v>1</v>
       </c>
-      <c r="C80" s="25" t="n">
+      <c r="C80" s="22" t="n">
         <v>980</v>
       </c>
-      <c r="D80" s="25" t="n">
+      <c r="D80" s="22" t="n">
         <v>1210</v>
       </c>
-      <c r="E80" s="25" t="n">
+      <c r="E80" s="22" t="n">
         <v>1620</v>
       </c>
-      <c r="F80" s="25" t="n">
+      <c r="F80" s="22" t="n">
         <v>1430</v>
       </c>
-      <c r="G80" s="25" t="n">
+      <c r="G80" s="22" t="n">
         <v>1660</v>
       </c>
-      <c r="H80" s="25" t="n">
+      <c r="H80" s="22" t="n">
         <v>2070</v>
       </c>
     </row>
@@ -18354,27 +18127,27 @@
       <c r="B81" t="n">
         <v>2</v>
       </c>
-      <c r="C81" s="25" t="n">
+      <c r="C81" s="22" t="n">
         <v>1010</v>
       </c>
-      <c r="D81" s="25" t="n">
+      <c r="D81" s="22" t="n">
         <v>1310</v>
       </c>
-      <c r="E81" s="25" t="n">
+      <c r="E81" s="22" t="n">
         <v>1820</v>
       </c>
-      <c r="F81" s="25" t="n">
+      <c r="F81" s="22" t="n">
         <v>1460</v>
       </c>
-      <c r="G81" s="25" t="n">
+      <c r="G81" s="22" t="n">
         <v>1860</v>
       </c>
-      <c r="H81" s="25" t="n">
+      <c r="H81" s="22" t="n">
         <v>2470</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>6 NT</t>
         </is>
@@ -18382,22 +18155,22 @@
       <c r="B82" t="n">
         <v>1</v>
       </c>
-      <c r="C82" s="25" t="n">
+      <c r="C82" s="22" t="n">
         <v>990</v>
       </c>
-      <c r="D82" s="25" t="n">
+      <c r="D82" s="22" t="n">
         <v>1230</v>
       </c>
-      <c r="E82" s="25" t="n">
+      <c r="E82" s="22" t="n">
         <v>1660</v>
       </c>
-      <c r="F82" s="25" t="n">
+      <c r="F82" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="G82" s="25" t="n">
+      <c r="G82" s="22" t="n">
         <v>1680</v>
       </c>
-      <c r="H82" s="25" t="n">
+      <c r="H82" s="22" t="n">
         <v>2110</v>
       </c>
     </row>
@@ -18405,27 +18178,27 @@
       <c r="B83" t="n">
         <v>2</v>
       </c>
-      <c r="C83" s="25" t="n">
+      <c r="C83" s="22" t="n">
         <v>1020</v>
       </c>
-      <c r="D83" s="25" t="n">
+      <c r="D83" s="22" t="n">
         <v>1330</v>
       </c>
-      <c r="E83" s="25" t="n">
+      <c r="E83" s="22" t="n">
         <v>1860</v>
       </c>
-      <c r="F83" s="25" t="n">
+      <c r="F83" s="22" t="n">
         <v>1470</v>
       </c>
-      <c r="G83" s="25" t="n">
+      <c r="G83" s="22" t="n">
         <v>1880</v>
       </c>
-      <c r="H83" s="25" t="n">
+      <c r="H83" s="22" t="n">
         <v>2510</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="inlineStr">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>7 D/C</t>
         </is>
@@ -18433,27 +18206,27 @@
       <c r="B84" t="n">
         <v>1</v>
       </c>
-      <c r="C84" s="25" t="n">
+      <c r="C84" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="D84" s="25" t="n">
+      <c r="D84" s="22" t="n">
         <v>1630</v>
       </c>
-      <c r="E84" s="25" t="n">
+      <c r="E84" s="22" t="n">
         <v>1960</v>
       </c>
-      <c r="F84" s="25" t="n">
+      <c r="F84" s="22" t="n">
         <v>2140</v>
       </c>
-      <c r="G84" s="25" t="n">
+      <c r="G84" s="22" t="n">
         <v>2330</v>
       </c>
-      <c r="H84" s="25" t="n">
+      <c r="H84" s="22" t="n">
         <v>2660</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="inlineStr">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>7 H/S</t>
         </is>
@@ -18461,27 +18234,27 @@
       <c r="B85" t="n">
         <v>1</v>
       </c>
-      <c r="C85" s="25" t="n">
+      <c r="C85" s="22" t="n">
         <v>1510</v>
       </c>
-      <c r="D85" s="25" t="n">
+      <c r="D85" s="22" t="n">
         <v>1770</v>
       </c>
-      <c r="E85" s="25" t="n">
+      <c r="E85" s="22" t="n">
         <v>2240</v>
       </c>
-      <c r="F85" s="25" t="n">
+      <c r="F85" s="22" t="n">
         <v>2210</v>
       </c>
-      <c r="G85" s="25" t="n">
+      <c r="G85" s="22" t="n">
         <v>2470</v>
       </c>
-      <c r="H85" s="25" t="n">
+      <c r="H85" s="22" t="n">
         <v>2940</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>7 NT</t>
         </is>
@@ -18489,22 +18262,22 @@
       <c r="B86" t="n">
         <v>1</v>
       </c>
-      <c r="C86" s="25" t="n">
+      <c r="C86" s="22" t="n">
         <v>1520</v>
       </c>
-      <c r="D86" s="25" t="n">
+      <c r="D86" s="22" t="n">
         <v>1790</v>
       </c>
-      <c r="E86" s="25" t="n">
+      <c r="E86" s="22" t="n">
         <v>2280</v>
       </c>
-      <c r="F86" s="25" t="n">
+      <c r="F86" s="22" t="n">
         <v>2220</v>
       </c>
-      <c r="G86" s="25" t="n">
+      <c r="G86" s="22" t="n">
         <v>2490</v>
       </c>
-      <c r="H86" s="25" t="n">
+      <c r="H86" s="22" t="n">
         <v>2980</v>
       </c>
     </row>

--- a/howell9.xlsx
+++ b/howell9.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 04, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 05, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 22</t>
+          <t>Name 58</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 68</t>
+          <t>Name 90</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 42</t>
+          <t>Name 73</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 62</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 53</t>
+          <t>Name 24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 76</t>
+          <t>Name 80</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 59</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 79</t>
+          <t>Name 17</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 84</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 85</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 11</t>
+          <t>Name 55</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 83</t>
+          <t>Name 79</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 41</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 84</t>
+          <t>Name 67</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 48</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 53</t>
+          <t>Name 62</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 57</t>
+          <t>Name 23</t>
         </is>
       </c>
       <c r="D18" s="4">

--- a/howell9.xlsx
+++ b/howell9.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 05, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 06, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 90</t>
+          <t>Name 34</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 73</t>
+          <t>Name 38</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 27</t>
+          <t>Name 44</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 70</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 80</t>
+          <t>Name 47</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 59</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 17</t>
+          <t>Name 49</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 84</t>
+          <t>Name 31</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 43</t>
+          <t>Name 58</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 55</t>
+          <t>Name 13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 79</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 42</t>
+          <t>Name 45</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -761,7 +761,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 48</t>
+          <t>Name 32</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 62</t>
+          <t>Name 58</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 23</t>
+          <t>Name 18</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -13702,7 +13702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13714,1773 +13714,1834 @@
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Round</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Table</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Board</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Vul</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>By</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
           <t>Scores</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Table</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="A2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="16" t="n"/>
+      <c r="C3" s="16" t="n"/>
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="G3" s="15" t="n"/>
+      <c r="H3" s="15" t="n"/>
+      <c r="I3" s="15" t="n"/>
+      <c r="J3" s="15" t="n"/>
+      <c r="K3" s="15" t="n"/>
+      <c r="L3" s="15" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Board</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Vul</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>By</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="B5" s="16" t="n"/>
+      <c r="C5" s="16" t="n"/>
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G5" s="15" t="n"/>
+      <c r="H5" s="15" t="n"/>
+      <c r="I5" s="15" t="n"/>
+      <c r="J5" s="15" t="n"/>
+      <c r="K5" s="15" t="n"/>
+      <c r="L5" s="15" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="B7" s="16" t="n"/>
+      <c r="C7" s="16" t="n"/>
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="n">
+      <c r="G7" s="15" t="n"/>
+      <c r="H7" s="15" t="n"/>
+      <c r="I7" s="15" t="n"/>
+      <c r="J7" s="15" t="n"/>
+      <c r="K7" s="15" t="n"/>
+      <c r="L7" s="15" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="16" t="n"/>
+      <c r="C9" s="16" t="n"/>
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G9" s="15" t="n"/>
+      <c r="H9" s="15" t="n"/>
+      <c r="I9" s="15" t="n"/>
+      <c r="J9" s="15" t="n"/>
+      <c r="K9" s="15" t="n"/>
+      <c r="L9" s="15" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="n"/>
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="16" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F11" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G11" s="15" t="n"/>
+      <c r="H11" s="15" t="n"/>
+      <c r="I11" s="15" t="n"/>
+      <c r="J11" s="15" t="n"/>
+      <c r="K11" s="15" t="n"/>
+      <c r="L11" s="15" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="C12" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="16" t="n"/>
+      <c r="D13" s="16" t="n"/>
+      <c r="E13" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G13" s="15" t="n"/>
+      <c r="H13" s="15" t="n"/>
+      <c r="I13" s="15" t="n"/>
+      <c r="J13" s="15" t="n"/>
+      <c r="K13" s="15" t="n"/>
+      <c r="L13" s="15" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11" t="n">
+      <c r="D14" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="16" t="n"/>
+      <c r="D15" s="16" t="n"/>
+      <c r="E15" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G15" s="15" t="n"/>
+      <c r="H15" s="15" t="n"/>
+      <c r="I15" s="15" t="n"/>
+      <c r="J15" s="15" t="n"/>
+      <c r="K15" s="15" t="n"/>
+      <c r="L15" s="15" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="16" t="n"/>
+      <c r="D17" s="16" t="n"/>
+      <c r="E17" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G17" s="15" t="n"/>
+      <c r="H17" s="15" t="n"/>
+      <c r="I17" s="15" t="n"/>
+      <c r="J17" s="15" t="n"/>
+      <c r="K17" s="15" t="n"/>
+      <c r="L17" s="15" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F18" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="16" t="n"/>
+      <c r="D19" s="16" t="n"/>
+      <c r="E19" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F19" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G19" s="15" t="n"/>
+      <c r="H19" s="15" t="n"/>
+      <c r="I19" s="15" t="n"/>
+      <c r="J19" s="15" t="n"/>
+      <c r="K19" s="15" t="n"/>
+      <c r="L19" s="15" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="F20" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="15" t="n"/>
+      <c r="B21" s="16" t="n"/>
+      <c r="C21" s="16" t="n"/>
+      <c r="D21" s="16" t="n"/>
+      <c r="E21" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G21" s="15" t="n"/>
+      <c r="H21" s="15" t="n"/>
+      <c r="I21" s="15" t="n"/>
+      <c r="J21" s="15" t="n"/>
+      <c r="K21" s="15" t="n"/>
+      <c r="L21" s="15" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="C22" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="16" t="n"/>
+      <c r="D23" s="16" t="n"/>
+      <c r="E23" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G23" s="15" t="n"/>
+      <c r="H23" s="15" t="n"/>
+      <c r="I23" s="15" t="n"/>
+      <c r="J23" s="15" t="n"/>
+      <c r="K23" s="15" t="n"/>
+      <c r="L23" s="15" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="16" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="16" t="n"/>
-      <c r="C4" s="16" t="n"/>
-      <c r="D4" s="16" t="n"/>
-      <c r="E4" s="16" t="n">
+      <c r="G25" s="15" t="n"/>
+      <c r="H25" s="15" t="n"/>
+      <c r="I25" s="15" t="n"/>
+      <c r="J25" s="15" t="n"/>
+      <c r="K25" s="15" t="n"/>
+      <c r="L25" s="15" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F26" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="16" t="n"/>
+      <c r="D27" s="16" t="n"/>
+      <c r="E27" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G27" s="15" t="n"/>
+      <c r="H27" s="15" t="n"/>
+      <c r="I27" s="15" t="n"/>
+      <c r="J27" s="15" t="n"/>
+      <c r="K27" s="15" t="n"/>
+      <c r="L27" s="15" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="16" t="n"/>
+      <c r="D29" s="16" t="n"/>
+      <c r="E29" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="inlineStr">
+      <c r="F29" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G4" s="15" t="n"/>
-      <c r="H4" s="15" t="n"/>
-      <c r="I4" s="15" t="n"/>
-      <c r="J4" s="15" t="n"/>
-      <c r="K4" s="15" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="11" t="n">
+      <c r="G29" s="15" t="n"/>
+      <c r="H29" s="15" t="n"/>
+      <c r="I29" s="15" t="n"/>
+      <c r="J29" s="15" t="n"/>
+      <c r="K29" s="15" t="n"/>
+      <c r="L29" s="15" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="15" t="n"/>
+      <c r="B31" s="16" t="n"/>
+      <c r="C31" s="16" t="n"/>
+      <c r="D31" s="16" t="n"/>
+      <c r="E31" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G31" s="15" t="n"/>
+      <c r="H31" s="15" t="n"/>
+      <c r="I31" s="15" t="n"/>
+      <c r="J31" s="15" t="n"/>
+      <c r="K31" s="15" t="n"/>
+      <c r="L31" s="15" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D32" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="16" t="n"/>
+      <c r="C33" s="16" t="n"/>
+      <c r="D33" s="16" t="n"/>
+      <c r="E33" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G33" s="15" t="n"/>
+      <c r="H33" s="15" t="n"/>
+      <c r="I33" s="15" t="n"/>
+      <c r="J33" s="15" t="n"/>
+      <c r="K33" s="15" t="n"/>
+      <c r="L33" s="15" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C34" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="F34" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="16" t="n"/>
+      <c r="C35" s="16" t="n"/>
+      <c r="D35" s="16" t="n"/>
+      <c r="E35" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G35" s="15" t="n"/>
+      <c r="H35" s="15" t="n"/>
+      <c r="I35" s="15" t="n"/>
+      <c r="J35" s="15" t="n"/>
+      <c r="K35" s="15" t="n"/>
+      <c r="L35" s="15" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D36" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E36" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F36" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="16" t="n"/>
+      <c r="C37" s="16" t="n"/>
+      <c r="D37" s="16" t="n"/>
+      <c r="E37" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F37" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G37" s="15" t="n"/>
+      <c r="H37" s="15" t="n"/>
+      <c r="I37" s="15" t="n"/>
+      <c r="J37" s="15" t="n"/>
+      <c r="K37" s="15" t="n"/>
+      <c r="L37" s="15" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="16" t="n"/>
+      <c r="C39" s="16" t="n"/>
+      <c r="D39" s="16" t="n"/>
+      <c r="E39" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G39" s="15" t="n"/>
+      <c r="H39" s="15" t="n"/>
+      <c r="I39" s="15" t="n"/>
+      <c r="J39" s="15" t="n"/>
+      <c r="K39" s="15" t="n"/>
+      <c r="L39" s="15" t="n"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="D40" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="15" t="n"/>
+      <c r="B41" s="16" t="n"/>
+      <c r="C41" s="16" t="n"/>
+      <c r="D41" s="16" t="n"/>
+      <c r="E41" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F41" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G41" s="15" t="n"/>
+      <c r="H41" s="15" t="n"/>
+      <c r="I41" s="15" t="n"/>
+      <c r="J41" s="15" t="n"/>
+      <c r="K41" s="15" t="n"/>
+      <c r="L41" s="15" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D42" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F42" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="16" t="n"/>
+      <c r="C43" s="16" t="n"/>
+      <c r="D43" s="16" t="n"/>
+      <c r="E43" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G43" s="15" t="n"/>
+      <c r="H43" s="15" t="n"/>
+      <c r="I43" s="15" t="n"/>
+      <c r="J43" s="15" t="n"/>
+      <c r="K43" s="15" t="n"/>
+      <c r="L43" s="15" t="n"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="E44" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F44" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="16" t="n"/>
+      <c r="C45" s="16" t="n"/>
+      <c r="D45" s="16" t="n"/>
+      <c r="E45" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F45" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G45" s="15" t="n"/>
+      <c r="H45" s="15" t="n"/>
+      <c r="I45" s="15" t="n"/>
+      <c r="J45" s="15" t="n"/>
+      <c r="K45" s="15" t="n"/>
+      <c r="L45" s="15" t="n"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E46" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F46" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="16" t="n"/>
+      <c r="C47" s="16" t="n"/>
+      <c r="D47" s="16" t="n"/>
+      <c r="E47" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F47" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G47" s="15" t="n"/>
+      <c r="H47" s="15" t="n"/>
+      <c r="I47" s="15" t="n"/>
+      <c r="J47" s="15" t="n"/>
+      <c r="K47" s="15" t="n"/>
+      <c r="L47" s="15" t="n"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D48" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="16" t="n"/>
+      <c r="C49" s="16" t="n"/>
+      <c r="D49" s="16" t="n"/>
+      <c r="E49" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F49" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="16" t="n"/>
-      <c r="C6" s="16" t="n"/>
-      <c r="D6" s="16" t="n"/>
-      <c r="E6" s="16" t="n">
+      <c r="G49" s="15" t="n"/>
+      <c r="H49" s="15" t="n"/>
+      <c r="I49" s="15" t="n"/>
+      <c r="J49" s="15" t="n"/>
+      <c r="K49" s="15" t="n"/>
+      <c r="L49" s="15" t="n"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D50" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F50" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="15" t="n"/>
+      <c r="B51" s="16" t="n"/>
+      <c r="C51" s="16" t="n"/>
+      <c r="D51" s="16" t="n"/>
+      <c r="E51" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F51" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G51" s="15" t="n"/>
+      <c r="H51" s="15" t="n"/>
+      <c r="I51" s="15" t="n"/>
+      <c r="J51" s="15" t="n"/>
+      <c r="K51" s="15" t="n"/>
+      <c r="L51" s="15" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B52" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D52" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E52" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F52" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="16" t="n"/>
+      <c r="C53" s="16" t="n"/>
+      <c r="D53" s="16" t="n"/>
+      <c r="E53" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F53" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G53" s="15" t="n"/>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" s="15" t="n"/>
+      <c r="J53" s="15" t="n"/>
+      <c r="K53" s="15" t="n"/>
+      <c r="L53" s="15" t="n"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D54" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="16" t="inlineStr">
+      <c r="E54" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F54" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G6" s="15" t="n"/>
-      <c r="H6" s="15" t="n"/>
-      <c r="I6" s="15" t="n"/>
-      <c r="J6" s="15" t="n"/>
-      <c r="K6" s="15" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="11" t="n">
+    </row>
+    <row r="55">
+      <c r="B55" s="16" t="n"/>
+      <c r="C55" s="16" t="n"/>
+      <c r="D55" s="16" t="n"/>
+      <c r="E55" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F55" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G55" s="15" t="n"/>
+      <c r="H55" s="15" t="n"/>
+      <c r="I55" s="15" t="n"/>
+      <c r="J55" s="15" t="n"/>
+      <c r="K55" s="15" t="n"/>
+      <c r="L55" s="15" t="n"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C56" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E56" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F56" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="16" t="n"/>
+      <c r="C57" s="16" t="n"/>
+      <c r="D57" s="16" t="n"/>
+      <c r="E57" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F57" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G57" s="15" t="n"/>
+      <c r="H57" s="15" t="n"/>
+      <c r="I57" s="15" t="n"/>
+      <c r="J57" s="15" t="n"/>
+      <c r="K57" s="15" t="n"/>
+      <c r="L57" s="15" t="n"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C58" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D58" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F58" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="16" t="n"/>
+      <c r="C59" s="16" t="n"/>
+      <c r="D59" s="16" t="n"/>
+      <c r="E59" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F59" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G59" s="15" t="n"/>
+      <c r="H59" s="15" t="n"/>
+      <c r="I59" s="15" t="n"/>
+      <c r="J59" s="15" t="n"/>
+      <c r="K59" s="15" t="n"/>
+      <c r="L59" s="15" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E60" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F60" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="15" t="n"/>
+      <c r="B61" s="16" t="n"/>
+      <c r="C61" s="16" t="n"/>
+      <c r="D61" s="16" t="n"/>
+      <c r="E61" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F61" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G61" s="15" t="n"/>
+      <c r="H61" s="15" t="n"/>
+      <c r="I61" s="15" t="n"/>
+      <c r="J61" s="15" t="n"/>
+      <c r="K61" s="15" t="n"/>
+      <c r="L61" s="15" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B62" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D62" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E62" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F62" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="16" t="n"/>
+      <c r="C63" s="16" t="n"/>
+      <c r="D63" s="16" t="n"/>
+      <c r="E63" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F63" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G63" s="15" t="n"/>
+      <c r="H63" s="15" t="n"/>
+      <c r="I63" s="15" t="n"/>
+      <c r="J63" s="15" t="n"/>
+      <c r="K63" s="15" t="n"/>
+      <c r="L63" s="15" t="n"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D64" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F64" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="16" t="n"/>
+      <c r="C65" s="16" t="n"/>
+      <c r="D65" s="16" t="n"/>
+      <c r="E65" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F65" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G65" s="15" t="n"/>
+      <c r="H65" s="15" t="n"/>
+      <c r="I65" s="15" t="n"/>
+      <c r="J65" s="15" t="n"/>
+      <c r="K65" s="15" t="n"/>
+      <c r="L65" s="15" t="n"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F66" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="16" t="n"/>
+      <c r="C67" s="16" t="n"/>
+      <c r="D67" s="16" t="n"/>
+      <c r="E67" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F67" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G67" s="15" t="n"/>
+      <c r="H67" s="15" t="n"/>
+      <c r="I67" s="15" t="n"/>
+      <c r="J67" s="15" t="n"/>
+      <c r="K67" s="15" t="n"/>
+      <c r="L67" s="15" t="n"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="C68" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D68" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E68" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F68" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="16" t="n"/>
+      <c r="C69" s="16" t="n"/>
+      <c r="D69" s="16" t="n"/>
+      <c r="E69" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F69" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G69" s="15" t="n"/>
+      <c r="H69" s="15" t="n"/>
+      <c r="I69" s="15" t="n"/>
+      <c r="J69" s="15" t="n"/>
+      <c r="K69" s="15" t="n"/>
+      <c r="L69" s="15" t="n"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="11" t="inlineStr">
+      <c r="C70" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E70" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F70" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="15" t="n"/>
+      <c r="B71" s="16" t="n"/>
+      <c r="C71" s="16" t="n"/>
+      <c r="D71" s="16" t="n"/>
+      <c r="E71" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F71" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="16" t="n"/>
-      <c r="C8" s="16" t="n"/>
-      <c r="D8" s="16" t="n"/>
-      <c r="E8" s="16" t="n">
+      <c r="G71" s="15" t="n"/>
+      <c r="H71" s="15" t="n"/>
+      <c r="I71" s="15" t="n"/>
+      <c r="J71" s="15" t="n"/>
+      <c r="K71" s="15" t="n"/>
+      <c r="L71" s="15" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B72" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D72" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E72" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F72" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="16" t="n"/>
+      <c r="C73" s="16" t="n"/>
+      <c r="D73" s="16" t="n"/>
+      <c r="E73" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F73" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G73" s="15" t="n"/>
+      <c r="H73" s="15" t="n"/>
+      <c r="I73" s="15" t="n"/>
+      <c r="J73" s="15" t="n"/>
+      <c r="K73" s="15" t="n"/>
+      <c r="L73" s="15" t="n"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D74" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="16" t="inlineStr">
+      <c r="E74" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F74" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="16" t="n"/>
+      <c r="C75" s="16" t="n"/>
+      <c r="D75" s="16" t="n"/>
+      <c r="E75" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F75" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G75" s="15" t="n"/>
+      <c r="H75" s="15" t="n"/>
+      <c r="I75" s="15" t="n"/>
+      <c r="J75" s="15" t="n"/>
+      <c r="K75" s="15" t="n"/>
+      <c r="L75" s="15" t="n"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D76" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="16" t="n"/>
+      <c r="C77" s="16" t="n"/>
+      <c r="D77" s="16" t="n"/>
+      <c r="E77" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G77" s="15" t="n"/>
+      <c r="H77" s="15" t="n"/>
+      <c r="I77" s="15" t="n"/>
+      <c r="J77" s="15" t="n"/>
+      <c r="K77" s="15" t="n"/>
+      <c r="L77" s="15" t="n"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F78" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="16" t="n"/>
+      <c r="C79" s="16" t="n"/>
+      <c r="D79" s="16" t="n"/>
+      <c r="E79" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F79" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G79" s="15" t="n"/>
+      <c r="H79" s="15" t="n"/>
+      <c r="I79" s="15" t="n"/>
+      <c r="J79" s="15" t="n"/>
+      <c r="K79" s="15" t="n"/>
+      <c r="L79" s="15" t="n"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C80" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E80" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F80" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="15" t="n"/>
+      <c r="B81" s="16" t="n"/>
+      <c r="C81" s="16" t="n"/>
+      <c r="D81" s="16" t="n"/>
+      <c r="E81" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F81" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G81" s="15" t="n"/>
+      <c r="H81" s="15" t="n"/>
+      <c r="I81" s="15" t="n"/>
+      <c r="J81" s="15" t="n"/>
+      <c r="K81" s="15" t="n"/>
+      <c r="L81" s="15" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B82" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D82" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E82" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F82" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="16" t="n"/>
+      <c r="C83" s="16" t="n"/>
+      <c r="D83" s="16" t="n"/>
+      <c r="E83" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F83" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G83" s="15" t="n"/>
+      <c r="H83" s="15" t="n"/>
+      <c r="I83" s="15" t="n"/>
+      <c r="J83" s="15" t="n"/>
+      <c r="K83" s="15" t="n"/>
+      <c r="L83" s="15" t="n"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D84" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E84" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="16" t="n"/>
+      <c r="C85" s="16" t="n"/>
+      <c r="D85" s="16" t="n"/>
+      <c r="E85" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F85" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G85" s="15" t="n"/>
+      <c r="H85" s="15" t="n"/>
+      <c r="I85" s="15" t="n"/>
+      <c r="J85" s="15" t="n"/>
+      <c r="K85" s="15" t="n"/>
+      <c r="L85" s="15" t="n"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D86" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E86" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G8" s="15" t="n"/>
-      <c r="H8" s="15" t="n"/>
-      <c r="I8" s="15" t="n"/>
-      <c r="J8" s="15" t="n"/>
-      <c r="K8" s="15" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="11" t="n">
+    </row>
+    <row r="87">
+      <c r="B87" s="16" t="n"/>
+      <c r="C87" s="16" t="n"/>
+      <c r="D87" s="16" t="n"/>
+      <c r="E87" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E9" s="11" t="n">
+      <c r="F87" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G87" s="15" t="n"/>
+      <c r="H87" s="15" t="n"/>
+      <c r="I87" s="15" t="n"/>
+      <c r="J87" s="15" t="n"/>
+      <c r="K87" s="15" t="n"/>
+      <c r="L87" s="15" t="n"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C88" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E88" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F88" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="16" t="n"/>
+      <c r="C89" s="16" t="n"/>
+      <c r="D89" s="16" t="n"/>
+      <c r="E89" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F89" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G89" s="15" t="n"/>
+      <c r="H89" s="15" t="n"/>
+      <c r="I89" s="15" t="n"/>
+      <c r="J89" s="15" t="n"/>
+      <c r="K89" s="15" t="n"/>
+      <c r="L89" s="15" t="n"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C90" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D90" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="F90" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="16" t="n"/>
-      <c r="C10" s="16" t="n"/>
-      <c r="D10" s="16" t="n"/>
-      <c r="E10" s="16" t="n">
+    <row r="91">
+      <c r="A91" s="15" t="n"/>
+      <c r="B91" s="16" t="n"/>
+      <c r="C91" s="16" t="n"/>
+      <c r="D91" s="16" t="n"/>
+      <c r="E91" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F10" s="16" t="inlineStr">
+      <c r="F91" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G10" s="15" t="n"/>
-      <c r="H10" s="15" t="n"/>
-      <c r="I10" s="15" t="n"/>
-      <c r="J10" s="15" t="n"/>
-      <c r="K10" s="15" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F11" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="15" t="n"/>
-      <c r="B12" s="16" t="n"/>
-      <c r="C12" s="16" t="n"/>
-      <c r="D12" s="16" t="n"/>
-      <c r="E12" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F12" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G12" s="15" t="n"/>
-      <c r="H12" s="15" t="n"/>
-      <c r="I12" s="15" t="n"/>
-      <c r="J12" s="15" t="n"/>
-      <c r="K12" s="15" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="16" t="n"/>
-      <c r="C14" s="16" t="n"/>
-      <c r="D14" s="16" t="n"/>
-      <c r="E14" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G14" s="15" t="n"/>
-      <c r="H14" s="15" t="n"/>
-      <c r="I14" s="15" t="n"/>
-      <c r="J14" s="15" t="n"/>
-      <c r="K14" s="15" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E15" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="16" t="n"/>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G16" s="15" t="n"/>
-      <c r="H16" s="15" t="n"/>
-      <c r="I16" s="15" t="n"/>
-      <c r="J16" s="15" t="n"/>
-      <c r="K16" s="15" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D17" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F17" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="16" t="n"/>
-      <c r="D18" s="16" t="n"/>
-      <c r="E18" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F18" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G18" s="15" t="n"/>
-      <c r="H18" s="15" t="n"/>
-      <c r="I18" s="15" t="n"/>
-      <c r="J18" s="15" t="n"/>
-      <c r="K18" s="15" t="n"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E19" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F19" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="16" t="n"/>
-      <c r="C20" s="16" t="n"/>
-      <c r="D20" s="16" t="n"/>
-      <c r="E20" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F20" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G20" s="15" t="n"/>
-      <c r="H20" s="15" t="n"/>
-      <c r="I20" s="15" t="n"/>
-      <c r="J20" s="15" t="n"/>
-      <c r="K20" s="15" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D21" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="15" t="n"/>
-      <c r="B22" s="16" t="n"/>
-      <c r="C22" s="16" t="n"/>
-      <c r="D22" s="16" t="n"/>
-      <c r="E22" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G22" s="15" t="n"/>
-      <c r="H22" s="15" t="n"/>
-      <c r="I22" s="15" t="n"/>
-      <c r="J22" s="15" t="n"/>
-      <c r="K22" s="15" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F23" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="16" t="n"/>
-      <c r="C24" s="16" t="n"/>
-      <c r="D24" s="16" t="n"/>
-      <c r="E24" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F24" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G24" s="15" t="n"/>
-      <c r="H24" s="15" t="n"/>
-      <c r="I24" s="15" t="n"/>
-      <c r="J24" s="15" t="n"/>
-      <c r="K24" s="15" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F25" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="16" t="n"/>
-      <c r="C26" s="16" t="n"/>
-      <c r="D26" s="16" t="n"/>
-      <c r="E26" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F26" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G26" s="15" t="n"/>
-      <c r="H26" s="15" t="n"/>
-      <c r="I26" s="15" t="n"/>
-      <c r="J26" s="15" t="n"/>
-      <c r="K26" s="15" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="D27" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E27" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F27" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="16" t="n"/>
-      <c r="D28" s="16" t="n"/>
-      <c r="E28" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F28" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G28" s="15" t="n"/>
-      <c r="H28" s="15" t="n"/>
-      <c r="I28" s="15" t="n"/>
-      <c r="J28" s="15" t="n"/>
-      <c r="K28" s="15" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C29" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D29" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="16" t="n"/>
-      <c r="C30" s="16" t="n"/>
-      <c r="D30" s="16" t="n"/>
-      <c r="E30" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G30" s="15" t="n"/>
-      <c r="H30" s="15" t="n"/>
-      <c r="I30" s="15" t="n"/>
-      <c r="J30" s="15" t="n"/>
-      <c r="K30" s="15" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C31" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D31" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E31" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F31" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="15" t="n"/>
-      <c r="B32" s="16" t="n"/>
-      <c r="C32" s="16" t="n"/>
-      <c r="D32" s="16" t="n"/>
-      <c r="E32" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F32" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G32" s="15" t="n"/>
-      <c r="H32" s="15" t="n"/>
-      <c r="I32" s="15" t="n"/>
-      <c r="J32" s="15" t="n"/>
-      <c r="K32" s="15" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F33" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="16" t="n"/>
-      <c r="C34" s="16" t="n"/>
-      <c r="D34" s="16" t="n"/>
-      <c r="E34" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F34" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G34" s="15" t="n"/>
-      <c r="H34" s="15" t="n"/>
-      <c r="I34" s="15" t="n"/>
-      <c r="J34" s="15" t="n"/>
-      <c r="K34" s="15" t="n"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C35" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D35" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F35" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="16" t="n"/>
-      <c r="C36" s="16" t="n"/>
-      <c r="D36" s="16" t="n"/>
-      <c r="E36" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F36" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G36" s="15" t="n"/>
-      <c r="H36" s="15" t="n"/>
-      <c r="I36" s="15" t="n"/>
-      <c r="J36" s="15" t="n"/>
-      <c r="K36" s="15" t="n"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C37" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D37" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E37" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F37" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="16" t="n"/>
-      <c r="C38" s="16" t="n"/>
-      <c r="D38" s="16" t="n"/>
-      <c r="E38" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F38" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G38" s="15" t="n"/>
-      <c r="H38" s="15" t="n"/>
-      <c r="I38" s="15" t="n"/>
-      <c r="J38" s="15" t="n"/>
-      <c r="K38" s="15" t="n"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C39" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D39" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F39" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="16" t="n"/>
-      <c r="C40" s="16" t="n"/>
-      <c r="D40" s="16" t="n"/>
-      <c r="E40" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F40" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G40" s="15" t="n"/>
-      <c r="H40" s="15" t="n"/>
-      <c r="I40" s="15" t="n"/>
-      <c r="J40" s="15" t="n"/>
-      <c r="K40" s="15" t="n"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C41" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="D41" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E41" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F41" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="15" t="n"/>
-      <c r="B42" s="16" t="n"/>
-      <c r="C42" s="16" t="n"/>
-      <c r="D42" s="16" t="n"/>
-      <c r="E42" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F42" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G42" s="15" t="n"/>
-      <c r="H42" s="15" t="n"/>
-      <c r="I42" s="15" t="n"/>
-      <c r="J42" s="15" t="n"/>
-      <c r="K42" s="15" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B43" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E43" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F43" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="16" t="n"/>
-      <c r="C44" s="16" t="n"/>
-      <c r="D44" s="16" t="n"/>
-      <c r="E44" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F44" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G44" s="15" t="n"/>
-      <c r="H44" s="15" t="n"/>
-      <c r="I44" s="15" t="n"/>
-      <c r="J44" s="15" t="n"/>
-      <c r="K44" s="15" t="n"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C45" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D45" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E45" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F45" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="16" t="n"/>
-      <c r="C46" s="16" t="n"/>
-      <c r="D46" s="16" t="n"/>
-      <c r="E46" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F46" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G46" s="15" t="n"/>
-      <c r="H46" s="15" t="n"/>
-      <c r="I46" s="15" t="n"/>
-      <c r="J46" s="15" t="n"/>
-      <c r="K46" s="15" t="n"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C47" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E47" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F47" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="16" t="n"/>
-      <c r="C48" s="16" t="n"/>
-      <c r="D48" s="16" t="n"/>
-      <c r="E48" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F48" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G48" s="15" t="n"/>
-      <c r="H48" s="15" t="n"/>
-      <c r="I48" s="15" t="n"/>
-      <c r="J48" s="15" t="n"/>
-      <c r="K48" s="15" t="n"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C49" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D49" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E49" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F49" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="16" t="n"/>
-      <c r="C50" s="16" t="n"/>
-      <c r="D50" s="16" t="n"/>
-      <c r="E50" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F50" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G50" s="15" t="n"/>
-      <c r="H50" s="15" t="n"/>
-      <c r="I50" s="15" t="n"/>
-      <c r="J50" s="15" t="n"/>
-      <c r="K50" s="15" t="n"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C51" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D51" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E51" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F51" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="15" t="n"/>
-      <c r="B52" s="16" t="n"/>
-      <c r="C52" s="16" t="n"/>
-      <c r="D52" s="16" t="n"/>
-      <c r="E52" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F52" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G52" s="15" t="n"/>
-      <c r="H52" s="15" t="n"/>
-      <c r="I52" s="15" t="n"/>
-      <c r="J52" s="15" t="n"/>
-      <c r="K52" s="15" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="B53" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E53" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F53" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="16" t="n"/>
-      <c r="C54" s="16" t="n"/>
-      <c r="D54" s="16" t="n"/>
-      <c r="E54" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F54" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G54" s="15" t="n"/>
-      <c r="H54" s="15" t="n"/>
-      <c r="I54" s="15" t="n"/>
-      <c r="J54" s="15" t="n"/>
-      <c r="K54" s="15" t="n"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C55" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D55" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E55" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F55" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="16" t="n"/>
-      <c r="C56" s="16" t="n"/>
-      <c r="D56" s="16" t="n"/>
-      <c r="E56" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F56" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G56" s="15" t="n"/>
-      <c r="H56" s="15" t="n"/>
-      <c r="I56" s="15" t="n"/>
-      <c r="J56" s="15" t="n"/>
-      <c r="K56" s="15" t="n"/>
-    </row>
-    <row r="57">
-      <c r="B57" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C57" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D57" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E57" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F57" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="16" t="n"/>
-      <c r="C58" s="16" t="n"/>
-      <c r="D58" s="16" t="n"/>
-      <c r="E58" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F58" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G58" s="15" t="n"/>
-      <c r="H58" s="15" t="n"/>
-      <c r="I58" s="15" t="n"/>
-      <c r="J58" s="15" t="n"/>
-      <c r="K58" s="15" t="n"/>
-    </row>
-    <row r="59">
-      <c r="B59" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C59" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="D59" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E59" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F59" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="16" t="n"/>
-      <c r="C60" s="16" t="n"/>
-      <c r="D60" s="16" t="n"/>
-      <c r="E60" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F60" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G60" s="15" t="n"/>
-      <c r="H60" s="15" t="n"/>
-      <c r="I60" s="15" t="n"/>
-      <c r="J60" s="15" t="n"/>
-      <c r="K60" s="15" t="n"/>
-    </row>
-    <row r="61">
-      <c r="B61" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C61" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E61" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F61" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="15" t="n"/>
-      <c r="B62" s="16" t="n"/>
-      <c r="C62" s="16" t="n"/>
-      <c r="D62" s="16" t="n"/>
-      <c r="E62" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F62" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G62" s="15" t="n"/>
-      <c r="H62" s="15" t="n"/>
-      <c r="I62" s="15" t="n"/>
-      <c r="J62" s="15" t="n"/>
-      <c r="K62" s="15" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B63" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E63" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F63" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="16" t="n"/>
-      <c r="C64" s="16" t="n"/>
-      <c r="D64" s="16" t="n"/>
-      <c r="E64" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F64" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G64" s="15" t="n"/>
-      <c r="H64" s="15" t="n"/>
-      <c r="I64" s="15" t="n"/>
-      <c r="J64" s="15" t="n"/>
-      <c r="K64" s="15" t="n"/>
-    </row>
-    <row r="65">
-      <c r="B65" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C65" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D65" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E65" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F65" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="16" t="n"/>
-      <c r="C66" s="16" t="n"/>
-      <c r="D66" s="16" t="n"/>
-      <c r="E66" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F66" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G66" s="15" t="n"/>
-      <c r="H66" s="15" t="n"/>
-      <c r="I66" s="15" t="n"/>
-      <c r="J66" s="15" t="n"/>
-      <c r="K66" s="15" t="n"/>
-    </row>
-    <row r="67">
-      <c r="B67" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C67" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D67" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F67" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="16" t="n"/>
-      <c r="C68" s="16" t="n"/>
-      <c r="D68" s="16" t="n"/>
-      <c r="E68" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F68" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G68" s="15" t="n"/>
-      <c r="H68" s="15" t="n"/>
-      <c r="I68" s="15" t="n"/>
-      <c r="J68" s="15" t="n"/>
-      <c r="K68" s="15" t="n"/>
-    </row>
-    <row r="69">
-      <c r="B69" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C69" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D69" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E69" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F69" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="16" t="n"/>
-      <c r="C70" s="16" t="n"/>
-      <c r="D70" s="16" t="n"/>
-      <c r="E70" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F70" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G70" s="15" t="n"/>
-      <c r="H70" s="15" t="n"/>
-      <c r="I70" s="15" t="n"/>
-      <c r="J70" s="15" t="n"/>
-      <c r="K70" s="15" t="n"/>
-    </row>
-    <row r="71">
-      <c r="B71" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C71" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D71" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E71" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F71" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="15" t="n"/>
-      <c r="B72" s="16" t="n"/>
-      <c r="C72" s="16" t="n"/>
-      <c r="D72" s="16" t="n"/>
-      <c r="E72" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F72" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G72" s="15" t="n"/>
-      <c r="H72" s="15" t="n"/>
-      <c r="I72" s="15" t="n"/>
-      <c r="J72" s="15" t="n"/>
-      <c r="K72" s="15" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B73" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E73" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F73" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="16" t="n"/>
-      <c r="C74" s="16" t="n"/>
-      <c r="D74" s="16" t="n"/>
-      <c r="E74" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F74" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G74" s="15" t="n"/>
-      <c r="H74" s="15" t="n"/>
-      <c r="I74" s="15" t="n"/>
-      <c r="J74" s="15" t="n"/>
-      <c r="K74" s="15" t="n"/>
-    </row>
-    <row r="75">
-      <c r="B75" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C75" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D75" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E75" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F75" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="16" t="n"/>
-      <c r="C76" s="16" t="n"/>
-      <c r="D76" s="16" t="n"/>
-      <c r="E76" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F76" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G76" s="15" t="n"/>
-      <c r="H76" s="15" t="n"/>
-      <c r="I76" s="15" t="n"/>
-      <c r="J76" s="15" t="n"/>
-      <c r="K76" s="15" t="n"/>
-    </row>
-    <row r="77">
-      <c r="B77" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C77" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D77" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E77" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F77" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="16" t="n"/>
-      <c r="C78" s="16" t="n"/>
-      <c r="D78" s="16" t="n"/>
-      <c r="E78" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F78" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G78" s="15" t="n"/>
-      <c r="H78" s="15" t="n"/>
-      <c r="I78" s="15" t="n"/>
-      <c r="J78" s="15" t="n"/>
-      <c r="K78" s="15" t="n"/>
-    </row>
-    <row r="79">
-      <c r="B79" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C79" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E79" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F79" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" s="16" t="n"/>
-      <c r="C80" s="16" t="n"/>
-      <c r="D80" s="16" t="n"/>
-      <c r="E80" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F80" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G80" s="15" t="n"/>
-      <c r="H80" s="15" t="n"/>
-      <c r="I80" s="15" t="n"/>
-      <c r="J80" s="15" t="n"/>
-      <c r="K80" s="15" t="n"/>
-    </row>
-    <row r="81">
-      <c r="B81" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C81" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D81" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E81" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F81" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="15" t="n"/>
-      <c r="B82" s="16" t="n"/>
-      <c r="C82" s="16" t="n"/>
-      <c r="D82" s="16" t="n"/>
-      <c r="E82" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F82" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G82" s="15" t="n"/>
-      <c r="H82" s="15" t="n"/>
-      <c r="I82" s="15" t="n"/>
-      <c r="J82" s="15" t="n"/>
-      <c r="K82" s="15" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B83" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E83" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F83" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" s="16" t="n"/>
-      <c r="C84" s="16" t="n"/>
-      <c r="D84" s="16" t="n"/>
-      <c r="E84" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="F84" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G84" s="15" t="n"/>
-      <c r="H84" s="15" t="n"/>
-      <c r="I84" s="15" t="n"/>
-      <c r="J84" s="15" t="n"/>
-      <c r="K84" s="15" t="n"/>
-    </row>
-    <row r="85">
-      <c r="B85" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C85" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="D85" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E85" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" s="16" t="n"/>
-      <c r="C86" s="16" t="n"/>
-      <c r="D86" s="16" t="n"/>
-      <c r="E86" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F86" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G86" s="15" t="n"/>
-      <c r="H86" s="15" t="n"/>
-      <c r="I86" s="15" t="n"/>
-      <c r="J86" s="15" t="n"/>
-      <c r="K86" s="15" t="n"/>
-    </row>
-    <row r="87">
-      <c r="B87" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C87" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D87" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E87" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F87" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="B88" s="16" t="n"/>
-      <c r="C88" s="16" t="n"/>
-      <c r="D88" s="16" t="n"/>
-      <c r="E88" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F88" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G88" s="15" t="n"/>
-      <c r="H88" s="15" t="n"/>
-      <c r="I88" s="15" t="n"/>
-      <c r="J88" s="15" t="n"/>
-      <c r="K88" s="15" t="n"/>
-    </row>
-    <row r="89">
-      <c r="B89" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C89" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D89" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E89" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F89" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="16" t="n"/>
-      <c r="C90" s="16" t="n"/>
-      <c r="D90" s="16" t="n"/>
-      <c r="E90" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F90" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G90" s="15" t="n"/>
-      <c r="H90" s="15" t="n"/>
-      <c r="I90" s="15" t="n"/>
-      <c r="J90" s="15" t="n"/>
-      <c r="K90" s="15" t="n"/>
-    </row>
-    <row r="91">
-      <c r="B91" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C91" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D91" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F91" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="15" t="n"/>
-      <c r="B92" s="16" t="n"/>
-      <c r="C92" s="16" t="n"/>
-      <c r="D92" s="16" t="n"/>
-      <c r="E92" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="F92" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G92" s="15" t="n"/>
-      <c r="H92" s="15" t="n"/>
-      <c r="I92" s="15" t="n"/>
-      <c r="J92" s="15" t="n"/>
-      <c r="K92" s="15" t="n"/>
+      <c r="G91" s="15" t="n"/>
+      <c r="H91" s="15" t="n"/>
+      <c r="I91" s="15" t="n"/>
+      <c r="J91" s="15" t="n"/>
+      <c r="K91" s="15" t="n"/>
+      <c r="L91" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/howell9.xlsx
+++ b/howell9.xlsx
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 43</t>
+          <t>Name 35</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 34</t>
+          <t>Name 62</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Name 13</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Name 38</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Name 44</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 70</t>
+          <t>Name 55</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 47</t>
+          <t>Name 35</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 36</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 49</t>
+          <t>Name 47</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 71</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 77</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 13</t>
+          <t>Name 15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 69</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 27</t>
+          <t>Name 70</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 45</t>
+          <t>Name 19</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,7 +756,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 67</t>
+          <t>Name 85</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 89</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 18</t>
+          <t>Name 16</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -13702,7 +13702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M91"/>
+  <dimension ref="A2:K92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13713,1836 +13713,1783 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Scores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="16" t="n"/>
-      <c r="C3" s="16" t="n"/>
-      <c r="D3" s="16" t="n"/>
-      <c r="E3" s="16" t="n">
+    <row r="4">
+      <c r="B4" s="16" t="n"/>
+      <c r="C4" s="16" t="n"/>
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="16" t="inlineStr">
+      <c r="F4" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G3" s="15" t="n"/>
-      <c r="H3" s="15" t="n"/>
-      <c r="I3" s="15" t="n"/>
-      <c r="J3" s="15" t="n"/>
-      <c r="K3" s="15" t="n"/>
-      <c r="L3" s="15" t="n"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="11" t="n">
+      <c r="G4" s="15" t="n"/>
+      <c r="H4" s="15" t="n"/>
+      <c r="I4" s="15" t="n"/>
+      <c r="J4" s="15" t="n"/>
+      <c r="K4" s="15" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C5" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D5" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E5" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F5" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="16" t="n"/>
-      <c r="C5" s="16" t="n"/>
-      <c r="D5" s="16" t="n"/>
-      <c r="E5" s="16" t="n">
+    <row r="6">
+      <c r="B6" s="16" t="n"/>
+      <c r="C6" s="16" t="n"/>
+      <c r="D6" s="16" t="n"/>
+      <c r="E6" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="16" t="inlineStr">
+      <c r="F6" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G5" s="15" t="n"/>
-      <c r="H5" s="15" t="n"/>
-      <c r="I5" s="15" t="n"/>
-      <c r="J5" s="15" t="n"/>
-      <c r="K5" s="15" t="n"/>
-      <c r="L5" s="15" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="11" t="n">
+      <c r="G6" s="15" t="n"/>
+      <c r="H6" s="15" t="n"/>
+      <c r="I6" s="15" t="n"/>
+      <c r="J6" s="15" t="n"/>
+      <c r="K6" s="15" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C7" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D7" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E7" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="16" t="n"/>
-      <c r="C7" s="16" t="n"/>
-      <c r="D7" s="16" t="n"/>
-      <c r="E7" s="16" t="n">
+    <row r="8">
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="16" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="16" t="inlineStr">
+      <c r="F8" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G7" s="15" t="n"/>
-      <c r="H7" s="15" t="n"/>
-      <c r="I7" s="15" t="n"/>
-      <c r="J7" s="15" t="n"/>
-      <c r="K7" s="15" t="n"/>
-      <c r="L7" s="15" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="11" t="n">
+      <c r="G8" s="15" t="n"/>
+      <c r="H8" s="15" t="n"/>
+      <c r="I8" s="15" t="n"/>
+      <c r="J8" s="15" t="n"/>
+      <c r="K8" s="15" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C9" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D9" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E9" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="16" t="n"/>
-      <c r="C9" s="16" t="n"/>
-      <c r="D9" s="16" t="n"/>
-      <c r="E9" s="16" t="n">
+    <row r="10">
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="16" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F9" s="16" t="inlineStr">
+      <c r="F10" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G9" s="15" t="n"/>
-      <c r="H9" s="15" t="n"/>
-      <c r="I9" s="15" t="n"/>
-      <c r="J9" s="15" t="n"/>
-      <c r="K9" s="15" t="n"/>
-      <c r="L9" s="15" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="11" t="n">
+      <c r="G10" s="15" t="n"/>
+      <c r="H10" s="15" t="n"/>
+      <c r="I10" s="15" t="n"/>
+      <c r="J10" s="15" t="n"/>
+      <c r="K10" s="15" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C11" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D11" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E11" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="F11" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="15" t="n"/>
-      <c r="B11" s="16" t="n"/>
-      <c r="C11" s="16" t="n"/>
-      <c r="D11" s="16" t="n"/>
-      <c r="E11" s="16" t="n">
+    <row r="12">
+      <c r="A12" s="15" t="n"/>
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F11" s="16" t="inlineStr">
+      <c r="F12" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G11" s="15" t="n"/>
-      <c r="H11" s="15" t="n"/>
-      <c r="I11" s="15" t="n"/>
-      <c r="J11" s="15" t="n"/>
-      <c r="K11" s="15" t="n"/>
-      <c r="L11" s="15" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="n">
+      <c r="G12" s="15" t="n"/>
+      <c r="H12" s="15" t="n"/>
+      <c r="I12" s="15" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="15" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B13" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="11" t="inlineStr">
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D13" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E13" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="11" t="inlineStr">
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="16" t="n"/>
-      <c r="C13" s="16" t="n"/>
-      <c r="D13" s="16" t="n"/>
-      <c r="E13" s="16" t="n">
+    <row r="14">
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="16" t="n"/>
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F13" s="16" t="inlineStr">
+      <c r="F14" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G13" s="15" t="n"/>
-      <c r="H13" s="15" t="n"/>
-      <c r="I13" s="15" t="n"/>
-      <c r="J13" s="15" t="n"/>
-      <c r="K13" s="15" t="n"/>
-      <c r="L13" s="15" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="11" t="n">
+      <c r="G14" s="15" t="n"/>
+      <c r="H14" s="15" t="n"/>
+      <c r="I14" s="15" t="n"/>
+      <c r="J14" s="15" t="n"/>
+      <c r="K14" s="15" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C15" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D15" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E15" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="16" t="n"/>
-      <c r="C15" s="16" t="n"/>
-      <c r="D15" s="16" t="n"/>
-      <c r="E15" s="16" t="n">
+    <row r="16">
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="16" t="inlineStr">
+      <c r="F16" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G15" s="15" t="n"/>
-      <c r="H15" s="15" t="n"/>
-      <c r="I15" s="15" t="n"/>
-      <c r="J15" s="15" t="n"/>
-      <c r="K15" s="15" t="n"/>
-      <c r="L15" s="15" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="11" t="n">
+      <c r="G16" s="15" t="n"/>
+      <c r="H16" s="15" t="n"/>
+      <c r="I16" s="15" t="n"/>
+      <c r="J16" s="15" t="n"/>
+      <c r="K16" s="15" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C17" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D17" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E17" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F16" s="11" t="inlineStr">
+      <c r="F17" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="16" t="n"/>
-      <c r="C17" s="16" t="n"/>
-      <c r="D17" s="16" t="n"/>
-      <c r="E17" s="16" t="n">
+    <row r="18">
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="16" t="n"/>
+      <c r="D18" s="16" t="n"/>
+      <c r="E18" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F17" s="16" t="inlineStr">
+      <c r="F18" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G17" s="15" t="n"/>
-      <c r="H17" s="15" t="n"/>
-      <c r="I17" s="15" t="n"/>
-      <c r="J17" s="15" t="n"/>
-      <c r="K17" s="15" t="n"/>
-      <c r="L17" s="15" t="n"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="11" t="n">
+      <c r="G18" s="15" t="n"/>
+      <c r="H18" s="15" t="n"/>
+      <c r="I18" s="15" t="n"/>
+      <c r="J18" s="15" t="n"/>
+      <c r="K18" s="15" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C19" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D18" s="11" t="n">
+      <c r="D19" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E19" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F18" s="11" t="inlineStr">
+      <c r="F19" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="16" t="n"/>
-      <c r="D19" s="16" t="n"/>
-      <c r="E19" s="16" t="n">
+    <row r="20">
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="16" t="n"/>
+      <c r="D20" s="16" t="n"/>
+      <c r="E20" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F19" s="16" t="inlineStr">
+      <c r="F20" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G19" s="15" t="n"/>
-      <c r="H19" s="15" t="n"/>
-      <c r="I19" s="15" t="n"/>
-      <c r="J19" s="15" t="n"/>
-      <c r="K19" s="15" t="n"/>
-      <c r="L19" s="15" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="11" t="n">
+      <c r="G20" s="15" t="n"/>
+      <c r="H20" s="15" t="n"/>
+      <c r="I20" s="15" t="n"/>
+      <c r="J20" s="15" t="n"/>
+      <c r="K20" s="15" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C21" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D21" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E20" s="11" t="n">
+      <c r="E21" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="11" t="inlineStr">
+      <c r="F21" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="15" t="n"/>
-      <c r="B21" s="16" t="n"/>
-      <c r="C21" s="16" t="n"/>
-      <c r="D21" s="16" t="n"/>
-      <c r="E21" s="16" t="n">
+    <row r="22">
+      <c r="A22" s="15" t="n"/>
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="16" t="n"/>
+      <c r="D22" s="16" t="n"/>
+      <c r="E22" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="16" t="inlineStr">
+      <c r="F22" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G21" s="15" t="n"/>
-      <c r="H21" s="15" t="n"/>
-      <c r="I21" s="15" t="n"/>
-      <c r="J21" s="15" t="n"/>
-      <c r="K21" s="15" t="n"/>
-      <c r="L21" s="15" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="n">
+      <c r="G22" s="15" t="n"/>
+      <c r="H22" s="15" t="n"/>
+      <c r="I22" s="15" t="n"/>
+      <c r="J22" s="15" t="n"/>
+      <c r="K22" s="15" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B23" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D23" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E22" s="11" t="n">
+      <c r="E23" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F22" s="11" t="inlineStr">
+      <c r="F23" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="16" t="n"/>
-      <c r="D23" s="16" t="n"/>
-      <c r="E23" s="16" t="n">
+    <row r="24">
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="16" t="n"/>
+      <c r="D24" s="16" t="n"/>
+      <c r="E24" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F23" s="16" t="inlineStr">
+      <c r="F24" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G23" s="15" t="n"/>
-      <c r="H23" s="15" t="n"/>
-      <c r="I23" s="15" t="n"/>
-      <c r="J23" s="15" t="n"/>
-      <c r="K23" s="15" t="n"/>
-      <c r="L23" s="15" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="11" t="n">
+      <c r="G24" s="15" t="n"/>
+      <c r="H24" s="15" t="n"/>
+      <c r="I24" s="15" t="n"/>
+      <c r="J24" s="15" t="n"/>
+      <c r="K24" s="15" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C25" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D25" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="11" t="n">
+      <c r="E25" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F24" s="11" t="inlineStr">
+      <c r="F25" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="16" t="n"/>
-      <c r="C25" s="16" t="n"/>
-      <c r="D25" s="16" t="n"/>
-      <c r="E25" s="16" t="n">
+    <row r="26">
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="16" t="n"/>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F25" s="16" t="inlineStr">
+      <c r="F26" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G25" s="15" t="n"/>
-      <c r="H25" s="15" t="n"/>
-      <c r="I25" s="15" t="n"/>
-      <c r="J25" s="15" t="n"/>
-      <c r="K25" s="15" t="n"/>
-      <c r="L25" s="15" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="11" t="n">
+      <c r="G26" s="15" t="n"/>
+      <c r="H26" s="15" t="n"/>
+      <c r="I26" s="15" t="n"/>
+      <c r="J26" s="15" t="n"/>
+      <c r="K26" s="15" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="11" t="n">
+      <c r="C27" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D26" s="11" t="n">
+      <c r="D27" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E26" s="11" t="n">
+      <c r="E27" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F26" s="11" t="inlineStr">
+      <c r="F27" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="16" t="n"/>
-      <c r="C27" s="16" t="n"/>
-      <c r="D27" s="16" t="n"/>
-      <c r="E27" s="16" t="n">
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="16" t="n"/>
+      <c r="D28" s="16" t="n"/>
+      <c r="E28" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F27" s="16" t="inlineStr">
+      <c r="F28" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G27" s="15" t="n"/>
-      <c r="H27" s="15" t="n"/>
-      <c r="I27" s="15" t="n"/>
-      <c r="J27" s="15" t="n"/>
-      <c r="K27" s="15" t="n"/>
-      <c r="L27" s="15" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="11" t="n">
+      <c r="G28" s="15" t="n"/>
+      <c r="H28" s="15" t="n"/>
+      <c r="I28" s="15" t="n"/>
+      <c r="J28" s="15" t="n"/>
+      <c r="K28" s="15" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C28" s="11" t="n">
+      <c r="C29" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D28" s="11" t="n">
+      <c r="D29" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E28" s="11" t="n">
+      <c r="E29" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F28" s="11" t="inlineStr">
+      <c r="F29" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="16" t="n"/>
-      <c r="C29" s="16" t="n"/>
-      <c r="D29" s="16" t="n"/>
-      <c r="E29" s="16" t="n">
+    <row r="30">
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="16" t="n"/>
+      <c r="D30" s="16" t="n"/>
+      <c r="E30" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F29" s="16" t="inlineStr">
+      <c r="F30" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G29" s="15" t="n"/>
-      <c r="H29" s="15" t="n"/>
-      <c r="I29" s="15" t="n"/>
-      <c r="J29" s="15" t="n"/>
-      <c r="K29" s="15" t="n"/>
-      <c r="L29" s="15" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="11" t="n">
+      <c r="G30" s="15" t="n"/>
+      <c r="H30" s="15" t="n"/>
+      <c r="I30" s="15" t="n"/>
+      <c r="J30" s="15" t="n"/>
+      <c r="K30" s="15" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C30" s="11" t="n">
+      <c r="C31" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D30" s="11" t="n">
+      <c r="D31" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E30" s="11" t="n">
+      <c r="E31" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F30" s="11" t="inlineStr">
+      <c r="F31" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="15" t="n"/>
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="16" t="n"/>
-      <c r="D31" s="16" t="n"/>
-      <c r="E31" s="16" t="n">
+    <row r="32">
+      <c r="A32" s="15" t="n"/>
+      <c r="B32" s="16" t="n"/>
+      <c r="C32" s="16" t="n"/>
+      <c r="D32" s="16" t="n"/>
+      <c r="E32" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F31" s="16" t="inlineStr">
+      <c r="F32" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G31" s="15" t="n"/>
-      <c r="H31" s="15" t="n"/>
-      <c r="I31" s="15" t="n"/>
-      <c r="J31" s="15" t="n"/>
-      <c r="K31" s="15" t="n"/>
-      <c r="L31" s="15" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="n">
+      <c r="G32" s="15" t="n"/>
+      <c r="H32" s="15" t="n"/>
+      <c r="I32" s="15" t="n"/>
+      <c r="J32" s="15" t="n"/>
+      <c r="K32" s="15" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B32" s="11" t="n">
+      <c r="B33" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="11" t="inlineStr">
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D32" s="11" t="n">
+      <c r="D33" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E32" s="11" t="n">
+      <c r="E33" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F32" s="11" t="inlineStr">
+      <c r="F33" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="16" t="n"/>
-      <c r="C33" s="16" t="n"/>
-      <c r="D33" s="16" t="n"/>
-      <c r="E33" s="16" t="n">
+    <row r="34">
+      <c r="B34" s="16" t="n"/>
+      <c r="C34" s="16" t="n"/>
+      <c r="D34" s="16" t="n"/>
+      <c r="E34" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F33" s="16" t="inlineStr">
+      <c r="F34" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G33" s="15" t="n"/>
-      <c r="H33" s="15" t="n"/>
-      <c r="I33" s="15" t="n"/>
-      <c r="J33" s="15" t="n"/>
-      <c r="K33" s="15" t="n"/>
-      <c r="L33" s="15" t="n"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="11" t="n">
+      <c r="G34" s="15" t="n"/>
+      <c r="H34" s="15" t="n"/>
+      <c r="I34" s="15" t="n"/>
+      <c r="J34" s="15" t="n"/>
+      <c r="K34" s="15" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="11" t="n">
+      <c r="C35" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D34" s="11" t="n">
+      <c r="D35" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E34" s="11" t="n">
+      <c r="E35" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F34" s="11" t="inlineStr">
+      <c r="F35" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" s="16" t="n"/>
-      <c r="C35" s="16" t="n"/>
-      <c r="D35" s="16" t="n"/>
-      <c r="E35" s="16" t="n">
+    <row r="36">
+      <c r="B36" s="16" t="n"/>
+      <c r="C36" s="16" t="n"/>
+      <c r="D36" s="16" t="n"/>
+      <c r="E36" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F35" s="16" t="inlineStr">
+      <c r="F36" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G35" s="15" t="n"/>
-      <c r="H35" s="15" t="n"/>
-      <c r="I35" s="15" t="n"/>
-      <c r="J35" s="15" t="n"/>
-      <c r="K35" s="15" t="n"/>
-      <c r="L35" s="15" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="11" t="n">
+      <c r="G36" s="15" t="n"/>
+      <c r="H36" s="15" t="n"/>
+      <c r="I36" s="15" t="n"/>
+      <c r="J36" s="15" t="n"/>
+      <c r="K36" s="15" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C36" s="11" t="n">
+      <c r="C37" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D36" s="11" t="n">
+      <c r="D37" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E36" s="11" t="n">
+      <c r="E37" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F36" s="11" t="inlineStr">
+      <c r="F37" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="16" t="n"/>
-      <c r="C37" s="16" t="n"/>
-      <c r="D37" s="16" t="n"/>
-      <c r="E37" s="16" t="n">
+    <row r="38">
+      <c r="B38" s="16" t="n"/>
+      <c r="C38" s="16" t="n"/>
+      <c r="D38" s="16" t="n"/>
+      <c r="E38" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F37" s="16" t="inlineStr">
+      <c r="F38" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G37" s="15" t="n"/>
-      <c r="H37" s="15" t="n"/>
-      <c r="I37" s="15" t="n"/>
-      <c r="J37" s="15" t="n"/>
-      <c r="K37" s="15" t="n"/>
-      <c r="L37" s="15" t="n"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="11" t="n">
+      <c r="G38" s="15" t="n"/>
+      <c r="H38" s="15" t="n"/>
+      <c r="I38" s="15" t="n"/>
+      <c r="J38" s="15" t="n"/>
+      <c r="K38" s="15" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C38" s="11" t="n">
+      <c r="C39" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D38" s="11" t="n">
+      <c r="D39" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E38" s="11" t="n">
+      <c r="E39" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F38" s="11" t="inlineStr">
+      <c r="F39" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="16" t="n"/>
-      <c r="C39" s="16" t="n"/>
-      <c r="D39" s="16" t="n"/>
-      <c r="E39" s="16" t="n">
+    <row r="40">
+      <c r="B40" s="16" t="n"/>
+      <c r="C40" s="16" t="n"/>
+      <c r="D40" s="16" t="n"/>
+      <c r="E40" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F39" s="16" t="inlineStr">
+      <c r="F40" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G39" s="15" t="n"/>
-      <c r="H39" s="15" t="n"/>
-      <c r="I39" s="15" t="n"/>
-      <c r="J39" s="15" t="n"/>
-      <c r="K39" s="15" t="n"/>
-      <c r="L39" s="15" t="n"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="11" t="n">
+      <c r="G40" s="15" t="n"/>
+      <c r="H40" s="15" t="n"/>
+      <c r="I40" s="15" t="n"/>
+      <c r="J40" s="15" t="n"/>
+      <c r="K40" s="15" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C40" s="11" t="n">
+      <c r="C41" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D40" s="11" t="n">
+      <c r="D41" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E40" s="11" t="n">
+      <c r="E41" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F40" s="11" t="inlineStr">
+      <c r="F41" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="15" t="n"/>
-      <c r="B41" s="16" t="n"/>
-      <c r="C41" s="16" t="n"/>
-      <c r="D41" s="16" t="n"/>
-      <c r="E41" s="16" t="n">
+    <row r="42">
+      <c r="A42" s="15" t="n"/>
+      <c r="B42" s="16" t="n"/>
+      <c r="C42" s="16" t="n"/>
+      <c r="D42" s="16" t="n"/>
+      <c r="E42" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F41" s="16" t="inlineStr">
+      <c r="F42" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G41" s="15" t="n"/>
-      <c r="H41" s="15" t="n"/>
-      <c r="I41" s="15" t="n"/>
-      <c r="J41" s="15" t="n"/>
-      <c r="K41" s="15" t="n"/>
-      <c r="L41" s="15" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="n">
+      <c r="G42" s="15" t="n"/>
+      <c r="H42" s="15" t="n"/>
+      <c r="I42" s="15" t="n"/>
+      <c r="J42" s="15" t="n"/>
+      <c r="K42" s="15" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B43" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="11" t="inlineStr">
+      <c r="C43" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D42" s="11" t="n">
+      <c r="D43" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E42" s="11" t="n">
+      <c r="E43" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F42" s="11" t="inlineStr">
+      <c r="F43" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="16" t="n"/>
-      <c r="C43" s="16" t="n"/>
-      <c r="D43" s="16" t="n"/>
-      <c r="E43" s="16" t="n">
+    <row r="44">
+      <c r="B44" s="16" t="n"/>
+      <c r="C44" s="16" t="n"/>
+      <c r="D44" s="16" t="n"/>
+      <c r="E44" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F43" s="16" t="inlineStr">
+      <c r="F44" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G43" s="15" t="n"/>
-      <c r="H43" s="15" t="n"/>
-      <c r="I43" s="15" t="n"/>
-      <c r="J43" s="15" t="n"/>
-      <c r="K43" s="15" t="n"/>
-      <c r="L43" s="15" t="n"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="11" t="n">
+      <c r="G44" s="15" t="n"/>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="n"/>
+      <c r="J44" s="15" t="n"/>
+      <c r="K44" s="15" t="n"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C44" s="11" t="n">
+      <c r="C45" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D44" s="11" t="n">
+      <c r="D45" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E44" s="11" t="n">
+      <c r="E45" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F44" s="11" t="inlineStr">
+      <c r="F45" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" s="16" t="n"/>
-      <c r="C45" s="16" t="n"/>
-      <c r="D45" s="16" t="n"/>
-      <c r="E45" s="16" t="n">
+    <row r="46">
+      <c r="B46" s="16" t="n"/>
+      <c r="C46" s="16" t="n"/>
+      <c r="D46" s="16" t="n"/>
+      <c r="E46" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F45" s="16" t="inlineStr">
+      <c r="F46" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G45" s="15" t="n"/>
-      <c r="H45" s="15" t="n"/>
-      <c r="I45" s="15" t="n"/>
-      <c r="J45" s="15" t="n"/>
-      <c r="K45" s="15" t="n"/>
-      <c r="L45" s="15" t="n"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="11" t="n">
+      <c r="G46" s="15" t="n"/>
+      <c r="H46" s="15" t="n"/>
+      <c r="I46" s="15" t="n"/>
+      <c r="J46" s="15" t="n"/>
+      <c r="K46" s="15" t="n"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C46" s="11" t="n">
+      <c r="C47" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D46" s="11" t="n">
+      <c r="D47" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E46" s="11" t="n">
+      <c r="E47" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F46" s="11" t="inlineStr">
+      <c r="F47" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" s="16" t="n"/>
-      <c r="C47" s="16" t="n"/>
-      <c r="D47" s="16" t="n"/>
-      <c r="E47" s="16" t="n">
+    <row r="48">
+      <c r="B48" s="16" t="n"/>
+      <c r="C48" s="16" t="n"/>
+      <c r="D48" s="16" t="n"/>
+      <c r="E48" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F47" s="16" t="inlineStr">
+      <c r="F48" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G47" s="15" t="n"/>
-      <c r="H47" s="15" t="n"/>
-      <c r="I47" s="15" t="n"/>
-      <c r="J47" s="15" t="n"/>
-      <c r="K47" s="15" t="n"/>
-      <c r="L47" s="15" t="n"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="11" t="n">
+      <c r="G48" s="15" t="n"/>
+      <c r="H48" s="15" t="n"/>
+      <c r="I48" s="15" t="n"/>
+      <c r="J48" s="15" t="n"/>
+      <c r="K48" s="15" t="n"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C48" s="11" t="n">
+      <c r="C49" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D48" s="11" t="n">
+      <c r="D49" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E48" s="11" t="n">
+      <c r="E49" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F48" s="11" t="inlineStr">
+      <c r="F49" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="B49" s="16" t="n"/>
-      <c r="C49" s="16" t="n"/>
-      <c r="D49" s="16" t="n"/>
-      <c r="E49" s="16" t="n">
+    <row r="50">
+      <c r="B50" s="16" t="n"/>
+      <c r="C50" s="16" t="n"/>
+      <c r="D50" s="16" t="n"/>
+      <c r="E50" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F49" s="16" t="inlineStr">
+      <c r="F50" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G49" s="15" t="n"/>
-      <c r="H49" s="15" t="n"/>
-      <c r="I49" s="15" t="n"/>
-      <c r="J49" s="15" t="n"/>
-      <c r="K49" s="15" t="n"/>
-      <c r="L49" s="15" t="n"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="11" t="n">
+      <c r="G50" s="15" t="n"/>
+      <c r="H50" s="15" t="n"/>
+      <c r="I50" s="15" t="n"/>
+      <c r="J50" s="15" t="n"/>
+      <c r="K50" s="15" t="n"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C50" s="11" t="n">
+      <c r="C51" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D50" s="11" t="n">
+      <c r="D51" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E50" s="11" t="n">
+      <c r="E51" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F50" s="11" t="inlineStr">
+      <c r="F51" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="15" t="n"/>
-      <c r="B51" s="16" t="n"/>
-      <c r="C51" s="16" t="n"/>
-      <c r="D51" s="16" t="n"/>
-      <c r="E51" s="16" t="n">
+    <row r="52">
+      <c r="A52" s="15" t="n"/>
+      <c r="B52" s="16" t="n"/>
+      <c r="C52" s="16" t="n"/>
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F51" s="16" t="inlineStr">
+      <c r="F52" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G51" s="15" t="n"/>
-      <c r="H51" s="15" t="n"/>
-      <c r="I51" s="15" t="n"/>
-      <c r="J51" s="15" t="n"/>
-      <c r="K51" s="15" t="n"/>
-      <c r="L51" s="15" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="n">
+      <c r="G52" s="15" t="n"/>
+      <c r="H52" s="15" t="n"/>
+      <c r="I52" s="15" t="n"/>
+      <c r="J52" s="15" t="n"/>
+      <c r="K52" s="15" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B52" s="11" t="n">
+      <c r="B53" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="11" t="inlineStr">
+      <c r="C53" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D52" s="11" t="n">
+      <c r="D53" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E52" s="11" t="n">
+      <c r="E53" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F52" s="11" t="inlineStr">
+      <c r="F53" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="B53" s="16" t="n"/>
-      <c r="C53" s="16" t="n"/>
-      <c r="D53" s="16" t="n"/>
-      <c r="E53" s="16" t="n">
+    <row r="54">
+      <c r="B54" s="16" t="n"/>
+      <c r="C54" s="16" t="n"/>
+      <c r="D54" s="16" t="n"/>
+      <c r="E54" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F53" s="16" t="inlineStr">
+      <c r="F54" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G53" s="15" t="n"/>
-      <c r="H53" s="15" t="n"/>
-      <c r="I53" s="15" t="n"/>
-      <c r="J53" s="15" t="n"/>
-      <c r="K53" s="15" t="n"/>
-      <c r="L53" s="15" t="n"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="11" t="n">
+      <c r="G54" s="15" t="n"/>
+      <c r="H54" s="15" t="n"/>
+      <c r="I54" s="15" t="n"/>
+      <c r="J54" s="15" t="n"/>
+      <c r="K54" s="15" t="n"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C54" s="11" t="n">
+      <c r="C55" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D54" s="11" t="n">
+      <c r="D55" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E54" s="11" t="n">
+      <c r="E55" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F54" s="11" t="inlineStr">
+      <c r="F55" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="16" t="n"/>
-      <c r="C55" s="16" t="n"/>
-      <c r="D55" s="16" t="n"/>
-      <c r="E55" s="16" t="n">
+    <row r="56">
+      <c r="B56" s="16" t="n"/>
+      <c r="C56" s="16" t="n"/>
+      <c r="D56" s="16" t="n"/>
+      <c r="E56" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F55" s="16" t="inlineStr">
+      <c r="F56" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G55" s="15" t="n"/>
-      <c r="H55" s="15" t="n"/>
-      <c r="I55" s="15" t="n"/>
-      <c r="J55" s="15" t="n"/>
-      <c r="K55" s="15" t="n"/>
-      <c r="L55" s="15" t="n"/>
-    </row>
-    <row r="56">
-      <c r="B56" s="11" t="n">
+      <c r="G56" s="15" t="n"/>
+      <c r="H56" s="15" t="n"/>
+      <c r="I56" s="15" t="n"/>
+      <c r="J56" s="15" t="n"/>
+      <c r="K56" s="15" t="n"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C56" s="11" t="n">
+      <c r="C57" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D56" s="11" t="n">
+      <c r="D57" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E56" s="11" t="n">
+      <c r="E57" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F56" s="11" t="inlineStr">
+      <c r="F57" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="B57" s="16" t="n"/>
-      <c r="C57" s="16" t="n"/>
-      <c r="D57" s="16" t="n"/>
-      <c r="E57" s="16" t="n">
+    <row r="58">
+      <c r="B58" s="16" t="n"/>
+      <c r="C58" s="16" t="n"/>
+      <c r="D58" s="16" t="n"/>
+      <c r="E58" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F57" s="16" t="inlineStr">
+      <c r="F58" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G57" s="15" t="n"/>
-      <c r="H57" s="15" t="n"/>
-      <c r="I57" s="15" t="n"/>
-      <c r="J57" s="15" t="n"/>
-      <c r="K57" s="15" t="n"/>
-      <c r="L57" s="15" t="n"/>
-    </row>
-    <row r="58">
-      <c r="B58" s="11" t="n">
+      <c r="G58" s="15" t="n"/>
+      <c r="H58" s="15" t="n"/>
+      <c r="I58" s="15" t="n"/>
+      <c r="J58" s="15" t="n"/>
+      <c r="K58" s="15" t="n"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C58" s="11" t="n">
+      <c r="C59" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D58" s="11" t="n">
+      <c r="D59" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E58" s="11" t="n">
+      <c r="E59" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F58" s="11" t="inlineStr">
+      <c r="F59" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="B59" s="16" t="n"/>
-      <c r="C59" s="16" t="n"/>
-      <c r="D59" s="16" t="n"/>
-      <c r="E59" s="16" t="n">
+    <row r="60">
+      <c r="B60" s="16" t="n"/>
+      <c r="C60" s="16" t="n"/>
+      <c r="D60" s="16" t="n"/>
+      <c r="E60" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F59" s="16" t="inlineStr">
+      <c r="F60" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G59" s="15" t="n"/>
-      <c r="H59" s="15" t="n"/>
-      <c r="I59" s="15" t="n"/>
-      <c r="J59" s="15" t="n"/>
-      <c r="K59" s="15" t="n"/>
-      <c r="L59" s="15" t="n"/>
-    </row>
-    <row r="60">
-      <c r="B60" s="11" t="n">
+      <c r="G60" s="15" t="n"/>
+      <c r="H60" s="15" t="n"/>
+      <c r="I60" s="15" t="n"/>
+      <c r="J60" s="15" t="n"/>
+      <c r="K60" s="15" t="n"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C60" s="11" t="n">
+      <c r="C61" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D60" s="11" t="n">
+      <c r="D61" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E60" s="11" t="n">
+      <c r="E61" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F60" s="11" t="inlineStr">
+      <c r="F61" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="15" t="n"/>
-      <c r="B61" s="16" t="n"/>
-      <c r="C61" s="16" t="n"/>
-      <c r="D61" s="16" t="n"/>
-      <c r="E61" s="16" t="n">
+    <row r="62">
+      <c r="A62" s="15" t="n"/>
+      <c r="B62" s="16" t="n"/>
+      <c r="C62" s="16" t="n"/>
+      <c r="D62" s="16" t="n"/>
+      <c r="E62" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F61" s="16" t="inlineStr">
+      <c r="F62" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G61" s="15" t="n"/>
-      <c r="H61" s="15" t="n"/>
-      <c r="I61" s="15" t="n"/>
-      <c r="J61" s="15" t="n"/>
-      <c r="K61" s="15" t="n"/>
-      <c r="L61" s="15" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="11" t="n">
+      <c r="G62" s="15" t="n"/>
+      <c r="H62" s="15" t="n"/>
+      <c r="I62" s="15" t="n"/>
+      <c r="J62" s="15" t="n"/>
+      <c r="K62" s="15" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B62" s="11" t="n">
+      <c r="B63" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C62" s="11" t="inlineStr">
+      <c r="C63" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D62" s="11" t="n">
+      <c r="D63" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E62" s="11" t="n">
+      <c r="E63" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F62" s="11" t="inlineStr">
+      <c r="F63" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="B63" s="16" t="n"/>
-      <c r="C63" s="16" t="n"/>
-      <c r="D63" s="16" t="n"/>
-      <c r="E63" s="16" t="n">
+    <row r="64">
+      <c r="B64" s="16" t="n"/>
+      <c r="C64" s="16" t="n"/>
+      <c r="D64" s="16" t="n"/>
+      <c r="E64" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F63" s="16" t="inlineStr">
+      <c r="F64" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G63" s="15" t="n"/>
-      <c r="H63" s="15" t="n"/>
-      <c r="I63" s="15" t="n"/>
-      <c r="J63" s="15" t="n"/>
-      <c r="K63" s="15" t="n"/>
-      <c r="L63" s="15" t="n"/>
-    </row>
-    <row r="64">
-      <c r="B64" s="11" t="n">
+      <c r="G64" s="15" t="n"/>
+      <c r="H64" s="15" t="n"/>
+      <c r="I64" s="15" t="n"/>
+      <c r="J64" s="15" t="n"/>
+      <c r="K64" s="15" t="n"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C64" s="11" t="n">
+      <c r="C65" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D64" s="11" t="n">
+      <c r="D65" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E64" s="11" t="n">
+      <c r="E65" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F64" s="11" t="inlineStr">
+      <c r="F65" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="B65" s="16" t="n"/>
-      <c r="C65" s="16" t="n"/>
-      <c r="D65" s="16" t="n"/>
-      <c r="E65" s="16" t="n">
+    <row r="66">
+      <c r="B66" s="16" t="n"/>
+      <c r="C66" s="16" t="n"/>
+      <c r="D66" s="16" t="n"/>
+      <c r="E66" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F65" s="16" t="inlineStr">
+      <c r="F66" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G65" s="15" t="n"/>
-      <c r="H65" s="15" t="n"/>
-      <c r="I65" s="15" t="n"/>
-      <c r="J65" s="15" t="n"/>
-      <c r="K65" s="15" t="n"/>
-      <c r="L65" s="15" t="n"/>
-    </row>
-    <row r="66">
-      <c r="B66" s="11" t="n">
+      <c r="G66" s="15" t="n"/>
+      <c r="H66" s="15" t="n"/>
+      <c r="I66" s="15" t="n"/>
+      <c r="J66" s="15" t="n"/>
+      <c r="K66" s="15" t="n"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C66" s="11" t="n">
+      <c r="C67" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D66" s="11" t="n">
+      <c r="D67" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E66" s="11" t="n">
+      <c r="E67" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F66" s="11" t="inlineStr">
+      <c r="F67" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="B67" s="16" t="n"/>
-      <c r="C67" s="16" t="n"/>
-      <c r="D67" s="16" t="n"/>
-      <c r="E67" s="16" t="n">
+    <row r="68">
+      <c r="B68" s="16" t="n"/>
+      <c r="C68" s="16" t="n"/>
+      <c r="D68" s="16" t="n"/>
+      <c r="E68" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F67" s="16" t="inlineStr">
+      <c r="F68" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G67" s="15" t="n"/>
-      <c r="H67" s="15" t="n"/>
-      <c r="I67" s="15" t="n"/>
-      <c r="J67" s="15" t="n"/>
-      <c r="K67" s="15" t="n"/>
-      <c r="L67" s="15" t="n"/>
-    </row>
-    <row r="68">
-      <c r="B68" s="11" t="n">
+      <c r="G68" s="15" t="n"/>
+      <c r="H68" s="15" t="n"/>
+      <c r="I68" s="15" t="n"/>
+      <c r="J68" s="15" t="n"/>
+      <c r="K68" s="15" t="n"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C68" s="11" t="n">
+      <c r="C69" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D68" s="11" t="n">
+      <c r="D69" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E68" s="11" t="n">
+      <c r="E69" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F68" s="11" t="inlineStr">
+      <c r="F69" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="B69" s="16" t="n"/>
-      <c r="C69" s="16" t="n"/>
-      <c r="D69" s="16" t="n"/>
-      <c r="E69" s="16" t="n">
+    <row r="70">
+      <c r="B70" s="16" t="n"/>
+      <c r="C70" s="16" t="n"/>
+      <c r="D70" s="16" t="n"/>
+      <c r="E70" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F69" s="16" t="inlineStr">
+      <c r="F70" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G69" s="15" t="n"/>
-      <c r="H69" s="15" t="n"/>
-      <c r="I69" s="15" t="n"/>
-      <c r="J69" s="15" t="n"/>
-      <c r="K69" s="15" t="n"/>
-      <c r="L69" s="15" t="n"/>
-    </row>
-    <row r="70">
-      <c r="B70" s="11" t="n">
+      <c r="G70" s="15" t="n"/>
+      <c r="H70" s="15" t="n"/>
+      <c r="I70" s="15" t="n"/>
+      <c r="J70" s="15" t="n"/>
+      <c r="K70" s="15" t="n"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C70" s="11" t="n">
+      <c r="C71" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D70" s="11" t="n">
+      <c r="D71" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E70" s="11" t="n">
+      <c r="E71" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F70" s="11" t="inlineStr">
+      <c r="F71" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="15" t="n"/>
-      <c r="B71" s="16" t="n"/>
-      <c r="C71" s="16" t="n"/>
-      <c r="D71" s="16" t="n"/>
-      <c r="E71" s="16" t="n">
+    <row r="72">
+      <c r="A72" s="15" t="n"/>
+      <c r="B72" s="16" t="n"/>
+      <c r="C72" s="16" t="n"/>
+      <c r="D72" s="16" t="n"/>
+      <c r="E72" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F71" s="16" t="inlineStr">
+      <c r="F72" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G71" s="15" t="n"/>
-      <c r="H71" s="15" t="n"/>
-      <c r="I71" s="15" t="n"/>
-      <c r="J71" s="15" t="n"/>
-      <c r="K71" s="15" t="n"/>
-      <c r="L71" s="15" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="11" t="n">
+      <c r="G72" s="15" t="n"/>
+      <c r="H72" s="15" t="n"/>
+      <c r="I72" s="15" t="n"/>
+      <c r="J72" s="15" t="n"/>
+      <c r="K72" s="15" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B72" s="11" t="n">
+      <c r="B73" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C72" s="11" t="inlineStr">
+      <c r="C73" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D72" s="11" t="n">
+      <c r="D73" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E72" s="11" t="n">
+      <c r="E73" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F72" s="11" t="inlineStr">
+      <c r="F73" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="B73" s="16" t="n"/>
-      <c r="C73" s="16" t="n"/>
-      <c r="D73" s="16" t="n"/>
-      <c r="E73" s="16" t="n">
+    <row r="74">
+      <c r="B74" s="16" t="n"/>
+      <c r="C74" s="16" t="n"/>
+      <c r="D74" s="16" t="n"/>
+      <c r="E74" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F73" s="16" t="inlineStr">
+      <c r="F74" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G73" s="15" t="n"/>
-      <c r="H73" s="15" t="n"/>
-      <c r="I73" s="15" t="n"/>
-      <c r="J73" s="15" t="n"/>
-      <c r="K73" s="15" t="n"/>
-      <c r="L73" s="15" t="n"/>
-    </row>
-    <row r="74">
-      <c r="B74" s="11" t="n">
+      <c r="G74" s="15" t="n"/>
+      <c r="H74" s="15" t="n"/>
+      <c r="I74" s="15" t="n"/>
+      <c r="J74" s="15" t="n"/>
+      <c r="K74" s="15" t="n"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C74" s="11" t="n">
+      <c r="C75" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D74" s="11" t="n">
+      <c r="D75" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E74" s="11" t="n">
+      <c r="E75" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F74" s="11" t="inlineStr">
+      <c r="F75" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="B75" s="16" t="n"/>
-      <c r="C75" s="16" t="n"/>
-      <c r="D75" s="16" t="n"/>
-      <c r="E75" s="16" t="n">
+    <row r="76">
+      <c r="B76" s="16" t="n"/>
+      <c r="C76" s="16" t="n"/>
+      <c r="D76" s="16" t="n"/>
+      <c r="E76" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F75" s="16" t="inlineStr">
+      <c r="F76" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G75" s="15" t="n"/>
-      <c r="H75" s="15" t="n"/>
-      <c r="I75" s="15" t="n"/>
-      <c r="J75" s="15" t="n"/>
-      <c r="K75" s="15" t="n"/>
-      <c r="L75" s="15" t="n"/>
-    </row>
-    <row r="76">
-      <c r="B76" s="11" t="n">
+      <c r="G76" s="15" t="n"/>
+      <c r="H76" s="15" t="n"/>
+      <c r="I76" s="15" t="n"/>
+      <c r="J76" s="15" t="n"/>
+      <c r="K76" s="15" t="n"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C76" s="11" t="n">
+      <c r="C77" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D76" s="11" t="n">
+      <c r="D77" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E76" s="11" t="n">
+      <c r="E77" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F76" s="11" t="inlineStr">
+      <c r="F77" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="B77" s="16" t="n"/>
-      <c r="C77" s="16" t="n"/>
-      <c r="D77" s="16" t="n"/>
-      <c r="E77" s="16" t="n">
+    <row r="78">
+      <c r="B78" s="16" t="n"/>
+      <c r="C78" s="16" t="n"/>
+      <c r="D78" s="16" t="n"/>
+      <c r="E78" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F77" s="16" t="inlineStr">
+      <c r="F78" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G77" s="15" t="n"/>
-      <c r="H77" s="15" t="n"/>
-      <c r="I77" s="15" t="n"/>
-      <c r="J77" s="15" t="n"/>
-      <c r="K77" s="15" t="n"/>
-      <c r="L77" s="15" t="n"/>
-    </row>
-    <row r="78">
-      <c r="B78" s="11" t="n">
+      <c r="G78" s="15" t="n"/>
+      <c r="H78" s="15" t="n"/>
+      <c r="I78" s="15" t="n"/>
+      <c r="J78" s="15" t="n"/>
+      <c r="K78" s="15" t="n"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C78" s="11" t="n">
+      <c r="C79" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D78" s="11" t="n">
+      <c r="D79" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E78" s="11" t="n">
+      <c r="E79" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F78" s="11" t="inlineStr">
+      <c r="F79" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="B79" s="16" t="n"/>
-      <c r="C79" s="16" t="n"/>
-      <c r="D79" s="16" t="n"/>
-      <c r="E79" s="16" t="n">
+    <row r="80">
+      <c r="B80" s="16" t="n"/>
+      <c r="C80" s="16" t="n"/>
+      <c r="D80" s="16" t="n"/>
+      <c r="E80" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F79" s="16" t="inlineStr">
+      <c r="F80" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G79" s="15" t="n"/>
-      <c r="H79" s="15" t="n"/>
-      <c r="I79" s="15" t="n"/>
-      <c r="J79" s="15" t="n"/>
-      <c r="K79" s="15" t="n"/>
-      <c r="L79" s="15" t="n"/>
-    </row>
-    <row r="80">
-      <c r="B80" s="11" t="n">
+      <c r="G80" s="15" t="n"/>
+      <c r="H80" s="15" t="n"/>
+      <c r="I80" s="15" t="n"/>
+      <c r="J80" s="15" t="n"/>
+      <c r="K80" s="15" t="n"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C80" s="11" t="n">
+      <c r="C81" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D80" s="11" t="n">
+      <c r="D81" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E80" s="11" t="n">
+      <c r="E81" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F80" s="11" t="inlineStr">
+      <c r="F81" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="15" t="n"/>
-      <c r="B81" s="16" t="n"/>
-      <c r="C81" s="16" t="n"/>
-      <c r="D81" s="16" t="n"/>
-      <c r="E81" s="16" t="n">
+    <row r="82">
+      <c r="A82" s="15" t="n"/>
+      <c r="B82" s="16" t="n"/>
+      <c r="C82" s="16" t="n"/>
+      <c r="D82" s="16" t="n"/>
+      <c r="E82" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F81" s="16" t="inlineStr">
+      <c r="F82" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G81" s="15" t="n"/>
-      <c r="H81" s="15" t="n"/>
-      <c r="I81" s="15" t="n"/>
-      <c r="J81" s="15" t="n"/>
-      <c r="K81" s="15" t="n"/>
-      <c r="L81" s="15" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="n">
+      <c r="G82" s="15" t="n"/>
+      <c r="H82" s="15" t="n"/>
+      <c r="I82" s="15" t="n"/>
+      <c r="J82" s="15" t="n"/>
+      <c r="K82" s="15" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B82" s="11" t="n">
+      <c r="B83" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C82" s="11" t="inlineStr">
+      <c r="C83" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D82" s="11" t="n">
+      <c r="D83" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="E82" s="11" t="n">
+      <c r="E83" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="F82" s="11" t="inlineStr">
+      <c r="F83" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="B83" s="16" t="n"/>
-      <c r="C83" s="16" t="n"/>
-      <c r="D83" s="16" t="n"/>
-      <c r="E83" s="16" t="n">
+    <row r="84">
+      <c r="B84" s="16" t="n"/>
+      <c r="C84" s="16" t="n"/>
+      <c r="D84" s="16" t="n"/>
+      <c r="E84" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F83" s="16" t="inlineStr">
+      <c r="F84" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G83" s="15" t="n"/>
-      <c r="H83" s="15" t="n"/>
-      <c r="I83" s="15" t="n"/>
-      <c r="J83" s="15" t="n"/>
-      <c r="K83" s="15" t="n"/>
-      <c r="L83" s="15" t="n"/>
-    </row>
-    <row r="84">
-      <c r="B84" s="11" t="n">
+      <c r="G84" s="15" t="n"/>
+      <c r="H84" s="15" t="n"/>
+      <c r="I84" s="15" t="n"/>
+      <c r="J84" s="15" t="n"/>
+      <c r="K84" s="15" t="n"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C84" s="11" t="n">
+      <c r="C85" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D84" s="11" t="n">
+      <c r="D85" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E84" s="11" t="n">
+      <c r="E85" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F84" s="11" t="inlineStr">
+      <c r="F85" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="B85" s="16" t="n"/>
-      <c r="C85" s="16" t="n"/>
-      <c r="D85" s="16" t="n"/>
-      <c r="E85" s="16" t="n">
+    <row r="86">
+      <c r="B86" s="16" t="n"/>
+      <c r="C86" s="16" t="n"/>
+      <c r="D86" s="16" t="n"/>
+      <c r="E86" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F85" s="16" t="inlineStr">
+      <c r="F86" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G85" s="15" t="n"/>
-      <c r="H85" s="15" t="n"/>
-      <c r="I85" s="15" t="n"/>
-      <c r="J85" s="15" t="n"/>
-      <c r="K85" s="15" t="n"/>
-      <c r="L85" s="15" t="n"/>
-    </row>
-    <row r="86">
-      <c r="B86" s="11" t="n">
+      <c r="G86" s="15" t="n"/>
+      <c r="H86" s="15" t="n"/>
+      <c r="I86" s="15" t="n"/>
+      <c r="J86" s="15" t="n"/>
+      <c r="K86" s="15" t="n"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C86" s="11" t="n">
+      <c r="C87" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D86" s="11" t="n">
+      <c r="D87" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E86" s="11" t="n">
+      <c r="E87" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F86" s="11" t="inlineStr">
+      <c r="F87" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="B87" s="16" t="n"/>
-      <c r="C87" s="16" t="n"/>
-      <c r="D87" s="16" t="n"/>
-      <c r="E87" s="16" t="n">
+    <row r="88">
+      <c r="B88" s="16" t="n"/>
+      <c r="C88" s="16" t="n"/>
+      <c r="D88" s="16" t="n"/>
+      <c r="E88" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F87" s="16" t="inlineStr">
+      <c r="F88" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G87" s="15" t="n"/>
-      <c r="H87" s="15" t="n"/>
-      <c r="I87" s="15" t="n"/>
-      <c r="J87" s="15" t="n"/>
-      <c r="K87" s="15" t="n"/>
-      <c r="L87" s="15" t="n"/>
-    </row>
-    <row r="88">
-      <c r="B88" s="11" t="n">
+      <c r="G88" s="15" t="n"/>
+      <c r="H88" s="15" t="n"/>
+      <c r="I88" s="15" t="n"/>
+      <c r="J88" s="15" t="n"/>
+      <c r="K88" s="15" t="n"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C88" s="11" t="n">
+      <c r="C89" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D88" s="11" t="n">
+      <c r="D89" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E88" s="11" t="n">
+      <c r="E89" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F88" s="11" t="inlineStr">
+      <c r="F89" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="B89" s="16" t="n"/>
-      <c r="C89" s="16" t="n"/>
-      <c r="D89" s="16" t="n"/>
-      <c r="E89" s="16" t="n">
+    <row r="90">
+      <c r="B90" s="16" t="n"/>
+      <c r="C90" s="16" t="n"/>
+      <c r="D90" s="16" t="n"/>
+      <c r="E90" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F89" s="16" t="inlineStr">
+      <c r="F90" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G89" s="15" t="n"/>
-      <c r="H89" s="15" t="n"/>
-      <c r="I89" s="15" t="n"/>
-      <c r="J89" s="15" t="n"/>
-      <c r="K89" s="15" t="n"/>
-      <c r="L89" s="15" t="n"/>
-    </row>
-    <row r="90">
-      <c r="B90" s="11" t="n">
+      <c r="G90" s="15" t="n"/>
+      <c r="H90" s="15" t="n"/>
+      <c r="I90" s="15" t="n"/>
+      <c r="J90" s="15" t="n"/>
+      <c r="K90" s="15" t="n"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="C90" s="11" t="n">
+      <c r="C91" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D90" s="11" t="n">
+      <c r="D91" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E90" s="11" t="n">
+      <c r="E91" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F90" s="11" t="inlineStr">
+      <c r="F91" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="15" t="n"/>
-      <c r="B91" s="16" t="n"/>
-      <c r="C91" s="16" t="n"/>
-      <c r="D91" s="16" t="n"/>
-      <c r="E91" s="16" t="n">
+    <row r="92">
+      <c r="A92" s="15" t="n"/>
+      <c r="B92" s="16" t="n"/>
+      <c r="C92" s="16" t="n"/>
+      <c r="D92" s="16" t="n"/>
+      <c r="E92" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F91" s="16" t="inlineStr">
+      <c r="F92" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G91" s="15" t="n"/>
-      <c r="H91" s="15" t="n"/>
-      <c r="I91" s="15" t="n"/>
-      <c r="J91" s="15" t="n"/>
-      <c r="K91" s="15" t="n"/>
-      <c r="L91" s="15" t="n"/>
+      <c r="G92" s="15" t="n"/>
+      <c r="H92" s="15" t="n"/>
+      <c r="I92" s="15" t="n"/>
+      <c r="J92" s="15" t="n"/>
+      <c r="K92" s="15" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L1:M1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/howell9.xlsx
+++ b/howell9.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 06, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 08, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 62</t>
+          <t>Name 51</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 13</t>
+          <t>Name 23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 16</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 55</t>
+          <t>Name 17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 31</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 47</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 71</t>
+          <t>Name 49</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 77</t>
+          <t>Name 24</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 15</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 69</t>
+          <t>Name 31</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 70</t>
+          <t>Name 75</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 19</t>
+          <t>Name 46</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 85</t>
+          <t>Name 58</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 32</t>
+          <t>Name 50</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Name 13</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Name 89</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Name 16</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -1097,29 +1097,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <f>'By Round'!B3</f>
         <v/>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <f>'By Round'!C3</f>
         <v/>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <f>'By Round'!D3</f>
         <v/>
       </c>
-      <c r="F3" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F3" s="11">
+        <f>IF(ISBLANK('By Round'!F3),"",'By Round'!F3)</f>
+        <v/>
       </c>
       <c r="G3">
         <f>IF(ISBLANK('By Round'!G3),"",'By Round'!G3)</f>
@@ -1239,26 +1238,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4">
+      <c r="B4" s="11">
         <f>'By Round'!A13</f>
         <v/>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <f>'By Round'!B21</f>
         <v/>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <f>'By Round'!C21</f>
         <v/>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <f>'By Round'!D21</f>
         <v/>
       </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F4" s="11">
+        <f>IF(ISBLANK('By Round'!F21),"",'By Round'!F21)</f>
+        <v/>
       </c>
       <c r="G4">
         <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
@@ -1378,26 +1376,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5">
+      <c r="B5" s="11">
         <f>'By Round'!A23</f>
         <v/>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <f>'By Round'!B29</f>
         <v/>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <f>'By Round'!C29</f>
         <v/>
       </c>
-      <c r="E5">
+      <c r="E5" s="11">
         <f>'By Round'!D29</f>
         <v/>
       </c>
-      <c r="F5" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F5" s="11">
+        <f>IF(ISBLANK('By Round'!F29),"",'By Round'!F29)</f>
+        <v/>
       </c>
       <c r="G5">
         <f>IF(ISBLANK('By Round'!G29),"",'By Round'!G29)</f>
@@ -1517,26 +1514,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6">
+      <c r="B6" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <f>'By Round'!B77</f>
         <v/>
       </c>
-      <c r="D6">
+      <c r="D6" s="11">
         <f>'By Round'!C77</f>
         <v/>
       </c>
-      <c r="E6">
+      <c r="E6" s="11">
         <f>'By Round'!D77</f>
         <v/>
       </c>
-      <c r="F6" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F6" s="11">
+        <f>IF(ISBLANK('By Round'!F77),"",'By Round'!F77)</f>
+        <v/>
       </c>
       <c r="G6">
         <f>IF(ISBLANK('By Round'!G77),"",'By Round'!G77)</f>
@@ -1657,26 +1653,25 @@
     </row>
     <row r="7">
       <c r="A7" s="15" t="n"/>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <f>'By Round'!A83</f>
         <v/>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="16">
         <f>'By Round'!B85</f>
         <v/>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="16">
         <f>'By Round'!C85</f>
         <v/>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="16">
         <f>'By Round'!D85</f>
         <v/>
       </c>
-      <c r="F7" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F7" s="16">
+        <f>IF(ISBLANK('By Round'!F85),"",'By Round'!F85)</f>
+        <v/>
       </c>
       <c r="G7" s="15">
         <f>IF(ISBLANK('By Round'!G85),"",'By Round'!G85)</f>
@@ -1796,48 +1791,47 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C8">
+      <c r="C8" s="11">
         <f>'By Round'!B3</f>
         <v/>
       </c>
-      <c r="D8">
+      <c r="D8" s="11">
         <f>'By Round'!C3</f>
         <v/>
       </c>
-      <c r="E8">
+      <c r="E8" s="11">
         <f>'By Round'!D3</f>
         <v/>
       </c>
-      <c r="F8" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F8" s="11">
+        <f>IF(ISBLANK('By Round'!F4),"",'By Round'!F4)</f>
+        <v/>
       </c>
       <c r="G8">
-        <f>IF(ISBLANK('By Round'!G3),"",'By Round'!G3)</f>
+        <f>IF(ISBLANK('By Round'!G4),"",'By Round'!G4)</f>
         <v/>
       </c>
       <c r="H8">
-        <f>IF(ISBLANK('By Round'!H3),"",'By Round'!H3)</f>
+        <f>IF(ISBLANK('By Round'!H4),"",'By Round'!H4)</f>
         <v/>
       </c>
       <c r="I8">
-        <f>IF(ISBLANK('By Round'!I3),"",'By Round'!I3)</f>
+        <f>IF(ISBLANK('By Round'!I4),"",'By Round'!I4)</f>
         <v/>
       </c>
       <c r="J8">
-        <f>IF(ISBLANK('By Round'!J3),"",'By Round'!J3)</f>
+        <f>IF(ISBLANK('By Round'!J4),"",'By Round'!J4)</f>
         <v/>
       </c>
       <c r="K8">
-        <f>IF(ISBLANK('By Round'!K3),"",'By Round'!K3)</f>
+        <f>IF(ISBLANK('By Round'!K4),"",'By Round'!K4)</f>
         <v/>
       </c>
       <c r="L8" s="12">
@@ -1938,45 +1932,44 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9">
+      <c r="B9" s="11">
         <f>'By Round'!A13</f>
         <v/>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <f>'By Round'!B21</f>
         <v/>
       </c>
-      <c r="D9">
+      <c r="D9" s="11">
         <f>'By Round'!C21</f>
         <v/>
       </c>
-      <c r="E9">
+      <c r="E9" s="11">
         <f>'By Round'!D21</f>
         <v/>
       </c>
-      <c r="F9" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F9" s="11">
+        <f>IF(ISBLANK('By Round'!F22),"",'By Round'!F22)</f>
+        <v/>
       </c>
       <c r="G9">
-        <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
+        <f>IF(ISBLANK('By Round'!G22),"",'By Round'!G22)</f>
         <v/>
       </c>
       <c r="H9">
-        <f>IF(ISBLANK('By Round'!H21),"",'By Round'!H21)</f>
+        <f>IF(ISBLANK('By Round'!H22),"",'By Round'!H22)</f>
         <v/>
       </c>
       <c r="I9">
-        <f>IF(ISBLANK('By Round'!I21),"",'By Round'!I21)</f>
+        <f>IF(ISBLANK('By Round'!I22),"",'By Round'!I22)</f>
         <v/>
       </c>
       <c r="J9">
-        <f>IF(ISBLANK('By Round'!J21),"",'By Round'!J21)</f>
+        <f>IF(ISBLANK('By Round'!J22),"",'By Round'!J22)</f>
         <v/>
       </c>
       <c r="K9">
-        <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
+        <f>IF(ISBLANK('By Round'!K22),"",'By Round'!K22)</f>
         <v/>
       </c>
       <c r="L9" s="12">
@@ -2077,45 +2070,44 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10">
+      <c r="B10" s="11">
         <f>'By Round'!A23</f>
         <v/>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <f>'By Round'!B29</f>
         <v/>
       </c>
-      <c r="D10">
+      <c r="D10" s="11">
         <f>'By Round'!C29</f>
         <v/>
       </c>
-      <c r="E10">
+      <c r="E10" s="11">
         <f>'By Round'!D29</f>
         <v/>
       </c>
-      <c r="F10" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F10" s="11">
+        <f>IF(ISBLANK('By Round'!F30),"",'By Round'!F30)</f>
+        <v/>
       </c>
       <c r="G10">
-        <f>IF(ISBLANK('By Round'!G29),"",'By Round'!G29)</f>
+        <f>IF(ISBLANK('By Round'!G30),"",'By Round'!G30)</f>
         <v/>
       </c>
       <c r="H10">
-        <f>IF(ISBLANK('By Round'!H29),"",'By Round'!H29)</f>
+        <f>IF(ISBLANK('By Round'!H30),"",'By Round'!H30)</f>
         <v/>
       </c>
       <c r="I10">
-        <f>IF(ISBLANK('By Round'!I29),"",'By Round'!I29)</f>
+        <f>IF(ISBLANK('By Round'!I30),"",'By Round'!I30)</f>
         <v/>
       </c>
       <c r="J10">
-        <f>IF(ISBLANK('By Round'!J29),"",'By Round'!J29)</f>
+        <f>IF(ISBLANK('By Round'!J30),"",'By Round'!J30)</f>
         <v/>
       </c>
       <c r="K10">
-        <f>IF(ISBLANK('By Round'!K29),"",'By Round'!K29)</f>
+        <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
         <v/>
       </c>
       <c r="L10" s="12">
@@ -2216,45 +2208,44 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11">
+      <c r="B11" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C11">
+      <c r="C11" s="11">
         <f>'By Round'!B77</f>
         <v/>
       </c>
-      <c r="D11">
+      <c r="D11" s="11">
         <f>'By Round'!C77</f>
         <v/>
       </c>
-      <c r="E11">
+      <c r="E11" s="11">
         <f>'By Round'!D77</f>
         <v/>
       </c>
-      <c r="F11" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F11" s="11">
+        <f>IF(ISBLANK('By Round'!F78),"",'By Round'!F78)</f>
+        <v/>
       </c>
       <c r="G11">
-        <f>IF(ISBLANK('By Round'!G77),"",'By Round'!G77)</f>
+        <f>IF(ISBLANK('By Round'!G78),"",'By Round'!G78)</f>
         <v/>
       </c>
       <c r="H11">
-        <f>IF(ISBLANK('By Round'!H77),"",'By Round'!H77)</f>
+        <f>IF(ISBLANK('By Round'!H78),"",'By Round'!H78)</f>
         <v/>
       </c>
       <c r="I11">
-        <f>IF(ISBLANK('By Round'!I77),"",'By Round'!I77)</f>
+        <f>IF(ISBLANK('By Round'!I78),"",'By Round'!I78)</f>
         <v/>
       </c>
       <c r="J11">
-        <f>IF(ISBLANK('By Round'!J77),"",'By Round'!J77)</f>
+        <f>IF(ISBLANK('By Round'!J78),"",'By Round'!J78)</f>
         <v/>
       </c>
       <c r="K11">
-        <f>IF(ISBLANK('By Round'!K77),"",'By Round'!K77)</f>
+        <f>IF(ISBLANK('By Round'!K78),"",'By Round'!K78)</f>
         <v/>
       </c>
       <c r="L11" s="12">
@@ -2356,45 +2347,44 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="n"/>
-      <c r="B12" s="15">
+      <c r="B12" s="16">
         <f>'By Round'!A83</f>
         <v/>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="16">
         <f>'By Round'!B85</f>
         <v/>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="16">
         <f>'By Round'!C85</f>
         <v/>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="16">
         <f>'By Round'!D85</f>
         <v/>
       </c>
-      <c r="F12" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F12" s="16">
+        <f>IF(ISBLANK('By Round'!F86),"",'By Round'!F86)</f>
+        <v/>
       </c>
       <c r="G12" s="15">
-        <f>IF(ISBLANK('By Round'!G85),"",'By Round'!G85)</f>
+        <f>IF(ISBLANK('By Round'!G86),"",'By Round'!G86)</f>
         <v/>
       </c>
       <c r="H12" s="15">
-        <f>IF(ISBLANK('By Round'!H85),"",'By Round'!H85)</f>
+        <f>IF(ISBLANK('By Round'!H86),"",'By Round'!H86)</f>
         <v/>
       </c>
       <c r="I12" s="15">
-        <f>IF(ISBLANK('By Round'!I85),"",'By Round'!I85)</f>
+        <f>IF(ISBLANK('By Round'!I86),"",'By Round'!I86)</f>
         <v/>
       </c>
       <c r="J12" s="15">
-        <f>IF(ISBLANK('By Round'!J85),"",'By Round'!J85)</f>
+        <f>IF(ISBLANK('By Round'!J86),"",'By Round'!J86)</f>
         <v/>
       </c>
       <c r="K12" s="15">
-        <f>IF(ISBLANK('By Round'!K85),"",'By Round'!K85)</f>
+        <f>IF(ISBLANK('By Round'!K86),"",'By Round'!K86)</f>
         <v/>
       </c>
       <c r="L12" s="17">
@@ -2495,29 +2485,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <f>'By Round'!B5</f>
         <v/>
       </c>
-      <c r="D13">
+      <c r="D13" s="11">
         <f>'By Round'!C5</f>
         <v/>
       </c>
-      <c r="E13">
+      <c r="E13" s="11">
         <f>'By Round'!D5</f>
         <v/>
       </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F13" s="11">
+        <f>IF(ISBLANK('By Round'!F5),"",'By Round'!F5)</f>
+        <v/>
       </c>
       <c r="G13">
         <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
@@ -2637,26 +2626,25 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14">
+      <c r="B14" s="11">
         <f>'By Round'!A13</f>
         <v/>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <f>'By Round'!B13</f>
         <v/>
       </c>
-      <c r="D14">
+      <c r="D14" s="11">
         <f>'By Round'!C13</f>
         <v/>
       </c>
-      <c r="E14">
+      <c r="E14" s="11">
         <f>'By Round'!D13</f>
         <v/>
       </c>
-      <c r="F14" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F14" s="11">
+        <f>IF(ISBLANK('By Round'!F13),"",'By Round'!F13)</f>
+        <v/>
       </c>
       <c r="G14">
         <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
@@ -2776,26 +2764,25 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15">
+      <c r="B15" s="11">
         <f>'By Round'!A23</f>
         <v/>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <f>'By Round'!B31</f>
         <v/>
       </c>
-      <c r="D15">
+      <c r="D15" s="11">
         <f>'By Round'!C31</f>
         <v/>
       </c>
-      <c r="E15">
+      <c r="E15" s="11">
         <f>'By Round'!D31</f>
         <v/>
       </c>
-      <c r="F15" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F15" s="11">
+        <f>IF(ISBLANK('By Round'!F31),"",'By Round'!F31)</f>
+        <v/>
       </c>
       <c r="G15">
         <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
@@ -2915,26 +2902,25 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16">
+      <c r="B16" s="11">
         <f>'By Round'!A33</f>
         <v/>
       </c>
-      <c r="C16">
+      <c r="C16" s="11">
         <f>'By Round'!B39</f>
         <v/>
       </c>
-      <c r="D16">
+      <c r="D16" s="11">
         <f>'By Round'!C39</f>
         <v/>
       </c>
-      <c r="E16">
+      <c r="E16" s="11">
         <f>'By Round'!D39</f>
         <v/>
       </c>
-      <c r="F16" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F16" s="11">
+        <f>IF(ISBLANK('By Round'!F39),"",'By Round'!F39)</f>
+        <v/>
       </c>
       <c r="G16">
         <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
@@ -3055,26 +3041,25 @@
     </row>
     <row r="17">
       <c r="A17" s="15" t="n"/>
-      <c r="B17" s="15">
+      <c r="B17" s="16">
         <f>'By Round'!A83</f>
         <v/>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="16">
         <f>'By Round'!B87</f>
         <v/>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="16">
         <f>'By Round'!C87</f>
         <v/>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="16">
         <f>'By Round'!D87</f>
         <v/>
       </c>
-      <c r="F17" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F17" s="16">
+        <f>IF(ISBLANK('By Round'!F87),"",'By Round'!F87)</f>
+        <v/>
       </c>
       <c r="G17" s="15">
         <f>IF(ISBLANK('By Round'!G87),"",'By Round'!G87)</f>
@@ -3194,48 +3179,47 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C18">
+      <c r="C18" s="11">
         <f>'By Round'!B5</f>
         <v/>
       </c>
-      <c r="D18">
+      <c r="D18" s="11">
         <f>'By Round'!C5</f>
         <v/>
       </c>
-      <c r="E18">
+      <c r="E18" s="11">
         <f>'By Round'!D5</f>
         <v/>
       </c>
-      <c r="F18" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F18" s="11">
+        <f>IF(ISBLANK('By Round'!F6),"",'By Round'!F6)</f>
+        <v/>
       </c>
       <c r="G18">
-        <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
+        <f>IF(ISBLANK('By Round'!G6),"",'By Round'!G6)</f>
         <v/>
       </c>
       <c r="H18">
-        <f>IF(ISBLANK('By Round'!H5),"",'By Round'!H5)</f>
+        <f>IF(ISBLANK('By Round'!H6),"",'By Round'!H6)</f>
         <v/>
       </c>
       <c r="I18">
-        <f>IF(ISBLANK('By Round'!I5),"",'By Round'!I5)</f>
+        <f>IF(ISBLANK('By Round'!I6),"",'By Round'!I6)</f>
         <v/>
       </c>
       <c r="J18">
-        <f>IF(ISBLANK('By Round'!J5),"",'By Round'!J5)</f>
+        <f>IF(ISBLANK('By Round'!J6),"",'By Round'!J6)</f>
         <v/>
       </c>
       <c r="K18">
-        <f>IF(ISBLANK('By Round'!K5),"",'By Round'!K5)</f>
+        <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
         <v/>
       </c>
       <c r="L18" s="12">
@@ -3336,45 +3320,44 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19">
+      <c r="B19" s="11">
         <f>'By Round'!A13</f>
         <v/>
       </c>
-      <c r="C19">
+      <c r="C19" s="11">
         <f>'By Round'!B13</f>
         <v/>
       </c>
-      <c r="D19">
+      <c r="D19" s="11">
         <f>'By Round'!C13</f>
         <v/>
       </c>
-      <c r="E19">
+      <c r="E19" s="11">
         <f>'By Round'!D13</f>
         <v/>
       </c>
-      <c r="F19" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F19" s="11">
+        <f>IF(ISBLANK('By Round'!F14),"",'By Round'!F14)</f>
+        <v/>
       </c>
       <c r="G19">
-        <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
+        <f>IF(ISBLANK('By Round'!G14),"",'By Round'!G14)</f>
         <v/>
       </c>
       <c r="H19">
-        <f>IF(ISBLANK('By Round'!H13),"",'By Round'!H13)</f>
+        <f>IF(ISBLANK('By Round'!H14),"",'By Round'!H14)</f>
         <v/>
       </c>
       <c r="I19">
-        <f>IF(ISBLANK('By Round'!I13),"",'By Round'!I13)</f>
+        <f>IF(ISBLANK('By Round'!I14),"",'By Round'!I14)</f>
         <v/>
       </c>
       <c r="J19">
-        <f>IF(ISBLANK('By Round'!J13),"",'By Round'!J13)</f>
+        <f>IF(ISBLANK('By Round'!J14),"",'By Round'!J14)</f>
         <v/>
       </c>
       <c r="K19">
-        <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
+        <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
         <v/>
       </c>
       <c r="L19" s="12">
@@ -3475,45 +3458,44 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20">
+      <c r="B20" s="11">
         <f>'By Round'!A23</f>
         <v/>
       </c>
-      <c r="C20">
+      <c r="C20" s="11">
         <f>'By Round'!B31</f>
         <v/>
       </c>
-      <c r="D20">
+      <c r="D20" s="11">
         <f>'By Round'!C31</f>
         <v/>
       </c>
-      <c r="E20">
+      <c r="E20" s="11">
         <f>'By Round'!D31</f>
         <v/>
       </c>
-      <c r="F20" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F20" s="11">
+        <f>IF(ISBLANK('By Round'!F32),"",'By Round'!F32)</f>
+        <v/>
       </c>
       <c r="G20">
-        <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
+        <f>IF(ISBLANK('By Round'!G32),"",'By Round'!G32)</f>
         <v/>
       </c>
       <c r="H20">
-        <f>IF(ISBLANK('By Round'!H31),"",'By Round'!H31)</f>
+        <f>IF(ISBLANK('By Round'!H32),"",'By Round'!H32)</f>
         <v/>
       </c>
       <c r="I20">
-        <f>IF(ISBLANK('By Round'!I31),"",'By Round'!I31)</f>
+        <f>IF(ISBLANK('By Round'!I32),"",'By Round'!I32)</f>
         <v/>
       </c>
       <c r="J20">
-        <f>IF(ISBLANK('By Round'!J31),"",'By Round'!J31)</f>
+        <f>IF(ISBLANK('By Round'!J32),"",'By Round'!J32)</f>
         <v/>
       </c>
       <c r="K20">
-        <f>IF(ISBLANK('By Round'!K31),"",'By Round'!K31)</f>
+        <f>IF(ISBLANK('By Round'!K32),"",'By Round'!K32)</f>
         <v/>
       </c>
       <c r="L20" s="12">
@@ -3614,45 +3596,44 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21">
+      <c r="B21" s="11">
         <f>'By Round'!A33</f>
         <v/>
       </c>
-      <c r="C21">
+      <c r="C21" s="11">
         <f>'By Round'!B39</f>
         <v/>
       </c>
-      <c r="D21">
+      <c r="D21" s="11">
         <f>'By Round'!C39</f>
         <v/>
       </c>
-      <c r="E21">
+      <c r="E21" s="11">
         <f>'By Round'!D39</f>
         <v/>
       </c>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F21" s="11">
+        <f>IF(ISBLANK('By Round'!F40),"",'By Round'!F40)</f>
+        <v/>
       </c>
       <c r="G21">
-        <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
+        <f>IF(ISBLANK('By Round'!G40),"",'By Round'!G40)</f>
         <v/>
       </c>
       <c r="H21">
-        <f>IF(ISBLANK('By Round'!H39),"",'By Round'!H39)</f>
+        <f>IF(ISBLANK('By Round'!H40),"",'By Round'!H40)</f>
         <v/>
       </c>
       <c r="I21">
-        <f>IF(ISBLANK('By Round'!I39),"",'By Round'!I39)</f>
+        <f>IF(ISBLANK('By Round'!I40),"",'By Round'!I40)</f>
         <v/>
       </c>
       <c r="J21">
-        <f>IF(ISBLANK('By Round'!J39),"",'By Round'!J39)</f>
+        <f>IF(ISBLANK('By Round'!J40),"",'By Round'!J40)</f>
         <v/>
       </c>
       <c r="K21">
-        <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
+        <f>IF(ISBLANK('By Round'!K40),"",'By Round'!K40)</f>
         <v/>
       </c>
       <c r="L21" s="12">
@@ -3754,45 +3735,44 @@
     </row>
     <row r="22">
       <c r="A22" s="15" t="n"/>
-      <c r="B22" s="15">
+      <c r="B22" s="16">
         <f>'By Round'!A83</f>
         <v/>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="16">
         <f>'By Round'!B87</f>
         <v/>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="16">
         <f>'By Round'!C87</f>
         <v/>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="16">
         <f>'By Round'!D87</f>
         <v/>
       </c>
-      <c r="F22" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F22" s="16">
+        <f>IF(ISBLANK('By Round'!F88),"",'By Round'!F88)</f>
+        <v/>
       </c>
       <c r="G22" s="15">
-        <f>IF(ISBLANK('By Round'!G87),"",'By Round'!G87)</f>
+        <f>IF(ISBLANK('By Round'!G88),"",'By Round'!G88)</f>
         <v/>
       </c>
       <c r="H22" s="15">
-        <f>IF(ISBLANK('By Round'!H87),"",'By Round'!H87)</f>
+        <f>IF(ISBLANK('By Round'!H88),"",'By Round'!H88)</f>
         <v/>
       </c>
       <c r="I22" s="15">
-        <f>IF(ISBLANK('By Round'!I87),"",'By Round'!I87)</f>
+        <f>IF(ISBLANK('By Round'!I88),"",'By Round'!I88)</f>
         <v/>
       </c>
       <c r="J22" s="15">
-        <f>IF(ISBLANK('By Round'!J87),"",'By Round'!J87)</f>
+        <f>IF(ISBLANK('By Round'!J88),"",'By Round'!J88)</f>
         <v/>
       </c>
       <c r="K22" s="15">
-        <f>IF(ISBLANK('By Round'!K87),"",'By Round'!K87)</f>
+        <f>IF(ISBLANK('By Round'!K88),"",'By Round'!K88)</f>
         <v/>
       </c>
       <c r="L22" s="17">
@@ -3893,29 +3873,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C23">
+      <c r="C23" s="11">
         <f>'By Round'!B7</f>
         <v/>
       </c>
-      <c r="D23">
+      <c r="D23" s="11">
         <f>'By Round'!C7</f>
         <v/>
       </c>
-      <c r="E23">
+      <c r="E23" s="11">
         <f>'By Round'!D7</f>
         <v/>
       </c>
-      <c r="F23" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F23" s="11">
+        <f>IF(ISBLANK('By Round'!F7),"",'By Round'!F7)</f>
+        <v/>
       </c>
       <c r="G23">
         <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
@@ -4035,26 +4014,25 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24">
+      <c r="B24" s="11">
         <f>'By Round'!A13</f>
         <v/>
       </c>
-      <c r="C24">
+      <c r="C24" s="11">
         <f>'By Round'!B15</f>
         <v/>
       </c>
-      <c r="D24">
+      <c r="D24" s="11">
         <f>'By Round'!C15</f>
         <v/>
       </c>
-      <c r="E24">
+      <c r="E24" s="11">
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F24" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F24" s="11">
+        <f>IF(ISBLANK('By Round'!F15),"",'By Round'!F15)</f>
+        <v/>
       </c>
       <c r="G24">
         <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
@@ -4174,26 +4152,25 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25">
+      <c r="B25" s="11">
         <f>'By Round'!A23</f>
         <v/>
       </c>
-      <c r="C25">
+      <c r="C25" s="11">
         <f>'By Round'!B23</f>
         <v/>
       </c>
-      <c r="D25">
+      <c r="D25" s="11">
         <f>'By Round'!C23</f>
         <v/>
       </c>
-      <c r="E25">
+      <c r="E25" s="11">
         <f>'By Round'!D23</f>
         <v/>
       </c>
-      <c r="F25" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F25" s="11">
+        <f>IF(ISBLANK('By Round'!F23),"",'By Round'!F23)</f>
+        <v/>
       </c>
       <c r="G25">
         <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
@@ -4313,26 +4290,25 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26">
+      <c r="B26" s="11">
         <f>'By Round'!A33</f>
         <v/>
       </c>
-      <c r="C26">
+      <c r="C26" s="11">
         <f>'By Round'!B41</f>
         <v/>
       </c>
-      <c r="D26">
+      <c r="D26" s="11">
         <f>'By Round'!C41</f>
         <v/>
       </c>
-      <c r="E26">
+      <c r="E26" s="11">
         <f>'By Round'!D41</f>
         <v/>
       </c>
-      <c r="F26" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F26" s="11">
+        <f>IF(ISBLANK('By Round'!F41),"",'By Round'!F41)</f>
+        <v/>
       </c>
       <c r="G26">
         <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
@@ -4453,26 +4429,25 @@
     </row>
     <row r="27">
       <c r="A27" s="15" t="n"/>
-      <c r="B27" s="15">
+      <c r="B27" s="16">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="16">
         <f>'By Round'!B49</f>
         <v/>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="16">
         <f>'By Round'!C49</f>
         <v/>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="16">
         <f>'By Round'!D49</f>
         <v/>
       </c>
-      <c r="F27" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F27" s="16">
+        <f>IF(ISBLANK('By Round'!F49),"",'By Round'!F49)</f>
+        <v/>
       </c>
       <c r="G27" s="15">
         <f>IF(ISBLANK('By Round'!G49),"",'By Round'!G49)</f>
@@ -4592,48 +4567,47 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C28">
+      <c r="C28" s="11">
         <f>'By Round'!B7</f>
         <v/>
       </c>
-      <c r="D28">
+      <c r="D28" s="11">
         <f>'By Round'!C7</f>
         <v/>
       </c>
-      <c r="E28">
+      <c r="E28" s="11">
         <f>'By Round'!D7</f>
         <v/>
       </c>
-      <c r="F28" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F28" s="11">
+        <f>IF(ISBLANK('By Round'!F8),"",'By Round'!F8)</f>
+        <v/>
       </c>
       <c r="G28">
-        <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
+        <f>IF(ISBLANK('By Round'!G8),"",'By Round'!G8)</f>
         <v/>
       </c>
       <c r="H28">
-        <f>IF(ISBLANK('By Round'!H7),"",'By Round'!H7)</f>
+        <f>IF(ISBLANK('By Round'!H8),"",'By Round'!H8)</f>
         <v/>
       </c>
       <c r="I28">
-        <f>IF(ISBLANK('By Round'!I7),"",'By Round'!I7)</f>
+        <f>IF(ISBLANK('By Round'!I8),"",'By Round'!I8)</f>
         <v/>
       </c>
       <c r="J28">
-        <f>IF(ISBLANK('By Round'!J7),"",'By Round'!J7)</f>
+        <f>IF(ISBLANK('By Round'!J8),"",'By Round'!J8)</f>
         <v/>
       </c>
       <c r="K28">
-        <f>IF(ISBLANK('By Round'!K7),"",'By Round'!K7)</f>
+        <f>IF(ISBLANK('By Round'!K8),"",'By Round'!K8)</f>
         <v/>
       </c>
       <c r="L28" s="12">
@@ -4734,45 +4708,44 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29">
+      <c r="B29" s="11">
         <f>'By Round'!A13</f>
         <v/>
       </c>
-      <c r="C29">
+      <c r="C29" s="11">
         <f>'By Round'!B15</f>
         <v/>
       </c>
-      <c r="D29">
+      <c r="D29" s="11">
         <f>'By Round'!C15</f>
         <v/>
       </c>
-      <c r="E29">
+      <c r="E29" s="11">
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F29" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F29" s="11">
+        <f>IF(ISBLANK('By Round'!F16),"",'By Round'!F16)</f>
+        <v/>
       </c>
       <c r="G29">
-        <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
+        <f>IF(ISBLANK('By Round'!G16),"",'By Round'!G16)</f>
         <v/>
       </c>
       <c r="H29">
-        <f>IF(ISBLANK('By Round'!H15),"",'By Round'!H15)</f>
+        <f>IF(ISBLANK('By Round'!H16),"",'By Round'!H16)</f>
         <v/>
       </c>
       <c r="I29">
-        <f>IF(ISBLANK('By Round'!I15),"",'By Round'!I15)</f>
+        <f>IF(ISBLANK('By Round'!I16),"",'By Round'!I16)</f>
         <v/>
       </c>
       <c r="J29">
-        <f>IF(ISBLANK('By Round'!J15),"",'By Round'!J15)</f>
+        <f>IF(ISBLANK('By Round'!J16),"",'By Round'!J16)</f>
         <v/>
       </c>
       <c r="K29">
-        <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
+        <f>IF(ISBLANK('By Round'!K16),"",'By Round'!K16)</f>
         <v/>
       </c>
       <c r="L29" s="12">
@@ -4873,45 +4846,44 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30">
+      <c r="B30" s="11">
         <f>'By Round'!A23</f>
         <v/>
       </c>
-      <c r="C30">
+      <c r="C30" s="11">
         <f>'By Round'!B23</f>
         <v/>
       </c>
-      <c r="D30">
+      <c r="D30" s="11">
         <f>'By Round'!C23</f>
         <v/>
       </c>
-      <c r="E30">
+      <c r="E30" s="11">
         <f>'By Round'!D23</f>
         <v/>
       </c>
-      <c r="F30" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F30" s="11">
+        <f>IF(ISBLANK('By Round'!F24),"",'By Round'!F24)</f>
+        <v/>
       </c>
       <c r="G30">
-        <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
+        <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
         <v/>
       </c>
       <c r="H30">
-        <f>IF(ISBLANK('By Round'!H23),"",'By Round'!H23)</f>
+        <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
         <v/>
       </c>
       <c r="I30">
-        <f>IF(ISBLANK('By Round'!I23),"",'By Round'!I23)</f>
+        <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
         <v/>
       </c>
       <c r="J30">
-        <f>IF(ISBLANK('By Round'!J23),"",'By Round'!J23)</f>
+        <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
         <v/>
       </c>
       <c r="K30">
-        <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
+        <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
         <v/>
       </c>
       <c r="L30" s="12">
@@ -5012,45 +4984,44 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31">
+      <c r="B31" s="11">
         <f>'By Round'!A33</f>
         <v/>
       </c>
-      <c r="C31">
+      <c r="C31" s="11">
         <f>'By Round'!B41</f>
         <v/>
       </c>
-      <c r="D31">
+      <c r="D31" s="11">
         <f>'By Round'!C41</f>
         <v/>
       </c>
-      <c r="E31">
+      <c r="E31" s="11">
         <f>'By Round'!D41</f>
         <v/>
       </c>
-      <c r="F31" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F31" s="11">
+        <f>IF(ISBLANK('By Round'!F42),"",'By Round'!F42)</f>
+        <v/>
       </c>
       <c r="G31">
-        <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
+        <f>IF(ISBLANK('By Round'!G42),"",'By Round'!G42)</f>
         <v/>
       </c>
       <c r="H31">
-        <f>IF(ISBLANK('By Round'!H41),"",'By Round'!H41)</f>
+        <f>IF(ISBLANK('By Round'!H42),"",'By Round'!H42)</f>
         <v/>
       </c>
       <c r="I31">
-        <f>IF(ISBLANK('By Round'!I41),"",'By Round'!I41)</f>
+        <f>IF(ISBLANK('By Round'!I42),"",'By Round'!I42)</f>
         <v/>
       </c>
       <c r="J31">
-        <f>IF(ISBLANK('By Round'!J41),"",'By Round'!J41)</f>
+        <f>IF(ISBLANK('By Round'!J42),"",'By Round'!J42)</f>
         <v/>
       </c>
       <c r="K31">
-        <f>IF(ISBLANK('By Round'!K41),"",'By Round'!K41)</f>
+        <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
         <v/>
       </c>
       <c r="L31" s="12">
@@ -5152,45 +5123,44 @@
     </row>
     <row r="32">
       <c r="A32" s="15" t="n"/>
-      <c r="B32" s="15">
+      <c r="B32" s="16">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="16">
         <f>'By Round'!B49</f>
         <v/>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="16">
         <f>'By Round'!C49</f>
         <v/>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="16">
         <f>'By Round'!D49</f>
         <v/>
       </c>
-      <c r="F32" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F32" s="16">
+        <f>IF(ISBLANK('By Round'!F50),"",'By Round'!F50)</f>
+        <v/>
       </c>
       <c r="G32" s="15">
-        <f>IF(ISBLANK('By Round'!G49),"",'By Round'!G49)</f>
+        <f>IF(ISBLANK('By Round'!G50),"",'By Round'!G50)</f>
         <v/>
       </c>
       <c r="H32" s="15">
-        <f>IF(ISBLANK('By Round'!H49),"",'By Round'!H49)</f>
+        <f>IF(ISBLANK('By Round'!H50),"",'By Round'!H50)</f>
         <v/>
       </c>
       <c r="I32" s="15">
-        <f>IF(ISBLANK('By Round'!I49),"",'By Round'!I49)</f>
+        <f>IF(ISBLANK('By Round'!I50),"",'By Round'!I50)</f>
         <v/>
       </c>
       <c r="J32" s="15">
-        <f>IF(ISBLANK('By Round'!J49),"",'By Round'!J49)</f>
+        <f>IF(ISBLANK('By Round'!J50),"",'By Round'!J50)</f>
         <v/>
       </c>
       <c r="K32" s="15">
-        <f>IF(ISBLANK('By Round'!K49),"",'By Round'!K49)</f>
+        <f>IF(ISBLANK('By Round'!K50),"",'By Round'!K50)</f>
         <v/>
       </c>
       <c r="L32" s="17">
@@ -5291,29 +5261,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="11">
         <f>'By Round'!A13</f>
         <v/>
       </c>
-      <c r="C33">
+      <c r="C33" s="11">
         <f>'By Round'!B17</f>
         <v/>
       </c>
-      <c r="D33">
+      <c r="D33" s="11">
         <f>'By Round'!C17</f>
         <v/>
       </c>
-      <c r="E33">
+      <c r="E33" s="11">
         <f>'By Round'!D17</f>
         <v/>
       </c>
-      <c r="F33" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F33" s="11">
+        <f>IF(ISBLANK('By Round'!F17),"",'By Round'!F17)</f>
+        <v/>
       </c>
       <c r="G33">
         <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
@@ -5433,26 +5402,25 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34">
+      <c r="B34" s="11">
         <f>'By Round'!A23</f>
         <v/>
       </c>
-      <c r="C34">
+      <c r="C34" s="11">
         <f>'By Round'!B25</f>
         <v/>
       </c>
-      <c r="D34">
+      <c r="D34" s="11">
         <f>'By Round'!C25</f>
         <v/>
       </c>
-      <c r="E34">
+      <c r="E34" s="11">
         <f>'By Round'!D25</f>
         <v/>
       </c>
-      <c r="F34" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F34" s="11">
+        <f>IF(ISBLANK('By Round'!F25),"",'By Round'!F25)</f>
+        <v/>
       </c>
       <c r="G34">
         <f>IF(ISBLANK('By Round'!G25),"",'By Round'!G25)</f>
@@ -5572,26 +5540,25 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35">
+      <c r="B35" s="11">
         <f>'By Round'!A33</f>
         <v/>
       </c>
-      <c r="C35">
+      <c r="C35" s="11">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D35">
+      <c r="D35" s="11">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E35">
+      <c r="E35" s="11">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F35" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F35" s="11">
+        <f>IF(ISBLANK('By Round'!F33),"",'By Round'!F33)</f>
+        <v/>
       </c>
       <c r="G35">
         <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
@@ -5711,26 +5678,25 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36">
+      <c r="B36" s="11">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C36">
+      <c r="C36" s="11">
         <f>'By Round'!B51</f>
         <v/>
       </c>
-      <c r="D36">
+      <c r="D36" s="11">
         <f>'By Round'!C51</f>
         <v/>
       </c>
-      <c r="E36">
+      <c r="E36" s="11">
         <f>'By Round'!D51</f>
         <v/>
       </c>
-      <c r="F36" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F36" s="11">
+        <f>IF(ISBLANK('By Round'!F51),"",'By Round'!F51)</f>
+        <v/>
       </c>
       <c r="G36">
         <f>IF(ISBLANK('By Round'!G51),"",'By Round'!G51)</f>
@@ -5851,26 +5817,25 @@
     </row>
     <row r="37">
       <c r="A37" s="15" t="n"/>
-      <c r="B37" s="15">
+      <c r="B37" s="16">
         <f>'By Round'!A53</f>
         <v/>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="16">
         <f>'By Round'!B59</f>
         <v/>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="16">
         <f>'By Round'!C59</f>
         <v/>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="16">
         <f>'By Round'!D59</f>
         <v/>
       </c>
-      <c r="F37" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F37" s="16">
+        <f>IF(ISBLANK('By Round'!F59),"",'By Round'!F59)</f>
+        <v/>
       </c>
       <c r="G37" s="15">
         <f>IF(ISBLANK('By Round'!G59),"",'By Round'!G59)</f>
@@ -5990,48 +5955,47 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="11">
         <f>'By Round'!A13</f>
         <v/>
       </c>
-      <c r="C38">
+      <c r="C38" s="11">
         <f>'By Round'!B17</f>
         <v/>
       </c>
-      <c r="D38">
+      <c r="D38" s="11">
         <f>'By Round'!C17</f>
         <v/>
       </c>
-      <c r="E38">
+      <c r="E38" s="11">
         <f>'By Round'!D17</f>
         <v/>
       </c>
-      <c r="F38" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F38" s="11">
+        <f>IF(ISBLANK('By Round'!F18),"",'By Round'!F18)</f>
+        <v/>
       </c>
       <c r="G38">
-        <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
+        <f>IF(ISBLANK('By Round'!G18),"",'By Round'!G18)</f>
         <v/>
       </c>
       <c r="H38">
-        <f>IF(ISBLANK('By Round'!H17),"",'By Round'!H17)</f>
+        <f>IF(ISBLANK('By Round'!H18),"",'By Round'!H18)</f>
         <v/>
       </c>
       <c r="I38">
-        <f>IF(ISBLANK('By Round'!I17),"",'By Round'!I17)</f>
+        <f>IF(ISBLANK('By Round'!I18),"",'By Round'!I18)</f>
         <v/>
       </c>
       <c r="J38">
-        <f>IF(ISBLANK('By Round'!J17),"",'By Round'!J17)</f>
+        <f>IF(ISBLANK('By Round'!J18),"",'By Round'!J18)</f>
         <v/>
       </c>
       <c r="K38">
-        <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
+        <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
         <v/>
       </c>
       <c r="L38" s="12">
@@ -6132,45 +6096,44 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39">
+      <c r="B39" s="11">
         <f>'By Round'!A23</f>
         <v/>
       </c>
-      <c r="C39">
+      <c r="C39" s="11">
         <f>'By Round'!B25</f>
         <v/>
       </c>
-      <c r="D39">
+      <c r="D39" s="11">
         <f>'By Round'!C25</f>
         <v/>
       </c>
-      <c r="E39">
+      <c r="E39" s="11">
         <f>'By Round'!D25</f>
         <v/>
       </c>
-      <c r="F39" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F39" s="11">
+        <f>IF(ISBLANK('By Round'!F26),"",'By Round'!F26)</f>
+        <v/>
       </c>
       <c r="G39">
-        <f>IF(ISBLANK('By Round'!G25),"",'By Round'!G25)</f>
+        <f>IF(ISBLANK('By Round'!G26),"",'By Round'!G26)</f>
         <v/>
       </c>
       <c r="H39">
-        <f>IF(ISBLANK('By Round'!H25),"",'By Round'!H25)</f>
+        <f>IF(ISBLANK('By Round'!H26),"",'By Round'!H26)</f>
         <v/>
       </c>
       <c r="I39">
-        <f>IF(ISBLANK('By Round'!I25),"",'By Round'!I25)</f>
+        <f>IF(ISBLANK('By Round'!I26),"",'By Round'!I26)</f>
         <v/>
       </c>
       <c r="J39">
-        <f>IF(ISBLANK('By Round'!J25),"",'By Round'!J25)</f>
+        <f>IF(ISBLANK('By Round'!J26),"",'By Round'!J26)</f>
         <v/>
       </c>
       <c r="K39">
-        <f>IF(ISBLANK('By Round'!K25),"",'By Round'!K25)</f>
+        <f>IF(ISBLANK('By Round'!K26),"",'By Round'!K26)</f>
         <v/>
       </c>
       <c r="L39" s="12">
@@ -6271,45 +6234,44 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40">
+      <c r="B40" s="11">
         <f>'By Round'!A33</f>
         <v/>
       </c>
-      <c r="C40">
+      <c r="C40" s="11">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D40">
+      <c r="D40" s="11">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E40">
+      <c r="E40" s="11">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F40" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F40" s="11">
+        <f>IF(ISBLANK('By Round'!F34),"",'By Round'!F34)</f>
+        <v/>
       </c>
       <c r="G40">
-        <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
+        <f>IF(ISBLANK('By Round'!G34),"",'By Round'!G34)</f>
         <v/>
       </c>
       <c r="H40">
-        <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
+        <f>IF(ISBLANK('By Round'!H34),"",'By Round'!H34)</f>
         <v/>
       </c>
       <c r="I40">
-        <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
+        <f>IF(ISBLANK('By Round'!I34),"",'By Round'!I34)</f>
         <v/>
       </c>
       <c r="J40">
-        <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
+        <f>IF(ISBLANK('By Round'!J34),"",'By Round'!J34)</f>
         <v/>
       </c>
       <c r="K40">
-        <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
+        <f>IF(ISBLANK('By Round'!K34),"",'By Round'!K34)</f>
         <v/>
       </c>
       <c r="L40" s="12">
@@ -6410,45 +6372,44 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41">
+      <c r="B41" s="11">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C41">
+      <c r="C41" s="11">
         <f>'By Round'!B51</f>
         <v/>
       </c>
-      <c r="D41">
+      <c r="D41" s="11">
         <f>'By Round'!C51</f>
         <v/>
       </c>
-      <c r="E41">
+      <c r="E41" s="11">
         <f>'By Round'!D51</f>
         <v/>
       </c>
-      <c r="F41" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F41" s="11">
+        <f>IF(ISBLANK('By Round'!F52),"",'By Round'!F52)</f>
+        <v/>
       </c>
       <c r="G41">
-        <f>IF(ISBLANK('By Round'!G51),"",'By Round'!G51)</f>
+        <f>IF(ISBLANK('By Round'!G52),"",'By Round'!G52)</f>
         <v/>
       </c>
       <c r="H41">
-        <f>IF(ISBLANK('By Round'!H51),"",'By Round'!H51)</f>
+        <f>IF(ISBLANK('By Round'!H52),"",'By Round'!H52)</f>
         <v/>
       </c>
       <c r="I41">
-        <f>IF(ISBLANK('By Round'!I51),"",'By Round'!I51)</f>
+        <f>IF(ISBLANK('By Round'!I52),"",'By Round'!I52)</f>
         <v/>
       </c>
       <c r="J41">
-        <f>IF(ISBLANK('By Round'!J51),"",'By Round'!J51)</f>
+        <f>IF(ISBLANK('By Round'!J52),"",'By Round'!J52)</f>
         <v/>
       </c>
       <c r="K41">
-        <f>IF(ISBLANK('By Round'!K51),"",'By Round'!K51)</f>
+        <f>IF(ISBLANK('By Round'!K52),"",'By Round'!K52)</f>
         <v/>
       </c>
       <c r="L41" s="12">
@@ -6550,45 +6511,44 @@
     </row>
     <row r="42">
       <c r="A42" s="15" t="n"/>
-      <c r="B42" s="15">
+      <c r="B42" s="16">
         <f>'By Round'!A53</f>
         <v/>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="16">
         <f>'By Round'!B59</f>
         <v/>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="16">
         <f>'By Round'!C59</f>
         <v/>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="16">
         <f>'By Round'!D59</f>
         <v/>
       </c>
-      <c r="F42" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F42" s="16">
+        <f>IF(ISBLANK('By Round'!F60),"",'By Round'!F60)</f>
+        <v/>
       </c>
       <c r="G42" s="15">
-        <f>IF(ISBLANK('By Round'!G59),"",'By Round'!G59)</f>
+        <f>IF(ISBLANK('By Round'!G60),"",'By Round'!G60)</f>
         <v/>
       </c>
       <c r="H42" s="15">
-        <f>IF(ISBLANK('By Round'!H59),"",'By Round'!H59)</f>
+        <f>IF(ISBLANK('By Round'!H60),"",'By Round'!H60)</f>
         <v/>
       </c>
       <c r="I42" s="15">
-        <f>IF(ISBLANK('By Round'!I59),"",'By Round'!I59)</f>
+        <f>IF(ISBLANK('By Round'!I60),"",'By Round'!I60)</f>
         <v/>
       </c>
       <c r="J42" s="15">
-        <f>IF(ISBLANK('By Round'!J59),"",'By Round'!J59)</f>
+        <f>IF(ISBLANK('By Round'!J60),"",'By Round'!J60)</f>
         <v/>
       </c>
       <c r="K42" s="15">
-        <f>IF(ISBLANK('By Round'!K59),"",'By Round'!K59)</f>
+        <f>IF(ISBLANK('By Round'!K60),"",'By Round'!K60)</f>
         <v/>
       </c>
       <c r="L42" s="17">
@@ -6689,29 +6649,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="11">
         <f>'By Round'!A23</f>
         <v/>
       </c>
-      <c r="C43">
+      <c r="C43" s="11">
         <f>'By Round'!B27</f>
         <v/>
       </c>
-      <c r="D43">
+      <c r="D43" s="11">
         <f>'By Round'!C27</f>
         <v/>
       </c>
-      <c r="E43">
+      <c r="E43" s="11">
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F43" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F43" s="11">
+        <f>IF(ISBLANK('By Round'!F27),"",'By Round'!F27)</f>
+        <v/>
       </c>
       <c r="G43">
         <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
@@ -6831,26 +6790,25 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44">
+      <c r="B44" s="11">
         <f>'By Round'!A33</f>
         <v/>
       </c>
-      <c r="C44">
+      <c r="C44" s="11">
         <f>'By Round'!B35</f>
         <v/>
       </c>
-      <c r="D44">
+      <c r="D44" s="11">
         <f>'By Round'!C35</f>
         <v/>
       </c>
-      <c r="E44">
+      <c r="E44" s="11">
         <f>'By Round'!D35</f>
         <v/>
       </c>
-      <c r="F44" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F44" s="11">
+        <f>IF(ISBLANK('By Round'!F35),"",'By Round'!F35)</f>
+        <v/>
       </c>
       <c r="G44">
         <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
@@ -6970,26 +6928,25 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45">
+      <c r="B45" s="11">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C45">
+      <c r="C45" s="11">
         <f>'By Round'!B43</f>
         <v/>
       </c>
-      <c r="D45">
+      <c r="D45" s="11">
         <f>'By Round'!C43</f>
         <v/>
       </c>
-      <c r="E45">
+      <c r="E45" s="11">
         <f>'By Round'!D43</f>
         <v/>
       </c>
-      <c r="F45" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F45" s="11">
+        <f>IF(ISBLANK('By Round'!F43),"",'By Round'!F43)</f>
+        <v/>
       </c>
       <c r="G45">
         <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
@@ -7109,26 +7066,25 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46">
+      <c r="B46" s="11">
         <f>'By Round'!A53</f>
         <v/>
       </c>
-      <c r="C46">
+      <c r="C46" s="11">
         <f>'By Round'!B61</f>
         <v/>
       </c>
-      <c r="D46">
+      <c r="D46" s="11">
         <f>'By Round'!C61</f>
         <v/>
       </c>
-      <c r="E46">
+      <c r="E46" s="11">
         <f>'By Round'!D61</f>
         <v/>
       </c>
-      <c r="F46" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F46" s="11">
+        <f>IF(ISBLANK('By Round'!F61),"",'By Round'!F61)</f>
+        <v/>
       </c>
       <c r="G46">
         <f>IF(ISBLANK('By Round'!G61),"",'By Round'!G61)</f>
@@ -7249,26 +7205,25 @@
     </row>
     <row r="47">
       <c r="A47" s="15" t="n"/>
-      <c r="B47" s="15">
+      <c r="B47" s="16">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="16">
         <f>'By Round'!B69</f>
         <v/>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="16">
         <f>'By Round'!C69</f>
         <v/>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="16">
         <f>'By Round'!D69</f>
         <v/>
       </c>
-      <c r="F47" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F47" s="16">
+        <f>IF(ISBLANK('By Round'!F69),"",'By Round'!F69)</f>
+        <v/>
       </c>
       <c r="G47" s="15">
         <f>IF(ISBLANK('By Round'!G69),"",'By Round'!G69)</f>
@@ -7388,48 +7343,47 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="11">
         <f>'By Round'!A23</f>
         <v/>
       </c>
-      <c r="C48">
+      <c r="C48" s="11">
         <f>'By Round'!B27</f>
         <v/>
       </c>
-      <c r="D48">
+      <c r="D48" s="11">
         <f>'By Round'!C27</f>
         <v/>
       </c>
-      <c r="E48">
+      <c r="E48" s="11">
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F48" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F48" s="11">
+        <f>IF(ISBLANK('By Round'!F28),"",'By Round'!F28)</f>
+        <v/>
       </c>
       <c r="G48">
-        <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
+        <f>IF(ISBLANK('By Round'!G28),"",'By Round'!G28)</f>
         <v/>
       </c>
       <c r="H48">
-        <f>IF(ISBLANK('By Round'!H27),"",'By Round'!H27)</f>
+        <f>IF(ISBLANK('By Round'!H28),"",'By Round'!H28)</f>
         <v/>
       </c>
       <c r="I48">
-        <f>IF(ISBLANK('By Round'!I27),"",'By Round'!I27)</f>
+        <f>IF(ISBLANK('By Round'!I28),"",'By Round'!I28)</f>
         <v/>
       </c>
       <c r="J48">
-        <f>IF(ISBLANK('By Round'!J27),"",'By Round'!J27)</f>
+        <f>IF(ISBLANK('By Round'!J28),"",'By Round'!J28)</f>
         <v/>
       </c>
       <c r="K48">
-        <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
+        <f>IF(ISBLANK('By Round'!K28),"",'By Round'!K28)</f>
         <v/>
       </c>
       <c r="L48" s="12">
@@ -7530,45 +7484,44 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49">
+      <c r="B49" s="11">
         <f>'By Round'!A33</f>
         <v/>
       </c>
-      <c r="C49">
+      <c r="C49" s="11">
         <f>'By Round'!B35</f>
         <v/>
       </c>
-      <c r="D49">
+      <c r="D49" s="11">
         <f>'By Round'!C35</f>
         <v/>
       </c>
-      <c r="E49">
+      <c r="E49" s="11">
         <f>'By Round'!D35</f>
         <v/>
       </c>
-      <c r="F49" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F49" s="11">
+        <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
+        <v/>
       </c>
       <c r="G49">
-        <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
+        <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
         <v/>
       </c>
       <c r="H49">
-        <f>IF(ISBLANK('By Round'!H35),"",'By Round'!H35)</f>
+        <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
         <v/>
       </c>
       <c r="I49">
-        <f>IF(ISBLANK('By Round'!I35),"",'By Round'!I35)</f>
+        <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
         <v/>
       </c>
       <c r="J49">
-        <f>IF(ISBLANK('By Round'!J35),"",'By Round'!J35)</f>
+        <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
         <v/>
       </c>
       <c r="K49">
-        <f>IF(ISBLANK('By Round'!K35),"",'By Round'!K35)</f>
+        <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
         <v/>
       </c>
       <c r="L49" s="12">
@@ -7669,45 +7622,44 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50">
+      <c r="B50" s="11">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C50">
+      <c r="C50" s="11">
         <f>'By Round'!B43</f>
         <v/>
       </c>
-      <c r="D50">
+      <c r="D50" s="11">
         <f>'By Round'!C43</f>
         <v/>
       </c>
-      <c r="E50">
+      <c r="E50" s="11">
         <f>'By Round'!D43</f>
         <v/>
       </c>
-      <c r="F50" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F50" s="11">
+        <f>IF(ISBLANK('By Round'!F44),"",'By Round'!F44)</f>
+        <v/>
       </c>
       <c r="G50">
-        <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
+        <f>IF(ISBLANK('By Round'!G44),"",'By Round'!G44)</f>
         <v/>
       </c>
       <c r="H50">
-        <f>IF(ISBLANK('By Round'!H43),"",'By Round'!H43)</f>
+        <f>IF(ISBLANK('By Round'!H44),"",'By Round'!H44)</f>
         <v/>
       </c>
       <c r="I50">
-        <f>IF(ISBLANK('By Round'!I43),"",'By Round'!I43)</f>
+        <f>IF(ISBLANK('By Round'!I44),"",'By Round'!I44)</f>
         <v/>
       </c>
       <c r="J50">
-        <f>IF(ISBLANK('By Round'!J43),"",'By Round'!J43)</f>
+        <f>IF(ISBLANK('By Round'!J44),"",'By Round'!J44)</f>
         <v/>
       </c>
       <c r="K50">
-        <f>IF(ISBLANK('By Round'!K43),"",'By Round'!K43)</f>
+        <f>IF(ISBLANK('By Round'!K44),"",'By Round'!K44)</f>
         <v/>
       </c>
       <c r="L50" s="12">
@@ -7808,45 +7760,44 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51">
+      <c r="B51" s="11">
         <f>'By Round'!A53</f>
         <v/>
       </c>
-      <c r="C51">
+      <c r="C51" s="11">
         <f>'By Round'!B61</f>
         <v/>
       </c>
-      <c r="D51">
+      <c r="D51" s="11">
         <f>'By Round'!C61</f>
         <v/>
       </c>
-      <c r="E51">
+      <c r="E51" s="11">
         <f>'By Round'!D61</f>
         <v/>
       </c>
-      <c r="F51" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F51" s="11">
+        <f>IF(ISBLANK('By Round'!F62),"",'By Round'!F62)</f>
+        <v/>
       </c>
       <c r="G51">
-        <f>IF(ISBLANK('By Round'!G61),"",'By Round'!G61)</f>
+        <f>IF(ISBLANK('By Round'!G62),"",'By Round'!G62)</f>
         <v/>
       </c>
       <c r="H51">
-        <f>IF(ISBLANK('By Round'!H61),"",'By Round'!H61)</f>
+        <f>IF(ISBLANK('By Round'!H62),"",'By Round'!H62)</f>
         <v/>
       </c>
       <c r="I51">
-        <f>IF(ISBLANK('By Round'!I61),"",'By Round'!I61)</f>
+        <f>IF(ISBLANK('By Round'!I62),"",'By Round'!I62)</f>
         <v/>
       </c>
       <c r="J51">
-        <f>IF(ISBLANK('By Round'!J61),"",'By Round'!J61)</f>
+        <f>IF(ISBLANK('By Round'!J62),"",'By Round'!J62)</f>
         <v/>
       </c>
       <c r="K51">
-        <f>IF(ISBLANK('By Round'!K61),"",'By Round'!K61)</f>
+        <f>IF(ISBLANK('By Round'!K62),"",'By Round'!K62)</f>
         <v/>
       </c>
       <c r="L51" s="12">
@@ -7948,45 +7899,44 @@
     </row>
     <row r="52">
       <c r="A52" s="15" t="n"/>
-      <c r="B52" s="15">
+      <c r="B52" s="16">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="16">
         <f>'By Round'!B69</f>
         <v/>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="16">
         <f>'By Round'!C69</f>
         <v/>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="16">
         <f>'By Round'!D69</f>
         <v/>
       </c>
-      <c r="F52" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F52" s="16">
+        <f>IF(ISBLANK('By Round'!F70),"",'By Round'!F70)</f>
+        <v/>
       </c>
       <c r="G52" s="15">
-        <f>IF(ISBLANK('By Round'!G69),"",'By Round'!G69)</f>
+        <f>IF(ISBLANK('By Round'!G70),"",'By Round'!G70)</f>
         <v/>
       </c>
       <c r="H52" s="15">
-        <f>IF(ISBLANK('By Round'!H69),"",'By Round'!H69)</f>
+        <f>IF(ISBLANK('By Round'!H70),"",'By Round'!H70)</f>
         <v/>
       </c>
       <c r="I52" s="15">
-        <f>IF(ISBLANK('By Round'!I69),"",'By Round'!I69)</f>
+        <f>IF(ISBLANK('By Round'!I70),"",'By Round'!I70)</f>
         <v/>
       </c>
       <c r="J52" s="15">
-        <f>IF(ISBLANK('By Round'!J69),"",'By Round'!J69)</f>
+        <f>IF(ISBLANK('By Round'!J70),"",'By Round'!J70)</f>
         <v/>
       </c>
       <c r="K52" s="15">
-        <f>IF(ISBLANK('By Round'!K69),"",'By Round'!K69)</f>
+        <f>IF(ISBLANK('By Round'!K70),"",'By Round'!K70)</f>
         <v/>
       </c>
       <c r="L52" s="17">
@@ -8087,29 +8037,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="11">
         <f>'By Round'!A33</f>
         <v/>
       </c>
-      <c r="C53">
+      <c r="C53" s="11">
         <f>'By Round'!B37</f>
         <v/>
       </c>
-      <c r="D53">
+      <c r="D53" s="11">
         <f>'By Round'!C37</f>
         <v/>
       </c>
-      <c r="E53">
+      <c r="E53" s="11">
         <f>'By Round'!D37</f>
         <v/>
       </c>
-      <c r="F53" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F53" s="11">
+        <f>IF(ISBLANK('By Round'!F37),"",'By Round'!F37)</f>
+        <v/>
       </c>
       <c r="G53">
         <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
@@ -8229,26 +8178,25 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54">
+      <c r="B54" s="11">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C54">
+      <c r="C54" s="11">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D54">
+      <c r="D54" s="11">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E54">
+      <c r="E54" s="11">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F54" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F54" s="11">
+        <f>IF(ISBLANK('By Round'!F45),"",'By Round'!F45)</f>
+        <v/>
       </c>
       <c r="G54">
         <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
@@ -8368,26 +8316,25 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55">
+      <c r="B55" s="11">
         <f>'By Round'!A53</f>
         <v/>
       </c>
-      <c r="C55">
+      <c r="C55" s="11">
         <f>'By Round'!B53</f>
         <v/>
       </c>
-      <c r="D55">
+      <c r="D55" s="11">
         <f>'By Round'!C53</f>
         <v/>
       </c>
-      <c r="E55">
+      <c r="E55" s="11">
         <f>'By Round'!D53</f>
         <v/>
       </c>
-      <c r="F55" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F55" s="11">
+        <f>IF(ISBLANK('By Round'!F53),"",'By Round'!F53)</f>
+        <v/>
       </c>
       <c r="G55">
         <f>IF(ISBLANK('By Round'!G53),"",'By Round'!G53)</f>
@@ -8507,26 +8454,25 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56">
+      <c r="B56" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C56">
+      <c r="C56" s="11">
         <f>'By Round'!B71</f>
         <v/>
       </c>
-      <c r="D56">
+      <c r="D56" s="11">
         <f>'By Round'!C71</f>
         <v/>
       </c>
-      <c r="E56">
+      <c r="E56" s="11">
         <f>'By Round'!D71</f>
         <v/>
       </c>
-      <c r="F56" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F56" s="11">
+        <f>IF(ISBLANK('By Round'!F71),"",'By Round'!F71)</f>
+        <v/>
       </c>
       <c r="G56">
         <f>IF(ISBLANK('By Round'!G71),"",'By Round'!G71)</f>
@@ -8647,26 +8593,25 @@
     </row>
     <row r="57">
       <c r="A57" s="15" t="n"/>
-      <c r="B57" s="15">
+      <c r="B57" s="16">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="16">
         <f>'By Round'!B79</f>
         <v/>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="16">
         <f>'By Round'!C79</f>
         <v/>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="16">
         <f>'By Round'!D79</f>
         <v/>
       </c>
-      <c r="F57" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F57" s="16">
+        <f>IF(ISBLANK('By Round'!F79),"",'By Round'!F79)</f>
+        <v/>
       </c>
       <c r="G57" s="15">
         <f>IF(ISBLANK('By Round'!G79),"",'By Round'!G79)</f>
@@ -8786,48 +8731,47 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="11">
         <f>'By Round'!A33</f>
         <v/>
       </c>
-      <c r="C58">
+      <c r="C58" s="11">
         <f>'By Round'!B37</f>
         <v/>
       </c>
-      <c r="D58">
+      <c r="D58" s="11">
         <f>'By Round'!C37</f>
         <v/>
       </c>
-      <c r="E58">
+      <c r="E58" s="11">
         <f>'By Round'!D37</f>
         <v/>
       </c>
-      <c r="F58" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F58" s="11">
+        <f>IF(ISBLANK('By Round'!F38),"",'By Round'!F38)</f>
+        <v/>
       </c>
       <c r="G58">
-        <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
+        <f>IF(ISBLANK('By Round'!G38),"",'By Round'!G38)</f>
         <v/>
       </c>
       <c r="H58">
-        <f>IF(ISBLANK('By Round'!H37),"",'By Round'!H37)</f>
+        <f>IF(ISBLANK('By Round'!H38),"",'By Round'!H38)</f>
         <v/>
       </c>
       <c r="I58">
-        <f>IF(ISBLANK('By Round'!I37),"",'By Round'!I37)</f>
+        <f>IF(ISBLANK('By Round'!I38),"",'By Round'!I38)</f>
         <v/>
       </c>
       <c r="J58">
-        <f>IF(ISBLANK('By Round'!J37),"",'By Round'!J37)</f>
+        <f>IF(ISBLANK('By Round'!J38),"",'By Round'!J38)</f>
         <v/>
       </c>
       <c r="K58">
-        <f>IF(ISBLANK('By Round'!K37),"",'By Round'!K37)</f>
+        <f>IF(ISBLANK('By Round'!K38),"",'By Round'!K38)</f>
         <v/>
       </c>
       <c r="L58" s="12">
@@ -8928,45 +8872,44 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59">
+      <c r="B59" s="11">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C59">
+      <c r="C59" s="11">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D59">
+      <c r="D59" s="11">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E59">
+      <c r="E59" s="11">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F59" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F59" s="11">
+        <f>IF(ISBLANK('By Round'!F46),"",'By Round'!F46)</f>
+        <v/>
       </c>
       <c r="G59">
-        <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
+        <f>IF(ISBLANK('By Round'!G46),"",'By Round'!G46)</f>
         <v/>
       </c>
       <c r="H59">
-        <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
+        <f>IF(ISBLANK('By Round'!H46),"",'By Round'!H46)</f>
         <v/>
       </c>
       <c r="I59">
-        <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
+        <f>IF(ISBLANK('By Round'!I46),"",'By Round'!I46)</f>
         <v/>
       </c>
       <c r="J59">
-        <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
+        <f>IF(ISBLANK('By Round'!J46),"",'By Round'!J46)</f>
         <v/>
       </c>
       <c r="K59">
-        <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
+        <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
         <v/>
       </c>
       <c r="L59" s="12">
@@ -9067,45 +9010,44 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60">
+      <c r="B60" s="11">
         <f>'By Round'!A53</f>
         <v/>
       </c>
-      <c r="C60">
+      <c r="C60" s="11">
         <f>'By Round'!B53</f>
         <v/>
       </c>
-      <c r="D60">
+      <c r="D60" s="11">
         <f>'By Round'!C53</f>
         <v/>
       </c>
-      <c r="E60">
+      <c r="E60" s="11">
         <f>'By Round'!D53</f>
         <v/>
       </c>
-      <c r="F60" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F60" s="11">
+        <f>IF(ISBLANK('By Round'!F54),"",'By Round'!F54)</f>
+        <v/>
       </c>
       <c r="G60">
-        <f>IF(ISBLANK('By Round'!G53),"",'By Round'!G53)</f>
+        <f>IF(ISBLANK('By Round'!G54),"",'By Round'!G54)</f>
         <v/>
       </c>
       <c r="H60">
-        <f>IF(ISBLANK('By Round'!H53),"",'By Round'!H53)</f>
+        <f>IF(ISBLANK('By Round'!H54),"",'By Round'!H54)</f>
         <v/>
       </c>
       <c r="I60">
-        <f>IF(ISBLANK('By Round'!I53),"",'By Round'!I53)</f>
+        <f>IF(ISBLANK('By Round'!I54),"",'By Round'!I54)</f>
         <v/>
       </c>
       <c r="J60">
-        <f>IF(ISBLANK('By Round'!J53),"",'By Round'!J53)</f>
+        <f>IF(ISBLANK('By Round'!J54),"",'By Round'!J54)</f>
         <v/>
       </c>
       <c r="K60">
-        <f>IF(ISBLANK('By Round'!K53),"",'By Round'!K53)</f>
+        <f>IF(ISBLANK('By Round'!K54),"",'By Round'!K54)</f>
         <v/>
       </c>
       <c r="L60" s="12">
@@ -9206,45 +9148,44 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61">
+      <c r="B61" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C61">
+      <c r="C61" s="11">
         <f>'By Round'!B71</f>
         <v/>
       </c>
-      <c r="D61">
+      <c r="D61" s="11">
         <f>'By Round'!C71</f>
         <v/>
       </c>
-      <c r="E61">
+      <c r="E61" s="11">
         <f>'By Round'!D71</f>
         <v/>
       </c>
-      <c r="F61" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F61" s="11">
+        <f>IF(ISBLANK('By Round'!F72),"",'By Round'!F72)</f>
+        <v/>
       </c>
       <c r="G61">
-        <f>IF(ISBLANK('By Round'!G71),"",'By Round'!G71)</f>
+        <f>IF(ISBLANK('By Round'!G72),"",'By Round'!G72)</f>
         <v/>
       </c>
       <c r="H61">
-        <f>IF(ISBLANK('By Round'!H71),"",'By Round'!H71)</f>
+        <f>IF(ISBLANK('By Round'!H72),"",'By Round'!H72)</f>
         <v/>
       </c>
       <c r="I61">
-        <f>IF(ISBLANK('By Round'!I71),"",'By Round'!I71)</f>
+        <f>IF(ISBLANK('By Round'!I72),"",'By Round'!I72)</f>
         <v/>
       </c>
       <c r="J61">
-        <f>IF(ISBLANK('By Round'!J71),"",'By Round'!J71)</f>
+        <f>IF(ISBLANK('By Round'!J72),"",'By Round'!J72)</f>
         <v/>
       </c>
       <c r="K61">
-        <f>IF(ISBLANK('By Round'!K71),"",'By Round'!K71)</f>
+        <f>IF(ISBLANK('By Round'!K72),"",'By Round'!K72)</f>
         <v/>
       </c>
       <c r="L61" s="12">
@@ -9346,45 +9287,44 @@
     </row>
     <row r="62">
       <c r="A62" s="15" t="n"/>
-      <c r="B62" s="15">
+      <c r="B62" s="16">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="16">
         <f>'By Round'!B79</f>
         <v/>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="16">
         <f>'By Round'!C79</f>
         <v/>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="16">
         <f>'By Round'!D79</f>
         <v/>
       </c>
-      <c r="F62" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F62" s="16">
+        <f>IF(ISBLANK('By Round'!F80),"",'By Round'!F80)</f>
+        <v/>
       </c>
       <c r="G62" s="15">
-        <f>IF(ISBLANK('By Round'!G79),"",'By Round'!G79)</f>
+        <f>IF(ISBLANK('By Round'!G80),"",'By Round'!G80)</f>
         <v/>
       </c>
       <c r="H62" s="15">
-        <f>IF(ISBLANK('By Round'!H79),"",'By Round'!H79)</f>
+        <f>IF(ISBLANK('By Round'!H80),"",'By Round'!H80)</f>
         <v/>
       </c>
       <c r="I62" s="15">
-        <f>IF(ISBLANK('By Round'!I79),"",'By Round'!I79)</f>
+        <f>IF(ISBLANK('By Round'!I80),"",'By Round'!I80)</f>
         <v/>
       </c>
       <c r="J62" s="15">
-        <f>IF(ISBLANK('By Round'!J79),"",'By Round'!J79)</f>
+        <f>IF(ISBLANK('By Round'!J80),"",'By Round'!J80)</f>
         <v/>
       </c>
       <c r="K62" s="15">
-        <f>IF(ISBLANK('By Round'!K79),"",'By Round'!K79)</f>
+        <f>IF(ISBLANK('By Round'!K80),"",'By Round'!K80)</f>
         <v/>
       </c>
       <c r="L62" s="17">
@@ -9485,29 +9425,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="11">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C63">
+      <c r="C63" s="11">
         <f>'By Round'!B47</f>
         <v/>
       </c>
-      <c r="D63">
+      <c r="D63" s="11">
         <f>'By Round'!C47</f>
         <v/>
       </c>
-      <c r="E63">
+      <c r="E63" s="11">
         <f>'By Round'!D47</f>
         <v/>
       </c>
-      <c r="F63" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F63" s="11">
+        <f>IF(ISBLANK('By Round'!F47),"",'By Round'!F47)</f>
+        <v/>
       </c>
       <c r="G63">
         <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
@@ -9627,26 +9566,25 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64">
+      <c r="B64" s="11">
         <f>'By Round'!A53</f>
         <v/>
       </c>
-      <c r="C64">
+      <c r="C64" s="11">
         <f>'By Round'!B55</f>
         <v/>
       </c>
-      <c r="D64">
+      <c r="D64" s="11">
         <f>'By Round'!C55</f>
         <v/>
       </c>
-      <c r="E64">
+      <c r="E64" s="11">
         <f>'By Round'!D55</f>
         <v/>
       </c>
-      <c r="F64" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F64" s="11">
+        <f>IF(ISBLANK('By Round'!F55),"",'By Round'!F55)</f>
+        <v/>
       </c>
       <c r="G64">
         <f>IF(ISBLANK('By Round'!G55),"",'By Round'!G55)</f>
@@ -9766,26 +9704,25 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65">
+      <c r="B65" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C65">
+      <c r="C65" s="11">
         <f>'By Round'!B63</f>
         <v/>
       </c>
-      <c r="D65">
+      <c r="D65" s="11">
         <f>'By Round'!C63</f>
         <v/>
       </c>
-      <c r="E65">
+      <c r="E65" s="11">
         <f>'By Round'!D63</f>
         <v/>
       </c>
-      <c r="F65" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F65" s="11">
+        <f>IF(ISBLANK('By Round'!F63),"",'By Round'!F63)</f>
+        <v/>
       </c>
       <c r="G65">
         <f>IF(ISBLANK('By Round'!G63),"",'By Round'!G63)</f>
@@ -9905,26 +9842,25 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66">
+      <c r="B66" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C66">
+      <c r="C66" s="11">
         <f>'By Round'!B81</f>
         <v/>
       </c>
-      <c r="D66">
+      <c r="D66" s="11">
         <f>'By Round'!C81</f>
         <v/>
       </c>
-      <c r="E66">
+      <c r="E66" s="11">
         <f>'By Round'!D81</f>
         <v/>
       </c>
-      <c r="F66" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F66" s="11">
+        <f>IF(ISBLANK('By Round'!F81),"",'By Round'!F81)</f>
+        <v/>
       </c>
       <c r="G66">
         <f>IF(ISBLANK('By Round'!G81),"",'By Round'!G81)</f>
@@ -10045,26 +9981,25 @@
     </row>
     <row r="67">
       <c r="A67" s="15" t="n"/>
-      <c r="B67" s="15">
+      <c r="B67" s="16">
         <f>'By Round'!A83</f>
         <v/>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="16">
         <f>'By Round'!B89</f>
         <v/>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="16">
         <f>'By Round'!C89</f>
         <v/>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="16">
         <f>'By Round'!D89</f>
         <v/>
       </c>
-      <c r="F67" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F67" s="16">
+        <f>IF(ISBLANK('By Round'!F89),"",'By Round'!F89)</f>
+        <v/>
       </c>
       <c r="G67" s="15">
         <f>IF(ISBLANK('By Round'!G89),"",'By Round'!G89)</f>
@@ -10184,48 +10119,47 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="11">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C68">
+      <c r="C68" s="11">
         <f>'By Round'!B47</f>
         <v/>
       </c>
-      <c r="D68">
+      <c r="D68" s="11">
         <f>'By Round'!C47</f>
         <v/>
       </c>
-      <c r="E68">
+      <c r="E68" s="11">
         <f>'By Round'!D47</f>
         <v/>
       </c>
-      <c r="F68" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F68" s="11">
+        <f>IF(ISBLANK('By Round'!F48),"",'By Round'!F48)</f>
+        <v/>
       </c>
       <c r="G68">
-        <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
+        <f>IF(ISBLANK('By Round'!G48),"",'By Round'!G48)</f>
         <v/>
       </c>
       <c r="H68">
-        <f>IF(ISBLANK('By Round'!H47),"",'By Round'!H47)</f>
+        <f>IF(ISBLANK('By Round'!H48),"",'By Round'!H48)</f>
         <v/>
       </c>
       <c r="I68">
-        <f>IF(ISBLANK('By Round'!I47),"",'By Round'!I47)</f>
+        <f>IF(ISBLANK('By Round'!I48),"",'By Round'!I48)</f>
         <v/>
       </c>
       <c r="J68">
-        <f>IF(ISBLANK('By Round'!J47),"",'By Round'!J47)</f>
+        <f>IF(ISBLANK('By Round'!J48),"",'By Round'!J48)</f>
         <v/>
       </c>
       <c r="K68">
-        <f>IF(ISBLANK('By Round'!K47),"",'By Round'!K47)</f>
+        <f>IF(ISBLANK('By Round'!K48),"",'By Round'!K48)</f>
         <v/>
       </c>
       <c r="L68" s="12">
@@ -10326,45 +10260,44 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69">
+      <c r="B69" s="11">
         <f>'By Round'!A53</f>
         <v/>
       </c>
-      <c r="C69">
+      <c r="C69" s="11">
         <f>'By Round'!B55</f>
         <v/>
       </c>
-      <c r="D69">
+      <c r="D69" s="11">
         <f>'By Round'!C55</f>
         <v/>
       </c>
-      <c r="E69">
+      <c r="E69" s="11">
         <f>'By Round'!D55</f>
         <v/>
       </c>
-      <c r="F69" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F69" s="11">
+        <f>IF(ISBLANK('By Round'!F56),"",'By Round'!F56)</f>
+        <v/>
       </c>
       <c r="G69">
-        <f>IF(ISBLANK('By Round'!G55),"",'By Round'!G55)</f>
+        <f>IF(ISBLANK('By Round'!G56),"",'By Round'!G56)</f>
         <v/>
       </c>
       <c r="H69">
-        <f>IF(ISBLANK('By Round'!H55),"",'By Round'!H55)</f>
+        <f>IF(ISBLANK('By Round'!H56),"",'By Round'!H56)</f>
         <v/>
       </c>
       <c r="I69">
-        <f>IF(ISBLANK('By Round'!I55),"",'By Round'!I55)</f>
+        <f>IF(ISBLANK('By Round'!I56),"",'By Round'!I56)</f>
         <v/>
       </c>
       <c r="J69">
-        <f>IF(ISBLANK('By Round'!J55),"",'By Round'!J55)</f>
+        <f>IF(ISBLANK('By Round'!J56),"",'By Round'!J56)</f>
         <v/>
       </c>
       <c r="K69">
-        <f>IF(ISBLANK('By Round'!K55),"",'By Round'!K55)</f>
+        <f>IF(ISBLANK('By Round'!K56),"",'By Round'!K56)</f>
         <v/>
       </c>
       <c r="L69" s="12">
@@ -10465,45 +10398,44 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70">
+      <c r="B70" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C70">
+      <c r="C70" s="11">
         <f>'By Round'!B63</f>
         <v/>
       </c>
-      <c r="D70">
+      <c r="D70" s="11">
         <f>'By Round'!C63</f>
         <v/>
       </c>
-      <c r="E70">
+      <c r="E70" s="11">
         <f>'By Round'!D63</f>
         <v/>
       </c>
-      <c r="F70" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F70" s="11">
+        <f>IF(ISBLANK('By Round'!F64),"",'By Round'!F64)</f>
+        <v/>
       </c>
       <c r="G70">
-        <f>IF(ISBLANK('By Round'!G63),"",'By Round'!G63)</f>
+        <f>IF(ISBLANK('By Round'!G64),"",'By Round'!G64)</f>
         <v/>
       </c>
       <c r="H70">
-        <f>IF(ISBLANK('By Round'!H63),"",'By Round'!H63)</f>
+        <f>IF(ISBLANK('By Round'!H64),"",'By Round'!H64)</f>
         <v/>
       </c>
       <c r="I70">
-        <f>IF(ISBLANK('By Round'!I63),"",'By Round'!I63)</f>
+        <f>IF(ISBLANK('By Round'!I64),"",'By Round'!I64)</f>
         <v/>
       </c>
       <c r="J70">
-        <f>IF(ISBLANK('By Round'!J63),"",'By Round'!J63)</f>
+        <f>IF(ISBLANK('By Round'!J64),"",'By Round'!J64)</f>
         <v/>
       </c>
       <c r="K70">
-        <f>IF(ISBLANK('By Round'!K63),"",'By Round'!K63)</f>
+        <f>IF(ISBLANK('By Round'!K64),"",'By Round'!K64)</f>
         <v/>
       </c>
       <c r="L70" s="12">
@@ -10604,45 +10536,44 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71">
+      <c r="B71" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C71">
+      <c r="C71" s="11">
         <f>'By Round'!B81</f>
         <v/>
       </c>
-      <c r="D71">
+      <c r="D71" s="11">
         <f>'By Round'!C81</f>
         <v/>
       </c>
-      <c r="E71">
+      <c r="E71" s="11">
         <f>'By Round'!D81</f>
         <v/>
       </c>
-      <c r="F71" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F71" s="11">
+        <f>IF(ISBLANK('By Round'!F82),"",'By Round'!F82)</f>
+        <v/>
       </c>
       <c r="G71">
-        <f>IF(ISBLANK('By Round'!G81),"",'By Round'!G81)</f>
+        <f>IF(ISBLANK('By Round'!G82),"",'By Round'!G82)</f>
         <v/>
       </c>
       <c r="H71">
-        <f>IF(ISBLANK('By Round'!H81),"",'By Round'!H81)</f>
+        <f>IF(ISBLANK('By Round'!H82),"",'By Round'!H82)</f>
         <v/>
       </c>
       <c r="I71">
-        <f>IF(ISBLANK('By Round'!I81),"",'By Round'!I81)</f>
+        <f>IF(ISBLANK('By Round'!I82),"",'By Round'!I82)</f>
         <v/>
       </c>
       <c r="J71">
-        <f>IF(ISBLANK('By Round'!J81),"",'By Round'!J81)</f>
+        <f>IF(ISBLANK('By Round'!J82),"",'By Round'!J82)</f>
         <v/>
       </c>
       <c r="K71">
-        <f>IF(ISBLANK('By Round'!K81),"",'By Round'!K81)</f>
+        <f>IF(ISBLANK('By Round'!K82),"",'By Round'!K82)</f>
         <v/>
       </c>
       <c r="L71" s="12">
@@ -10744,45 +10675,44 @@
     </row>
     <row r="72">
       <c r="A72" s="15" t="n"/>
-      <c r="B72" s="15">
+      <c r="B72" s="16">
         <f>'By Round'!A83</f>
         <v/>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="16">
         <f>'By Round'!B89</f>
         <v/>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="16">
         <f>'By Round'!C89</f>
         <v/>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="16">
         <f>'By Round'!D89</f>
         <v/>
       </c>
-      <c r="F72" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F72" s="16">
+        <f>IF(ISBLANK('By Round'!F90),"",'By Round'!F90)</f>
+        <v/>
       </c>
       <c r="G72" s="15">
-        <f>IF(ISBLANK('By Round'!G89),"",'By Round'!G89)</f>
+        <f>IF(ISBLANK('By Round'!G90),"",'By Round'!G90)</f>
         <v/>
       </c>
       <c r="H72" s="15">
-        <f>IF(ISBLANK('By Round'!H89),"",'By Round'!H89)</f>
+        <f>IF(ISBLANK('By Round'!H90),"",'By Round'!H90)</f>
         <v/>
       </c>
       <c r="I72" s="15">
-        <f>IF(ISBLANK('By Round'!I89),"",'By Round'!I89)</f>
+        <f>IF(ISBLANK('By Round'!I90),"",'By Round'!I90)</f>
         <v/>
       </c>
       <c r="J72" s="15">
-        <f>IF(ISBLANK('By Round'!J89),"",'By Round'!J89)</f>
+        <f>IF(ISBLANK('By Round'!J90),"",'By Round'!J90)</f>
         <v/>
       </c>
       <c r="K72" s="15">
-        <f>IF(ISBLANK('By Round'!K89),"",'By Round'!K89)</f>
+        <f>IF(ISBLANK('By Round'!K90),"",'By Round'!K90)</f>
         <v/>
       </c>
       <c r="L72" s="17">
@@ -10883,29 +10813,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C73">
+      <c r="C73" s="11">
         <f>'By Round'!B9</f>
         <v/>
       </c>
-      <c r="D73">
+      <c r="D73" s="11">
         <f>'By Round'!C9</f>
         <v/>
       </c>
-      <c r="E73">
+      <c r="E73" s="11">
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F73" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F73" s="11">
+        <f>IF(ISBLANK('By Round'!F9),"",'By Round'!F9)</f>
+        <v/>
       </c>
       <c r="G73">
         <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
@@ -11025,26 +10954,25 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74">
+      <c r="B74" s="11">
         <f>'By Round'!A53</f>
         <v/>
       </c>
-      <c r="C74">
+      <c r="C74" s="11">
         <f>'By Round'!B57</f>
         <v/>
       </c>
-      <c r="D74">
+      <c r="D74" s="11">
         <f>'By Round'!C57</f>
         <v/>
       </c>
-      <c r="E74">
+      <c r="E74" s="11">
         <f>'By Round'!D57</f>
         <v/>
       </c>
-      <c r="F74" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F74" s="11">
+        <f>IF(ISBLANK('By Round'!F57),"",'By Round'!F57)</f>
+        <v/>
       </c>
       <c r="G74">
         <f>IF(ISBLANK('By Round'!G57),"",'By Round'!G57)</f>
@@ -11164,26 +11092,25 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75">
+      <c r="B75" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C75">
+      <c r="C75" s="11">
         <f>'By Round'!B65</f>
         <v/>
       </c>
-      <c r="D75">
+      <c r="D75" s="11">
         <f>'By Round'!C65</f>
         <v/>
       </c>
-      <c r="E75">
+      <c r="E75" s="11">
         <f>'By Round'!D65</f>
         <v/>
       </c>
-      <c r="F75" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F75" s="11">
+        <f>IF(ISBLANK('By Round'!F65),"",'By Round'!F65)</f>
+        <v/>
       </c>
       <c r="G75">
         <f>IF(ISBLANK('By Round'!G65),"",'By Round'!G65)</f>
@@ -11303,26 +11230,25 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76">
+      <c r="B76" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C76">
+      <c r="C76" s="11">
         <f>'By Round'!B73</f>
         <v/>
       </c>
-      <c r="D76">
+      <c r="D76" s="11">
         <f>'By Round'!C73</f>
         <v/>
       </c>
-      <c r="E76">
+      <c r="E76" s="11">
         <f>'By Round'!D73</f>
         <v/>
       </c>
-      <c r="F76" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F76" s="11">
+        <f>IF(ISBLANK('By Round'!F73),"",'By Round'!F73)</f>
+        <v/>
       </c>
       <c r="G76">
         <f>IF(ISBLANK('By Round'!G73),"",'By Round'!G73)</f>
@@ -11443,26 +11369,25 @@
     </row>
     <row r="77">
       <c r="A77" s="15" t="n"/>
-      <c r="B77" s="15">
+      <c r="B77" s="16">
         <f>'By Round'!A83</f>
         <v/>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="16">
         <f>'By Round'!B91</f>
         <v/>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="16">
         <f>'By Round'!C91</f>
         <v/>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="16">
         <f>'By Round'!D91</f>
         <v/>
       </c>
-      <c r="F77" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F77" s="16">
+        <f>IF(ISBLANK('By Round'!F91),"",'By Round'!F91)</f>
+        <v/>
       </c>
       <c r="G77" s="15">
         <f>IF(ISBLANK('By Round'!G91),"",'By Round'!G91)</f>
@@ -11582,48 +11507,47 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C78">
+      <c r="C78" s="11">
         <f>'By Round'!B9</f>
         <v/>
       </c>
-      <c r="D78">
+      <c r="D78" s="11">
         <f>'By Round'!C9</f>
         <v/>
       </c>
-      <c r="E78">
+      <c r="E78" s="11">
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F78" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F78" s="11">
+        <f>IF(ISBLANK('By Round'!F10),"",'By Round'!F10)</f>
+        <v/>
       </c>
       <c r="G78">
-        <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
+        <f>IF(ISBLANK('By Round'!G10),"",'By Round'!G10)</f>
         <v/>
       </c>
       <c r="H78">
-        <f>IF(ISBLANK('By Round'!H9),"",'By Round'!H9)</f>
+        <f>IF(ISBLANK('By Round'!H10),"",'By Round'!H10)</f>
         <v/>
       </c>
       <c r="I78">
-        <f>IF(ISBLANK('By Round'!I9),"",'By Round'!I9)</f>
+        <f>IF(ISBLANK('By Round'!I10),"",'By Round'!I10)</f>
         <v/>
       </c>
       <c r="J78">
-        <f>IF(ISBLANK('By Round'!J9),"",'By Round'!J9)</f>
+        <f>IF(ISBLANK('By Round'!J10),"",'By Round'!J10)</f>
         <v/>
       </c>
       <c r="K78">
-        <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
+        <f>IF(ISBLANK('By Round'!K10),"",'By Round'!K10)</f>
         <v/>
       </c>
       <c r="L78" s="12">
@@ -11724,45 +11648,44 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79">
+      <c r="B79" s="11">
         <f>'By Round'!A53</f>
         <v/>
       </c>
-      <c r="C79">
+      <c r="C79" s="11">
         <f>'By Round'!B57</f>
         <v/>
       </c>
-      <c r="D79">
+      <c r="D79" s="11">
         <f>'By Round'!C57</f>
         <v/>
       </c>
-      <c r="E79">
+      <c r="E79" s="11">
         <f>'By Round'!D57</f>
         <v/>
       </c>
-      <c r="F79" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F79" s="11">
+        <f>IF(ISBLANK('By Round'!F58),"",'By Round'!F58)</f>
+        <v/>
       </c>
       <c r="G79">
-        <f>IF(ISBLANK('By Round'!G57),"",'By Round'!G57)</f>
+        <f>IF(ISBLANK('By Round'!G58),"",'By Round'!G58)</f>
         <v/>
       </c>
       <c r="H79">
-        <f>IF(ISBLANK('By Round'!H57),"",'By Round'!H57)</f>
+        <f>IF(ISBLANK('By Round'!H58),"",'By Round'!H58)</f>
         <v/>
       </c>
       <c r="I79">
-        <f>IF(ISBLANK('By Round'!I57),"",'By Round'!I57)</f>
+        <f>IF(ISBLANK('By Round'!I58),"",'By Round'!I58)</f>
         <v/>
       </c>
       <c r="J79">
-        <f>IF(ISBLANK('By Round'!J57),"",'By Round'!J57)</f>
+        <f>IF(ISBLANK('By Round'!J58),"",'By Round'!J58)</f>
         <v/>
       </c>
       <c r="K79">
-        <f>IF(ISBLANK('By Round'!K57),"",'By Round'!K57)</f>
+        <f>IF(ISBLANK('By Round'!K58),"",'By Round'!K58)</f>
         <v/>
       </c>
       <c r="L79" s="12">
@@ -11863,45 +11786,44 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80">
+      <c r="B80" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C80">
+      <c r="C80" s="11">
         <f>'By Round'!B65</f>
         <v/>
       </c>
-      <c r="D80">
+      <c r="D80" s="11">
         <f>'By Round'!C65</f>
         <v/>
       </c>
-      <c r="E80">
+      <c r="E80" s="11">
         <f>'By Round'!D65</f>
         <v/>
       </c>
-      <c r="F80" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F80" s="11">
+        <f>IF(ISBLANK('By Round'!F66),"",'By Round'!F66)</f>
+        <v/>
       </c>
       <c r="G80">
-        <f>IF(ISBLANK('By Round'!G65),"",'By Round'!G65)</f>
+        <f>IF(ISBLANK('By Round'!G66),"",'By Round'!G66)</f>
         <v/>
       </c>
       <c r="H80">
-        <f>IF(ISBLANK('By Round'!H65),"",'By Round'!H65)</f>
+        <f>IF(ISBLANK('By Round'!H66),"",'By Round'!H66)</f>
         <v/>
       </c>
       <c r="I80">
-        <f>IF(ISBLANK('By Round'!I65),"",'By Round'!I65)</f>
+        <f>IF(ISBLANK('By Round'!I66),"",'By Round'!I66)</f>
         <v/>
       </c>
       <c r="J80">
-        <f>IF(ISBLANK('By Round'!J65),"",'By Round'!J65)</f>
+        <f>IF(ISBLANK('By Round'!J66),"",'By Round'!J66)</f>
         <v/>
       </c>
       <c r="K80">
-        <f>IF(ISBLANK('By Round'!K65),"",'By Round'!K65)</f>
+        <f>IF(ISBLANK('By Round'!K66),"",'By Round'!K66)</f>
         <v/>
       </c>
       <c r="L80" s="12">
@@ -12002,45 +11924,44 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81">
+      <c r="B81" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C81">
+      <c r="C81" s="11">
         <f>'By Round'!B73</f>
         <v/>
       </c>
-      <c r="D81">
+      <c r="D81" s="11">
         <f>'By Round'!C73</f>
         <v/>
       </c>
-      <c r="E81">
+      <c r="E81" s="11">
         <f>'By Round'!D73</f>
         <v/>
       </c>
-      <c r="F81" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F81" s="11">
+        <f>IF(ISBLANK('By Round'!F74),"",'By Round'!F74)</f>
+        <v/>
       </c>
       <c r="G81">
-        <f>IF(ISBLANK('By Round'!G73),"",'By Round'!G73)</f>
+        <f>IF(ISBLANK('By Round'!G74),"",'By Round'!G74)</f>
         <v/>
       </c>
       <c r="H81">
-        <f>IF(ISBLANK('By Round'!H73),"",'By Round'!H73)</f>
+        <f>IF(ISBLANK('By Round'!H74),"",'By Round'!H74)</f>
         <v/>
       </c>
       <c r="I81">
-        <f>IF(ISBLANK('By Round'!I73),"",'By Round'!I73)</f>
+        <f>IF(ISBLANK('By Round'!I74),"",'By Round'!I74)</f>
         <v/>
       </c>
       <c r="J81">
-        <f>IF(ISBLANK('By Round'!J73),"",'By Round'!J73)</f>
+        <f>IF(ISBLANK('By Round'!J74),"",'By Round'!J74)</f>
         <v/>
       </c>
       <c r="K81">
-        <f>IF(ISBLANK('By Round'!K73),"",'By Round'!K73)</f>
+        <f>IF(ISBLANK('By Round'!K74),"",'By Round'!K74)</f>
         <v/>
       </c>
       <c r="L81" s="12">
@@ -12142,45 +12063,44 @@
     </row>
     <row r="82">
       <c r="A82" s="15" t="n"/>
-      <c r="B82" s="15">
+      <c r="B82" s="16">
         <f>'By Round'!A83</f>
         <v/>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="16">
         <f>'By Round'!B91</f>
         <v/>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="16">
         <f>'By Round'!C91</f>
         <v/>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="16">
         <f>'By Round'!D91</f>
         <v/>
       </c>
-      <c r="F82" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F82" s="16">
+        <f>IF(ISBLANK('By Round'!F92),"",'By Round'!F92)</f>
+        <v/>
       </c>
       <c r="G82" s="15">
-        <f>IF(ISBLANK('By Round'!G91),"",'By Round'!G91)</f>
+        <f>IF(ISBLANK('By Round'!G92),"",'By Round'!G92)</f>
         <v/>
       </c>
       <c r="H82" s="15">
-        <f>IF(ISBLANK('By Round'!H91),"",'By Round'!H91)</f>
+        <f>IF(ISBLANK('By Round'!H92),"",'By Round'!H92)</f>
         <v/>
       </c>
       <c r="I82" s="15">
-        <f>IF(ISBLANK('By Round'!I91),"",'By Round'!I91)</f>
+        <f>IF(ISBLANK('By Round'!I92),"",'By Round'!I92)</f>
         <v/>
       </c>
       <c r="J82" s="15">
-        <f>IF(ISBLANK('By Round'!J91),"",'By Round'!J91)</f>
+        <f>IF(ISBLANK('By Round'!J92),"",'By Round'!J92)</f>
         <v/>
       </c>
       <c r="K82" s="15">
-        <f>IF(ISBLANK('By Round'!K91),"",'By Round'!K91)</f>
+        <f>IF(ISBLANK('By Round'!K92),"",'By Round'!K92)</f>
         <v/>
       </c>
       <c r="L82" s="17">
@@ -12281,29 +12201,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C83">
+      <c r="C83" s="11">
         <f>'By Round'!B11</f>
         <v/>
       </c>
-      <c r="D83">
+      <c r="D83" s="11">
         <f>'By Round'!C11</f>
         <v/>
       </c>
-      <c r="E83">
+      <c r="E83" s="11">
         <f>'By Round'!D11</f>
         <v/>
       </c>
-      <c r="F83" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F83" s="11">
+        <f>IF(ISBLANK('By Round'!F11),"",'By Round'!F11)</f>
+        <v/>
       </c>
       <c r="G83">
         <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
@@ -12423,26 +12342,25 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84">
+      <c r="B84" s="11">
         <f>'By Round'!A13</f>
         <v/>
       </c>
-      <c r="C84">
+      <c r="C84" s="11">
         <f>'By Round'!B19</f>
         <v/>
       </c>
-      <c r="D84">
+      <c r="D84" s="11">
         <f>'By Round'!C19</f>
         <v/>
       </c>
-      <c r="E84">
+      <c r="E84" s="11">
         <f>'By Round'!D19</f>
         <v/>
       </c>
-      <c r="F84" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F84" s="11">
+        <f>IF(ISBLANK('By Round'!F19),"",'By Round'!F19)</f>
+        <v/>
       </c>
       <c r="G84">
         <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
@@ -12562,26 +12480,25 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85">
+      <c r="B85" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C85">
+      <c r="C85" s="11">
         <f>'By Round'!B67</f>
         <v/>
       </c>
-      <c r="D85">
+      <c r="D85" s="11">
         <f>'By Round'!C67</f>
         <v/>
       </c>
-      <c r="E85">
+      <c r="E85" s="11">
         <f>'By Round'!D67</f>
         <v/>
       </c>
-      <c r="F85" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F85" s="11">
+        <f>IF(ISBLANK('By Round'!F67),"",'By Round'!F67)</f>
+        <v/>
       </c>
       <c r="G85">
         <f>IF(ISBLANK('By Round'!G67),"",'By Round'!G67)</f>
@@ -12701,26 +12618,25 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86">
+      <c r="B86" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C86">
+      <c r="C86" s="11">
         <f>'By Round'!B75</f>
         <v/>
       </c>
-      <c r="D86">
+      <c r="D86" s="11">
         <f>'By Round'!C75</f>
         <v/>
       </c>
-      <c r="E86">
+      <c r="E86" s="11">
         <f>'By Round'!D75</f>
         <v/>
       </c>
-      <c r="F86" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F86" s="11">
+        <f>IF(ISBLANK('By Round'!F75),"",'By Round'!F75)</f>
+        <v/>
       </c>
       <c r="G86">
         <f>IF(ISBLANK('By Round'!G75),"",'By Round'!G75)</f>
@@ -12841,26 +12757,25 @@
     </row>
     <row r="87">
       <c r="A87" s="15" t="n"/>
-      <c r="B87" s="15">
+      <c r="B87" s="16">
         <f>'By Round'!A83</f>
         <v/>
       </c>
-      <c r="C87" s="15">
+      <c r="C87" s="16">
         <f>'By Round'!B83</f>
         <v/>
       </c>
-      <c r="D87" s="15">
+      <c r="D87" s="16">
         <f>'By Round'!C83</f>
         <v/>
       </c>
-      <c r="E87" s="15">
+      <c r="E87" s="16">
         <f>'By Round'!D83</f>
         <v/>
       </c>
-      <c r="F87" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F87" s="16">
+        <f>IF(ISBLANK('By Round'!F83),"",'By Round'!F83)</f>
+        <v/>
       </c>
       <c r="G87" s="15">
         <f>IF(ISBLANK('By Round'!G83),"",'By Round'!G83)</f>
@@ -12980,48 +12895,47 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C88">
+      <c r="C88" s="11">
         <f>'By Round'!B11</f>
         <v/>
       </c>
-      <c r="D88">
+      <c r="D88" s="11">
         <f>'By Round'!C11</f>
         <v/>
       </c>
-      <c r="E88">
+      <c r="E88" s="11">
         <f>'By Round'!D11</f>
         <v/>
       </c>
-      <c r="F88" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F88" s="11">
+        <f>IF(ISBLANK('By Round'!F12),"",'By Round'!F12)</f>
+        <v/>
       </c>
       <c r="G88">
-        <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
+        <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
         <v/>
       </c>
       <c r="H88">
-        <f>IF(ISBLANK('By Round'!H11),"",'By Round'!H11)</f>
+        <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
         <v/>
       </c>
       <c r="I88">
-        <f>IF(ISBLANK('By Round'!I11),"",'By Round'!I11)</f>
+        <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
         <v/>
       </c>
       <c r="J88">
-        <f>IF(ISBLANK('By Round'!J11),"",'By Round'!J11)</f>
+        <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
         <v/>
       </c>
       <c r="K88">
-        <f>IF(ISBLANK('By Round'!K11),"",'By Round'!K11)</f>
+        <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
         <v/>
       </c>
       <c r="L88" s="12">
@@ -13122,45 +13036,44 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89">
+      <c r="B89" s="11">
         <f>'By Round'!A13</f>
         <v/>
       </c>
-      <c r="C89">
+      <c r="C89" s="11">
         <f>'By Round'!B19</f>
         <v/>
       </c>
-      <c r="D89">
+      <c r="D89" s="11">
         <f>'By Round'!C19</f>
         <v/>
       </c>
-      <c r="E89">
+      <c r="E89" s="11">
         <f>'By Round'!D19</f>
         <v/>
       </c>
-      <c r="F89" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F89" s="11">
+        <f>IF(ISBLANK('By Round'!F20),"",'By Round'!F20)</f>
+        <v/>
       </c>
       <c r="G89">
-        <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
+        <f>IF(ISBLANK('By Round'!G20),"",'By Round'!G20)</f>
         <v/>
       </c>
       <c r="H89">
-        <f>IF(ISBLANK('By Round'!H19),"",'By Round'!H19)</f>
+        <f>IF(ISBLANK('By Round'!H20),"",'By Round'!H20)</f>
         <v/>
       </c>
       <c r="I89">
-        <f>IF(ISBLANK('By Round'!I19),"",'By Round'!I19)</f>
+        <f>IF(ISBLANK('By Round'!I20),"",'By Round'!I20)</f>
         <v/>
       </c>
       <c r="J89">
-        <f>IF(ISBLANK('By Round'!J19),"",'By Round'!J19)</f>
+        <f>IF(ISBLANK('By Round'!J20),"",'By Round'!J20)</f>
         <v/>
       </c>
       <c r="K89">
-        <f>IF(ISBLANK('By Round'!K19),"",'By Round'!K19)</f>
+        <f>IF(ISBLANK('By Round'!K20),"",'By Round'!K20)</f>
         <v/>
       </c>
       <c r="L89" s="12">
@@ -13261,45 +13174,44 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90">
+      <c r="B90" s="11">
         <f>'By Round'!A63</f>
         <v/>
       </c>
-      <c r="C90">
+      <c r="C90" s="11">
         <f>'By Round'!B67</f>
         <v/>
       </c>
-      <c r="D90">
+      <c r="D90" s="11">
         <f>'By Round'!C67</f>
         <v/>
       </c>
-      <c r="E90">
+      <c r="E90" s="11">
         <f>'By Round'!D67</f>
         <v/>
       </c>
-      <c r="F90" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F90" s="11">
+        <f>IF(ISBLANK('By Round'!F68),"",'By Round'!F68)</f>
+        <v/>
       </c>
       <c r="G90">
-        <f>IF(ISBLANK('By Round'!G67),"",'By Round'!G67)</f>
+        <f>IF(ISBLANK('By Round'!G68),"",'By Round'!G68)</f>
         <v/>
       </c>
       <c r="H90">
-        <f>IF(ISBLANK('By Round'!H67),"",'By Round'!H67)</f>
+        <f>IF(ISBLANK('By Round'!H68),"",'By Round'!H68)</f>
         <v/>
       </c>
       <c r="I90">
-        <f>IF(ISBLANK('By Round'!I67),"",'By Round'!I67)</f>
+        <f>IF(ISBLANK('By Round'!I68),"",'By Round'!I68)</f>
         <v/>
       </c>
       <c r="J90">
-        <f>IF(ISBLANK('By Round'!J67),"",'By Round'!J67)</f>
+        <f>IF(ISBLANK('By Round'!J68),"",'By Round'!J68)</f>
         <v/>
       </c>
       <c r="K90">
-        <f>IF(ISBLANK('By Round'!K67),"",'By Round'!K67)</f>
+        <f>IF(ISBLANK('By Round'!K68),"",'By Round'!K68)</f>
         <v/>
       </c>
       <c r="L90" s="12">
@@ -13400,45 +13312,44 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91">
+      <c r="B91" s="11">
         <f>'By Round'!A73</f>
         <v/>
       </c>
-      <c r="C91">
+      <c r="C91" s="11">
         <f>'By Round'!B75</f>
         <v/>
       </c>
-      <c r="D91">
+      <c r="D91" s="11">
         <f>'By Round'!C75</f>
         <v/>
       </c>
-      <c r="E91">
+      <c r="E91" s="11">
         <f>'By Round'!D75</f>
         <v/>
       </c>
-      <c r="F91" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F91" s="11">
+        <f>IF(ISBLANK('By Round'!F76),"",'By Round'!F76)</f>
+        <v/>
       </c>
       <c r="G91">
-        <f>IF(ISBLANK('By Round'!G75),"",'By Round'!G75)</f>
+        <f>IF(ISBLANK('By Round'!G76),"",'By Round'!G76)</f>
         <v/>
       </c>
       <c r="H91">
-        <f>IF(ISBLANK('By Round'!H75),"",'By Round'!H75)</f>
+        <f>IF(ISBLANK('By Round'!H76),"",'By Round'!H76)</f>
         <v/>
       </c>
       <c r="I91">
-        <f>IF(ISBLANK('By Round'!I75),"",'By Round'!I75)</f>
+        <f>IF(ISBLANK('By Round'!I76),"",'By Round'!I76)</f>
         <v/>
       </c>
       <c r="J91">
-        <f>IF(ISBLANK('By Round'!J75),"",'By Round'!J75)</f>
+        <f>IF(ISBLANK('By Round'!J76),"",'By Round'!J76)</f>
         <v/>
       </c>
       <c r="K91">
-        <f>IF(ISBLANK('By Round'!K75),"",'By Round'!K75)</f>
+        <f>IF(ISBLANK('By Round'!K76),"",'By Round'!K76)</f>
         <v/>
       </c>
       <c r="L91" s="12">
@@ -13540,45 +13451,44 @@
     </row>
     <row r="92">
       <c r="A92" s="15" t="n"/>
-      <c r="B92" s="15">
+      <c r="B92" s="16">
         <f>'By Round'!A83</f>
         <v/>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="16">
         <f>'By Round'!B83</f>
         <v/>
       </c>
-      <c r="D92" s="15">
+      <c r="D92" s="16">
         <f>'By Round'!C83</f>
         <v/>
       </c>
-      <c r="E92" s="15">
+      <c r="E92" s="16">
         <f>'By Round'!D83</f>
         <v/>
       </c>
-      <c r="F92" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F92" s="16">
+        <f>IF(ISBLANK('By Round'!F84),"",'By Round'!F84)</f>
+        <v/>
       </c>
       <c r="G92" s="15">
-        <f>IF(ISBLANK('By Round'!G83),"",'By Round'!G83)</f>
+        <f>IF(ISBLANK('By Round'!G84),"",'By Round'!G84)</f>
         <v/>
       </c>
       <c r="H92" s="15">
-        <f>IF(ISBLANK('By Round'!H83),"",'By Round'!H83)</f>
+        <f>IF(ISBLANK('By Round'!H84),"",'By Round'!H84)</f>
         <v/>
       </c>
       <c r="I92" s="15">
-        <f>IF(ISBLANK('By Round'!I83),"",'By Round'!I83)</f>
+        <f>IF(ISBLANK('By Round'!I84),"",'By Round'!I84)</f>
         <v/>
       </c>
       <c r="J92" s="15">
-        <f>IF(ISBLANK('By Round'!J83),"",'By Round'!J83)</f>
+        <f>IF(ISBLANK('By Round'!J84),"",'By Round'!J84)</f>
         <v/>
       </c>
       <c r="K92" s="15">
-        <f>IF(ISBLANK('By Round'!K83),"",'By Round'!K83)</f>
+        <f>IF(ISBLANK('By Round'!K84),"",'By Round'!K84)</f>
         <v/>
       </c>
       <c r="L92" s="17">

--- a/howell9.xlsx
+++ b/howell9.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 08, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 10, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 25</t>
+          <t>Name 54</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 51</t>
+          <t>Name 29</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 23</t>
+          <t>Name 25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 16</t>
+          <t>Name 59</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 17</t>
+          <t>Name 11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 47</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 17</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 36</t>
+          <t>Name 37</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 49</t>
+          <t>Name 46</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 27</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 25</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 75</t>
+          <t>Name 73</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 46</t>
+          <t>Name 77</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 50</t>
+          <t>Name 17</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 13</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 89</t>
+          <t>Name 74</t>
         </is>
       </c>
       <c r="D18" s="4">

--- a/howell9.xlsx
+++ b/howell9.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 10, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 11, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 54</t>
+          <t>Name 13</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 29</t>
+          <t>Name 73</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 25</t>
+          <t>Name 18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 59</t>
+          <t>Name 87</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 11</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 47</t>
+          <t>Name 59</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 27</t>
+          <t>Name 64</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 46</t>
+          <t>Name 80</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 18</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 36</t>
+          <t>Name 41</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 25</t>
+          <t>Name 82</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 73</t>
+          <t>Name 48</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 77</t>
+          <t>Name 85</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 43</t>
+          <t>Name 45</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 17</t>
+          <t>Name 64</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 76</t>
+          <t>Name 58</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 74</t>
+          <t>Name 85</t>
         </is>
       </c>
       <c r="D18" s="4">
@@ -1141,11 +1141,11 @@
         <v/>
       </c>
       <c r="L3" s="12">
-        <f>SUM(AB3:AE3)</f>
+        <f>AVERAGE(AB3:AE3)</f>
         <v/>
       </c>
       <c r="M3" s="13">
-        <f>SUM(AF3:AI3)</f>
+        <f>AVERAGE(AF3:AI3)</f>
         <v/>
       </c>
       <c r="N3" s="8">
@@ -1239,51 +1239,51 @@
     </row>
     <row r="4">
       <c r="B4" s="11">
-        <f>'By Round'!A13</f>
+        <f>'By Round'!A73</f>
         <v/>
       </c>
       <c r="C4" s="11">
-        <f>'By Round'!B21</f>
+        <f>'By Round'!B77</f>
         <v/>
       </c>
       <c r="D4" s="11">
-        <f>'By Round'!C21</f>
+        <f>'By Round'!C77</f>
         <v/>
       </c>
       <c r="E4" s="11">
-        <f>'By Round'!D21</f>
+        <f>'By Round'!D77</f>
         <v/>
       </c>
       <c r="F4" s="11">
-        <f>IF(ISBLANK('By Round'!F21),"",'By Round'!F21)</f>
+        <f>IF(ISBLANK('By Round'!F77),"",'By Round'!F77)</f>
         <v/>
       </c>
       <c r="G4">
-        <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
+        <f>IF(ISBLANK('By Round'!G77),"",'By Round'!G77)</f>
         <v/>
       </c>
       <c r="H4">
-        <f>IF(ISBLANK('By Round'!H21),"",'By Round'!H21)</f>
+        <f>IF(ISBLANK('By Round'!H77),"",'By Round'!H77)</f>
         <v/>
       </c>
       <c r="I4">
-        <f>IF(ISBLANK('By Round'!I21),"",'By Round'!I21)</f>
+        <f>IF(ISBLANK('By Round'!I77),"",'By Round'!I77)</f>
         <v/>
       </c>
       <c r="J4">
-        <f>IF(ISBLANK('By Round'!J21),"",'By Round'!J21)</f>
+        <f>IF(ISBLANK('By Round'!J77),"",'By Round'!J77)</f>
         <v/>
       </c>
       <c r="K4">
-        <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
+        <f>IF(ISBLANK('By Round'!K77),"",'By Round'!K77)</f>
         <v/>
       </c>
       <c r="L4" s="12">
-        <f>SUM(AB4:AE4)</f>
+        <f>AVERAGE(AB4:AE4)</f>
         <v/>
       </c>
       <c r="M4" s="13">
-        <f>SUM(AF4:AI4)</f>
+        <f>AVERAGE(AF4:AI4)</f>
         <v/>
       </c>
       <c r="N4" s="8">
@@ -1417,11 +1417,11 @@
         <v/>
       </c>
       <c r="L5" s="12">
-        <f>SUM(AB5:AE5)</f>
+        <f>AVERAGE(AB5:AE5)</f>
         <v/>
       </c>
       <c r="M5" s="13">
-        <f>SUM(AF5:AI5)</f>
+        <f>AVERAGE(AF5:AI5)</f>
         <v/>
       </c>
       <c r="N5" s="8">
@@ -1515,51 +1515,51 @@
     </row>
     <row r="6">
       <c r="B6" s="11">
-        <f>'By Round'!A73</f>
+        <f>'By Round'!A13</f>
         <v/>
       </c>
       <c r="C6" s="11">
-        <f>'By Round'!B77</f>
+        <f>'By Round'!B21</f>
         <v/>
       </c>
       <c r="D6" s="11">
-        <f>'By Round'!C77</f>
+        <f>'By Round'!C21</f>
         <v/>
       </c>
       <c r="E6" s="11">
-        <f>'By Round'!D77</f>
+        <f>'By Round'!D21</f>
         <v/>
       </c>
       <c r="F6" s="11">
-        <f>IF(ISBLANK('By Round'!F77),"",'By Round'!F77)</f>
+        <f>IF(ISBLANK('By Round'!F21),"",'By Round'!F21)</f>
         <v/>
       </c>
       <c r="G6">
-        <f>IF(ISBLANK('By Round'!G77),"",'By Round'!G77)</f>
+        <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
         <v/>
       </c>
       <c r="H6">
-        <f>IF(ISBLANK('By Round'!H77),"",'By Round'!H77)</f>
+        <f>IF(ISBLANK('By Round'!H21),"",'By Round'!H21)</f>
         <v/>
       </c>
       <c r="I6">
-        <f>IF(ISBLANK('By Round'!I77),"",'By Round'!I77)</f>
+        <f>IF(ISBLANK('By Round'!I21),"",'By Round'!I21)</f>
         <v/>
       </c>
       <c r="J6">
-        <f>IF(ISBLANK('By Round'!J77),"",'By Round'!J77)</f>
+        <f>IF(ISBLANK('By Round'!J21),"",'By Round'!J21)</f>
         <v/>
       </c>
       <c r="K6">
-        <f>IF(ISBLANK('By Round'!K77),"",'By Round'!K77)</f>
+        <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
         <v/>
       </c>
       <c r="L6" s="12">
-        <f>SUM(AB6:AE6)</f>
+        <f>AVERAGE(AB6:AE6)</f>
         <v/>
       </c>
       <c r="M6" s="13">
-        <f>SUM(AF6:AI6)</f>
+        <f>AVERAGE(AF6:AI6)</f>
         <v/>
       </c>
       <c r="N6" s="8">
@@ -1694,11 +1694,11 @@
         <v/>
       </c>
       <c r="L7" s="17">
-        <f>SUM(AB7:AE7)</f>
+        <f>AVERAGE(AB7:AE7)</f>
         <v/>
       </c>
       <c r="M7" s="18">
-        <f>SUM(AF7:AI7)</f>
+        <f>AVERAGE(AF7:AI7)</f>
         <v/>
       </c>
       <c r="N7" s="19">
@@ -1835,11 +1835,11 @@
         <v/>
       </c>
       <c r="L8" s="12">
-        <f>SUM(AB8:AE8)</f>
+        <f>AVERAGE(AB8:AE8)</f>
         <v/>
       </c>
       <c r="M8" s="13">
-        <f>SUM(AF8:AI8)</f>
+        <f>AVERAGE(AF8:AI8)</f>
         <v/>
       </c>
       <c r="N8" s="8">
@@ -1933,51 +1933,51 @@
     </row>
     <row r="9">
       <c r="B9" s="11">
-        <f>'By Round'!A13</f>
+        <f>'By Round'!A73</f>
         <v/>
       </c>
       <c r="C9" s="11">
-        <f>'By Round'!B21</f>
+        <f>'By Round'!B77</f>
         <v/>
       </c>
       <c r="D9" s="11">
-        <f>'By Round'!C21</f>
+        <f>'By Round'!C77</f>
         <v/>
       </c>
       <c r="E9" s="11">
-        <f>'By Round'!D21</f>
+        <f>'By Round'!D77</f>
         <v/>
       </c>
       <c r="F9" s="11">
-        <f>IF(ISBLANK('By Round'!F22),"",'By Round'!F22)</f>
+        <f>IF(ISBLANK('By Round'!F78),"",'By Round'!F78)</f>
         <v/>
       </c>
       <c r="G9">
-        <f>IF(ISBLANK('By Round'!G22),"",'By Round'!G22)</f>
+        <f>IF(ISBLANK('By Round'!G78),"",'By Round'!G78)</f>
         <v/>
       </c>
       <c r="H9">
-        <f>IF(ISBLANK('By Round'!H22),"",'By Round'!H22)</f>
+        <f>IF(ISBLANK('By Round'!H78),"",'By Round'!H78)</f>
         <v/>
       </c>
       <c r="I9">
-        <f>IF(ISBLANK('By Round'!I22),"",'By Round'!I22)</f>
+        <f>IF(ISBLANK('By Round'!I78),"",'By Round'!I78)</f>
         <v/>
       </c>
       <c r="J9">
-        <f>IF(ISBLANK('By Round'!J22),"",'By Round'!J22)</f>
+        <f>IF(ISBLANK('By Round'!J78),"",'By Round'!J78)</f>
         <v/>
       </c>
       <c r="K9">
-        <f>IF(ISBLANK('By Round'!K22),"",'By Round'!K22)</f>
+        <f>IF(ISBLANK('By Round'!K78),"",'By Round'!K78)</f>
         <v/>
       </c>
       <c r="L9" s="12">
-        <f>SUM(AB9:AE9)</f>
+        <f>AVERAGE(AB9:AE9)</f>
         <v/>
       </c>
       <c r="M9" s="13">
-        <f>SUM(AF9:AI9)</f>
+        <f>AVERAGE(AF9:AI9)</f>
         <v/>
       </c>
       <c r="N9" s="8">
@@ -2111,11 +2111,11 @@
         <v/>
       </c>
       <c r="L10" s="12">
-        <f>SUM(AB10:AE10)</f>
+        <f>AVERAGE(AB10:AE10)</f>
         <v/>
       </c>
       <c r="M10" s="13">
-        <f>SUM(AF10:AI10)</f>
+        <f>AVERAGE(AF10:AI10)</f>
         <v/>
       </c>
       <c r="N10" s="8">
@@ -2209,51 +2209,51 @@
     </row>
     <row r="11">
       <c r="B11" s="11">
-        <f>'By Round'!A73</f>
+        <f>'By Round'!A13</f>
         <v/>
       </c>
       <c r="C11" s="11">
-        <f>'By Round'!B77</f>
+        <f>'By Round'!B21</f>
         <v/>
       </c>
       <c r="D11" s="11">
-        <f>'By Round'!C77</f>
+        <f>'By Round'!C21</f>
         <v/>
       </c>
       <c r="E11" s="11">
-        <f>'By Round'!D77</f>
+        <f>'By Round'!D21</f>
         <v/>
       </c>
       <c r="F11" s="11">
-        <f>IF(ISBLANK('By Round'!F78),"",'By Round'!F78)</f>
+        <f>IF(ISBLANK('By Round'!F22),"",'By Round'!F22)</f>
         <v/>
       </c>
       <c r="G11">
-        <f>IF(ISBLANK('By Round'!G78),"",'By Round'!G78)</f>
+        <f>IF(ISBLANK('By Round'!G22),"",'By Round'!G22)</f>
         <v/>
       </c>
       <c r="H11">
-        <f>IF(ISBLANK('By Round'!H78),"",'By Round'!H78)</f>
+        <f>IF(ISBLANK('By Round'!H22),"",'By Round'!H22)</f>
         <v/>
       </c>
       <c r="I11">
-        <f>IF(ISBLANK('By Round'!I78),"",'By Round'!I78)</f>
+        <f>IF(ISBLANK('By Round'!I22),"",'By Round'!I22)</f>
         <v/>
       </c>
       <c r="J11">
-        <f>IF(ISBLANK('By Round'!J78),"",'By Round'!J78)</f>
+        <f>IF(ISBLANK('By Round'!J22),"",'By Round'!J22)</f>
         <v/>
       </c>
       <c r="K11">
-        <f>IF(ISBLANK('By Round'!K78),"",'By Round'!K78)</f>
+        <f>IF(ISBLANK('By Round'!K22),"",'By Round'!K22)</f>
         <v/>
       </c>
       <c r="L11" s="12">
-        <f>SUM(AB11:AE11)</f>
+        <f>AVERAGE(AB11:AE11)</f>
         <v/>
       </c>
       <c r="M11" s="13">
-        <f>SUM(AF11:AI11)</f>
+        <f>AVERAGE(AF11:AI11)</f>
         <v/>
       </c>
       <c r="N11" s="8">
@@ -2388,11 +2388,11 @@
         <v/>
       </c>
       <c r="L12" s="17">
-        <f>SUM(AB12:AE12)</f>
+        <f>AVERAGE(AB12:AE12)</f>
         <v/>
       </c>
       <c r="M12" s="18">
-        <f>SUM(AF12:AI12)</f>
+        <f>AVERAGE(AF12:AI12)</f>
         <v/>
       </c>
       <c r="N12" s="19">
@@ -2489,51 +2489,51 @@
         <v>3</v>
       </c>
       <c r="B13" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A13</f>
         <v/>
       </c>
       <c r="C13" s="11">
-        <f>'By Round'!B5</f>
+        <f>'By Round'!B13</f>
         <v/>
       </c>
       <c r="D13" s="11">
-        <f>'By Round'!C5</f>
+        <f>'By Round'!C13</f>
         <v/>
       </c>
       <c r="E13" s="11">
-        <f>'By Round'!D5</f>
+        <f>'By Round'!D13</f>
         <v/>
       </c>
       <c r="F13" s="11">
-        <f>IF(ISBLANK('By Round'!F5),"",'By Round'!F5)</f>
+        <f>IF(ISBLANK('By Round'!F13),"",'By Round'!F13)</f>
         <v/>
       </c>
       <c r="G13">
-        <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
+        <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
         <v/>
       </c>
       <c r="H13">
-        <f>IF(ISBLANK('By Round'!H5),"",'By Round'!H5)</f>
+        <f>IF(ISBLANK('By Round'!H13),"",'By Round'!H13)</f>
         <v/>
       </c>
       <c r="I13">
-        <f>IF(ISBLANK('By Round'!I5),"",'By Round'!I5)</f>
+        <f>IF(ISBLANK('By Round'!I13),"",'By Round'!I13)</f>
         <v/>
       </c>
       <c r="J13">
-        <f>IF(ISBLANK('By Round'!J5),"",'By Round'!J5)</f>
+        <f>IF(ISBLANK('By Round'!J13),"",'By Round'!J13)</f>
         <v/>
       </c>
       <c r="K13">
-        <f>IF(ISBLANK('By Round'!K5),"",'By Round'!K5)</f>
+        <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
         <v/>
       </c>
       <c r="L13" s="12">
-        <f>SUM(AB13:AE13)</f>
+        <f>AVERAGE(AB13:AE13)</f>
         <v/>
       </c>
       <c r="M13" s="13">
-        <f>SUM(AF13:AI13)</f>
+        <f>AVERAGE(AF13:AI13)</f>
         <v/>
       </c>
       <c r="N13" s="8">
@@ -2627,51 +2627,51 @@
     </row>
     <row r="14">
       <c r="B14" s="11">
-        <f>'By Round'!A13</f>
+        <f>'By Round'!A83</f>
         <v/>
       </c>
       <c r="C14" s="11">
-        <f>'By Round'!B13</f>
+        <f>'By Round'!B87</f>
         <v/>
       </c>
       <c r="D14" s="11">
-        <f>'By Round'!C13</f>
+        <f>'By Round'!C87</f>
         <v/>
       </c>
       <c r="E14" s="11">
-        <f>'By Round'!D13</f>
+        <f>'By Round'!D87</f>
         <v/>
       </c>
       <c r="F14" s="11">
-        <f>IF(ISBLANK('By Round'!F13),"",'By Round'!F13)</f>
+        <f>IF(ISBLANK('By Round'!F87),"",'By Round'!F87)</f>
         <v/>
       </c>
       <c r="G14">
-        <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
+        <f>IF(ISBLANK('By Round'!G87),"",'By Round'!G87)</f>
         <v/>
       </c>
       <c r="H14">
-        <f>IF(ISBLANK('By Round'!H13),"",'By Round'!H13)</f>
+        <f>IF(ISBLANK('By Round'!H87),"",'By Round'!H87)</f>
         <v/>
       </c>
       <c r="I14">
-        <f>IF(ISBLANK('By Round'!I13),"",'By Round'!I13)</f>
+        <f>IF(ISBLANK('By Round'!I87),"",'By Round'!I87)</f>
         <v/>
       </c>
       <c r="J14">
-        <f>IF(ISBLANK('By Round'!J13),"",'By Round'!J13)</f>
+        <f>IF(ISBLANK('By Round'!J87),"",'By Round'!J87)</f>
         <v/>
       </c>
       <c r="K14">
-        <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
+        <f>IF(ISBLANK('By Round'!K87),"",'By Round'!K87)</f>
         <v/>
       </c>
       <c r="L14" s="12">
-        <f>SUM(AB14:AE14)</f>
+        <f>AVERAGE(AB14:AE14)</f>
         <v/>
       </c>
       <c r="M14" s="13">
-        <f>SUM(AF14:AI14)</f>
+        <f>AVERAGE(AF14:AI14)</f>
         <v/>
       </c>
       <c r="N14" s="8">
@@ -2765,51 +2765,51 @@
     </row>
     <row r="15">
       <c r="B15" s="11">
-        <f>'By Round'!A23</f>
+        <f>'By Round'!A33</f>
         <v/>
       </c>
       <c r="C15" s="11">
-        <f>'By Round'!B31</f>
+        <f>'By Round'!B39</f>
         <v/>
       </c>
       <c r="D15" s="11">
-        <f>'By Round'!C31</f>
+        <f>'By Round'!C39</f>
         <v/>
       </c>
       <c r="E15" s="11">
-        <f>'By Round'!D31</f>
+        <f>'By Round'!D39</f>
         <v/>
       </c>
       <c r="F15" s="11">
-        <f>IF(ISBLANK('By Round'!F31),"",'By Round'!F31)</f>
+        <f>IF(ISBLANK('By Round'!F39),"",'By Round'!F39)</f>
         <v/>
       </c>
       <c r="G15">
-        <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
+        <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
         <v/>
       </c>
       <c r="H15">
-        <f>IF(ISBLANK('By Round'!H31),"",'By Round'!H31)</f>
+        <f>IF(ISBLANK('By Round'!H39),"",'By Round'!H39)</f>
         <v/>
       </c>
       <c r="I15">
-        <f>IF(ISBLANK('By Round'!I31),"",'By Round'!I31)</f>
+        <f>IF(ISBLANK('By Round'!I39),"",'By Round'!I39)</f>
         <v/>
       </c>
       <c r="J15">
-        <f>IF(ISBLANK('By Round'!J31),"",'By Round'!J31)</f>
+        <f>IF(ISBLANK('By Round'!J39),"",'By Round'!J39)</f>
         <v/>
       </c>
       <c r="K15">
-        <f>IF(ISBLANK('By Round'!K31),"",'By Round'!K31)</f>
+        <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
         <v/>
       </c>
       <c r="L15" s="12">
-        <f>SUM(AB15:AE15)</f>
+        <f>AVERAGE(AB15:AE15)</f>
         <v/>
       </c>
       <c r="M15" s="13">
-        <f>SUM(AF15:AI15)</f>
+        <f>AVERAGE(AF15:AI15)</f>
         <v/>
       </c>
       <c r="N15" s="8">
@@ -2903,51 +2903,51 @@
     </row>
     <row r="16">
       <c r="B16" s="11">
-        <f>'By Round'!A33</f>
+        <f>'By Round'!A23</f>
         <v/>
       </c>
       <c r="C16" s="11">
-        <f>'By Round'!B39</f>
+        <f>'By Round'!B31</f>
         <v/>
       </c>
       <c r="D16" s="11">
-        <f>'By Round'!C39</f>
+        <f>'By Round'!C31</f>
         <v/>
       </c>
       <c r="E16" s="11">
-        <f>'By Round'!D39</f>
+        <f>'By Round'!D31</f>
         <v/>
       </c>
       <c r="F16" s="11">
-        <f>IF(ISBLANK('By Round'!F39),"",'By Round'!F39)</f>
+        <f>IF(ISBLANK('By Round'!F31),"",'By Round'!F31)</f>
         <v/>
       </c>
       <c r="G16">
-        <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
+        <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
         <v/>
       </c>
       <c r="H16">
-        <f>IF(ISBLANK('By Round'!H39),"",'By Round'!H39)</f>
+        <f>IF(ISBLANK('By Round'!H31),"",'By Round'!H31)</f>
         <v/>
       </c>
       <c r="I16">
-        <f>IF(ISBLANK('By Round'!I39),"",'By Round'!I39)</f>
+        <f>IF(ISBLANK('By Round'!I31),"",'By Round'!I31)</f>
         <v/>
       </c>
       <c r="J16">
-        <f>IF(ISBLANK('By Round'!J39),"",'By Round'!J39)</f>
+        <f>IF(ISBLANK('By Round'!J31),"",'By Round'!J31)</f>
         <v/>
       </c>
       <c r="K16">
-        <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
+        <f>IF(ISBLANK('By Round'!K31),"",'By Round'!K31)</f>
         <v/>
       </c>
       <c r="L16" s="12">
-        <f>SUM(AB16:AE16)</f>
+        <f>AVERAGE(AB16:AE16)</f>
         <v/>
       </c>
       <c r="M16" s="13">
-        <f>SUM(AF16:AI16)</f>
+        <f>AVERAGE(AF16:AI16)</f>
         <v/>
       </c>
       <c r="N16" s="8">
@@ -3042,51 +3042,51 @@
     <row r="17">
       <c r="A17" s="15" t="n"/>
       <c r="B17" s="16">
-        <f>'By Round'!A83</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C17" s="16">
-        <f>'By Round'!B87</f>
+        <f>'By Round'!B5</f>
         <v/>
       </c>
       <c r="D17" s="16">
-        <f>'By Round'!C87</f>
+        <f>'By Round'!C5</f>
         <v/>
       </c>
       <c r="E17" s="16">
-        <f>'By Round'!D87</f>
+        <f>'By Round'!D5</f>
         <v/>
       </c>
       <c r="F17" s="16">
-        <f>IF(ISBLANK('By Round'!F87),"",'By Round'!F87)</f>
+        <f>IF(ISBLANK('By Round'!F5),"",'By Round'!F5)</f>
         <v/>
       </c>
       <c r="G17" s="15">
-        <f>IF(ISBLANK('By Round'!G87),"",'By Round'!G87)</f>
+        <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
         <v/>
       </c>
       <c r="H17" s="15">
-        <f>IF(ISBLANK('By Round'!H87),"",'By Round'!H87)</f>
+        <f>IF(ISBLANK('By Round'!H5),"",'By Round'!H5)</f>
         <v/>
       </c>
       <c r="I17" s="15">
-        <f>IF(ISBLANK('By Round'!I87),"",'By Round'!I87)</f>
+        <f>IF(ISBLANK('By Round'!I5),"",'By Round'!I5)</f>
         <v/>
       </c>
       <c r="J17" s="15">
-        <f>IF(ISBLANK('By Round'!J87),"",'By Round'!J87)</f>
+        <f>IF(ISBLANK('By Round'!J5),"",'By Round'!J5)</f>
         <v/>
       </c>
       <c r="K17" s="15">
-        <f>IF(ISBLANK('By Round'!K87),"",'By Round'!K87)</f>
+        <f>IF(ISBLANK('By Round'!K5),"",'By Round'!K5)</f>
         <v/>
       </c>
       <c r="L17" s="17">
-        <f>SUM(AB17:AE17)</f>
+        <f>AVERAGE(AB17:AE17)</f>
         <v/>
       </c>
       <c r="M17" s="18">
-        <f>SUM(AF17:AI17)</f>
+        <f>AVERAGE(AF17:AI17)</f>
         <v/>
       </c>
       <c r="N17" s="19">
@@ -3183,51 +3183,51 @@
         <v>4</v>
       </c>
       <c r="B18" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A13</f>
         <v/>
       </c>
       <c r="C18" s="11">
-        <f>'By Round'!B5</f>
+        <f>'By Round'!B13</f>
         <v/>
       </c>
       <c r="D18" s="11">
-        <f>'By Round'!C5</f>
+        <f>'By Round'!C13</f>
         <v/>
       </c>
       <c r="E18" s="11">
-        <f>'By Round'!D5</f>
+        <f>'By Round'!D13</f>
         <v/>
       </c>
       <c r="F18" s="11">
-        <f>IF(ISBLANK('By Round'!F6),"",'By Round'!F6)</f>
+        <f>IF(ISBLANK('By Round'!F14),"",'By Round'!F14)</f>
         <v/>
       </c>
       <c r="G18">
-        <f>IF(ISBLANK('By Round'!G6),"",'By Round'!G6)</f>
+        <f>IF(ISBLANK('By Round'!G14),"",'By Round'!G14)</f>
         <v/>
       </c>
       <c r="H18">
-        <f>IF(ISBLANK('By Round'!H6),"",'By Round'!H6)</f>
+        <f>IF(ISBLANK('By Round'!H14),"",'By Round'!H14)</f>
         <v/>
       </c>
       <c r="I18">
-        <f>IF(ISBLANK('By Round'!I6),"",'By Round'!I6)</f>
+        <f>IF(ISBLANK('By Round'!I14),"",'By Round'!I14)</f>
         <v/>
       </c>
       <c r="J18">
-        <f>IF(ISBLANK('By Round'!J6),"",'By Round'!J6)</f>
+        <f>IF(ISBLANK('By Round'!J14),"",'By Round'!J14)</f>
         <v/>
       </c>
       <c r="K18">
-        <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
+        <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
         <v/>
       </c>
       <c r="L18" s="12">
-        <f>SUM(AB18:AE18)</f>
+        <f>AVERAGE(AB18:AE18)</f>
         <v/>
       </c>
       <c r="M18" s="13">
-        <f>SUM(AF18:AI18)</f>
+        <f>AVERAGE(AF18:AI18)</f>
         <v/>
       </c>
       <c r="N18" s="8">
@@ -3321,51 +3321,51 @@
     </row>
     <row r="19">
       <c r="B19" s="11">
-        <f>'By Round'!A13</f>
+        <f>'By Round'!A83</f>
         <v/>
       </c>
       <c r="C19" s="11">
-        <f>'By Round'!B13</f>
+        <f>'By Round'!B87</f>
         <v/>
       </c>
       <c r="D19" s="11">
-        <f>'By Round'!C13</f>
+        <f>'By Round'!C87</f>
         <v/>
       </c>
       <c r="E19" s="11">
-        <f>'By Round'!D13</f>
+        <f>'By Round'!D87</f>
         <v/>
       </c>
       <c r="F19" s="11">
-        <f>IF(ISBLANK('By Round'!F14),"",'By Round'!F14)</f>
+        <f>IF(ISBLANK('By Round'!F88),"",'By Round'!F88)</f>
         <v/>
       </c>
       <c r="G19">
-        <f>IF(ISBLANK('By Round'!G14),"",'By Round'!G14)</f>
+        <f>IF(ISBLANK('By Round'!G88),"",'By Round'!G88)</f>
         <v/>
       </c>
       <c r="H19">
-        <f>IF(ISBLANK('By Round'!H14),"",'By Round'!H14)</f>
+        <f>IF(ISBLANK('By Round'!H88),"",'By Round'!H88)</f>
         <v/>
       </c>
       <c r="I19">
-        <f>IF(ISBLANK('By Round'!I14),"",'By Round'!I14)</f>
+        <f>IF(ISBLANK('By Round'!I88),"",'By Round'!I88)</f>
         <v/>
       </c>
       <c r="J19">
-        <f>IF(ISBLANK('By Round'!J14),"",'By Round'!J14)</f>
+        <f>IF(ISBLANK('By Round'!J88),"",'By Round'!J88)</f>
         <v/>
       </c>
       <c r="K19">
-        <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
+        <f>IF(ISBLANK('By Round'!K88),"",'By Round'!K88)</f>
         <v/>
       </c>
       <c r="L19" s="12">
-        <f>SUM(AB19:AE19)</f>
+        <f>AVERAGE(AB19:AE19)</f>
         <v/>
       </c>
       <c r="M19" s="13">
-        <f>SUM(AF19:AI19)</f>
+        <f>AVERAGE(AF19:AI19)</f>
         <v/>
       </c>
       <c r="N19" s="8">
@@ -3459,51 +3459,51 @@
     </row>
     <row r="20">
       <c r="B20" s="11">
-        <f>'By Round'!A23</f>
+        <f>'By Round'!A33</f>
         <v/>
       </c>
       <c r="C20" s="11">
-        <f>'By Round'!B31</f>
+        <f>'By Round'!B39</f>
         <v/>
       </c>
       <c r="D20" s="11">
-        <f>'By Round'!C31</f>
+        <f>'By Round'!C39</f>
         <v/>
       </c>
       <c r="E20" s="11">
-        <f>'By Round'!D31</f>
+        <f>'By Round'!D39</f>
         <v/>
       </c>
       <c r="F20" s="11">
-        <f>IF(ISBLANK('By Round'!F32),"",'By Round'!F32)</f>
+        <f>IF(ISBLANK('By Round'!F40),"",'By Round'!F40)</f>
         <v/>
       </c>
       <c r="G20">
-        <f>IF(ISBLANK('By Round'!G32),"",'By Round'!G32)</f>
+        <f>IF(ISBLANK('By Round'!G40),"",'By Round'!G40)</f>
         <v/>
       </c>
       <c r="H20">
-        <f>IF(ISBLANK('By Round'!H32),"",'By Round'!H32)</f>
+        <f>IF(ISBLANK('By Round'!H40),"",'By Round'!H40)</f>
         <v/>
       </c>
       <c r="I20">
-        <f>IF(ISBLANK('By Round'!I32),"",'By Round'!I32)</f>
+        <f>IF(ISBLANK('By Round'!I40),"",'By Round'!I40)</f>
         <v/>
       </c>
       <c r="J20">
-        <f>IF(ISBLANK('By Round'!J32),"",'By Round'!J32)</f>
+        <f>IF(ISBLANK('By Round'!J40),"",'By Round'!J40)</f>
         <v/>
       </c>
       <c r="K20">
-        <f>IF(ISBLANK('By Round'!K32),"",'By Round'!K32)</f>
+        <f>IF(ISBLANK('By Round'!K40),"",'By Round'!K40)</f>
         <v/>
       </c>
       <c r="L20" s="12">
-        <f>SUM(AB20:AE20)</f>
+        <f>AVERAGE(AB20:AE20)</f>
         <v/>
       </c>
       <c r="M20" s="13">
-        <f>SUM(AF20:AI20)</f>
+        <f>AVERAGE(AF20:AI20)</f>
         <v/>
       </c>
       <c r="N20" s="8">
@@ -3597,51 +3597,51 @@
     </row>
     <row r="21">
       <c r="B21" s="11">
-        <f>'By Round'!A33</f>
+        <f>'By Round'!A23</f>
         <v/>
       </c>
       <c r="C21" s="11">
-        <f>'By Round'!B39</f>
+        <f>'By Round'!B31</f>
         <v/>
       </c>
       <c r="D21" s="11">
-        <f>'By Round'!C39</f>
+        <f>'By Round'!C31</f>
         <v/>
       </c>
       <c r="E21" s="11">
-        <f>'By Round'!D39</f>
+        <f>'By Round'!D31</f>
         <v/>
       </c>
       <c r="F21" s="11">
-        <f>IF(ISBLANK('By Round'!F40),"",'By Round'!F40)</f>
+        <f>IF(ISBLANK('By Round'!F32),"",'By Round'!F32)</f>
         <v/>
       </c>
       <c r="G21">
-        <f>IF(ISBLANK('By Round'!G40),"",'By Round'!G40)</f>
+        <f>IF(ISBLANK('By Round'!G32),"",'By Round'!G32)</f>
         <v/>
       </c>
       <c r="H21">
-        <f>IF(ISBLANK('By Round'!H40),"",'By Round'!H40)</f>
+        <f>IF(ISBLANK('By Round'!H32),"",'By Round'!H32)</f>
         <v/>
       </c>
       <c r="I21">
-        <f>IF(ISBLANK('By Round'!I40),"",'By Round'!I40)</f>
+        <f>IF(ISBLANK('By Round'!I32),"",'By Round'!I32)</f>
         <v/>
       </c>
       <c r="J21">
-        <f>IF(ISBLANK('By Round'!J40),"",'By Round'!J40)</f>
+        <f>IF(ISBLANK('By Round'!J32),"",'By Round'!J32)</f>
         <v/>
       </c>
       <c r="K21">
-        <f>IF(ISBLANK('By Round'!K40),"",'By Round'!K40)</f>
+        <f>IF(ISBLANK('By Round'!K32),"",'By Round'!K32)</f>
         <v/>
       </c>
       <c r="L21" s="12">
-        <f>SUM(AB21:AE21)</f>
+        <f>AVERAGE(AB21:AE21)</f>
         <v/>
       </c>
       <c r="M21" s="13">
-        <f>SUM(AF21:AI21)</f>
+        <f>AVERAGE(AF21:AI21)</f>
         <v/>
       </c>
       <c r="N21" s="8">
@@ -3736,51 +3736,51 @@
     <row r="22">
       <c r="A22" s="15" t="n"/>
       <c r="B22" s="16">
-        <f>'By Round'!A83</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C22" s="16">
-        <f>'By Round'!B87</f>
+        <f>'By Round'!B5</f>
         <v/>
       </c>
       <c r="D22" s="16">
-        <f>'By Round'!C87</f>
+        <f>'By Round'!C5</f>
         <v/>
       </c>
       <c r="E22" s="16">
-        <f>'By Round'!D87</f>
+        <f>'By Round'!D5</f>
         <v/>
       </c>
       <c r="F22" s="16">
-        <f>IF(ISBLANK('By Round'!F88),"",'By Round'!F88)</f>
+        <f>IF(ISBLANK('By Round'!F6),"",'By Round'!F6)</f>
         <v/>
       </c>
       <c r="G22" s="15">
-        <f>IF(ISBLANK('By Round'!G88),"",'By Round'!G88)</f>
+        <f>IF(ISBLANK('By Round'!G6),"",'By Round'!G6)</f>
         <v/>
       </c>
       <c r="H22" s="15">
-        <f>IF(ISBLANK('By Round'!H88),"",'By Round'!H88)</f>
+        <f>IF(ISBLANK('By Round'!H6),"",'By Round'!H6)</f>
         <v/>
       </c>
       <c r="I22" s="15">
-        <f>IF(ISBLANK('By Round'!I88),"",'By Round'!I88)</f>
+        <f>IF(ISBLANK('By Round'!I6),"",'By Round'!I6)</f>
         <v/>
       </c>
       <c r="J22" s="15">
-        <f>IF(ISBLANK('By Round'!J88),"",'By Round'!J88)</f>
+        <f>IF(ISBLANK('By Round'!J6),"",'By Round'!J6)</f>
         <v/>
       </c>
       <c r="K22" s="15">
-        <f>IF(ISBLANK('By Round'!K88),"",'By Round'!K88)</f>
+        <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
         <v/>
       </c>
       <c r="L22" s="17">
-        <f>SUM(AB22:AE22)</f>
+        <f>AVERAGE(AB22:AE22)</f>
         <v/>
       </c>
       <c r="M22" s="18">
-        <f>SUM(AF22:AI22)</f>
+        <f>AVERAGE(AF22:AI22)</f>
         <v/>
       </c>
       <c r="N22" s="19">
@@ -3877,51 +3877,51 @@
         <v>5</v>
       </c>
       <c r="B23" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A23</f>
         <v/>
       </c>
       <c r="C23" s="11">
-        <f>'By Round'!B7</f>
+        <f>'By Round'!B23</f>
         <v/>
       </c>
       <c r="D23" s="11">
-        <f>'By Round'!C7</f>
+        <f>'By Round'!C23</f>
         <v/>
       </c>
       <c r="E23" s="11">
-        <f>'By Round'!D7</f>
+        <f>'By Round'!D23</f>
         <v/>
       </c>
       <c r="F23" s="11">
-        <f>IF(ISBLANK('By Round'!F7),"",'By Round'!F7)</f>
+        <f>IF(ISBLANK('By Round'!F23),"",'By Round'!F23)</f>
         <v/>
       </c>
       <c r="G23">
-        <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
+        <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
         <v/>
       </c>
       <c r="H23">
-        <f>IF(ISBLANK('By Round'!H7),"",'By Round'!H7)</f>
+        <f>IF(ISBLANK('By Round'!H23),"",'By Round'!H23)</f>
         <v/>
       </c>
       <c r="I23">
-        <f>IF(ISBLANK('By Round'!I7),"",'By Round'!I7)</f>
+        <f>IF(ISBLANK('By Round'!I23),"",'By Round'!I23)</f>
         <v/>
       </c>
       <c r="J23">
-        <f>IF(ISBLANK('By Round'!J7),"",'By Round'!J7)</f>
+        <f>IF(ISBLANK('By Round'!J23),"",'By Round'!J23)</f>
         <v/>
       </c>
       <c r="K23">
-        <f>IF(ISBLANK('By Round'!K7),"",'By Round'!K7)</f>
+        <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
         <v/>
       </c>
       <c r="L23" s="12">
-        <f>SUM(AB23:AE23)</f>
+        <f>AVERAGE(AB23:AE23)</f>
         <v/>
       </c>
       <c r="M23" s="13">
-        <f>SUM(AF23:AI23)</f>
+        <f>AVERAGE(AF23:AI23)</f>
         <v/>
       </c>
       <c r="N23" s="8">
@@ -4055,11 +4055,11 @@
         <v/>
       </c>
       <c r="L24" s="12">
-        <f>SUM(AB24:AE24)</f>
+        <f>AVERAGE(AB24:AE24)</f>
         <v/>
       </c>
       <c r="M24" s="13">
-        <f>SUM(AF24:AI24)</f>
+        <f>AVERAGE(AF24:AI24)</f>
         <v/>
       </c>
       <c r="N24" s="8">
@@ -4153,51 +4153,51 @@
     </row>
     <row r="25">
       <c r="B25" s="11">
-        <f>'By Round'!A23</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C25" s="11">
-        <f>'By Round'!B23</f>
+        <f>'By Round'!B7</f>
         <v/>
       </c>
       <c r="D25" s="11">
-        <f>'By Round'!C23</f>
+        <f>'By Round'!C7</f>
         <v/>
       </c>
       <c r="E25" s="11">
-        <f>'By Round'!D23</f>
+        <f>'By Round'!D7</f>
         <v/>
       </c>
       <c r="F25" s="11">
-        <f>IF(ISBLANK('By Round'!F23),"",'By Round'!F23)</f>
+        <f>IF(ISBLANK('By Round'!F7),"",'By Round'!F7)</f>
         <v/>
       </c>
       <c r="G25">
-        <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
+        <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
         <v/>
       </c>
       <c r="H25">
-        <f>IF(ISBLANK('By Round'!H23),"",'By Round'!H23)</f>
+        <f>IF(ISBLANK('By Round'!H7),"",'By Round'!H7)</f>
         <v/>
       </c>
       <c r="I25">
-        <f>IF(ISBLANK('By Round'!I23),"",'By Round'!I23)</f>
+        <f>IF(ISBLANK('By Round'!I7),"",'By Round'!I7)</f>
         <v/>
       </c>
       <c r="J25">
-        <f>IF(ISBLANK('By Round'!J23),"",'By Round'!J23)</f>
+        <f>IF(ISBLANK('By Round'!J7),"",'By Round'!J7)</f>
         <v/>
       </c>
       <c r="K25">
-        <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
+        <f>IF(ISBLANK('By Round'!K7),"",'By Round'!K7)</f>
         <v/>
       </c>
       <c r="L25" s="12">
-        <f>SUM(AB25:AE25)</f>
+        <f>AVERAGE(AB25:AE25)</f>
         <v/>
       </c>
       <c r="M25" s="13">
-        <f>SUM(AF25:AI25)</f>
+        <f>AVERAGE(AF25:AI25)</f>
         <v/>
       </c>
       <c r="N25" s="8">
@@ -4291,51 +4291,51 @@
     </row>
     <row r="26">
       <c r="B26" s="11">
-        <f>'By Round'!A33</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C26" s="11">
-        <f>'By Round'!B41</f>
+        <f>'By Round'!B49</f>
         <v/>
       </c>
       <c r="D26" s="11">
-        <f>'By Round'!C41</f>
+        <f>'By Round'!C49</f>
         <v/>
       </c>
       <c r="E26" s="11">
-        <f>'By Round'!D41</f>
+        <f>'By Round'!D49</f>
         <v/>
       </c>
       <c r="F26" s="11">
-        <f>IF(ISBLANK('By Round'!F41),"",'By Round'!F41)</f>
+        <f>IF(ISBLANK('By Round'!F49),"",'By Round'!F49)</f>
         <v/>
       </c>
       <c r="G26">
-        <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
+        <f>IF(ISBLANK('By Round'!G49),"",'By Round'!G49)</f>
         <v/>
       </c>
       <c r="H26">
-        <f>IF(ISBLANK('By Round'!H41),"",'By Round'!H41)</f>
+        <f>IF(ISBLANK('By Round'!H49),"",'By Round'!H49)</f>
         <v/>
       </c>
       <c r="I26">
-        <f>IF(ISBLANK('By Round'!I41),"",'By Round'!I41)</f>
+        <f>IF(ISBLANK('By Round'!I49),"",'By Round'!I49)</f>
         <v/>
       </c>
       <c r="J26">
-        <f>IF(ISBLANK('By Round'!J41),"",'By Round'!J41)</f>
+        <f>IF(ISBLANK('By Round'!J49),"",'By Round'!J49)</f>
         <v/>
       </c>
       <c r="K26">
-        <f>IF(ISBLANK('By Round'!K41),"",'By Round'!K41)</f>
+        <f>IF(ISBLANK('By Round'!K49),"",'By Round'!K49)</f>
         <v/>
       </c>
       <c r="L26" s="12">
-        <f>SUM(AB26:AE26)</f>
+        <f>AVERAGE(AB26:AE26)</f>
         <v/>
       </c>
       <c r="M26" s="13">
-        <f>SUM(AF26:AI26)</f>
+        <f>AVERAGE(AF26:AI26)</f>
         <v/>
       </c>
       <c r="N26" s="8">
@@ -4430,51 +4430,51 @@
     <row r="27">
       <c r="A27" s="15" t="n"/>
       <c r="B27" s="16">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A33</f>
         <v/>
       </c>
       <c r="C27" s="16">
-        <f>'By Round'!B49</f>
+        <f>'By Round'!B41</f>
         <v/>
       </c>
       <c r="D27" s="16">
-        <f>'By Round'!C49</f>
+        <f>'By Round'!C41</f>
         <v/>
       </c>
       <c r="E27" s="16">
-        <f>'By Round'!D49</f>
+        <f>'By Round'!D41</f>
         <v/>
       </c>
       <c r="F27" s="16">
-        <f>IF(ISBLANK('By Round'!F49),"",'By Round'!F49)</f>
+        <f>IF(ISBLANK('By Round'!F41),"",'By Round'!F41)</f>
         <v/>
       </c>
       <c r="G27" s="15">
-        <f>IF(ISBLANK('By Round'!G49),"",'By Round'!G49)</f>
+        <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
         <v/>
       </c>
       <c r="H27" s="15">
-        <f>IF(ISBLANK('By Round'!H49),"",'By Round'!H49)</f>
+        <f>IF(ISBLANK('By Round'!H41),"",'By Round'!H41)</f>
         <v/>
       </c>
       <c r="I27" s="15">
-        <f>IF(ISBLANK('By Round'!I49),"",'By Round'!I49)</f>
+        <f>IF(ISBLANK('By Round'!I41),"",'By Round'!I41)</f>
         <v/>
       </c>
       <c r="J27" s="15">
-        <f>IF(ISBLANK('By Round'!J49),"",'By Round'!J49)</f>
+        <f>IF(ISBLANK('By Round'!J41),"",'By Round'!J41)</f>
         <v/>
       </c>
       <c r="K27" s="15">
-        <f>IF(ISBLANK('By Round'!K49),"",'By Round'!K49)</f>
+        <f>IF(ISBLANK('By Round'!K41),"",'By Round'!K41)</f>
         <v/>
       </c>
       <c r="L27" s="17">
-        <f>SUM(AB27:AE27)</f>
+        <f>AVERAGE(AB27:AE27)</f>
         <v/>
       </c>
       <c r="M27" s="18">
-        <f>SUM(AF27:AI27)</f>
+        <f>AVERAGE(AF27:AI27)</f>
         <v/>
       </c>
       <c r="N27" s="19">
@@ -4571,51 +4571,51 @@
         <v>6</v>
       </c>
       <c r="B28" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A23</f>
         <v/>
       </c>
       <c r="C28" s="11">
-        <f>'By Round'!B7</f>
+        <f>'By Round'!B23</f>
         <v/>
       </c>
       <c r="D28" s="11">
-        <f>'By Round'!C7</f>
+        <f>'By Round'!C23</f>
         <v/>
       </c>
       <c r="E28" s="11">
-        <f>'By Round'!D7</f>
+        <f>'By Round'!D23</f>
         <v/>
       </c>
       <c r="F28" s="11">
-        <f>IF(ISBLANK('By Round'!F8),"",'By Round'!F8)</f>
+        <f>IF(ISBLANK('By Round'!F24),"",'By Round'!F24)</f>
         <v/>
       </c>
       <c r="G28">
-        <f>IF(ISBLANK('By Round'!G8),"",'By Round'!G8)</f>
+        <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
         <v/>
       </c>
       <c r="H28">
-        <f>IF(ISBLANK('By Round'!H8),"",'By Round'!H8)</f>
+        <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
         <v/>
       </c>
       <c r="I28">
-        <f>IF(ISBLANK('By Round'!I8),"",'By Round'!I8)</f>
+        <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
         <v/>
       </c>
       <c r="J28">
-        <f>IF(ISBLANK('By Round'!J8),"",'By Round'!J8)</f>
+        <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
         <v/>
       </c>
       <c r="K28">
-        <f>IF(ISBLANK('By Round'!K8),"",'By Round'!K8)</f>
+        <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
         <v/>
       </c>
       <c r="L28" s="12">
-        <f>SUM(AB28:AE28)</f>
+        <f>AVERAGE(AB28:AE28)</f>
         <v/>
       </c>
       <c r="M28" s="13">
-        <f>SUM(AF28:AI28)</f>
+        <f>AVERAGE(AF28:AI28)</f>
         <v/>
       </c>
       <c r="N28" s="8">
@@ -4749,11 +4749,11 @@
         <v/>
       </c>
       <c r="L29" s="12">
-        <f>SUM(AB29:AE29)</f>
+        <f>AVERAGE(AB29:AE29)</f>
         <v/>
       </c>
       <c r="M29" s="13">
-        <f>SUM(AF29:AI29)</f>
+        <f>AVERAGE(AF29:AI29)</f>
         <v/>
       </c>
       <c r="N29" s="8">
@@ -4847,51 +4847,51 @@
     </row>
     <row r="30">
       <c r="B30" s="11">
-        <f>'By Round'!A23</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C30" s="11">
-        <f>'By Round'!B23</f>
+        <f>'By Round'!B7</f>
         <v/>
       </c>
       <c r="D30" s="11">
-        <f>'By Round'!C23</f>
+        <f>'By Round'!C7</f>
         <v/>
       </c>
       <c r="E30" s="11">
-        <f>'By Round'!D23</f>
+        <f>'By Round'!D7</f>
         <v/>
       </c>
       <c r="F30" s="11">
-        <f>IF(ISBLANK('By Round'!F24),"",'By Round'!F24)</f>
+        <f>IF(ISBLANK('By Round'!F8),"",'By Round'!F8)</f>
         <v/>
       </c>
       <c r="G30">
-        <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
+        <f>IF(ISBLANK('By Round'!G8),"",'By Round'!G8)</f>
         <v/>
       </c>
       <c r="H30">
-        <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
+        <f>IF(ISBLANK('By Round'!H8),"",'By Round'!H8)</f>
         <v/>
       </c>
       <c r="I30">
-        <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
+        <f>IF(ISBLANK('By Round'!I8),"",'By Round'!I8)</f>
         <v/>
       </c>
       <c r="J30">
-        <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
+        <f>IF(ISBLANK('By Round'!J8),"",'By Round'!J8)</f>
         <v/>
       </c>
       <c r="K30">
-        <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
+        <f>IF(ISBLANK('By Round'!K8),"",'By Round'!K8)</f>
         <v/>
       </c>
       <c r="L30" s="12">
-        <f>SUM(AB30:AE30)</f>
+        <f>AVERAGE(AB30:AE30)</f>
         <v/>
       </c>
       <c r="M30" s="13">
-        <f>SUM(AF30:AI30)</f>
+        <f>AVERAGE(AF30:AI30)</f>
         <v/>
       </c>
       <c r="N30" s="8">
@@ -4985,51 +4985,51 @@
     </row>
     <row r="31">
       <c r="B31" s="11">
-        <f>'By Round'!A33</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C31" s="11">
-        <f>'By Round'!B41</f>
+        <f>'By Round'!B49</f>
         <v/>
       </c>
       <c r="D31" s="11">
-        <f>'By Round'!C41</f>
+        <f>'By Round'!C49</f>
         <v/>
       </c>
       <c r="E31" s="11">
-        <f>'By Round'!D41</f>
+        <f>'By Round'!D49</f>
         <v/>
       </c>
       <c r="F31" s="11">
-        <f>IF(ISBLANK('By Round'!F42),"",'By Round'!F42)</f>
+        <f>IF(ISBLANK('By Round'!F50),"",'By Round'!F50)</f>
         <v/>
       </c>
       <c r="G31">
-        <f>IF(ISBLANK('By Round'!G42),"",'By Round'!G42)</f>
+        <f>IF(ISBLANK('By Round'!G50),"",'By Round'!G50)</f>
         <v/>
       </c>
       <c r="H31">
-        <f>IF(ISBLANK('By Round'!H42),"",'By Round'!H42)</f>
+        <f>IF(ISBLANK('By Round'!H50),"",'By Round'!H50)</f>
         <v/>
       </c>
       <c r="I31">
-        <f>IF(ISBLANK('By Round'!I42),"",'By Round'!I42)</f>
+        <f>IF(ISBLANK('By Round'!I50),"",'By Round'!I50)</f>
         <v/>
       </c>
       <c r="J31">
-        <f>IF(ISBLANK('By Round'!J42),"",'By Round'!J42)</f>
+        <f>IF(ISBLANK('By Round'!J50),"",'By Round'!J50)</f>
         <v/>
       </c>
       <c r="K31">
-        <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
+        <f>IF(ISBLANK('By Round'!K50),"",'By Round'!K50)</f>
         <v/>
       </c>
       <c r="L31" s="12">
-        <f>SUM(AB31:AE31)</f>
+        <f>AVERAGE(AB31:AE31)</f>
         <v/>
       </c>
       <c r="M31" s="13">
-        <f>SUM(AF31:AI31)</f>
+        <f>AVERAGE(AF31:AI31)</f>
         <v/>
       </c>
       <c r="N31" s="8">
@@ -5124,51 +5124,51 @@
     <row r="32">
       <c r="A32" s="15" t="n"/>
       <c r="B32" s="16">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A33</f>
         <v/>
       </c>
       <c r="C32" s="16">
-        <f>'By Round'!B49</f>
+        <f>'By Round'!B41</f>
         <v/>
       </c>
       <c r="D32" s="16">
-        <f>'By Round'!C49</f>
+        <f>'By Round'!C41</f>
         <v/>
       </c>
       <c r="E32" s="16">
-        <f>'By Round'!D49</f>
+        <f>'By Round'!D41</f>
         <v/>
       </c>
       <c r="F32" s="16">
-        <f>IF(ISBLANK('By Round'!F50),"",'By Round'!F50)</f>
+        <f>IF(ISBLANK('By Round'!F42),"",'By Round'!F42)</f>
         <v/>
       </c>
       <c r="G32" s="15">
-        <f>IF(ISBLANK('By Round'!G50),"",'By Round'!G50)</f>
+        <f>IF(ISBLANK('By Round'!G42),"",'By Round'!G42)</f>
         <v/>
       </c>
       <c r="H32" s="15">
-        <f>IF(ISBLANK('By Round'!H50),"",'By Round'!H50)</f>
+        <f>IF(ISBLANK('By Round'!H42),"",'By Round'!H42)</f>
         <v/>
       </c>
       <c r="I32" s="15">
-        <f>IF(ISBLANK('By Round'!I50),"",'By Round'!I50)</f>
+        <f>IF(ISBLANK('By Round'!I42),"",'By Round'!I42)</f>
         <v/>
       </c>
       <c r="J32" s="15">
-        <f>IF(ISBLANK('By Round'!J50),"",'By Round'!J50)</f>
+        <f>IF(ISBLANK('By Round'!J42),"",'By Round'!J42)</f>
         <v/>
       </c>
       <c r="K32" s="15">
-        <f>IF(ISBLANK('By Round'!K50),"",'By Round'!K50)</f>
+        <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
         <v/>
       </c>
       <c r="L32" s="17">
-        <f>SUM(AB32:AE32)</f>
+        <f>AVERAGE(AB32:AE32)</f>
         <v/>
       </c>
       <c r="M32" s="18">
-        <f>SUM(AF32:AI32)</f>
+        <f>AVERAGE(AF32:AI32)</f>
         <v/>
       </c>
       <c r="N32" s="19">
@@ -5265,51 +5265,51 @@
         <v>7</v>
       </c>
       <c r="B33" s="11">
-        <f>'By Round'!A13</f>
+        <f>'By Round'!A33</f>
         <v/>
       </c>
       <c r="C33" s="11">
-        <f>'By Round'!B17</f>
+        <f>'By Round'!B33</f>
         <v/>
       </c>
       <c r="D33" s="11">
-        <f>'By Round'!C17</f>
+        <f>'By Round'!C33</f>
         <v/>
       </c>
       <c r="E33" s="11">
-        <f>'By Round'!D17</f>
+        <f>'By Round'!D33</f>
         <v/>
       </c>
       <c r="F33" s="11">
-        <f>IF(ISBLANK('By Round'!F17),"",'By Round'!F17)</f>
+        <f>IF(ISBLANK('By Round'!F33),"",'By Round'!F33)</f>
         <v/>
       </c>
       <c r="G33">
-        <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
+        <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
         <v/>
       </c>
       <c r="H33">
-        <f>IF(ISBLANK('By Round'!H17),"",'By Round'!H17)</f>
+        <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
         <v/>
       </c>
       <c r="I33">
-        <f>IF(ISBLANK('By Round'!I17),"",'By Round'!I17)</f>
+        <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
         <v/>
       </c>
       <c r="J33">
-        <f>IF(ISBLANK('By Round'!J17),"",'By Round'!J17)</f>
+        <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
         <v/>
       </c>
       <c r="K33">
-        <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
+        <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
         <v/>
       </c>
       <c r="L33" s="12">
-        <f>SUM(AB33:AE33)</f>
+        <f>AVERAGE(AB33:AE33)</f>
         <v/>
       </c>
       <c r="M33" s="13">
-        <f>SUM(AF33:AI33)</f>
+        <f>AVERAGE(AF33:AI33)</f>
         <v/>
       </c>
       <c r="N33" s="8">
@@ -5443,11 +5443,11 @@
         <v/>
       </c>
       <c r="L34" s="12">
-        <f>SUM(AB34:AE34)</f>
+        <f>AVERAGE(AB34:AE34)</f>
         <v/>
       </c>
       <c r="M34" s="13">
-        <f>SUM(AF34:AI34)</f>
+        <f>AVERAGE(AF34:AI34)</f>
         <v/>
       </c>
       <c r="N34" s="8">
@@ -5541,51 +5541,51 @@
     </row>
     <row r="35">
       <c r="B35" s="11">
-        <f>'By Round'!A33</f>
+        <f>'By Round'!A13</f>
         <v/>
       </c>
       <c r="C35" s="11">
-        <f>'By Round'!B33</f>
+        <f>'By Round'!B17</f>
         <v/>
       </c>
       <c r="D35" s="11">
-        <f>'By Round'!C33</f>
+        <f>'By Round'!C17</f>
         <v/>
       </c>
       <c r="E35" s="11">
-        <f>'By Round'!D33</f>
+        <f>'By Round'!D17</f>
         <v/>
       </c>
       <c r="F35" s="11">
-        <f>IF(ISBLANK('By Round'!F33),"",'By Round'!F33)</f>
+        <f>IF(ISBLANK('By Round'!F17),"",'By Round'!F17)</f>
         <v/>
       </c>
       <c r="G35">
-        <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
+        <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
         <v/>
       </c>
       <c r="H35">
-        <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
+        <f>IF(ISBLANK('By Round'!H17),"",'By Round'!H17)</f>
         <v/>
       </c>
       <c r="I35">
-        <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
+        <f>IF(ISBLANK('By Round'!I17),"",'By Round'!I17)</f>
         <v/>
       </c>
       <c r="J35">
-        <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
+        <f>IF(ISBLANK('By Round'!J17),"",'By Round'!J17)</f>
         <v/>
       </c>
       <c r="K35">
-        <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
+        <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
         <v/>
       </c>
       <c r="L35" s="12">
-        <f>SUM(AB35:AE35)</f>
+        <f>AVERAGE(AB35:AE35)</f>
         <v/>
       </c>
       <c r="M35" s="13">
-        <f>SUM(AF35:AI35)</f>
+        <f>AVERAGE(AF35:AI35)</f>
         <v/>
       </c>
       <c r="N35" s="8">
@@ -5679,51 +5679,51 @@
     </row>
     <row r="36">
       <c r="B36" s="11">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A53</f>
         <v/>
       </c>
       <c r="C36" s="11">
-        <f>'By Round'!B51</f>
+        <f>'By Round'!B59</f>
         <v/>
       </c>
       <c r="D36" s="11">
-        <f>'By Round'!C51</f>
+        <f>'By Round'!C59</f>
         <v/>
       </c>
       <c r="E36" s="11">
-        <f>'By Round'!D51</f>
+        <f>'By Round'!D59</f>
         <v/>
       </c>
       <c r="F36" s="11">
-        <f>IF(ISBLANK('By Round'!F51),"",'By Round'!F51)</f>
+        <f>IF(ISBLANK('By Round'!F59),"",'By Round'!F59)</f>
         <v/>
       </c>
       <c r="G36">
-        <f>IF(ISBLANK('By Round'!G51),"",'By Round'!G51)</f>
+        <f>IF(ISBLANK('By Round'!G59),"",'By Round'!G59)</f>
         <v/>
       </c>
       <c r="H36">
-        <f>IF(ISBLANK('By Round'!H51),"",'By Round'!H51)</f>
+        <f>IF(ISBLANK('By Round'!H59),"",'By Round'!H59)</f>
         <v/>
       </c>
       <c r="I36">
-        <f>IF(ISBLANK('By Round'!I51),"",'By Round'!I51)</f>
+        <f>IF(ISBLANK('By Round'!I59),"",'By Round'!I59)</f>
         <v/>
       </c>
       <c r="J36">
-        <f>IF(ISBLANK('By Round'!J51),"",'By Round'!J51)</f>
+        <f>IF(ISBLANK('By Round'!J59),"",'By Round'!J59)</f>
         <v/>
       </c>
       <c r="K36">
-        <f>IF(ISBLANK('By Round'!K51),"",'By Round'!K51)</f>
+        <f>IF(ISBLANK('By Round'!K59),"",'By Round'!K59)</f>
         <v/>
       </c>
       <c r="L36" s="12">
-        <f>SUM(AB36:AE36)</f>
+        <f>AVERAGE(AB36:AE36)</f>
         <v/>
       </c>
       <c r="M36" s="13">
-        <f>SUM(AF36:AI36)</f>
+        <f>AVERAGE(AF36:AI36)</f>
         <v/>
       </c>
       <c r="N36" s="8">
@@ -5818,51 +5818,51 @@
     <row r="37">
       <c r="A37" s="15" t="n"/>
       <c r="B37" s="16">
-        <f>'By Round'!A53</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C37" s="16">
-        <f>'By Round'!B59</f>
+        <f>'By Round'!B51</f>
         <v/>
       </c>
       <c r="D37" s="16">
-        <f>'By Round'!C59</f>
+        <f>'By Round'!C51</f>
         <v/>
       </c>
       <c r="E37" s="16">
-        <f>'By Round'!D59</f>
+        <f>'By Round'!D51</f>
         <v/>
       </c>
       <c r="F37" s="16">
-        <f>IF(ISBLANK('By Round'!F59),"",'By Round'!F59)</f>
+        <f>IF(ISBLANK('By Round'!F51),"",'By Round'!F51)</f>
         <v/>
       </c>
       <c r="G37" s="15">
-        <f>IF(ISBLANK('By Round'!G59),"",'By Round'!G59)</f>
+        <f>IF(ISBLANK('By Round'!G51),"",'By Round'!G51)</f>
         <v/>
       </c>
       <c r="H37" s="15">
-        <f>IF(ISBLANK('By Round'!H59),"",'By Round'!H59)</f>
+        <f>IF(ISBLANK('By Round'!H51),"",'By Round'!H51)</f>
         <v/>
       </c>
       <c r="I37" s="15">
-        <f>IF(ISBLANK('By Round'!I59),"",'By Round'!I59)</f>
+        <f>IF(ISBLANK('By Round'!I51),"",'By Round'!I51)</f>
         <v/>
       </c>
       <c r="J37" s="15">
-        <f>IF(ISBLANK('By Round'!J59),"",'By Round'!J59)</f>
+        <f>IF(ISBLANK('By Round'!J51),"",'By Round'!J51)</f>
         <v/>
       </c>
       <c r="K37" s="15">
-        <f>IF(ISBLANK('By Round'!K59),"",'By Round'!K59)</f>
+        <f>IF(ISBLANK('By Round'!K51),"",'By Round'!K51)</f>
         <v/>
       </c>
       <c r="L37" s="17">
-        <f>SUM(AB37:AE37)</f>
+        <f>AVERAGE(AB37:AE37)</f>
         <v/>
       </c>
       <c r="M37" s="18">
-        <f>SUM(AF37:AI37)</f>
+        <f>AVERAGE(AF37:AI37)</f>
         <v/>
       </c>
       <c r="N37" s="19">
@@ -5959,51 +5959,51 @@
         <v>8</v>
       </c>
       <c r="B38" s="11">
-        <f>'By Round'!A13</f>
+        <f>'By Round'!A33</f>
         <v/>
       </c>
       <c r="C38" s="11">
-        <f>'By Round'!B17</f>
+        <f>'By Round'!B33</f>
         <v/>
       </c>
       <c r="D38" s="11">
-        <f>'By Round'!C17</f>
+        <f>'By Round'!C33</f>
         <v/>
       </c>
       <c r="E38" s="11">
-        <f>'By Round'!D17</f>
+        <f>'By Round'!D33</f>
         <v/>
       </c>
       <c r="F38" s="11">
-        <f>IF(ISBLANK('By Round'!F18),"",'By Round'!F18)</f>
+        <f>IF(ISBLANK('By Round'!F34),"",'By Round'!F34)</f>
         <v/>
       </c>
       <c r="G38">
-        <f>IF(ISBLANK('By Round'!G18),"",'By Round'!G18)</f>
+        <f>IF(ISBLANK('By Round'!G34),"",'By Round'!G34)</f>
         <v/>
       </c>
       <c r="H38">
-        <f>IF(ISBLANK('By Round'!H18),"",'By Round'!H18)</f>
+        <f>IF(ISBLANK('By Round'!H34),"",'By Round'!H34)</f>
         <v/>
       </c>
       <c r="I38">
-        <f>IF(ISBLANK('By Round'!I18),"",'By Round'!I18)</f>
+        <f>IF(ISBLANK('By Round'!I34),"",'By Round'!I34)</f>
         <v/>
       </c>
       <c r="J38">
-        <f>IF(ISBLANK('By Round'!J18),"",'By Round'!J18)</f>
+        <f>IF(ISBLANK('By Round'!J34),"",'By Round'!J34)</f>
         <v/>
       </c>
       <c r="K38">
-        <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
+        <f>IF(ISBLANK('By Round'!K34),"",'By Round'!K34)</f>
         <v/>
       </c>
       <c r="L38" s="12">
-        <f>SUM(AB38:AE38)</f>
+        <f>AVERAGE(AB38:AE38)</f>
         <v/>
       </c>
       <c r="M38" s="13">
-        <f>SUM(AF38:AI38)</f>
+        <f>AVERAGE(AF38:AI38)</f>
         <v/>
       </c>
       <c r="N38" s="8">
@@ -6137,11 +6137,11 @@
         <v/>
       </c>
       <c r="L39" s="12">
-        <f>SUM(AB39:AE39)</f>
+        <f>AVERAGE(AB39:AE39)</f>
         <v/>
       </c>
       <c r="M39" s="13">
-        <f>SUM(AF39:AI39)</f>
+        <f>AVERAGE(AF39:AI39)</f>
         <v/>
       </c>
       <c r="N39" s="8">
@@ -6235,51 +6235,51 @@
     </row>
     <row r="40">
       <c r="B40" s="11">
-        <f>'By Round'!A33</f>
+        <f>'By Round'!A13</f>
         <v/>
       </c>
       <c r="C40" s="11">
-        <f>'By Round'!B33</f>
+        <f>'By Round'!B17</f>
         <v/>
       </c>
       <c r="D40" s="11">
-        <f>'By Round'!C33</f>
+        <f>'By Round'!C17</f>
         <v/>
       </c>
       <c r="E40" s="11">
-        <f>'By Round'!D33</f>
+        <f>'By Round'!D17</f>
         <v/>
       </c>
       <c r="F40" s="11">
-        <f>IF(ISBLANK('By Round'!F34),"",'By Round'!F34)</f>
+        <f>IF(ISBLANK('By Round'!F18),"",'By Round'!F18)</f>
         <v/>
       </c>
       <c r="G40">
-        <f>IF(ISBLANK('By Round'!G34),"",'By Round'!G34)</f>
+        <f>IF(ISBLANK('By Round'!G18),"",'By Round'!G18)</f>
         <v/>
       </c>
       <c r="H40">
-        <f>IF(ISBLANK('By Round'!H34),"",'By Round'!H34)</f>
+        <f>IF(ISBLANK('By Round'!H18),"",'By Round'!H18)</f>
         <v/>
       </c>
       <c r="I40">
-        <f>IF(ISBLANK('By Round'!I34),"",'By Round'!I34)</f>
+        <f>IF(ISBLANK('By Round'!I18),"",'By Round'!I18)</f>
         <v/>
       </c>
       <c r="J40">
-        <f>IF(ISBLANK('By Round'!J34),"",'By Round'!J34)</f>
+        <f>IF(ISBLANK('By Round'!J18),"",'By Round'!J18)</f>
         <v/>
       </c>
       <c r="K40">
-        <f>IF(ISBLANK('By Round'!K34),"",'By Round'!K34)</f>
+        <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
         <v/>
       </c>
       <c r="L40" s="12">
-        <f>SUM(AB40:AE40)</f>
+        <f>AVERAGE(AB40:AE40)</f>
         <v/>
       </c>
       <c r="M40" s="13">
-        <f>SUM(AF40:AI40)</f>
+        <f>AVERAGE(AF40:AI40)</f>
         <v/>
       </c>
       <c r="N40" s="8">
@@ -6373,51 +6373,51 @@
     </row>
     <row r="41">
       <c r="B41" s="11">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A53</f>
         <v/>
       </c>
       <c r="C41" s="11">
-        <f>'By Round'!B51</f>
+        <f>'By Round'!B59</f>
         <v/>
       </c>
       <c r="D41" s="11">
-        <f>'By Round'!C51</f>
+        <f>'By Round'!C59</f>
         <v/>
       </c>
       <c r="E41" s="11">
-        <f>'By Round'!D51</f>
+        <f>'By Round'!D59</f>
         <v/>
       </c>
       <c r="F41" s="11">
-        <f>IF(ISBLANK('By Round'!F52),"",'By Round'!F52)</f>
+        <f>IF(ISBLANK('By Round'!F60),"",'By Round'!F60)</f>
         <v/>
       </c>
       <c r="G41">
-        <f>IF(ISBLANK('By Round'!G52),"",'By Round'!G52)</f>
+        <f>IF(ISBLANK('By Round'!G60),"",'By Round'!G60)</f>
         <v/>
       </c>
       <c r="H41">
-        <f>IF(ISBLANK('By Round'!H52),"",'By Round'!H52)</f>
+        <f>IF(ISBLANK('By Round'!H60),"",'By Round'!H60)</f>
         <v/>
       </c>
       <c r="I41">
-        <f>IF(ISBLANK('By Round'!I52),"",'By Round'!I52)</f>
+        <f>IF(ISBLANK('By Round'!I60),"",'By Round'!I60)</f>
         <v/>
       </c>
       <c r="J41">
-        <f>IF(ISBLANK('By Round'!J52),"",'By Round'!J52)</f>
+        <f>IF(ISBLANK('By Round'!J60),"",'By Round'!J60)</f>
         <v/>
       </c>
       <c r="K41">
-        <f>IF(ISBLANK('By Round'!K52),"",'By Round'!K52)</f>
+        <f>IF(ISBLANK('By Round'!K60),"",'By Round'!K60)</f>
         <v/>
       </c>
       <c r="L41" s="12">
-        <f>SUM(AB41:AE41)</f>
+        <f>AVERAGE(AB41:AE41)</f>
         <v/>
       </c>
       <c r="M41" s="13">
-        <f>SUM(AF41:AI41)</f>
+        <f>AVERAGE(AF41:AI41)</f>
         <v/>
       </c>
       <c r="N41" s="8">
@@ -6512,51 +6512,51 @@
     <row r="42">
       <c r="A42" s="15" t="n"/>
       <c r="B42" s="16">
-        <f>'By Round'!A53</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C42" s="16">
-        <f>'By Round'!B59</f>
+        <f>'By Round'!B51</f>
         <v/>
       </c>
       <c r="D42" s="16">
-        <f>'By Round'!C59</f>
+        <f>'By Round'!C51</f>
         <v/>
       </c>
       <c r="E42" s="16">
-        <f>'By Round'!D59</f>
+        <f>'By Round'!D51</f>
         <v/>
       </c>
       <c r="F42" s="16">
-        <f>IF(ISBLANK('By Round'!F60),"",'By Round'!F60)</f>
+        <f>IF(ISBLANK('By Round'!F52),"",'By Round'!F52)</f>
         <v/>
       </c>
       <c r="G42" s="15">
-        <f>IF(ISBLANK('By Round'!G60),"",'By Round'!G60)</f>
+        <f>IF(ISBLANK('By Round'!G52),"",'By Round'!G52)</f>
         <v/>
       </c>
       <c r="H42" s="15">
-        <f>IF(ISBLANK('By Round'!H60),"",'By Round'!H60)</f>
+        <f>IF(ISBLANK('By Round'!H52),"",'By Round'!H52)</f>
         <v/>
       </c>
       <c r="I42" s="15">
-        <f>IF(ISBLANK('By Round'!I60),"",'By Round'!I60)</f>
+        <f>IF(ISBLANK('By Round'!I52),"",'By Round'!I52)</f>
         <v/>
       </c>
       <c r="J42" s="15">
-        <f>IF(ISBLANK('By Round'!J60),"",'By Round'!J60)</f>
+        <f>IF(ISBLANK('By Round'!J52),"",'By Round'!J52)</f>
         <v/>
       </c>
       <c r="K42" s="15">
-        <f>IF(ISBLANK('By Round'!K60),"",'By Round'!K60)</f>
+        <f>IF(ISBLANK('By Round'!K52),"",'By Round'!K52)</f>
         <v/>
       </c>
       <c r="L42" s="17">
-        <f>SUM(AB42:AE42)</f>
+        <f>AVERAGE(AB42:AE42)</f>
         <v/>
       </c>
       <c r="M42" s="18">
-        <f>SUM(AF42:AI42)</f>
+        <f>AVERAGE(AF42:AI42)</f>
         <v/>
       </c>
       <c r="N42" s="19">
@@ -6653,51 +6653,51 @@
         <v>9</v>
       </c>
       <c r="B43" s="11">
-        <f>'By Round'!A23</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C43" s="11">
-        <f>'By Round'!B27</f>
+        <f>'By Round'!B43</f>
         <v/>
       </c>
       <c r="D43" s="11">
-        <f>'By Round'!C27</f>
+        <f>'By Round'!C43</f>
         <v/>
       </c>
       <c r="E43" s="11">
-        <f>'By Round'!D27</f>
+        <f>'By Round'!D43</f>
         <v/>
       </c>
       <c r="F43" s="11">
-        <f>IF(ISBLANK('By Round'!F27),"",'By Round'!F27)</f>
+        <f>IF(ISBLANK('By Round'!F43),"",'By Round'!F43)</f>
         <v/>
       </c>
       <c r="G43">
-        <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
+        <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
         <v/>
       </c>
       <c r="H43">
-        <f>IF(ISBLANK('By Round'!H27),"",'By Round'!H27)</f>
+        <f>IF(ISBLANK('By Round'!H43),"",'By Round'!H43)</f>
         <v/>
       </c>
       <c r="I43">
-        <f>IF(ISBLANK('By Round'!I27),"",'By Round'!I27)</f>
+        <f>IF(ISBLANK('By Round'!I43),"",'By Round'!I43)</f>
         <v/>
       </c>
       <c r="J43">
-        <f>IF(ISBLANK('By Round'!J27),"",'By Round'!J27)</f>
+        <f>IF(ISBLANK('By Round'!J43),"",'By Round'!J43)</f>
         <v/>
       </c>
       <c r="K43">
-        <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
+        <f>IF(ISBLANK('By Round'!K43),"",'By Round'!K43)</f>
         <v/>
       </c>
       <c r="L43" s="12">
-        <f>SUM(AB43:AE43)</f>
+        <f>AVERAGE(AB43:AE43)</f>
         <v/>
       </c>
       <c r="M43" s="13">
-        <f>SUM(AF43:AI43)</f>
+        <f>AVERAGE(AF43:AI43)</f>
         <v/>
       </c>
       <c r="N43" s="8">
@@ -6791,51 +6791,51 @@
     </row>
     <row r="44">
       <c r="B44" s="11">
-        <f>'By Round'!A33</f>
+        <f>'By Round'!A53</f>
         <v/>
       </c>
       <c r="C44" s="11">
-        <f>'By Round'!B35</f>
+        <f>'By Round'!B61</f>
         <v/>
       </c>
       <c r="D44" s="11">
-        <f>'By Round'!C35</f>
+        <f>'By Round'!C61</f>
         <v/>
       </c>
       <c r="E44" s="11">
-        <f>'By Round'!D35</f>
+        <f>'By Round'!D61</f>
         <v/>
       </c>
       <c r="F44" s="11">
-        <f>IF(ISBLANK('By Round'!F35),"",'By Round'!F35)</f>
+        <f>IF(ISBLANK('By Round'!F61),"",'By Round'!F61)</f>
         <v/>
       </c>
       <c r="G44">
-        <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
+        <f>IF(ISBLANK('By Round'!G61),"",'By Round'!G61)</f>
         <v/>
       </c>
       <c r="H44">
-        <f>IF(ISBLANK('By Round'!H35),"",'By Round'!H35)</f>
+        <f>IF(ISBLANK('By Round'!H61),"",'By Round'!H61)</f>
         <v/>
       </c>
       <c r="I44">
-        <f>IF(ISBLANK('By Round'!I35),"",'By Round'!I35)</f>
+        <f>IF(ISBLANK('By Round'!I61),"",'By Round'!I61)</f>
         <v/>
       </c>
       <c r="J44">
-        <f>IF(ISBLANK('By Round'!J35),"",'By Round'!J35)</f>
+        <f>IF(ISBLANK('By Round'!J61),"",'By Round'!J61)</f>
         <v/>
       </c>
       <c r="K44">
-        <f>IF(ISBLANK('By Round'!K35),"",'By Round'!K35)</f>
+        <f>IF(ISBLANK('By Round'!K61),"",'By Round'!K61)</f>
         <v/>
       </c>
       <c r="L44" s="12">
-        <f>SUM(AB44:AE44)</f>
+        <f>AVERAGE(AB44:AE44)</f>
         <v/>
       </c>
       <c r="M44" s="13">
-        <f>SUM(AF44:AI44)</f>
+        <f>AVERAGE(AF44:AI44)</f>
         <v/>
       </c>
       <c r="N44" s="8">
@@ -6929,51 +6929,51 @@
     </row>
     <row r="45">
       <c r="B45" s="11">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A33</f>
         <v/>
       </c>
       <c r="C45" s="11">
-        <f>'By Round'!B43</f>
+        <f>'By Round'!B35</f>
         <v/>
       </c>
       <c r="D45" s="11">
-        <f>'By Round'!C43</f>
+        <f>'By Round'!C35</f>
         <v/>
       </c>
       <c r="E45" s="11">
-        <f>'By Round'!D43</f>
+        <f>'By Round'!D35</f>
         <v/>
       </c>
       <c r="F45" s="11">
-        <f>IF(ISBLANK('By Round'!F43),"",'By Round'!F43)</f>
+        <f>IF(ISBLANK('By Round'!F35),"",'By Round'!F35)</f>
         <v/>
       </c>
       <c r="G45">
-        <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
+        <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
         <v/>
       </c>
       <c r="H45">
-        <f>IF(ISBLANK('By Round'!H43),"",'By Round'!H43)</f>
+        <f>IF(ISBLANK('By Round'!H35),"",'By Round'!H35)</f>
         <v/>
       </c>
       <c r="I45">
-        <f>IF(ISBLANK('By Round'!I43),"",'By Round'!I43)</f>
+        <f>IF(ISBLANK('By Round'!I35),"",'By Round'!I35)</f>
         <v/>
       </c>
       <c r="J45">
-        <f>IF(ISBLANK('By Round'!J43),"",'By Round'!J43)</f>
+        <f>IF(ISBLANK('By Round'!J35),"",'By Round'!J35)</f>
         <v/>
       </c>
       <c r="K45">
-        <f>IF(ISBLANK('By Round'!K43),"",'By Round'!K43)</f>
+        <f>IF(ISBLANK('By Round'!K35),"",'By Round'!K35)</f>
         <v/>
       </c>
       <c r="L45" s="12">
-        <f>SUM(AB45:AE45)</f>
+        <f>AVERAGE(AB45:AE45)</f>
         <v/>
       </c>
       <c r="M45" s="13">
-        <f>SUM(AF45:AI45)</f>
+        <f>AVERAGE(AF45:AI45)</f>
         <v/>
       </c>
       <c r="N45" s="8">
@@ -7067,51 +7067,51 @@
     </row>
     <row r="46">
       <c r="B46" s="11">
-        <f>'By Round'!A53</f>
+        <f>'By Round'!A23</f>
         <v/>
       </c>
       <c r="C46" s="11">
-        <f>'By Round'!B61</f>
+        <f>'By Round'!B27</f>
         <v/>
       </c>
       <c r="D46" s="11">
-        <f>'By Round'!C61</f>
+        <f>'By Round'!C27</f>
         <v/>
       </c>
       <c r="E46" s="11">
-        <f>'By Round'!D61</f>
+        <f>'By Round'!D27</f>
         <v/>
       </c>
       <c r="F46" s="11">
-        <f>IF(ISBLANK('By Round'!F61),"",'By Round'!F61)</f>
+        <f>IF(ISBLANK('By Round'!F27),"",'By Round'!F27)</f>
         <v/>
       </c>
       <c r="G46">
-        <f>IF(ISBLANK('By Round'!G61),"",'By Round'!G61)</f>
+        <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
         <v/>
       </c>
       <c r="H46">
-        <f>IF(ISBLANK('By Round'!H61),"",'By Round'!H61)</f>
+        <f>IF(ISBLANK('By Round'!H27),"",'By Round'!H27)</f>
         <v/>
       </c>
       <c r="I46">
-        <f>IF(ISBLANK('By Round'!I61),"",'By Round'!I61)</f>
+        <f>IF(ISBLANK('By Round'!I27),"",'By Round'!I27)</f>
         <v/>
       </c>
       <c r="J46">
-        <f>IF(ISBLANK('By Round'!J61),"",'By Round'!J61)</f>
+        <f>IF(ISBLANK('By Round'!J27),"",'By Round'!J27)</f>
         <v/>
       </c>
       <c r="K46">
-        <f>IF(ISBLANK('By Round'!K61),"",'By Round'!K61)</f>
+        <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
         <v/>
       </c>
       <c r="L46" s="12">
-        <f>SUM(AB46:AE46)</f>
+        <f>AVERAGE(AB46:AE46)</f>
         <v/>
       </c>
       <c r="M46" s="13">
-        <f>SUM(AF46:AI46)</f>
+        <f>AVERAGE(AF46:AI46)</f>
         <v/>
       </c>
       <c r="N46" s="8">
@@ -7246,11 +7246,11 @@
         <v/>
       </c>
       <c r="L47" s="17">
-        <f>SUM(AB47:AE47)</f>
+        <f>AVERAGE(AB47:AE47)</f>
         <v/>
       </c>
       <c r="M47" s="18">
-        <f>SUM(AF47:AI47)</f>
+        <f>AVERAGE(AF47:AI47)</f>
         <v/>
       </c>
       <c r="N47" s="19">
@@ -7347,51 +7347,51 @@
         <v>10</v>
       </c>
       <c r="B48" s="11">
-        <f>'By Round'!A23</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C48" s="11">
-        <f>'By Round'!B27</f>
+        <f>'By Round'!B43</f>
         <v/>
       </c>
       <c r="D48" s="11">
-        <f>'By Round'!C27</f>
+        <f>'By Round'!C43</f>
         <v/>
       </c>
       <c r="E48" s="11">
-        <f>'By Round'!D27</f>
+        <f>'By Round'!D43</f>
         <v/>
       </c>
       <c r="F48" s="11">
-        <f>IF(ISBLANK('By Round'!F28),"",'By Round'!F28)</f>
+        <f>IF(ISBLANK('By Round'!F44),"",'By Round'!F44)</f>
         <v/>
       </c>
       <c r="G48">
-        <f>IF(ISBLANK('By Round'!G28),"",'By Round'!G28)</f>
+        <f>IF(ISBLANK('By Round'!G44),"",'By Round'!G44)</f>
         <v/>
       </c>
       <c r="H48">
-        <f>IF(ISBLANK('By Round'!H28),"",'By Round'!H28)</f>
+        <f>IF(ISBLANK('By Round'!H44),"",'By Round'!H44)</f>
         <v/>
       </c>
       <c r="I48">
-        <f>IF(ISBLANK('By Round'!I28),"",'By Round'!I28)</f>
+        <f>IF(ISBLANK('By Round'!I44),"",'By Round'!I44)</f>
         <v/>
       </c>
       <c r="J48">
-        <f>IF(ISBLANK('By Round'!J28),"",'By Round'!J28)</f>
+        <f>IF(ISBLANK('By Round'!J44),"",'By Round'!J44)</f>
         <v/>
       </c>
       <c r="K48">
-        <f>IF(ISBLANK('By Round'!K28),"",'By Round'!K28)</f>
+        <f>IF(ISBLANK('By Round'!K44),"",'By Round'!K44)</f>
         <v/>
       </c>
       <c r="L48" s="12">
-        <f>SUM(AB48:AE48)</f>
+        <f>AVERAGE(AB48:AE48)</f>
         <v/>
       </c>
       <c r="M48" s="13">
-        <f>SUM(AF48:AI48)</f>
+        <f>AVERAGE(AF48:AI48)</f>
         <v/>
       </c>
       <c r="N48" s="8">
@@ -7485,51 +7485,51 @@
     </row>
     <row r="49">
       <c r="B49" s="11">
-        <f>'By Round'!A33</f>
+        <f>'By Round'!A53</f>
         <v/>
       </c>
       <c r="C49" s="11">
-        <f>'By Round'!B35</f>
+        <f>'By Round'!B61</f>
         <v/>
       </c>
       <c r="D49" s="11">
-        <f>'By Round'!C35</f>
+        <f>'By Round'!C61</f>
         <v/>
       </c>
       <c r="E49" s="11">
-        <f>'By Round'!D35</f>
+        <f>'By Round'!D61</f>
         <v/>
       </c>
       <c r="F49" s="11">
-        <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
+        <f>IF(ISBLANK('By Round'!F62),"",'By Round'!F62)</f>
         <v/>
       </c>
       <c r="G49">
-        <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
+        <f>IF(ISBLANK('By Round'!G62),"",'By Round'!G62)</f>
         <v/>
       </c>
       <c r="H49">
-        <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
+        <f>IF(ISBLANK('By Round'!H62),"",'By Round'!H62)</f>
         <v/>
       </c>
       <c r="I49">
-        <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
+        <f>IF(ISBLANK('By Round'!I62),"",'By Round'!I62)</f>
         <v/>
       </c>
       <c r="J49">
-        <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
+        <f>IF(ISBLANK('By Round'!J62),"",'By Round'!J62)</f>
         <v/>
       </c>
       <c r="K49">
-        <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
+        <f>IF(ISBLANK('By Round'!K62),"",'By Round'!K62)</f>
         <v/>
       </c>
       <c r="L49" s="12">
-        <f>SUM(AB49:AE49)</f>
+        <f>AVERAGE(AB49:AE49)</f>
         <v/>
       </c>
       <c r="M49" s="13">
-        <f>SUM(AF49:AI49)</f>
+        <f>AVERAGE(AF49:AI49)</f>
         <v/>
       </c>
       <c r="N49" s="8">
@@ -7623,51 +7623,51 @@
     </row>
     <row r="50">
       <c r="B50" s="11">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A33</f>
         <v/>
       </c>
       <c r="C50" s="11">
-        <f>'By Round'!B43</f>
+        <f>'By Round'!B35</f>
         <v/>
       </c>
       <c r="D50" s="11">
-        <f>'By Round'!C43</f>
+        <f>'By Round'!C35</f>
         <v/>
       </c>
       <c r="E50" s="11">
-        <f>'By Round'!D43</f>
+        <f>'By Round'!D35</f>
         <v/>
       </c>
       <c r="F50" s="11">
-        <f>IF(ISBLANK('By Round'!F44),"",'By Round'!F44)</f>
+        <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
         <v/>
       </c>
       <c r="G50">
-        <f>IF(ISBLANK('By Round'!G44),"",'By Round'!G44)</f>
+        <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
         <v/>
       </c>
       <c r="H50">
-        <f>IF(ISBLANK('By Round'!H44),"",'By Round'!H44)</f>
+        <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
         <v/>
       </c>
       <c r="I50">
-        <f>IF(ISBLANK('By Round'!I44),"",'By Round'!I44)</f>
+        <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
         <v/>
       </c>
       <c r="J50">
-        <f>IF(ISBLANK('By Round'!J44),"",'By Round'!J44)</f>
+        <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
         <v/>
       </c>
       <c r="K50">
-        <f>IF(ISBLANK('By Round'!K44),"",'By Round'!K44)</f>
+        <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
         <v/>
       </c>
       <c r="L50" s="12">
-        <f>SUM(AB50:AE50)</f>
+        <f>AVERAGE(AB50:AE50)</f>
         <v/>
       </c>
       <c r="M50" s="13">
-        <f>SUM(AF50:AI50)</f>
+        <f>AVERAGE(AF50:AI50)</f>
         <v/>
       </c>
       <c r="N50" s="8">
@@ -7761,51 +7761,51 @@
     </row>
     <row r="51">
       <c r="B51" s="11">
-        <f>'By Round'!A53</f>
+        <f>'By Round'!A23</f>
         <v/>
       </c>
       <c r="C51" s="11">
-        <f>'By Round'!B61</f>
+        <f>'By Round'!B27</f>
         <v/>
       </c>
       <c r="D51" s="11">
-        <f>'By Round'!C61</f>
+        <f>'By Round'!C27</f>
         <v/>
       </c>
       <c r="E51" s="11">
-        <f>'By Round'!D61</f>
+        <f>'By Round'!D27</f>
         <v/>
       </c>
       <c r="F51" s="11">
-        <f>IF(ISBLANK('By Round'!F62),"",'By Round'!F62)</f>
+        <f>IF(ISBLANK('By Round'!F28),"",'By Round'!F28)</f>
         <v/>
       </c>
       <c r="G51">
-        <f>IF(ISBLANK('By Round'!G62),"",'By Round'!G62)</f>
+        <f>IF(ISBLANK('By Round'!G28),"",'By Round'!G28)</f>
         <v/>
       </c>
       <c r="H51">
-        <f>IF(ISBLANK('By Round'!H62),"",'By Round'!H62)</f>
+        <f>IF(ISBLANK('By Round'!H28),"",'By Round'!H28)</f>
         <v/>
       </c>
       <c r="I51">
-        <f>IF(ISBLANK('By Round'!I62),"",'By Round'!I62)</f>
+        <f>IF(ISBLANK('By Round'!I28),"",'By Round'!I28)</f>
         <v/>
       </c>
       <c r="J51">
-        <f>IF(ISBLANK('By Round'!J62),"",'By Round'!J62)</f>
+        <f>IF(ISBLANK('By Round'!J28),"",'By Round'!J28)</f>
         <v/>
       </c>
       <c r="K51">
-        <f>IF(ISBLANK('By Round'!K62),"",'By Round'!K62)</f>
+        <f>IF(ISBLANK('By Round'!K28),"",'By Round'!K28)</f>
         <v/>
       </c>
       <c r="L51" s="12">
-        <f>SUM(AB51:AE51)</f>
+        <f>AVERAGE(AB51:AE51)</f>
         <v/>
       </c>
       <c r="M51" s="13">
-        <f>SUM(AF51:AI51)</f>
+        <f>AVERAGE(AF51:AI51)</f>
         <v/>
       </c>
       <c r="N51" s="8">
@@ -7940,11 +7940,11 @@
         <v/>
       </c>
       <c r="L52" s="17">
-        <f>SUM(AB52:AE52)</f>
+        <f>AVERAGE(AB52:AE52)</f>
         <v/>
       </c>
       <c r="M52" s="18">
-        <f>SUM(AF52:AI52)</f>
+        <f>AVERAGE(AF52:AI52)</f>
         <v/>
       </c>
       <c r="N52" s="19">
@@ -8041,51 +8041,51 @@
         <v>11</v>
       </c>
       <c r="B53" s="11">
-        <f>'By Round'!A33</f>
+        <f>'By Round'!A53</f>
         <v/>
       </c>
       <c r="C53" s="11">
-        <f>'By Round'!B37</f>
+        <f>'By Round'!B53</f>
         <v/>
       </c>
       <c r="D53" s="11">
-        <f>'By Round'!C37</f>
+        <f>'By Round'!C53</f>
         <v/>
       </c>
       <c r="E53" s="11">
-        <f>'By Round'!D37</f>
+        <f>'By Round'!D53</f>
         <v/>
       </c>
       <c r="F53" s="11">
-        <f>IF(ISBLANK('By Round'!F37),"",'By Round'!F37)</f>
+        <f>IF(ISBLANK('By Round'!F53),"",'By Round'!F53)</f>
         <v/>
       </c>
       <c r="G53">
-        <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
+        <f>IF(ISBLANK('By Round'!G53),"",'By Round'!G53)</f>
         <v/>
       </c>
       <c r="H53">
-        <f>IF(ISBLANK('By Round'!H37),"",'By Round'!H37)</f>
+        <f>IF(ISBLANK('By Round'!H53),"",'By Round'!H53)</f>
         <v/>
       </c>
       <c r="I53">
-        <f>IF(ISBLANK('By Round'!I37),"",'By Round'!I37)</f>
+        <f>IF(ISBLANK('By Round'!I53),"",'By Round'!I53)</f>
         <v/>
       </c>
       <c r="J53">
-        <f>IF(ISBLANK('By Round'!J37),"",'By Round'!J37)</f>
+        <f>IF(ISBLANK('By Round'!J53),"",'By Round'!J53)</f>
         <v/>
       </c>
       <c r="K53">
-        <f>IF(ISBLANK('By Round'!K37),"",'By Round'!K37)</f>
+        <f>IF(ISBLANK('By Round'!K53),"",'By Round'!K53)</f>
         <v/>
       </c>
       <c r="L53" s="12">
-        <f>SUM(AB53:AE53)</f>
+        <f>AVERAGE(AB53:AE53)</f>
         <v/>
       </c>
       <c r="M53" s="13">
-        <f>SUM(AF53:AI53)</f>
+        <f>AVERAGE(AF53:AI53)</f>
         <v/>
       </c>
       <c r="N53" s="8">
@@ -8179,51 +8179,51 @@
     </row>
     <row r="54">
       <c r="B54" s="11">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A73</f>
         <v/>
       </c>
       <c r="C54" s="11">
-        <f>'By Round'!B45</f>
+        <f>'By Round'!B79</f>
         <v/>
       </c>
       <c r="D54" s="11">
-        <f>'By Round'!C45</f>
+        <f>'By Round'!C79</f>
         <v/>
       </c>
       <c r="E54" s="11">
-        <f>'By Round'!D45</f>
+        <f>'By Round'!D79</f>
         <v/>
       </c>
       <c r="F54" s="11">
-        <f>IF(ISBLANK('By Round'!F45),"",'By Round'!F45)</f>
+        <f>IF(ISBLANK('By Round'!F79),"",'By Round'!F79)</f>
         <v/>
       </c>
       <c r="G54">
-        <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
+        <f>IF(ISBLANK('By Round'!G79),"",'By Round'!G79)</f>
         <v/>
       </c>
       <c r="H54">
-        <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
+        <f>IF(ISBLANK('By Round'!H79),"",'By Round'!H79)</f>
         <v/>
       </c>
       <c r="I54">
-        <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
+        <f>IF(ISBLANK('By Round'!I79),"",'By Round'!I79)</f>
         <v/>
       </c>
       <c r="J54">
-        <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
+        <f>IF(ISBLANK('By Round'!J79),"",'By Round'!J79)</f>
         <v/>
       </c>
       <c r="K54">
-        <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
+        <f>IF(ISBLANK('By Round'!K79),"",'By Round'!K79)</f>
         <v/>
       </c>
       <c r="L54" s="12">
-        <f>SUM(AB54:AE54)</f>
+        <f>AVERAGE(AB54:AE54)</f>
         <v/>
       </c>
       <c r="M54" s="13">
-        <f>SUM(AF54:AI54)</f>
+        <f>AVERAGE(AF54:AI54)</f>
         <v/>
       </c>
       <c r="N54" s="8">
@@ -8317,51 +8317,51 @@
     </row>
     <row r="55">
       <c r="B55" s="11">
-        <f>'By Round'!A53</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C55" s="11">
-        <f>'By Round'!B53</f>
+        <f>'By Round'!B71</f>
         <v/>
       </c>
       <c r="D55" s="11">
-        <f>'By Round'!C53</f>
+        <f>'By Round'!C71</f>
         <v/>
       </c>
       <c r="E55" s="11">
-        <f>'By Round'!D53</f>
+        <f>'By Round'!D71</f>
         <v/>
       </c>
       <c r="F55" s="11">
-        <f>IF(ISBLANK('By Round'!F53),"",'By Round'!F53)</f>
+        <f>IF(ISBLANK('By Round'!F71),"",'By Round'!F71)</f>
         <v/>
       </c>
       <c r="G55">
-        <f>IF(ISBLANK('By Round'!G53),"",'By Round'!G53)</f>
+        <f>IF(ISBLANK('By Round'!G71),"",'By Round'!G71)</f>
         <v/>
       </c>
       <c r="H55">
-        <f>IF(ISBLANK('By Round'!H53),"",'By Round'!H53)</f>
+        <f>IF(ISBLANK('By Round'!H71),"",'By Round'!H71)</f>
         <v/>
       </c>
       <c r="I55">
-        <f>IF(ISBLANK('By Round'!I53),"",'By Round'!I53)</f>
+        <f>IF(ISBLANK('By Round'!I71),"",'By Round'!I71)</f>
         <v/>
       </c>
       <c r="J55">
-        <f>IF(ISBLANK('By Round'!J53),"",'By Round'!J53)</f>
+        <f>IF(ISBLANK('By Round'!J71),"",'By Round'!J71)</f>
         <v/>
       </c>
       <c r="K55">
-        <f>IF(ISBLANK('By Round'!K53),"",'By Round'!K53)</f>
+        <f>IF(ISBLANK('By Round'!K71),"",'By Round'!K71)</f>
         <v/>
       </c>
       <c r="L55" s="12">
-        <f>SUM(AB55:AE55)</f>
+        <f>AVERAGE(AB55:AE55)</f>
         <v/>
       </c>
       <c r="M55" s="13">
-        <f>SUM(AF55:AI55)</f>
+        <f>AVERAGE(AF55:AI55)</f>
         <v/>
       </c>
       <c r="N55" s="8">
@@ -8455,51 +8455,51 @@
     </row>
     <row r="56">
       <c r="B56" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C56" s="11">
-        <f>'By Round'!B71</f>
+        <f>'By Round'!B45</f>
         <v/>
       </c>
       <c r="D56" s="11">
-        <f>'By Round'!C71</f>
+        <f>'By Round'!C45</f>
         <v/>
       </c>
       <c r="E56" s="11">
-        <f>'By Round'!D71</f>
+        <f>'By Round'!D45</f>
         <v/>
       </c>
       <c r="F56" s="11">
-        <f>IF(ISBLANK('By Round'!F71),"",'By Round'!F71)</f>
+        <f>IF(ISBLANK('By Round'!F45),"",'By Round'!F45)</f>
         <v/>
       </c>
       <c r="G56">
-        <f>IF(ISBLANK('By Round'!G71),"",'By Round'!G71)</f>
+        <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
         <v/>
       </c>
       <c r="H56">
-        <f>IF(ISBLANK('By Round'!H71),"",'By Round'!H71)</f>
+        <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
         <v/>
       </c>
       <c r="I56">
-        <f>IF(ISBLANK('By Round'!I71),"",'By Round'!I71)</f>
+        <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
         <v/>
       </c>
       <c r="J56">
-        <f>IF(ISBLANK('By Round'!J71),"",'By Round'!J71)</f>
+        <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
         <v/>
       </c>
       <c r="K56">
-        <f>IF(ISBLANK('By Round'!K71),"",'By Round'!K71)</f>
+        <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
         <v/>
       </c>
       <c r="L56" s="12">
-        <f>SUM(AB56:AE56)</f>
+        <f>AVERAGE(AB56:AE56)</f>
         <v/>
       </c>
       <c r="M56" s="13">
-        <f>SUM(AF56:AI56)</f>
+        <f>AVERAGE(AF56:AI56)</f>
         <v/>
       </c>
       <c r="N56" s="8">
@@ -8594,51 +8594,51 @@
     <row r="57">
       <c r="A57" s="15" t="n"/>
       <c r="B57" s="16">
-        <f>'By Round'!A73</f>
+        <f>'By Round'!A33</f>
         <v/>
       </c>
       <c r="C57" s="16">
-        <f>'By Round'!B79</f>
+        <f>'By Round'!B37</f>
         <v/>
       </c>
       <c r="D57" s="16">
-        <f>'By Round'!C79</f>
+        <f>'By Round'!C37</f>
         <v/>
       </c>
       <c r="E57" s="16">
-        <f>'By Round'!D79</f>
+        <f>'By Round'!D37</f>
         <v/>
       </c>
       <c r="F57" s="16">
-        <f>IF(ISBLANK('By Round'!F79),"",'By Round'!F79)</f>
+        <f>IF(ISBLANK('By Round'!F37),"",'By Round'!F37)</f>
         <v/>
       </c>
       <c r="G57" s="15">
-        <f>IF(ISBLANK('By Round'!G79),"",'By Round'!G79)</f>
+        <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
         <v/>
       </c>
       <c r="H57" s="15">
-        <f>IF(ISBLANK('By Round'!H79),"",'By Round'!H79)</f>
+        <f>IF(ISBLANK('By Round'!H37),"",'By Round'!H37)</f>
         <v/>
       </c>
       <c r="I57" s="15">
-        <f>IF(ISBLANK('By Round'!I79),"",'By Round'!I79)</f>
+        <f>IF(ISBLANK('By Round'!I37),"",'By Round'!I37)</f>
         <v/>
       </c>
       <c r="J57" s="15">
-        <f>IF(ISBLANK('By Round'!J79),"",'By Round'!J79)</f>
+        <f>IF(ISBLANK('By Round'!J37),"",'By Round'!J37)</f>
         <v/>
       </c>
       <c r="K57" s="15">
-        <f>IF(ISBLANK('By Round'!K79),"",'By Round'!K79)</f>
+        <f>IF(ISBLANK('By Round'!K37),"",'By Round'!K37)</f>
         <v/>
       </c>
       <c r="L57" s="17">
-        <f>SUM(AB57:AE57)</f>
+        <f>AVERAGE(AB57:AE57)</f>
         <v/>
       </c>
       <c r="M57" s="18">
-        <f>SUM(AF57:AI57)</f>
+        <f>AVERAGE(AF57:AI57)</f>
         <v/>
       </c>
       <c r="N57" s="19">
@@ -8735,51 +8735,51 @@
         <v>12</v>
       </c>
       <c r="B58" s="11">
-        <f>'By Round'!A33</f>
+        <f>'By Round'!A53</f>
         <v/>
       </c>
       <c r="C58" s="11">
-        <f>'By Round'!B37</f>
+        <f>'By Round'!B53</f>
         <v/>
       </c>
       <c r="D58" s="11">
-        <f>'By Round'!C37</f>
+        <f>'By Round'!C53</f>
         <v/>
       </c>
       <c r="E58" s="11">
-        <f>'By Round'!D37</f>
+        <f>'By Round'!D53</f>
         <v/>
       </c>
       <c r="F58" s="11">
-        <f>IF(ISBLANK('By Round'!F38),"",'By Round'!F38)</f>
+        <f>IF(ISBLANK('By Round'!F54),"",'By Round'!F54)</f>
         <v/>
       </c>
       <c r="G58">
-        <f>IF(ISBLANK('By Round'!G38),"",'By Round'!G38)</f>
+        <f>IF(ISBLANK('By Round'!G54),"",'By Round'!G54)</f>
         <v/>
       </c>
       <c r="H58">
-        <f>IF(ISBLANK('By Round'!H38),"",'By Round'!H38)</f>
+        <f>IF(ISBLANK('By Round'!H54),"",'By Round'!H54)</f>
         <v/>
       </c>
       <c r="I58">
-        <f>IF(ISBLANK('By Round'!I38),"",'By Round'!I38)</f>
+        <f>IF(ISBLANK('By Round'!I54),"",'By Round'!I54)</f>
         <v/>
       </c>
       <c r="J58">
-        <f>IF(ISBLANK('By Round'!J38),"",'By Round'!J38)</f>
+        <f>IF(ISBLANK('By Round'!J54),"",'By Round'!J54)</f>
         <v/>
       </c>
       <c r="K58">
-        <f>IF(ISBLANK('By Round'!K38),"",'By Round'!K38)</f>
+        <f>IF(ISBLANK('By Round'!K54),"",'By Round'!K54)</f>
         <v/>
       </c>
       <c r="L58" s="12">
-        <f>SUM(AB58:AE58)</f>
+        <f>AVERAGE(AB58:AE58)</f>
         <v/>
       </c>
       <c r="M58" s="13">
-        <f>SUM(AF58:AI58)</f>
+        <f>AVERAGE(AF58:AI58)</f>
         <v/>
       </c>
       <c r="N58" s="8">
@@ -8873,51 +8873,51 @@
     </row>
     <row r="59">
       <c r="B59" s="11">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A73</f>
         <v/>
       </c>
       <c r="C59" s="11">
-        <f>'By Round'!B45</f>
+        <f>'By Round'!B79</f>
         <v/>
       </c>
       <c r="D59" s="11">
-        <f>'By Round'!C45</f>
+        <f>'By Round'!C79</f>
         <v/>
       </c>
       <c r="E59" s="11">
-        <f>'By Round'!D45</f>
+        <f>'By Round'!D79</f>
         <v/>
       </c>
       <c r="F59" s="11">
-        <f>IF(ISBLANK('By Round'!F46),"",'By Round'!F46)</f>
+        <f>IF(ISBLANK('By Round'!F80),"",'By Round'!F80)</f>
         <v/>
       </c>
       <c r="G59">
-        <f>IF(ISBLANK('By Round'!G46),"",'By Round'!G46)</f>
+        <f>IF(ISBLANK('By Round'!G80),"",'By Round'!G80)</f>
         <v/>
       </c>
       <c r="H59">
-        <f>IF(ISBLANK('By Round'!H46),"",'By Round'!H46)</f>
+        <f>IF(ISBLANK('By Round'!H80),"",'By Round'!H80)</f>
         <v/>
       </c>
       <c r="I59">
-        <f>IF(ISBLANK('By Round'!I46),"",'By Round'!I46)</f>
+        <f>IF(ISBLANK('By Round'!I80),"",'By Round'!I80)</f>
         <v/>
       </c>
       <c r="J59">
-        <f>IF(ISBLANK('By Round'!J46),"",'By Round'!J46)</f>
+        <f>IF(ISBLANK('By Round'!J80),"",'By Round'!J80)</f>
         <v/>
       </c>
       <c r="K59">
-        <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
+        <f>IF(ISBLANK('By Round'!K80),"",'By Round'!K80)</f>
         <v/>
       </c>
       <c r="L59" s="12">
-        <f>SUM(AB59:AE59)</f>
+        <f>AVERAGE(AB59:AE59)</f>
         <v/>
       </c>
       <c r="M59" s="13">
-        <f>SUM(AF59:AI59)</f>
+        <f>AVERAGE(AF59:AI59)</f>
         <v/>
       </c>
       <c r="N59" s="8">
@@ -9011,51 +9011,51 @@
     </row>
     <row r="60">
       <c r="B60" s="11">
-        <f>'By Round'!A53</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C60" s="11">
-        <f>'By Round'!B53</f>
+        <f>'By Round'!B71</f>
         <v/>
       </c>
       <c r="D60" s="11">
-        <f>'By Round'!C53</f>
+        <f>'By Round'!C71</f>
         <v/>
       </c>
       <c r="E60" s="11">
-        <f>'By Round'!D53</f>
+        <f>'By Round'!D71</f>
         <v/>
       </c>
       <c r="F60" s="11">
-        <f>IF(ISBLANK('By Round'!F54),"",'By Round'!F54)</f>
+        <f>IF(ISBLANK('By Round'!F72),"",'By Round'!F72)</f>
         <v/>
       </c>
       <c r="G60">
-        <f>IF(ISBLANK('By Round'!G54),"",'By Round'!G54)</f>
+        <f>IF(ISBLANK('By Round'!G72),"",'By Round'!G72)</f>
         <v/>
       </c>
       <c r="H60">
-        <f>IF(ISBLANK('By Round'!H54),"",'By Round'!H54)</f>
+        <f>IF(ISBLANK('By Round'!H72),"",'By Round'!H72)</f>
         <v/>
       </c>
       <c r="I60">
-        <f>IF(ISBLANK('By Round'!I54),"",'By Round'!I54)</f>
+        <f>IF(ISBLANK('By Round'!I72),"",'By Round'!I72)</f>
         <v/>
       </c>
       <c r="J60">
-        <f>IF(ISBLANK('By Round'!J54),"",'By Round'!J54)</f>
+        <f>IF(ISBLANK('By Round'!J72),"",'By Round'!J72)</f>
         <v/>
       </c>
       <c r="K60">
-        <f>IF(ISBLANK('By Round'!K54),"",'By Round'!K54)</f>
+        <f>IF(ISBLANK('By Round'!K72),"",'By Round'!K72)</f>
         <v/>
       </c>
       <c r="L60" s="12">
-        <f>SUM(AB60:AE60)</f>
+        <f>AVERAGE(AB60:AE60)</f>
         <v/>
       </c>
       <c r="M60" s="13">
-        <f>SUM(AF60:AI60)</f>
+        <f>AVERAGE(AF60:AI60)</f>
         <v/>
       </c>
       <c r="N60" s="8">
@@ -9149,51 +9149,51 @@
     </row>
     <row r="61">
       <c r="B61" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C61" s="11">
-        <f>'By Round'!B71</f>
+        <f>'By Round'!B45</f>
         <v/>
       </c>
       <c r="D61" s="11">
-        <f>'By Round'!C71</f>
+        <f>'By Round'!C45</f>
         <v/>
       </c>
       <c r="E61" s="11">
-        <f>'By Round'!D71</f>
+        <f>'By Round'!D45</f>
         <v/>
       </c>
       <c r="F61" s="11">
-        <f>IF(ISBLANK('By Round'!F72),"",'By Round'!F72)</f>
+        <f>IF(ISBLANK('By Round'!F46),"",'By Round'!F46)</f>
         <v/>
       </c>
       <c r="G61">
-        <f>IF(ISBLANK('By Round'!G72),"",'By Round'!G72)</f>
+        <f>IF(ISBLANK('By Round'!G46),"",'By Round'!G46)</f>
         <v/>
       </c>
       <c r="H61">
-        <f>IF(ISBLANK('By Round'!H72),"",'By Round'!H72)</f>
+        <f>IF(ISBLANK('By Round'!H46),"",'By Round'!H46)</f>
         <v/>
       </c>
       <c r="I61">
-        <f>IF(ISBLANK('By Round'!I72),"",'By Round'!I72)</f>
+        <f>IF(ISBLANK('By Round'!I46),"",'By Round'!I46)</f>
         <v/>
       </c>
       <c r="J61">
-        <f>IF(ISBLANK('By Round'!J72),"",'By Round'!J72)</f>
+        <f>IF(ISBLANK('By Round'!J46),"",'By Round'!J46)</f>
         <v/>
       </c>
       <c r="K61">
-        <f>IF(ISBLANK('By Round'!K72),"",'By Round'!K72)</f>
+        <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
         <v/>
       </c>
       <c r="L61" s="12">
-        <f>SUM(AB61:AE61)</f>
+        <f>AVERAGE(AB61:AE61)</f>
         <v/>
       </c>
       <c r="M61" s="13">
-        <f>SUM(AF61:AI61)</f>
+        <f>AVERAGE(AF61:AI61)</f>
         <v/>
       </c>
       <c r="N61" s="8">
@@ -9288,51 +9288,51 @@
     <row r="62">
       <c r="A62" s="15" t="n"/>
       <c r="B62" s="16">
-        <f>'By Round'!A73</f>
+        <f>'By Round'!A33</f>
         <v/>
       </c>
       <c r="C62" s="16">
-        <f>'By Round'!B79</f>
+        <f>'By Round'!B37</f>
         <v/>
       </c>
       <c r="D62" s="16">
-        <f>'By Round'!C79</f>
+        <f>'By Round'!C37</f>
         <v/>
       </c>
       <c r="E62" s="16">
-        <f>'By Round'!D79</f>
+        <f>'By Round'!D37</f>
         <v/>
       </c>
       <c r="F62" s="16">
-        <f>IF(ISBLANK('By Round'!F80),"",'By Round'!F80)</f>
+        <f>IF(ISBLANK('By Round'!F38),"",'By Round'!F38)</f>
         <v/>
       </c>
       <c r="G62" s="15">
-        <f>IF(ISBLANK('By Round'!G80),"",'By Round'!G80)</f>
+        <f>IF(ISBLANK('By Round'!G38),"",'By Round'!G38)</f>
         <v/>
       </c>
       <c r="H62" s="15">
-        <f>IF(ISBLANK('By Round'!H80),"",'By Round'!H80)</f>
+        <f>IF(ISBLANK('By Round'!H38),"",'By Round'!H38)</f>
         <v/>
       </c>
       <c r="I62" s="15">
-        <f>IF(ISBLANK('By Round'!I80),"",'By Round'!I80)</f>
+        <f>IF(ISBLANK('By Round'!I38),"",'By Round'!I38)</f>
         <v/>
       </c>
       <c r="J62" s="15">
-        <f>IF(ISBLANK('By Round'!J80),"",'By Round'!J80)</f>
+        <f>IF(ISBLANK('By Round'!J38),"",'By Round'!J38)</f>
         <v/>
       </c>
       <c r="K62" s="15">
-        <f>IF(ISBLANK('By Round'!K80),"",'By Round'!K80)</f>
+        <f>IF(ISBLANK('By Round'!K38),"",'By Round'!K38)</f>
         <v/>
       </c>
       <c r="L62" s="17">
-        <f>SUM(AB62:AE62)</f>
+        <f>AVERAGE(AB62:AE62)</f>
         <v/>
       </c>
       <c r="M62" s="18">
-        <f>SUM(AF62:AI62)</f>
+        <f>AVERAGE(AF62:AI62)</f>
         <v/>
       </c>
       <c r="N62" s="19">
@@ -9429,51 +9429,51 @@
         <v>13</v>
       </c>
       <c r="B63" s="11">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C63" s="11">
-        <f>'By Round'!B47</f>
+        <f>'By Round'!B63</f>
         <v/>
       </c>
       <c r="D63" s="11">
-        <f>'By Round'!C47</f>
+        <f>'By Round'!C63</f>
         <v/>
       </c>
       <c r="E63" s="11">
-        <f>'By Round'!D47</f>
+        <f>'By Round'!D63</f>
         <v/>
       </c>
       <c r="F63" s="11">
-        <f>IF(ISBLANK('By Round'!F47),"",'By Round'!F47)</f>
+        <f>IF(ISBLANK('By Round'!F63),"",'By Round'!F63)</f>
         <v/>
       </c>
       <c r="G63">
-        <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
+        <f>IF(ISBLANK('By Round'!G63),"",'By Round'!G63)</f>
         <v/>
       </c>
       <c r="H63">
-        <f>IF(ISBLANK('By Round'!H47),"",'By Round'!H47)</f>
+        <f>IF(ISBLANK('By Round'!H63),"",'By Round'!H63)</f>
         <v/>
       </c>
       <c r="I63">
-        <f>IF(ISBLANK('By Round'!I47),"",'By Round'!I47)</f>
+        <f>IF(ISBLANK('By Round'!I63),"",'By Round'!I63)</f>
         <v/>
       </c>
       <c r="J63">
-        <f>IF(ISBLANK('By Round'!J47),"",'By Round'!J47)</f>
+        <f>IF(ISBLANK('By Round'!J63),"",'By Round'!J63)</f>
         <v/>
       </c>
       <c r="K63">
-        <f>IF(ISBLANK('By Round'!K47),"",'By Round'!K47)</f>
+        <f>IF(ISBLANK('By Round'!K63),"",'By Round'!K63)</f>
         <v/>
       </c>
       <c r="L63" s="12">
-        <f>SUM(AB63:AE63)</f>
+        <f>AVERAGE(AB63:AE63)</f>
         <v/>
       </c>
       <c r="M63" s="13">
-        <f>SUM(AF63:AI63)</f>
+        <f>AVERAGE(AF63:AI63)</f>
         <v/>
       </c>
       <c r="N63" s="8">
@@ -9567,51 +9567,51 @@
     </row>
     <row r="64">
       <c r="B64" s="11">
-        <f>'By Round'!A53</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C64" s="11">
-        <f>'By Round'!B55</f>
+        <f>'By Round'!B47</f>
         <v/>
       </c>
       <c r="D64" s="11">
-        <f>'By Round'!C55</f>
+        <f>'By Round'!C47</f>
         <v/>
       </c>
       <c r="E64" s="11">
-        <f>'By Round'!D55</f>
+        <f>'By Round'!D47</f>
         <v/>
       </c>
       <c r="F64" s="11">
-        <f>IF(ISBLANK('By Round'!F55),"",'By Round'!F55)</f>
+        <f>IF(ISBLANK('By Round'!F47),"",'By Round'!F47)</f>
         <v/>
       </c>
       <c r="G64">
-        <f>IF(ISBLANK('By Round'!G55),"",'By Round'!G55)</f>
+        <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
         <v/>
       </c>
       <c r="H64">
-        <f>IF(ISBLANK('By Round'!H55),"",'By Round'!H55)</f>
+        <f>IF(ISBLANK('By Round'!H47),"",'By Round'!H47)</f>
         <v/>
       </c>
       <c r="I64">
-        <f>IF(ISBLANK('By Round'!I55),"",'By Round'!I55)</f>
+        <f>IF(ISBLANK('By Round'!I47),"",'By Round'!I47)</f>
         <v/>
       </c>
       <c r="J64">
-        <f>IF(ISBLANK('By Round'!J55),"",'By Round'!J55)</f>
+        <f>IF(ISBLANK('By Round'!J47),"",'By Round'!J47)</f>
         <v/>
       </c>
       <c r="K64">
-        <f>IF(ISBLANK('By Round'!K55),"",'By Round'!K55)</f>
+        <f>IF(ISBLANK('By Round'!K47),"",'By Round'!K47)</f>
         <v/>
       </c>
       <c r="L64" s="12">
-        <f>SUM(AB64:AE64)</f>
+        <f>AVERAGE(AB64:AE64)</f>
         <v/>
       </c>
       <c r="M64" s="13">
-        <f>SUM(AF64:AI64)</f>
+        <f>AVERAGE(AF64:AI64)</f>
         <v/>
       </c>
       <c r="N64" s="8">
@@ -9705,51 +9705,51 @@
     </row>
     <row r="65">
       <c r="B65" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A83</f>
         <v/>
       </c>
       <c r="C65" s="11">
-        <f>'By Round'!B63</f>
+        <f>'By Round'!B89</f>
         <v/>
       </c>
       <c r="D65" s="11">
-        <f>'By Round'!C63</f>
+        <f>'By Round'!C89</f>
         <v/>
       </c>
       <c r="E65" s="11">
-        <f>'By Round'!D63</f>
+        <f>'By Round'!D89</f>
         <v/>
       </c>
       <c r="F65" s="11">
-        <f>IF(ISBLANK('By Round'!F63),"",'By Round'!F63)</f>
+        <f>IF(ISBLANK('By Round'!F89),"",'By Round'!F89)</f>
         <v/>
       </c>
       <c r="G65">
-        <f>IF(ISBLANK('By Round'!G63),"",'By Round'!G63)</f>
+        <f>IF(ISBLANK('By Round'!G89),"",'By Round'!G89)</f>
         <v/>
       </c>
       <c r="H65">
-        <f>IF(ISBLANK('By Round'!H63),"",'By Round'!H63)</f>
+        <f>IF(ISBLANK('By Round'!H89),"",'By Round'!H89)</f>
         <v/>
       </c>
       <c r="I65">
-        <f>IF(ISBLANK('By Round'!I63),"",'By Round'!I63)</f>
+        <f>IF(ISBLANK('By Round'!I89),"",'By Round'!I89)</f>
         <v/>
       </c>
       <c r="J65">
-        <f>IF(ISBLANK('By Round'!J63),"",'By Round'!J63)</f>
+        <f>IF(ISBLANK('By Round'!J89),"",'By Round'!J89)</f>
         <v/>
       </c>
       <c r="K65">
-        <f>IF(ISBLANK('By Round'!K63),"",'By Round'!K63)</f>
+        <f>IF(ISBLANK('By Round'!K89),"",'By Round'!K89)</f>
         <v/>
       </c>
       <c r="L65" s="12">
-        <f>SUM(AB65:AE65)</f>
+        <f>AVERAGE(AB65:AE65)</f>
         <v/>
       </c>
       <c r="M65" s="13">
-        <f>SUM(AF65:AI65)</f>
+        <f>AVERAGE(AF65:AI65)</f>
         <v/>
       </c>
       <c r="N65" s="8">
@@ -9883,11 +9883,11 @@
         <v/>
       </c>
       <c r="L66" s="12">
-        <f>SUM(AB66:AE66)</f>
+        <f>AVERAGE(AB66:AE66)</f>
         <v/>
       </c>
       <c r="M66" s="13">
-        <f>SUM(AF66:AI66)</f>
+        <f>AVERAGE(AF66:AI66)</f>
         <v/>
       </c>
       <c r="N66" s="8">
@@ -9982,51 +9982,51 @@
     <row r="67">
       <c r="A67" s="15" t="n"/>
       <c r="B67" s="16">
-        <f>'By Round'!A83</f>
+        <f>'By Round'!A53</f>
         <v/>
       </c>
       <c r="C67" s="16">
-        <f>'By Round'!B89</f>
+        <f>'By Round'!B55</f>
         <v/>
       </c>
       <c r="D67" s="16">
-        <f>'By Round'!C89</f>
+        <f>'By Round'!C55</f>
         <v/>
       </c>
       <c r="E67" s="16">
-        <f>'By Round'!D89</f>
+        <f>'By Round'!D55</f>
         <v/>
       </c>
       <c r="F67" s="16">
-        <f>IF(ISBLANK('By Round'!F89),"",'By Round'!F89)</f>
+        <f>IF(ISBLANK('By Round'!F55),"",'By Round'!F55)</f>
         <v/>
       </c>
       <c r="G67" s="15">
-        <f>IF(ISBLANK('By Round'!G89),"",'By Round'!G89)</f>
+        <f>IF(ISBLANK('By Round'!G55),"",'By Round'!G55)</f>
         <v/>
       </c>
       <c r="H67" s="15">
-        <f>IF(ISBLANK('By Round'!H89),"",'By Round'!H89)</f>
+        <f>IF(ISBLANK('By Round'!H55),"",'By Round'!H55)</f>
         <v/>
       </c>
       <c r="I67" s="15">
-        <f>IF(ISBLANK('By Round'!I89),"",'By Round'!I89)</f>
+        <f>IF(ISBLANK('By Round'!I55),"",'By Round'!I55)</f>
         <v/>
       </c>
       <c r="J67" s="15">
-        <f>IF(ISBLANK('By Round'!J89),"",'By Round'!J89)</f>
+        <f>IF(ISBLANK('By Round'!J55),"",'By Round'!J55)</f>
         <v/>
       </c>
       <c r="K67" s="15">
-        <f>IF(ISBLANK('By Round'!K89),"",'By Round'!K89)</f>
+        <f>IF(ISBLANK('By Round'!K55),"",'By Round'!K55)</f>
         <v/>
       </c>
       <c r="L67" s="17">
-        <f>SUM(AB67:AE67)</f>
+        <f>AVERAGE(AB67:AE67)</f>
         <v/>
       </c>
       <c r="M67" s="18">
-        <f>SUM(AF67:AI67)</f>
+        <f>AVERAGE(AF67:AI67)</f>
         <v/>
       </c>
       <c r="N67" s="19">
@@ -10123,51 +10123,51 @@
         <v>14</v>
       </c>
       <c r="B68" s="11">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C68" s="11">
-        <f>'By Round'!B47</f>
+        <f>'By Round'!B63</f>
         <v/>
       </c>
       <c r="D68" s="11">
-        <f>'By Round'!C47</f>
+        <f>'By Round'!C63</f>
         <v/>
       </c>
       <c r="E68" s="11">
-        <f>'By Round'!D47</f>
+        <f>'By Round'!D63</f>
         <v/>
       </c>
       <c r="F68" s="11">
-        <f>IF(ISBLANK('By Round'!F48),"",'By Round'!F48)</f>
+        <f>IF(ISBLANK('By Round'!F64),"",'By Round'!F64)</f>
         <v/>
       </c>
       <c r="G68">
-        <f>IF(ISBLANK('By Round'!G48),"",'By Round'!G48)</f>
+        <f>IF(ISBLANK('By Round'!G64),"",'By Round'!G64)</f>
         <v/>
       </c>
       <c r="H68">
-        <f>IF(ISBLANK('By Round'!H48),"",'By Round'!H48)</f>
+        <f>IF(ISBLANK('By Round'!H64),"",'By Round'!H64)</f>
         <v/>
       </c>
       <c r="I68">
-        <f>IF(ISBLANK('By Round'!I48),"",'By Round'!I48)</f>
+        <f>IF(ISBLANK('By Round'!I64),"",'By Round'!I64)</f>
         <v/>
       </c>
       <c r="J68">
-        <f>IF(ISBLANK('By Round'!J48),"",'By Round'!J48)</f>
+        <f>IF(ISBLANK('By Round'!J64),"",'By Round'!J64)</f>
         <v/>
       </c>
       <c r="K68">
-        <f>IF(ISBLANK('By Round'!K48),"",'By Round'!K48)</f>
+        <f>IF(ISBLANK('By Round'!K64),"",'By Round'!K64)</f>
         <v/>
       </c>
       <c r="L68" s="12">
-        <f>SUM(AB68:AE68)</f>
+        <f>AVERAGE(AB68:AE68)</f>
         <v/>
       </c>
       <c r="M68" s="13">
-        <f>SUM(AF68:AI68)</f>
+        <f>AVERAGE(AF68:AI68)</f>
         <v/>
       </c>
       <c r="N68" s="8">
@@ -10261,51 +10261,51 @@
     </row>
     <row r="69">
       <c r="B69" s="11">
-        <f>'By Round'!A53</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C69" s="11">
-        <f>'By Round'!B55</f>
+        <f>'By Round'!B47</f>
         <v/>
       </c>
       <c r="D69" s="11">
-        <f>'By Round'!C55</f>
+        <f>'By Round'!C47</f>
         <v/>
       </c>
       <c r="E69" s="11">
-        <f>'By Round'!D55</f>
+        <f>'By Round'!D47</f>
         <v/>
       </c>
       <c r="F69" s="11">
-        <f>IF(ISBLANK('By Round'!F56),"",'By Round'!F56)</f>
+        <f>IF(ISBLANK('By Round'!F48),"",'By Round'!F48)</f>
         <v/>
       </c>
       <c r="G69">
-        <f>IF(ISBLANK('By Round'!G56),"",'By Round'!G56)</f>
+        <f>IF(ISBLANK('By Round'!G48),"",'By Round'!G48)</f>
         <v/>
       </c>
       <c r="H69">
-        <f>IF(ISBLANK('By Round'!H56),"",'By Round'!H56)</f>
+        <f>IF(ISBLANK('By Round'!H48),"",'By Round'!H48)</f>
         <v/>
       </c>
       <c r="I69">
-        <f>IF(ISBLANK('By Round'!I56),"",'By Round'!I56)</f>
+        <f>IF(ISBLANK('By Round'!I48),"",'By Round'!I48)</f>
         <v/>
       </c>
       <c r="J69">
-        <f>IF(ISBLANK('By Round'!J56),"",'By Round'!J56)</f>
+        <f>IF(ISBLANK('By Round'!J48),"",'By Round'!J48)</f>
         <v/>
       </c>
       <c r="K69">
-        <f>IF(ISBLANK('By Round'!K56),"",'By Round'!K56)</f>
+        <f>IF(ISBLANK('By Round'!K48),"",'By Round'!K48)</f>
         <v/>
       </c>
       <c r="L69" s="12">
-        <f>SUM(AB69:AE69)</f>
+        <f>AVERAGE(AB69:AE69)</f>
         <v/>
       </c>
       <c r="M69" s="13">
-        <f>SUM(AF69:AI69)</f>
+        <f>AVERAGE(AF69:AI69)</f>
         <v/>
       </c>
       <c r="N69" s="8">
@@ -10399,51 +10399,51 @@
     </row>
     <row r="70">
       <c r="B70" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A83</f>
         <v/>
       </c>
       <c r="C70" s="11">
-        <f>'By Round'!B63</f>
+        <f>'By Round'!B89</f>
         <v/>
       </c>
       <c r="D70" s="11">
-        <f>'By Round'!C63</f>
+        <f>'By Round'!C89</f>
         <v/>
       </c>
       <c r="E70" s="11">
-        <f>'By Round'!D63</f>
+        <f>'By Round'!D89</f>
         <v/>
       </c>
       <c r="F70" s="11">
-        <f>IF(ISBLANK('By Round'!F64),"",'By Round'!F64)</f>
+        <f>IF(ISBLANK('By Round'!F90),"",'By Round'!F90)</f>
         <v/>
       </c>
       <c r="G70">
-        <f>IF(ISBLANK('By Round'!G64),"",'By Round'!G64)</f>
+        <f>IF(ISBLANK('By Round'!G90),"",'By Round'!G90)</f>
         <v/>
       </c>
       <c r="H70">
-        <f>IF(ISBLANK('By Round'!H64),"",'By Round'!H64)</f>
+        <f>IF(ISBLANK('By Round'!H90),"",'By Round'!H90)</f>
         <v/>
       </c>
       <c r="I70">
-        <f>IF(ISBLANK('By Round'!I64),"",'By Round'!I64)</f>
+        <f>IF(ISBLANK('By Round'!I90),"",'By Round'!I90)</f>
         <v/>
       </c>
       <c r="J70">
-        <f>IF(ISBLANK('By Round'!J64),"",'By Round'!J64)</f>
+        <f>IF(ISBLANK('By Round'!J90),"",'By Round'!J90)</f>
         <v/>
       </c>
       <c r="K70">
-        <f>IF(ISBLANK('By Round'!K64),"",'By Round'!K64)</f>
+        <f>IF(ISBLANK('By Round'!K90),"",'By Round'!K90)</f>
         <v/>
       </c>
       <c r="L70" s="12">
-        <f>SUM(AB70:AE70)</f>
+        <f>AVERAGE(AB70:AE70)</f>
         <v/>
       </c>
       <c r="M70" s="13">
-        <f>SUM(AF70:AI70)</f>
+        <f>AVERAGE(AF70:AI70)</f>
         <v/>
       </c>
       <c r="N70" s="8">
@@ -10577,11 +10577,11 @@
         <v/>
       </c>
       <c r="L71" s="12">
-        <f>SUM(AB71:AE71)</f>
+        <f>AVERAGE(AB71:AE71)</f>
         <v/>
       </c>
       <c r="M71" s="13">
-        <f>SUM(AF71:AI71)</f>
+        <f>AVERAGE(AF71:AI71)</f>
         <v/>
       </c>
       <c r="N71" s="8">
@@ -10676,51 +10676,51 @@
     <row r="72">
       <c r="A72" s="15" t="n"/>
       <c r="B72" s="16">
-        <f>'By Round'!A83</f>
+        <f>'By Round'!A53</f>
         <v/>
       </c>
       <c r="C72" s="16">
-        <f>'By Round'!B89</f>
+        <f>'By Round'!B55</f>
         <v/>
       </c>
       <c r="D72" s="16">
-        <f>'By Round'!C89</f>
+        <f>'By Round'!C55</f>
         <v/>
       </c>
       <c r="E72" s="16">
-        <f>'By Round'!D89</f>
+        <f>'By Round'!D55</f>
         <v/>
       </c>
       <c r="F72" s="16">
-        <f>IF(ISBLANK('By Round'!F90),"",'By Round'!F90)</f>
+        <f>IF(ISBLANK('By Round'!F56),"",'By Round'!F56)</f>
         <v/>
       </c>
       <c r="G72" s="15">
-        <f>IF(ISBLANK('By Round'!G90),"",'By Round'!G90)</f>
+        <f>IF(ISBLANK('By Round'!G56),"",'By Round'!G56)</f>
         <v/>
       </c>
       <c r="H72" s="15">
-        <f>IF(ISBLANK('By Round'!H90),"",'By Round'!H90)</f>
+        <f>IF(ISBLANK('By Round'!H56),"",'By Round'!H56)</f>
         <v/>
       </c>
       <c r="I72" s="15">
-        <f>IF(ISBLANK('By Round'!I90),"",'By Round'!I90)</f>
+        <f>IF(ISBLANK('By Round'!I56),"",'By Round'!I56)</f>
         <v/>
       </c>
       <c r="J72" s="15">
-        <f>IF(ISBLANK('By Round'!J90),"",'By Round'!J90)</f>
+        <f>IF(ISBLANK('By Round'!J56),"",'By Round'!J56)</f>
         <v/>
       </c>
       <c r="K72" s="15">
-        <f>IF(ISBLANK('By Round'!K90),"",'By Round'!K90)</f>
+        <f>IF(ISBLANK('By Round'!K56),"",'By Round'!K56)</f>
         <v/>
       </c>
       <c r="L72" s="17">
-        <f>SUM(AB72:AE72)</f>
+        <f>AVERAGE(AB72:AE72)</f>
         <v/>
       </c>
       <c r="M72" s="18">
-        <f>SUM(AF72:AI72)</f>
+        <f>AVERAGE(AF72:AI72)</f>
         <v/>
       </c>
       <c r="N72" s="19">
@@ -10817,51 +10817,51 @@
         <v>15</v>
       </c>
       <c r="B73" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A73</f>
         <v/>
       </c>
       <c r="C73" s="11">
-        <f>'By Round'!B9</f>
+        <f>'By Round'!B73</f>
         <v/>
       </c>
       <c r="D73" s="11">
-        <f>'By Round'!C9</f>
+        <f>'By Round'!C73</f>
         <v/>
       </c>
       <c r="E73" s="11">
-        <f>'By Round'!D9</f>
+        <f>'By Round'!D73</f>
         <v/>
       </c>
       <c r="F73" s="11">
-        <f>IF(ISBLANK('By Round'!F9),"",'By Round'!F9)</f>
+        <f>IF(ISBLANK('By Round'!F73),"",'By Round'!F73)</f>
         <v/>
       </c>
       <c r="G73">
-        <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
+        <f>IF(ISBLANK('By Round'!G73),"",'By Round'!G73)</f>
         <v/>
       </c>
       <c r="H73">
-        <f>IF(ISBLANK('By Round'!H9),"",'By Round'!H9)</f>
+        <f>IF(ISBLANK('By Round'!H73),"",'By Round'!H73)</f>
         <v/>
       </c>
       <c r="I73">
-        <f>IF(ISBLANK('By Round'!I9),"",'By Round'!I9)</f>
+        <f>IF(ISBLANK('By Round'!I73),"",'By Round'!I73)</f>
         <v/>
       </c>
       <c r="J73">
-        <f>IF(ISBLANK('By Round'!J9),"",'By Round'!J9)</f>
+        <f>IF(ISBLANK('By Round'!J73),"",'By Round'!J73)</f>
         <v/>
       </c>
       <c r="K73">
-        <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
+        <f>IF(ISBLANK('By Round'!K73),"",'By Round'!K73)</f>
         <v/>
       </c>
       <c r="L73" s="12">
-        <f>SUM(AB73:AE73)</f>
+        <f>AVERAGE(AB73:AE73)</f>
         <v/>
       </c>
       <c r="M73" s="13">
-        <f>SUM(AF73:AI73)</f>
+        <f>AVERAGE(AF73:AI73)</f>
         <v/>
       </c>
       <c r="N73" s="8">
@@ -10995,11 +10995,11 @@
         <v/>
       </c>
       <c r="L74" s="12">
-        <f>SUM(AB74:AE74)</f>
+        <f>AVERAGE(AB74:AE74)</f>
         <v/>
       </c>
       <c r="M74" s="13">
-        <f>SUM(AF74:AI74)</f>
+        <f>AVERAGE(AF74:AI74)</f>
         <v/>
       </c>
       <c r="N74" s="8">
@@ -11093,51 +11093,51 @@
     </row>
     <row r="75">
       <c r="B75" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C75" s="11">
-        <f>'By Round'!B65</f>
+        <f>'By Round'!B9</f>
         <v/>
       </c>
       <c r="D75" s="11">
-        <f>'By Round'!C65</f>
+        <f>'By Round'!C9</f>
         <v/>
       </c>
       <c r="E75" s="11">
-        <f>'By Round'!D65</f>
+        <f>'By Round'!D9</f>
         <v/>
       </c>
       <c r="F75" s="11">
-        <f>IF(ISBLANK('By Round'!F65),"",'By Round'!F65)</f>
+        <f>IF(ISBLANK('By Round'!F9),"",'By Round'!F9)</f>
         <v/>
       </c>
       <c r="G75">
-        <f>IF(ISBLANK('By Round'!G65),"",'By Round'!G65)</f>
+        <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
         <v/>
       </c>
       <c r="H75">
-        <f>IF(ISBLANK('By Round'!H65),"",'By Round'!H65)</f>
+        <f>IF(ISBLANK('By Round'!H9),"",'By Round'!H9)</f>
         <v/>
       </c>
       <c r="I75">
-        <f>IF(ISBLANK('By Round'!I65),"",'By Round'!I65)</f>
+        <f>IF(ISBLANK('By Round'!I9),"",'By Round'!I9)</f>
         <v/>
       </c>
       <c r="J75">
-        <f>IF(ISBLANK('By Round'!J65),"",'By Round'!J65)</f>
+        <f>IF(ISBLANK('By Round'!J9),"",'By Round'!J9)</f>
         <v/>
       </c>
       <c r="K75">
-        <f>IF(ISBLANK('By Round'!K65),"",'By Round'!K65)</f>
+        <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
         <v/>
       </c>
       <c r="L75" s="12">
-        <f>SUM(AB75:AE75)</f>
+        <f>AVERAGE(AB75:AE75)</f>
         <v/>
       </c>
       <c r="M75" s="13">
-        <f>SUM(AF75:AI75)</f>
+        <f>AVERAGE(AF75:AI75)</f>
         <v/>
       </c>
       <c r="N75" s="8">
@@ -11231,51 +11231,51 @@
     </row>
     <row r="76">
       <c r="B76" s="11">
-        <f>'By Round'!A73</f>
+        <f>'By Round'!A83</f>
         <v/>
       </c>
       <c r="C76" s="11">
-        <f>'By Round'!B73</f>
+        <f>'By Round'!B91</f>
         <v/>
       </c>
       <c r="D76" s="11">
-        <f>'By Round'!C73</f>
+        <f>'By Round'!C91</f>
         <v/>
       </c>
       <c r="E76" s="11">
-        <f>'By Round'!D73</f>
+        <f>'By Round'!D91</f>
         <v/>
       </c>
       <c r="F76" s="11">
-        <f>IF(ISBLANK('By Round'!F73),"",'By Round'!F73)</f>
+        <f>IF(ISBLANK('By Round'!F91),"",'By Round'!F91)</f>
         <v/>
       </c>
       <c r="G76">
-        <f>IF(ISBLANK('By Round'!G73),"",'By Round'!G73)</f>
+        <f>IF(ISBLANK('By Round'!G91),"",'By Round'!G91)</f>
         <v/>
       </c>
       <c r="H76">
-        <f>IF(ISBLANK('By Round'!H73),"",'By Round'!H73)</f>
+        <f>IF(ISBLANK('By Round'!H91),"",'By Round'!H91)</f>
         <v/>
       </c>
       <c r="I76">
-        <f>IF(ISBLANK('By Round'!I73),"",'By Round'!I73)</f>
+        <f>IF(ISBLANK('By Round'!I91),"",'By Round'!I91)</f>
         <v/>
       </c>
       <c r="J76">
-        <f>IF(ISBLANK('By Round'!J73),"",'By Round'!J73)</f>
+        <f>IF(ISBLANK('By Round'!J91),"",'By Round'!J91)</f>
         <v/>
       </c>
       <c r="K76">
-        <f>IF(ISBLANK('By Round'!K73),"",'By Round'!K73)</f>
+        <f>IF(ISBLANK('By Round'!K91),"",'By Round'!K91)</f>
         <v/>
       </c>
       <c r="L76" s="12">
-        <f>SUM(AB76:AE76)</f>
+        <f>AVERAGE(AB76:AE76)</f>
         <v/>
       </c>
       <c r="M76" s="13">
-        <f>SUM(AF76:AI76)</f>
+        <f>AVERAGE(AF76:AI76)</f>
         <v/>
       </c>
       <c r="N76" s="8">
@@ -11370,51 +11370,51 @@
     <row r="77">
       <c r="A77" s="15" t="n"/>
       <c r="B77" s="16">
-        <f>'By Round'!A83</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C77" s="16">
-        <f>'By Round'!B91</f>
+        <f>'By Round'!B65</f>
         <v/>
       </c>
       <c r="D77" s="16">
-        <f>'By Round'!C91</f>
+        <f>'By Round'!C65</f>
         <v/>
       </c>
       <c r="E77" s="16">
-        <f>'By Round'!D91</f>
+        <f>'By Round'!D65</f>
         <v/>
       </c>
       <c r="F77" s="16">
-        <f>IF(ISBLANK('By Round'!F91),"",'By Round'!F91)</f>
+        <f>IF(ISBLANK('By Round'!F65),"",'By Round'!F65)</f>
         <v/>
       </c>
       <c r="G77" s="15">
-        <f>IF(ISBLANK('By Round'!G91),"",'By Round'!G91)</f>
+        <f>IF(ISBLANK('By Round'!G65),"",'By Round'!G65)</f>
         <v/>
       </c>
       <c r="H77" s="15">
-        <f>IF(ISBLANK('By Round'!H91),"",'By Round'!H91)</f>
+        <f>IF(ISBLANK('By Round'!H65),"",'By Round'!H65)</f>
         <v/>
       </c>
       <c r="I77" s="15">
-        <f>IF(ISBLANK('By Round'!I91),"",'By Round'!I91)</f>
+        <f>IF(ISBLANK('By Round'!I65),"",'By Round'!I65)</f>
         <v/>
       </c>
       <c r="J77" s="15">
-        <f>IF(ISBLANK('By Round'!J91),"",'By Round'!J91)</f>
+        <f>IF(ISBLANK('By Round'!J65),"",'By Round'!J65)</f>
         <v/>
       </c>
       <c r="K77" s="15">
-        <f>IF(ISBLANK('By Round'!K91),"",'By Round'!K91)</f>
+        <f>IF(ISBLANK('By Round'!K65),"",'By Round'!K65)</f>
         <v/>
       </c>
       <c r="L77" s="17">
-        <f>SUM(AB77:AE77)</f>
+        <f>AVERAGE(AB77:AE77)</f>
         <v/>
       </c>
       <c r="M77" s="18">
-        <f>SUM(AF77:AI77)</f>
+        <f>AVERAGE(AF77:AI77)</f>
         <v/>
       </c>
       <c r="N77" s="19">
@@ -11511,51 +11511,51 @@
         <v>16</v>
       </c>
       <c r="B78" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A73</f>
         <v/>
       </c>
       <c r="C78" s="11">
-        <f>'By Round'!B9</f>
+        <f>'By Round'!B73</f>
         <v/>
       </c>
       <c r="D78" s="11">
-        <f>'By Round'!C9</f>
+        <f>'By Round'!C73</f>
         <v/>
       </c>
       <c r="E78" s="11">
-        <f>'By Round'!D9</f>
+        <f>'By Round'!D73</f>
         <v/>
       </c>
       <c r="F78" s="11">
-        <f>IF(ISBLANK('By Round'!F10),"",'By Round'!F10)</f>
+        <f>IF(ISBLANK('By Round'!F74),"",'By Round'!F74)</f>
         <v/>
       </c>
       <c r="G78">
-        <f>IF(ISBLANK('By Round'!G10),"",'By Round'!G10)</f>
+        <f>IF(ISBLANK('By Round'!G74),"",'By Round'!G74)</f>
         <v/>
       </c>
       <c r="H78">
-        <f>IF(ISBLANK('By Round'!H10),"",'By Round'!H10)</f>
+        <f>IF(ISBLANK('By Round'!H74),"",'By Round'!H74)</f>
         <v/>
       </c>
       <c r="I78">
-        <f>IF(ISBLANK('By Round'!I10),"",'By Round'!I10)</f>
+        <f>IF(ISBLANK('By Round'!I74),"",'By Round'!I74)</f>
         <v/>
       </c>
       <c r="J78">
-        <f>IF(ISBLANK('By Round'!J10),"",'By Round'!J10)</f>
+        <f>IF(ISBLANK('By Round'!J74),"",'By Round'!J74)</f>
         <v/>
       </c>
       <c r="K78">
-        <f>IF(ISBLANK('By Round'!K10),"",'By Round'!K10)</f>
+        <f>IF(ISBLANK('By Round'!K74),"",'By Round'!K74)</f>
         <v/>
       </c>
       <c r="L78" s="12">
-        <f>SUM(AB78:AE78)</f>
+        <f>AVERAGE(AB78:AE78)</f>
         <v/>
       </c>
       <c r="M78" s="13">
-        <f>SUM(AF78:AI78)</f>
+        <f>AVERAGE(AF78:AI78)</f>
         <v/>
       </c>
       <c r="N78" s="8">
@@ -11689,11 +11689,11 @@
         <v/>
       </c>
       <c r="L79" s="12">
-        <f>SUM(AB79:AE79)</f>
+        <f>AVERAGE(AB79:AE79)</f>
         <v/>
       </c>
       <c r="M79" s="13">
-        <f>SUM(AF79:AI79)</f>
+        <f>AVERAGE(AF79:AI79)</f>
         <v/>
       </c>
       <c r="N79" s="8">
@@ -11787,51 +11787,51 @@
     </row>
     <row r="80">
       <c r="B80" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C80" s="11">
-        <f>'By Round'!B65</f>
+        <f>'By Round'!B9</f>
         <v/>
       </c>
       <c r="D80" s="11">
-        <f>'By Round'!C65</f>
+        <f>'By Round'!C9</f>
         <v/>
       </c>
       <c r="E80" s="11">
-        <f>'By Round'!D65</f>
+        <f>'By Round'!D9</f>
         <v/>
       </c>
       <c r="F80" s="11">
-        <f>IF(ISBLANK('By Round'!F66),"",'By Round'!F66)</f>
+        <f>IF(ISBLANK('By Round'!F10),"",'By Round'!F10)</f>
         <v/>
       </c>
       <c r="G80">
-        <f>IF(ISBLANK('By Round'!G66),"",'By Round'!G66)</f>
+        <f>IF(ISBLANK('By Round'!G10),"",'By Round'!G10)</f>
         <v/>
       </c>
       <c r="H80">
-        <f>IF(ISBLANK('By Round'!H66),"",'By Round'!H66)</f>
+        <f>IF(ISBLANK('By Round'!H10),"",'By Round'!H10)</f>
         <v/>
       </c>
       <c r="I80">
-        <f>IF(ISBLANK('By Round'!I66),"",'By Round'!I66)</f>
+        <f>IF(ISBLANK('By Round'!I10),"",'By Round'!I10)</f>
         <v/>
       </c>
       <c r="J80">
-        <f>IF(ISBLANK('By Round'!J66),"",'By Round'!J66)</f>
+        <f>IF(ISBLANK('By Round'!J10),"",'By Round'!J10)</f>
         <v/>
       </c>
       <c r="K80">
-        <f>IF(ISBLANK('By Round'!K66),"",'By Round'!K66)</f>
+        <f>IF(ISBLANK('By Round'!K10),"",'By Round'!K10)</f>
         <v/>
       </c>
       <c r="L80" s="12">
-        <f>SUM(AB80:AE80)</f>
+        <f>AVERAGE(AB80:AE80)</f>
         <v/>
       </c>
       <c r="M80" s="13">
-        <f>SUM(AF80:AI80)</f>
+        <f>AVERAGE(AF80:AI80)</f>
         <v/>
       </c>
       <c r="N80" s="8">
@@ -11925,51 +11925,51 @@
     </row>
     <row r="81">
       <c r="B81" s="11">
-        <f>'By Round'!A73</f>
+        <f>'By Round'!A83</f>
         <v/>
       </c>
       <c r="C81" s="11">
-        <f>'By Round'!B73</f>
+        <f>'By Round'!B91</f>
         <v/>
       </c>
       <c r="D81" s="11">
-        <f>'By Round'!C73</f>
+        <f>'By Round'!C91</f>
         <v/>
       </c>
       <c r="E81" s="11">
-        <f>'By Round'!D73</f>
+        <f>'By Round'!D91</f>
         <v/>
       </c>
       <c r="F81" s="11">
-        <f>IF(ISBLANK('By Round'!F74),"",'By Round'!F74)</f>
+        <f>IF(ISBLANK('By Round'!F92),"",'By Round'!F92)</f>
         <v/>
       </c>
       <c r="G81">
-        <f>IF(ISBLANK('By Round'!G74),"",'By Round'!G74)</f>
+        <f>IF(ISBLANK('By Round'!G92),"",'By Round'!G92)</f>
         <v/>
       </c>
       <c r="H81">
-        <f>IF(ISBLANK('By Round'!H74),"",'By Round'!H74)</f>
+        <f>IF(ISBLANK('By Round'!H92),"",'By Round'!H92)</f>
         <v/>
       </c>
       <c r="I81">
-        <f>IF(ISBLANK('By Round'!I74),"",'By Round'!I74)</f>
+        <f>IF(ISBLANK('By Round'!I92),"",'By Round'!I92)</f>
         <v/>
       </c>
       <c r="J81">
-        <f>IF(ISBLANK('By Round'!J74),"",'By Round'!J74)</f>
+        <f>IF(ISBLANK('By Round'!J92),"",'By Round'!J92)</f>
         <v/>
       </c>
       <c r="K81">
-        <f>IF(ISBLANK('By Round'!K74),"",'By Round'!K74)</f>
+        <f>IF(ISBLANK('By Round'!K92),"",'By Round'!K92)</f>
         <v/>
       </c>
       <c r="L81" s="12">
-        <f>SUM(AB81:AE81)</f>
+        <f>AVERAGE(AB81:AE81)</f>
         <v/>
       </c>
       <c r="M81" s="13">
-        <f>SUM(AF81:AI81)</f>
+        <f>AVERAGE(AF81:AI81)</f>
         <v/>
       </c>
       <c r="N81" s="8">
@@ -12064,51 +12064,51 @@
     <row r="82">
       <c r="A82" s="15" t="n"/>
       <c r="B82" s="16">
-        <f>'By Round'!A83</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C82" s="16">
-        <f>'By Round'!B91</f>
+        <f>'By Round'!B65</f>
         <v/>
       </c>
       <c r="D82" s="16">
-        <f>'By Round'!C91</f>
+        <f>'By Round'!C65</f>
         <v/>
       </c>
       <c r="E82" s="16">
-        <f>'By Round'!D91</f>
+        <f>'By Round'!D65</f>
         <v/>
       </c>
       <c r="F82" s="16">
-        <f>IF(ISBLANK('By Round'!F92),"",'By Round'!F92)</f>
+        <f>IF(ISBLANK('By Round'!F66),"",'By Round'!F66)</f>
         <v/>
       </c>
       <c r="G82" s="15">
-        <f>IF(ISBLANK('By Round'!G92),"",'By Round'!G92)</f>
+        <f>IF(ISBLANK('By Round'!G66),"",'By Round'!G66)</f>
         <v/>
       </c>
       <c r="H82" s="15">
-        <f>IF(ISBLANK('By Round'!H92),"",'By Round'!H92)</f>
+        <f>IF(ISBLANK('By Round'!H66),"",'By Round'!H66)</f>
         <v/>
       </c>
       <c r="I82" s="15">
-        <f>IF(ISBLANK('By Round'!I92),"",'By Round'!I92)</f>
+        <f>IF(ISBLANK('By Round'!I66),"",'By Round'!I66)</f>
         <v/>
       </c>
       <c r="J82" s="15">
-        <f>IF(ISBLANK('By Round'!J92),"",'By Round'!J92)</f>
+        <f>IF(ISBLANK('By Round'!J66),"",'By Round'!J66)</f>
         <v/>
       </c>
       <c r="K82" s="15">
-        <f>IF(ISBLANK('By Round'!K92),"",'By Round'!K92)</f>
+        <f>IF(ISBLANK('By Round'!K66),"",'By Round'!K66)</f>
         <v/>
       </c>
       <c r="L82" s="17">
-        <f>SUM(AB82:AE82)</f>
+        <f>AVERAGE(AB82:AE82)</f>
         <v/>
       </c>
       <c r="M82" s="18">
-        <f>SUM(AF82:AI82)</f>
+        <f>AVERAGE(AF82:AI82)</f>
         <v/>
       </c>
       <c r="N82" s="19">
@@ -12205,51 +12205,51 @@
         <v>17</v>
       </c>
       <c r="B83" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A83</f>
         <v/>
       </c>
       <c r="C83" s="11">
-        <f>'By Round'!B11</f>
+        <f>'By Round'!B83</f>
         <v/>
       </c>
       <c r="D83" s="11">
-        <f>'By Round'!C11</f>
+        <f>'By Round'!C83</f>
         <v/>
       </c>
       <c r="E83" s="11">
-        <f>'By Round'!D11</f>
+        <f>'By Round'!D83</f>
         <v/>
       </c>
       <c r="F83" s="11">
-        <f>IF(ISBLANK('By Round'!F11),"",'By Round'!F11)</f>
+        <f>IF(ISBLANK('By Round'!F83),"",'By Round'!F83)</f>
         <v/>
       </c>
       <c r="G83">
-        <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
+        <f>IF(ISBLANK('By Round'!G83),"",'By Round'!G83)</f>
         <v/>
       </c>
       <c r="H83">
-        <f>IF(ISBLANK('By Round'!H11),"",'By Round'!H11)</f>
+        <f>IF(ISBLANK('By Round'!H83),"",'By Round'!H83)</f>
         <v/>
       </c>
       <c r="I83">
-        <f>IF(ISBLANK('By Round'!I11),"",'By Round'!I11)</f>
+        <f>IF(ISBLANK('By Round'!I83),"",'By Round'!I83)</f>
         <v/>
       </c>
       <c r="J83">
-        <f>IF(ISBLANK('By Round'!J11),"",'By Round'!J11)</f>
+        <f>IF(ISBLANK('By Round'!J83),"",'By Round'!J83)</f>
         <v/>
       </c>
       <c r="K83">
-        <f>IF(ISBLANK('By Round'!K11),"",'By Round'!K11)</f>
+        <f>IF(ISBLANK('By Round'!K83),"",'By Round'!K83)</f>
         <v/>
       </c>
       <c r="L83" s="12">
-        <f>SUM(AB83:AE83)</f>
+        <f>AVERAGE(AB83:AE83)</f>
         <v/>
       </c>
       <c r="M83" s="13">
-        <f>SUM(AF83:AI83)</f>
+        <f>AVERAGE(AF83:AI83)</f>
         <v/>
       </c>
       <c r="N83" s="8">
@@ -12343,51 +12343,51 @@
     </row>
     <row r="84">
       <c r="B84" s="11">
-        <f>'By Round'!A13</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C84" s="11">
-        <f>'By Round'!B19</f>
+        <f>'By Round'!B67</f>
         <v/>
       </c>
       <c r="D84" s="11">
-        <f>'By Round'!C19</f>
+        <f>'By Round'!C67</f>
         <v/>
       </c>
       <c r="E84" s="11">
-        <f>'By Round'!D19</f>
+        <f>'By Round'!D67</f>
         <v/>
       </c>
       <c r="F84" s="11">
-        <f>IF(ISBLANK('By Round'!F19),"",'By Round'!F19)</f>
+        <f>IF(ISBLANK('By Round'!F67),"",'By Round'!F67)</f>
         <v/>
       </c>
       <c r="G84">
-        <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
+        <f>IF(ISBLANK('By Round'!G67),"",'By Round'!G67)</f>
         <v/>
       </c>
       <c r="H84">
-        <f>IF(ISBLANK('By Round'!H19),"",'By Round'!H19)</f>
+        <f>IF(ISBLANK('By Round'!H67),"",'By Round'!H67)</f>
         <v/>
       </c>
       <c r="I84">
-        <f>IF(ISBLANK('By Round'!I19),"",'By Round'!I19)</f>
+        <f>IF(ISBLANK('By Round'!I67),"",'By Round'!I67)</f>
         <v/>
       </c>
       <c r="J84">
-        <f>IF(ISBLANK('By Round'!J19),"",'By Round'!J19)</f>
+        <f>IF(ISBLANK('By Round'!J67),"",'By Round'!J67)</f>
         <v/>
       </c>
       <c r="K84">
-        <f>IF(ISBLANK('By Round'!K19),"",'By Round'!K19)</f>
+        <f>IF(ISBLANK('By Round'!K67),"",'By Round'!K67)</f>
         <v/>
       </c>
       <c r="L84" s="12">
-        <f>SUM(AB84:AE84)</f>
+        <f>AVERAGE(AB84:AE84)</f>
         <v/>
       </c>
       <c r="M84" s="13">
-        <f>SUM(AF84:AI84)</f>
+        <f>AVERAGE(AF84:AI84)</f>
         <v/>
       </c>
       <c r="N84" s="8">
@@ -12481,51 +12481,51 @@
     </row>
     <row r="85">
       <c r="B85" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A13</f>
         <v/>
       </c>
       <c r="C85" s="11">
-        <f>'By Round'!B67</f>
+        <f>'By Round'!B19</f>
         <v/>
       </c>
       <c r="D85" s="11">
-        <f>'By Round'!C67</f>
+        <f>'By Round'!C19</f>
         <v/>
       </c>
       <c r="E85" s="11">
-        <f>'By Round'!D67</f>
+        <f>'By Round'!D19</f>
         <v/>
       </c>
       <c r="F85" s="11">
-        <f>IF(ISBLANK('By Round'!F67),"",'By Round'!F67)</f>
+        <f>IF(ISBLANK('By Round'!F19),"",'By Round'!F19)</f>
         <v/>
       </c>
       <c r="G85">
-        <f>IF(ISBLANK('By Round'!G67),"",'By Round'!G67)</f>
+        <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
         <v/>
       </c>
       <c r="H85">
-        <f>IF(ISBLANK('By Round'!H67),"",'By Round'!H67)</f>
+        <f>IF(ISBLANK('By Round'!H19),"",'By Round'!H19)</f>
         <v/>
       </c>
       <c r="I85">
-        <f>IF(ISBLANK('By Round'!I67),"",'By Round'!I67)</f>
+        <f>IF(ISBLANK('By Round'!I19),"",'By Round'!I19)</f>
         <v/>
       </c>
       <c r="J85">
-        <f>IF(ISBLANK('By Round'!J67),"",'By Round'!J67)</f>
+        <f>IF(ISBLANK('By Round'!J19),"",'By Round'!J19)</f>
         <v/>
       </c>
       <c r="K85">
-        <f>IF(ISBLANK('By Round'!K67),"",'By Round'!K67)</f>
+        <f>IF(ISBLANK('By Round'!K19),"",'By Round'!K19)</f>
         <v/>
       </c>
       <c r="L85" s="12">
-        <f>SUM(AB85:AE85)</f>
+        <f>AVERAGE(AB85:AE85)</f>
         <v/>
       </c>
       <c r="M85" s="13">
-        <f>SUM(AF85:AI85)</f>
+        <f>AVERAGE(AF85:AI85)</f>
         <v/>
       </c>
       <c r="N85" s="8">
@@ -12619,51 +12619,51 @@
     </row>
     <row r="86">
       <c r="B86" s="11">
-        <f>'By Round'!A73</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C86" s="11">
-        <f>'By Round'!B75</f>
+        <f>'By Round'!B11</f>
         <v/>
       </c>
       <c r="D86" s="11">
-        <f>'By Round'!C75</f>
+        <f>'By Round'!C11</f>
         <v/>
       </c>
       <c r="E86" s="11">
-        <f>'By Round'!D75</f>
+        <f>'By Round'!D11</f>
         <v/>
       </c>
       <c r="F86" s="11">
-        <f>IF(ISBLANK('By Round'!F75),"",'By Round'!F75)</f>
+        <f>IF(ISBLANK('By Round'!F11),"",'By Round'!F11)</f>
         <v/>
       </c>
       <c r="G86">
-        <f>IF(ISBLANK('By Round'!G75),"",'By Round'!G75)</f>
+        <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
         <v/>
       </c>
       <c r="H86">
-        <f>IF(ISBLANK('By Round'!H75),"",'By Round'!H75)</f>
+        <f>IF(ISBLANK('By Round'!H11),"",'By Round'!H11)</f>
         <v/>
       </c>
       <c r="I86">
-        <f>IF(ISBLANK('By Round'!I75),"",'By Round'!I75)</f>
+        <f>IF(ISBLANK('By Round'!I11),"",'By Round'!I11)</f>
         <v/>
       </c>
       <c r="J86">
-        <f>IF(ISBLANK('By Round'!J75),"",'By Round'!J75)</f>
+        <f>IF(ISBLANK('By Round'!J11),"",'By Round'!J11)</f>
         <v/>
       </c>
       <c r="K86">
-        <f>IF(ISBLANK('By Round'!K75),"",'By Round'!K75)</f>
+        <f>IF(ISBLANK('By Round'!K11),"",'By Round'!K11)</f>
         <v/>
       </c>
       <c r="L86" s="12">
-        <f>SUM(AB86:AE86)</f>
+        <f>AVERAGE(AB86:AE86)</f>
         <v/>
       </c>
       <c r="M86" s="13">
-        <f>SUM(AF86:AI86)</f>
+        <f>AVERAGE(AF86:AI86)</f>
         <v/>
       </c>
       <c r="N86" s="8">
@@ -12758,51 +12758,51 @@
     <row r="87">
       <c r="A87" s="15" t="n"/>
       <c r="B87" s="16">
-        <f>'By Round'!A83</f>
+        <f>'By Round'!A73</f>
         <v/>
       </c>
       <c r="C87" s="16">
-        <f>'By Round'!B83</f>
+        <f>'By Round'!B75</f>
         <v/>
       </c>
       <c r="D87" s="16">
-        <f>'By Round'!C83</f>
+        <f>'By Round'!C75</f>
         <v/>
       </c>
       <c r="E87" s="16">
-        <f>'By Round'!D83</f>
+        <f>'By Round'!D75</f>
         <v/>
       </c>
       <c r="F87" s="16">
-        <f>IF(ISBLANK('By Round'!F83),"",'By Round'!F83)</f>
+        <f>IF(ISBLANK('By Round'!F75),"",'By Round'!F75)</f>
         <v/>
       </c>
       <c r="G87" s="15">
-        <f>IF(ISBLANK('By Round'!G83),"",'By Round'!G83)</f>
+        <f>IF(ISBLANK('By Round'!G75),"",'By Round'!G75)</f>
         <v/>
       </c>
       <c r="H87" s="15">
-        <f>IF(ISBLANK('By Round'!H83),"",'By Round'!H83)</f>
+        <f>IF(ISBLANK('By Round'!H75),"",'By Round'!H75)</f>
         <v/>
       </c>
       <c r="I87" s="15">
-        <f>IF(ISBLANK('By Round'!I83),"",'By Round'!I83)</f>
+        <f>IF(ISBLANK('By Round'!I75),"",'By Round'!I75)</f>
         <v/>
       </c>
       <c r="J87" s="15">
-        <f>IF(ISBLANK('By Round'!J83),"",'By Round'!J83)</f>
+        <f>IF(ISBLANK('By Round'!J75),"",'By Round'!J75)</f>
         <v/>
       </c>
       <c r="K87" s="15">
-        <f>IF(ISBLANK('By Round'!K83),"",'By Round'!K83)</f>
+        <f>IF(ISBLANK('By Round'!K75),"",'By Round'!K75)</f>
         <v/>
       </c>
       <c r="L87" s="17">
-        <f>SUM(AB87:AE87)</f>
+        <f>AVERAGE(AB87:AE87)</f>
         <v/>
       </c>
       <c r="M87" s="18">
-        <f>SUM(AF87:AI87)</f>
+        <f>AVERAGE(AF87:AI87)</f>
         <v/>
       </c>
       <c r="N87" s="19">
@@ -12899,51 +12899,51 @@
         <v>18</v>
       </c>
       <c r="B88" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A83</f>
         <v/>
       </c>
       <c r="C88" s="11">
-        <f>'By Round'!B11</f>
+        <f>'By Round'!B83</f>
         <v/>
       </c>
       <c r="D88" s="11">
-        <f>'By Round'!C11</f>
+        <f>'By Round'!C83</f>
         <v/>
       </c>
       <c r="E88" s="11">
-        <f>'By Round'!D11</f>
+        <f>'By Round'!D83</f>
         <v/>
       </c>
       <c r="F88" s="11">
-        <f>IF(ISBLANK('By Round'!F12),"",'By Round'!F12)</f>
+        <f>IF(ISBLANK('By Round'!F84),"",'By Round'!F84)</f>
         <v/>
       </c>
       <c r="G88">
-        <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
+        <f>IF(ISBLANK('By Round'!G84),"",'By Round'!G84)</f>
         <v/>
       </c>
       <c r="H88">
-        <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
+        <f>IF(ISBLANK('By Round'!H84),"",'By Round'!H84)</f>
         <v/>
       </c>
       <c r="I88">
-        <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
+        <f>IF(ISBLANK('By Round'!I84),"",'By Round'!I84)</f>
         <v/>
       </c>
       <c r="J88">
-        <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
+        <f>IF(ISBLANK('By Round'!J84),"",'By Round'!J84)</f>
         <v/>
       </c>
       <c r="K88">
-        <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
+        <f>IF(ISBLANK('By Round'!K84),"",'By Round'!K84)</f>
         <v/>
       </c>
       <c r="L88" s="12">
-        <f>SUM(AB88:AE88)</f>
+        <f>AVERAGE(AB88:AE88)</f>
         <v/>
       </c>
       <c r="M88" s="13">
-        <f>SUM(AF88:AI88)</f>
+        <f>AVERAGE(AF88:AI88)</f>
         <v/>
       </c>
       <c r="N88" s="8">
@@ -13037,51 +13037,51 @@
     </row>
     <row r="89">
       <c r="B89" s="11">
-        <f>'By Round'!A13</f>
+        <f>'By Round'!A63</f>
         <v/>
       </c>
       <c r="C89" s="11">
-        <f>'By Round'!B19</f>
+        <f>'By Round'!B67</f>
         <v/>
       </c>
       <c r="D89" s="11">
-        <f>'By Round'!C19</f>
+        <f>'By Round'!C67</f>
         <v/>
       </c>
       <c r="E89" s="11">
-        <f>'By Round'!D19</f>
+        <f>'By Round'!D67</f>
         <v/>
       </c>
       <c r="F89" s="11">
-        <f>IF(ISBLANK('By Round'!F20),"",'By Round'!F20)</f>
+        <f>IF(ISBLANK('By Round'!F68),"",'By Round'!F68)</f>
         <v/>
       </c>
       <c r="G89">
-        <f>IF(ISBLANK('By Round'!G20),"",'By Round'!G20)</f>
+        <f>IF(ISBLANK('By Round'!G68),"",'By Round'!G68)</f>
         <v/>
       </c>
       <c r="H89">
-        <f>IF(ISBLANK('By Round'!H20),"",'By Round'!H20)</f>
+        <f>IF(ISBLANK('By Round'!H68),"",'By Round'!H68)</f>
         <v/>
       </c>
       <c r="I89">
-        <f>IF(ISBLANK('By Round'!I20),"",'By Round'!I20)</f>
+        <f>IF(ISBLANK('By Round'!I68),"",'By Round'!I68)</f>
         <v/>
       </c>
       <c r="J89">
-        <f>IF(ISBLANK('By Round'!J20),"",'By Round'!J20)</f>
+        <f>IF(ISBLANK('By Round'!J68),"",'By Round'!J68)</f>
         <v/>
       </c>
       <c r="K89">
-        <f>IF(ISBLANK('By Round'!K20),"",'By Round'!K20)</f>
+        <f>IF(ISBLANK('By Round'!K68),"",'By Round'!K68)</f>
         <v/>
       </c>
       <c r="L89" s="12">
-        <f>SUM(AB89:AE89)</f>
+        <f>AVERAGE(AB89:AE89)</f>
         <v/>
       </c>
       <c r="M89" s="13">
-        <f>SUM(AF89:AI89)</f>
+        <f>AVERAGE(AF89:AI89)</f>
         <v/>
       </c>
       <c r="N89" s="8">
@@ -13175,51 +13175,51 @@
     </row>
     <row r="90">
       <c r="B90" s="11">
-        <f>'By Round'!A63</f>
+        <f>'By Round'!A13</f>
         <v/>
       </c>
       <c r="C90" s="11">
-        <f>'By Round'!B67</f>
+        <f>'By Round'!B19</f>
         <v/>
       </c>
       <c r="D90" s="11">
-        <f>'By Round'!C67</f>
+        <f>'By Round'!C19</f>
         <v/>
       </c>
       <c r="E90" s="11">
-        <f>'By Round'!D67</f>
+        <f>'By Round'!D19</f>
         <v/>
       </c>
       <c r="F90" s="11">
-        <f>IF(ISBLANK('By Round'!F68),"",'By Round'!F68)</f>
+        <f>IF(ISBLANK('By Round'!F20),"",'By Round'!F20)</f>
         <v/>
       </c>
       <c r="G90">
-        <f>IF(ISBLANK('By Round'!G68),"",'By Round'!G68)</f>
+        <f>IF(ISBLANK('By Round'!G20),"",'By Round'!G20)</f>
         <v/>
       </c>
       <c r="H90">
-        <f>IF(ISBLANK('By Round'!H68),"",'By Round'!H68)</f>
+        <f>IF(ISBLANK('By Round'!H20),"",'By Round'!H20)</f>
         <v/>
       </c>
       <c r="I90">
-        <f>IF(ISBLANK('By Round'!I68),"",'By Round'!I68)</f>
+        <f>IF(ISBLANK('By Round'!I20),"",'By Round'!I20)</f>
         <v/>
       </c>
       <c r="J90">
-        <f>IF(ISBLANK('By Round'!J68),"",'By Round'!J68)</f>
+        <f>IF(ISBLANK('By Round'!J20),"",'By Round'!J20)</f>
         <v/>
       </c>
       <c r="K90">
-        <f>IF(ISBLANK('By Round'!K68),"",'By Round'!K68)</f>
+        <f>IF(ISBLANK('By Round'!K20),"",'By Round'!K20)</f>
         <v/>
       </c>
       <c r="L90" s="12">
-        <f>SUM(AB90:AE90)</f>
+        <f>AVERAGE(AB90:AE90)</f>
         <v/>
       </c>
       <c r="M90" s="13">
-        <f>SUM(AF90:AI90)</f>
+        <f>AVERAGE(AF90:AI90)</f>
         <v/>
       </c>
       <c r="N90" s="8">
@@ -13313,51 +13313,51 @@
     </row>
     <row r="91">
       <c r="B91" s="11">
-        <f>'By Round'!A73</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C91" s="11">
-        <f>'By Round'!B75</f>
+        <f>'By Round'!B11</f>
         <v/>
       </c>
       <c r="D91" s="11">
-        <f>'By Round'!C75</f>
+        <f>'By Round'!C11</f>
         <v/>
       </c>
       <c r="E91" s="11">
-        <f>'By Round'!D75</f>
+        <f>'By Round'!D11</f>
         <v/>
       </c>
       <c r="F91" s="11">
-        <f>IF(ISBLANK('By Round'!F76),"",'By Round'!F76)</f>
+        <f>IF(ISBLANK('By Round'!F12),"",'By Round'!F12)</f>
         <v/>
       </c>
       <c r="G91">
-        <f>IF(ISBLANK('By Round'!G76),"",'By Round'!G76)</f>
+        <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
         <v/>
       </c>
       <c r="H91">
-        <f>IF(ISBLANK('By Round'!H76),"",'By Round'!H76)</f>
+        <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
         <v/>
       </c>
       <c r="I91">
-        <f>IF(ISBLANK('By Round'!I76),"",'By Round'!I76)</f>
+        <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
         <v/>
       </c>
       <c r="J91">
-        <f>IF(ISBLANK('By Round'!J76),"",'By Round'!J76)</f>
+        <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
         <v/>
       </c>
       <c r="K91">
-        <f>IF(ISBLANK('By Round'!K76),"",'By Round'!K76)</f>
+        <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
         <v/>
       </c>
       <c r="L91" s="12">
-        <f>SUM(AB91:AE91)</f>
+        <f>AVERAGE(AB91:AE91)</f>
         <v/>
       </c>
       <c r="M91" s="13">
-        <f>SUM(AF91:AI91)</f>
+        <f>AVERAGE(AF91:AI91)</f>
         <v/>
       </c>
       <c r="N91" s="8">
@@ -13452,51 +13452,51 @@
     <row r="92">
       <c r="A92" s="15" t="n"/>
       <c r="B92" s="16">
-        <f>'By Round'!A83</f>
+        <f>'By Round'!A73</f>
         <v/>
       </c>
       <c r="C92" s="16">
-        <f>'By Round'!B83</f>
+        <f>'By Round'!B75</f>
         <v/>
       </c>
       <c r="D92" s="16">
-        <f>'By Round'!C83</f>
+        <f>'By Round'!C75</f>
         <v/>
       </c>
       <c r="E92" s="16">
-        <f>'By Round'!D83</f>
+        <f>'By Round'!D75</f>
         <v/>
       </c>
       <c r="F92" s="16">
-        <f>IF(ISBLANK('By Round'!F84),"",'By Round'!F84)</f>
+        <f>IF(ISBLANK('By Round'!F76),"",'By Round'!F76)</f>
         <v/>
       </c>
       <c r="G92" s="15">
-        <f>IF(ISBLANK('By Round'!G84),"",'By Round'!G84)</f>
+        <f>IF(ISBLANK('By Round'!G76),"",'By Round'!G76)</f>
         <v/>
       </c>
       <c r="H92" s="15">
-        <f>IF(ISBLANK('By Round'!H84),"",'By Round'!H84)</f>
+        <f>IF(ISBLANK('By Round'!H76),"",'By Round'!H76)</f>
         <v/>
       </c>
       <c r="I92" s="15">
-        <f>IF(ISBLANK('By Round'!I84),"",'By Round'!I84)</f>
+        <f>IF(ISBLANK('By Round'!I76),"",'By Round'!I76)</f>
         <v/>
       </c>
       <c r="J92" s="15">
-        <f>IF(ISBLANK('By Round'!J84),"",'By Round'!J84)</f>
+        <f>IF(ISBLANK('By Round'!J76),"",'By Round'!J76)</f>
         <v/>
       </c>
       <c r="K92" s="15">
-        <f>IF(ISBLANK('By Round'!K84),"",'By Round'!K84)</f>
+        <f>IF(ISBLANK('By Round'!K76),"",'By Round'!K76)</f>
         <v/>
       </c>
       <c r="L92" s="17">
-        <f>SUM(AB92:AE92)</f>
+        <f>AVERAGE(AB92:AE92)</f>
         <v/>
       </c>
       <c r="M92" s="18">
-        <f>SUM(AF92:AI92)</f>
+        <f>AVERAGE(AF92:AI92)</f>
         <v/>
       </c>
       <c r="N92" s="19">
@@ -16667,7 +16667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="22" t="n">
         <v>90</v>
@@ -16690,7 +16690,7 @@
     </row>
     <row r="25">
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="22" t="n">
         <v>110</v>
@@ -16713,7 +16713,7 @@
     </row>
     <row r="26">
       <c r="B26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="22" t="n">
         <v>130</v>
@@ -16736,7 +16736,7 @@
     </row>
     <row r="27">
       <c r="B27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="22" t="n">
         <v>150</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="28">
       <c r="B28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="22" t="n">
         <v>170</v>
@@ -16782,7 +16782,7 @@
     </row>
     <row r="29">
       <c r="B29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="22" t="n">
         <v>190</v>
@@ -16810,7 +16810,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="22" t="n">
         <v>110</v>
@@ -16833,7 +16833,7 @@
     </row>
     <row r="31">
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="22" t="n">
         <v>140</v>
@@ -16856,7 +16856,7 @@
     </row>
     <row r="32">
       <c r="B32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="22" t="n">
         <v>170</v>
@@ -16879,7 +16879,7 @@
     </row>
     <row r="33">
       <c r="B33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="22" t="n">
         <v>200</v>
@@ -16902,7 +16902,7 @@
     </row>
     <row r="34">
       <c r="B34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="22" t="n">
         <v>230</v>
@@ -16925,7 +16925,7 @@
     </row>
     <row r="35">
       <c r="B35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="22" t="n">
         <v>260</v>
@@ -16953,7 +16953,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="22" t="n">
         <v>120</v>
@@ -16976,7 +16976,7 @@
     </row>
     <row r="37">
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="22" t="n">
         <v>150</v>
@@ -16999,7 +16999,7 @@
     </row>
     <row r="38">
       <c r="B38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="22" t="n">
         <v>180</v>
@@ -17022,7 +17022,7 @@
     </row>
     <row r="39">
       <c r="B39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="22" t="n">
         <v>210</v>
@@ -17045,7 +17045,7 @@
     </row>
     <row r="40">
       <c r="B40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="22" t="n">
         <v>240</v>
@@ -17068,7 +17068,7 @@
     </row>
     <row r="41">
       <c r="B41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="22" t="n">
         <v>270</v>
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="22" t="n">
         <v>110</v>
@@ -17119,7 +17119,7 @@
     </row>
     <row r="43">
       <c r="B43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" s="22" t="n">
         <v>130</v>
@@ -17142,7 +17142,7 @@
     </row>
     <row r="44">
       <c r="B44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" s="22" t="n">
         <v>150</v>
@@ -17165,7 +17165,7 @@
     </row>
     <row r="45">
       <c r="B45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C45" s="22" t="n">
         <v>170</v>
@@ -17188,7 +17188,7 @@
     </row>
     <row r="46">
       <c r="B46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" s="22" t="n">
         <v>190</v>
@@ -17216,7 +17216,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" s="22" t="n">
         <v>140</v>
@@ -17239,7 +17239,7 @@
     </row>
     <row r="48">
       <c r="B48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" s="22" t="n">
         <v>170</v>
@@ -17262,7 +17262,7 @@
     </row>
     <row r="49">
       <c r="B49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49" s="22" t="n">
         <v>200</v>
@@ -17285,7 +17285,7 @@
     </row>
     <row r="50">
       <c r="B50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C50" s="22" t="n">
         <v>230</v>
@@ -17308,7 +17308,7 @@
     </row>
     <row r="51">
       <c r="B51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" s="22" t="n">
         <v>260</v>
@@ -17336,7 +17336,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" s="22" t="n">
         <v>400</v>
@@ -17359,7 +17359,7 @@
     </row>
     <row r="53">
       <c r="B53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="22" t="n">
         <v>430</v>
@@ -17382,7 +17382,7 @@
     </row>
     <row r="54">
       <c r="B54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C54" s="22" t="n">
         <v>460</v>
@@ -17405,7 +17405,7 @@
     </row>
     <row r="55">
       <c r="B55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55" s="22" t="n">
         <v>490</v>
@@ -17428,7 +17428,7 @@
     </row>
     <row r="56">
       <c r="B56" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" s="22" t="n">
         <v>520</v>
@@ -17456,7 +17456,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="22" t="n">
         <v>130</v>
@@ -17479,7 +17479,7 @@
     </row>
     <row r="58">
       <c r="B58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C58" s="22" t="n">
         <v>150</v>
@@ -17502,7 +17502,7 @@
     </row>
     <row r="59">
       <c r="B59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C59" s="22" t="n">
         <v>170</v>
@@ -17525,7 +17525,7 @@
     </row>
     <row r="60">
       <c r="B60" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C60" s="22" t="n">
         <v>190</v>
@@ -17553,7 +17553,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C61" s="22" t="n">
         <v>420</v>
@@ -17576,7 +17576,7 @@
     </row>
     <row r="62">
       <c r="B62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C62" s="22" t="n">
         <v>450</v>
@@ -17599,7 +17599,7 @@
     </row>
     <row r="63">
       <c r="B63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C63" s="22" t="n">
         <v>480</v>
@@ -17622,7 +17622,7 @@
     </row>
     <row r="64">
       <c r="B64" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C64" s="22" t="n">
         <v>510</v>
@@ -17650,7 +17650,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" s="22" t="n">
         <v>430</v>
@@ -17673,7 +17673,7 @@
     </row>
     <row r="66">
       <c r="B66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C66" s="22" t="n">
         <v>460</v>
@@ -17696,7 +17696,7 @@
     </row>
     <row r="67">
       <c r="B67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C67" s="22" t="n">
         <v>490</v>
@@ -17719,7 +17719,7 @@
     </row>
     <row r="68">
       <c r="B68" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C68" s="22" t="n">
         <v>520</v>
@@ -17747,7 +17747,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C69" s="22" t="n">
         <v>400</v>
@@ -17770,7 +17770,7 @@
     </row>
     <row r="70">
       <c r="B70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C70" s="22" t="n">
         <v>420</v>
@@ -17793,7 +17793,7 @@
     </row>
     <row r="71">
       <c r="B71" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C71" s="22" t="n">
         <v>440</v>
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C72" s="22" t="n">
         <v>450</v>
@@ -17844,7 +17844,7 @@
     </row>
     <row r="73">
       <c r="B73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C73" s="22" t="n">
         <v>480</v>
@@ -17867,7 +17867,7 @@
     </row>
     <row r="74">
       <c r="B74" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C74" s="22" t="n">
         <v>510</v>
@@ -17895,7 +17895,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C75" s="22" t="n">
         <v>460</v>
@@ -17918,7 +17918,7 @@
     </row>
     <row r="76">
       <c r="B76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C76" s="22" t="n">
         <v>490</v>
@@ -17941,7 +17941,7 @@
     </row>
     <row r="77">
       <c r="B77" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C77" s="22" t="n">
         <v>520</v>
@@ -17969,7 +17969,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C78" s="22" t="n">
         <v>920</v>
@@ -17992,7 +17992,7 @@
     </row>
     <row r="79">
       <c r="B79" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C79" s="22" t="n">
         <v>940</v>
@@ -18020,7 +18020,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C80" s="22" t="n">
         <v>980</v>
@@ -18043,7 +18043,7 @@
     </row>
     <row r="81">
       <c r="B81" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C81" s="22" t="n">
         <v>1010</v>
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C82" s="22" t="n">
         <v>990</v>
@@ -18094,7 +18094,7 @@
     </row>
     <row r="83">
       <c r="B83" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C83" s="22" t="n">
         <v>1020</v>
@@ -18122,7 +18122,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C84" s="22" t="n">
         <v>1440</v>
@@ -18150,7 +18150,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C85" s="22" t="n">
         <v>1510</v>
@@ -18178,7 +18178,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C86" s="22" t="n">
         <v>1520</v>

--- a/howell9.xlsx
+++ b/howell9.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 11, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 12, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 13</t>
+          <t>Name 21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 73</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 18</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 87</t>
+          <t>Name 69</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 59</t>
+          <t>Name 37</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 64</t>
+          <t>Name 49</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 80</t>
+          <t>Name 56</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 18</t>
+          <t>Name 62</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 41</t>
+          <t>Name 37</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 82</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 48</t>
+          <t>Name 53</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 85</t>
+          <t>Name 78</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 45</t>
+          <t>Name 66</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 64</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 52</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 85</t>
+          <t>Name 71</t>
         </is>
       </c>
       <c r="D18" s="4">

--- a/howell9.xlsx
+++ b/howell9.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 13, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 19, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 55</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 82</t>
+          <t>Name 62</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 51</t>
+          <t>Name 65</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 18</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 51</t>
+          <t>Name 88</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 76</t>
+          <t>Name 73</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 57</t>
+          <t>Name 65</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 88</t>
+          <t>Name 63</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 26</t>
+          <t>Name 24</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 18</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 47</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 12</t>
+          <t>Name 56</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 19</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 84</t>
+          <t>Name 26</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -756,12 +756,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Name 25</t>
+          <t>Name 63</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="D17" s="4">
@@ -779,12 +779,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Name 44</t>
+          <t>Name 24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Name 49</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="D18" s="4">
